--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="254">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -633,6 +633,147 @@
   </si>
   <si>
     <t>전민균</t>
+  </si>
+  <si>
+    <t>sochi1108@naver.com</t>
+  </si>
+  <si>
+    <t>이소정</t>
+  </si>
+  <si>
+    <t>chs6485@naver.com</t>
+  </si>
+  <si>
+    <t>박수환</t>
+  </si>
+  <si>
+    <t>herdy2154@naver.com</t>
+  </si>
+  <si>
+    <t>한녕균</t>
+  </si>
+  <si>
+    <t>minnjae119@gmail.com</t>
+  </si>
+  <si>
+    <t>최민재</t>
+  </si>
+  <si>
+    <t>jhue0901@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비지니스학과</t>
+  </si>
+  <si>
+    <t>전하율</t>
+  </si>
+  <si>
+    <t>lovearamis3@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터 테크</t>
+  </si>
+  <si>
+    <t>정현우</t>
+  </si>
+  <si>
+    <t>ss0001234@naver.com</t>
+  </si>
+  <si>
+    <t>김세은</t>
+  </si>
+  <si>
+    <t>t01094887068@gmail.com</t>
+  </si>
+  <si>
+    <t>손민재</t>
+  </si>
+  <si>
+    <t>alwnd816@gmail.com</t>
+  </si>
+  <si>
+    <t>한재은</t>
+  </si>
+  <si>
+    <t>cgb01045647472@gmail.com</t>
+  </si>
+  <si>
+    <t>경제학과</t>
+  </si>
+  <si>
+    <t>최기백</t>
+  </si>
+  <si>
+    <t>alsco92001@gmail.com</t>
+  </si>
+  <si>
+    <t>오민채</t>
+  </si>
+  <si>
+    <t>b020305@naver.com</t>
+  </si>
+  <si>
+    <t>배성진</t>
+  </si>
+  <si>
+    <t>minheart7844@gmail.com</t>
+  </si>
+  <si>
+    <t>권민</t>
+  </si>
+  <si>
+    <t>bin_1014@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 전공</t>
+  </si>
+  <si>
+    <t>김명빈</t>
+  </si>
+  <si>
+    <t>suji032091@naver.com</t>
+  </si>
+  <si>
+    <t>이선주</t>
+  </si>
+  <si>
+    <t>choigy050404@gmail.com</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>dlxotjq27@gmail.com</t>
+  </si>
+  <si>
+    <t>이태섭</t>
+  </si>
+  <si>
+    <t>kmmyy209@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠</t>
+  </si>
+  <si>
+    <t>김명은</t>
+  </si>
+  <si>
+    <t>0524psu@gmail.com</t>
+  </si>
+  <si>
+    <t>박상언</t>
+  </si>
+  <si>
+    <t>p62170968@gmail.com</t>
+  </si>
+  <si>
+    <t>박성빈</t>
+  </si>
+  <si>
+    <t>gurybong@naver.com</t>
+  </si>
+  <si>
+    <t>최다원</t>
   </si>
 </sst>
 </file>
@@ -796,10 +937,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -807,13 +948,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -966,7 +1107,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM53" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM74" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -7953,113 +8094,2423 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="25">
+      <c r="A53" s="17">
         <v>45587.527460613426</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="18">
         <v>2.0203425E7</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F53" s="19">
         <v>0.5256944444408873</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G53" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H53" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I53" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="J53" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="K53" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="L53" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="M53" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="N53" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="O53" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="P53" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Q53" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="R53" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="S53" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="T53" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="U53" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="V53" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="W53" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="X53" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Y53" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Z53" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AA53" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AB53" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AC53" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AD53" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AE53" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AF53" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AG53" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AH53" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AI53" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AJ53" s="26">
-        <v>1.0</v>
+      <c r="H53" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I53" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J53" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K53" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="L53" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M53" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N53" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O53" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P53" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R53" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S53" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T53" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U53" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V53" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W53" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X53" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y53" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Z53" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA53" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB53" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC53" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD53" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE53" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF53" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG53" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH53" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI53" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ53" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="21">
+        <v>45587.61377710648</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="22">
+        <v>2.0242551E7</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0.6118055555562023</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I54" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J54" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K54" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L54" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M54" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N54" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O54" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P54" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q54" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R54" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S54" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T54" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U54" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V54" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W54" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X54" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y54" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z54" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA54" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB54" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC54" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD54" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE54" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF54" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG54" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH54" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI54" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ54" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="17">
+        <v>45587.63135827547</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="18">
+        <v>2.0232417E7</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" s="19">
+        <v>0.12986111111240461</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI55" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ55" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="21">
+        <v>45587.68211324074</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="22">
+        <v>2.019301E7</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" s="23">
+        <v>0.882638888884685</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J56" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L56" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M56" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P56" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q56" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R56" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T56" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U56" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y56" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z56" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD56" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE56" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG56" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH56" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI56" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ56" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="17">
+        <v>45587.70333270833</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="18">
+        <v>2.0243257E7</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F57" s="19">
+        <v>0.7006944444437977</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK57" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AM57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AN57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AO57" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP57" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AR57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AS57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT57" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AU57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AW57" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX57" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AZ57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BB57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BC57" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BD57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BE57" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BG57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BH57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BI57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BJ57" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BK57" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL57" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM57" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="21">
+        <v>45587.707650358796</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D58" s="22">
+        <v>2.024642E7</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0.703472222223354</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="I58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K58" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L58" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M58" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="O58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="P58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="Q58" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="R58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="S58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="T58" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U58" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="W58" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="Y58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="Z58" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AA58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AB58" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AD58" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE58" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AF58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AG58" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AH58" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI58" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ58" s="22">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="17">
+        <v>45587.71635636574</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" s="18">
+        <v>2.0203251E7</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F59" s="19">
+        <v>0.7159722222204437</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P59" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI59" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ59" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="21">
+        <v>45587.739423101855</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="22">
+        <v>2.0203211E7</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" s="23">
+        <v>0.7361111111094942</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I60" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K60" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L60" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="M60" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Q60" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R60" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T60" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U60" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="X60" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z60" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AA60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD60" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AE60" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AF60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AH60" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI60" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ60" s="22">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="17">
+        <v>45587.74611744213</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="18">
+        <v>2.0242122E7</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" s="19">
+        <v>0.7048611111094942</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK61" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL61" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM61" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN61" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO61" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AP61" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ61" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR61" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS61" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT61" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU61" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AV61" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW61" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX61" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY61" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ61" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BA61" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB61" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC61" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BD61" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE61" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF61" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG61" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH61" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI61" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ61" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK61" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL61" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM61" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="21">
+        <v>45587.78835488426</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="22">
+        <v>2.023306E7</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" s="23">
+        <v>0.7874999999985448</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK62" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL62" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR62" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AS62" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT62" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW62" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX62" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL62" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM62" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="17">
+        <v>45587.80936141204</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" s="18">
+        <v>2.0193003E7</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F63" s="19">
+        <v>0.8069444444408873</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK63" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL63" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM63" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN63" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO63" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP63" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ63" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR63" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS63" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT63" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AU63" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV63" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW63" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX63" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AY63" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ63" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA63" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB63" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC63" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD63" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE63" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF63" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG63" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH63" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI63" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ63" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK63" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL63" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM63" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="21">
+        <v>45587.810262743056</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="22">
+        <v>2.0245201E7</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="F64" s="23">
+        <v>0.8076388888875954</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK64" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO64" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AP64" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT64" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW64" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX64" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AY64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC64" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG64" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH64" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ64" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK64" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL64" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM64" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="17">
+        <v>45587.81702740741</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="18">
+        <v>2.0212418E7</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F65" s="19">
+        <v>0.8034722222218988</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="I65" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J65" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K65" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L65" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M65" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N65" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O65" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P65" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q65" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R65" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S65" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T65" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="U65" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V65" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W65" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X65" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y65" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z65" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA65" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB65" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC65" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AD65" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE65" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF65" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG65" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH65" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AI65" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ65" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="21">
+        <v>45587.82491722223</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="22">
+        <v>2.0242503E7</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F66" s="23">
+        <v>0.8229166666642413</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I66" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J66" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K66" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L66" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="M66" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N66" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O66" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="P66" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Q66" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R66" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S66" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T66" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U66" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V66" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W66" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X66" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y66" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z66" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA66" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AB66" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AC66" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD66" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE66" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF66" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG66" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH66" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AI66" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ66" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="17">
+        <v>45587.84448032407</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="18">
+        <v>2.0202706E7</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F67" s="19">
+        <v>0.8423611111065838</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L67" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O67" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P67" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q67" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T67" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W67" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z67" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA67" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD67" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE67" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF67" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG67" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH67" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI67" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ67" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="21">
+        <v>45587.90492537037</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="22">
+        <v>2.0227157E7</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F68" s="23">
+        <v>0.9000000000014552</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK68" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL68" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM68" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN68" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO68" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP68" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ68" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR68" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS68" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT68" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU68" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV68" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW68" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX68" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY68" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ68" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA68" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB68" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC68" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD68" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE68" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF68" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG68" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH68" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI68" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ68" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK68" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL68" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM68" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="17">
+        <v>45587.92256202546</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="18">
+        <v>2.0246294E7</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F69" s="19">
+        <v>0.9201388888905058</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I69" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J69" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K69" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L69" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M69" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N69" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O69" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P69" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q69" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R69" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S69" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T69" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U69" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V69" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W69" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X69" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y69" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z69" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA69" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB69" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC69" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD69" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE69" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF69" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG69" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH69" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI69" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ69" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="21">
+        <v>45587.95902400463</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="22">
+        <v>2.0213023E7</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F70" s="23">
+        <v>0.9562500000029104</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK70" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM70" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN70" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR70" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS70" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU70" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV70" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW70" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY70" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA70" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB70" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF70" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI70" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ70" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK70" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL70" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM70" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="17">
+        <v>45587.975335254625</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="18">
+        <v>2.0231602E7</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F71" s="19">
+        <v>0.9729166666656965</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK71" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL71" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM71" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN71" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO71" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AP71" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ71" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR71" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS71" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT71" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU71" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV71" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW71" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX71" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY71" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AZ71" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA71" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB71" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC71" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD71" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE71" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF71" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG71" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH71" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI71" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ71" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK71" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL71" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM71" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="21">
+        <v>45587.977691527776</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="22">
+        <v>2.0243712E7</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F72" s="23">
+        <v>0.9743055555591127</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I72" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J72" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K72" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L72" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M72" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N72" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O72" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P72" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q72" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R72" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S72" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T72" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U72" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V72" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W72" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X72" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y72" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z72" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA72" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB72" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC72" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD72" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE72" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF72" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG72" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH72" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AI72" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AJ72" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="17">
+        <v>45587.983113055554</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="18">
+        <v>2.0193813E7</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F73" s="19">
+        <v>0.9819444444437977</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I73" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J73" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K73" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L73" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M73" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N73" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O73" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P73" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q73" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="R73" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S73" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T73" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U73" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V73" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W73" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X73" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y73" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z73" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA73" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB73" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC73" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD73" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE73" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF73" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG73" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH73" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AI73" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ73" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="25">
+        <v>45588.180245138894</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="26">
+        <v>2.0227136E7</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" s="27">
+        <v>0.17777777777519077</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="I74" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="J74" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="K74" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="L74" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="M74" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="N74" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="O74" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="P74" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Q74" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="R74" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="S74" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="T74" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="U74" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="V74" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="W74" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="X74" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="Y74" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Z74" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AA74" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AB74" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AC74" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AD74" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AE74" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AF74" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AG74" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AH74" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AI74" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AJ74" s="26">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="272">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -774,6 +774,60 @@
   </si>
   <si>
     <t>최다원</t>
+  </si>
+  <si>
+    <t>rhkwp0323@gmail.com</t>
+  </si>
+  <si>
+    <t>유도영</t>
+  </si>
+  <si>
+    <t>1kdcf@naver.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>simje9907@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>ertyhx3@gmail.com</t>
+  </si>
+  <si>
+    <t>광고홍보학과</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>jaehun081805@gmail.com</t>
+  </si>
+  <si>
+    <t>이재훈</t>
+  </si>
+  <si>
+    <t>0223wltn@naver.com</t>
+  </si>
+  <si>
+    <t>홍지수</t>
+  </si>
+  <si>
+    <t>kokoung12@naver.com</t>
+  </si>
+  <si>
+    <t>권호영</t>
+  </si>
+  <si>
+    <t>seok9431@gmail.com</t>
+  </si>
+  <si>
+    <t>언어청각학부</t>
+  </si>
+  <si>
+    <t>김석주</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1161,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM74" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM82" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -10404,113 +10458,993 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="25">
+      <c r="A74" s="21">
         <v>45588.180245138894</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="26">
+      <c r="D74" s="22">
         <v>2.0227136E7</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="F74" s="27">
+      <c r="F74" s="23">
         <v>0.17777777777519077</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="G74" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H74" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="I74" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="J74" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="K74" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="L74" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="M74" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="N74" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="O74" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="P74" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Q74" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="R74" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="S74" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="T74" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="U74" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="V74" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="W74" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="X74" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="Y74" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Z74" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AA74" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AB74" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AC74" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AD74" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AE74" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AF74" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AG74" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AH74" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AI74" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AJ74" s="26">
-        <v>2.0</v>
+      <c r="H74" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I74" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J74" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K74" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L74" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M74" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N74" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O74" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P74" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q74" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R74" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S74" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T74" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U74" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V74" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="W74" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X74" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y74" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z74" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA74" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB74" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC74" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD74" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE74" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF74" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG74" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AH74" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI74" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ74" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="17">
+        <v>45588.40966960648</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="18">
+        <v>2.023521E7</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" s="19">
+        <v>0.40763888889341615</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I75" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J75" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K75" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L75" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M75" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N75" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="O75" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P75" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q75" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R75" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S75" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T75" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U75" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V75" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W75" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X75" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y75" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z75" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA75" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB75" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC75" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD75" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE75" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF75" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG75" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH75" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI75" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ75" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="21">
+        <v>45588.4748487037</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="22">
+        <v>2.0192901E7</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F76" s="23">
+        <v>0.47291666666569654</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I76" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J76" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K76" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L76" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M76" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N76" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O76" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P76" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q76" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R76" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S76" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T76" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U76" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V76" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W76" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X76" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y76" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z76" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AA76" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB76" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC76" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD76" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AE76" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AF76" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG76" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH76" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI76" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ76" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="17">
+        <v>45588.51995729167</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="18">
+        <v>2.0242724E7</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F77" s="19">
+        <v>0.5180555555562023</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H77" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L77" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O77" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q77" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T77" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U77" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X77" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z77" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA77" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD77" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE77" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF77" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG77" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH77" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI77" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ77" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="21">
+        <v>45588.565800972225</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" s="22">
+        <v>2.0242607E7</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" s="23">
+        <v>0.5652777777795563</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK78" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL78" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM78" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="17">
+        <v>45588.59682612268</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="18">
+        <v>2.0242736E7</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F79" s="19">
+        <v>0.5944444444467081</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK79" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL79" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM79" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN79" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AP79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AQ79" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR79" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS79" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AU79" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV79" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AX79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AY79" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BA79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BB79" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BD79" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE79" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF79" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BH79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI79" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ79" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BK79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM79" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="21">
+        <v>45588.61787119213</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="22">
+        <v>2024380.0</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80" s="23">
+        <v>0.6159722222218988</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="L80" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M80" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q80" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T80" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U80" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z80" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD80" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE80" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG80" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH80" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI80" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ80" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="17">
+        <v>45588.62751046296</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="18">
+        <v>2.0202911E7</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="19">
+        <v>0.6270833333328483</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I81" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA81" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG81" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI81" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ81" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="25">
+        <v>45588.66308143518</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="26">
+        <v>2.0243907E7</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="F82" s="27">
+        <v>0.6618055555591127</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="I82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="J82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="K82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="L82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="M82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="N82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="O82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="P82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Q82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="R82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="S82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="T82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="U82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="V82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="W82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="X82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Y82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Z82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AA82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AB82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AC82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AD82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AE82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AF82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AG82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AH82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AI82" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AJ82" s="26">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="330">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -828,6 +828,180 @@
   </si>
   <si>
     <t>김석주</t>
+  </si>
+  <si>
+    <t>thwls5541@gmail.com</t>
+  </si>
+  <si>
+    <t>김소원</t>
+  </si>
+  <si>
+    <t>jcskej0@hanmail.net</t>
+  </si>
+  <si>
+    <t>김은주</t>
+  </si>
+  <si>
+    <t>asrud8755@naver.com</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>a52154309@gmail.com</t>
+  </si>
+  <si>
+    <t>황우진</t>
+  </si>
+  <si>
+    <t>lucy011705@naver.com</t>
+  </si>
+  <si>
+    <t>이민정</t>
+  </si>
+  <si>
+    <t>pumo2928@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터 전공</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>limse1998@naver.com</t>
+  </si>
+  <si>
+    <t>임민영</t>
+  </si>
+  <si>
+    <t>tomas313@naver.com</t>
+  </si>
+  <si>
+    <t>라태민</t>
+  </si>
+  <si>
+    <t>yeongjus6552@gmail.com</t>
+  </si>
+  <si>
+    <t>서영주</t>
+  </si>
+  <si>
+    <t>qufdldlrn@gmail.com</t>
+  </si>
+  <si>
+    <t>윤샛별</t>
+  </si>
+  <si>
+    <t>min.hyun1109@gmail.com</t>
+  </si>
+  <si>
+    <t>청각학과</t>
+  </si>
+  <si>
+    <t>정민현</t>
+  </si>
+  <si>
+    <t>youmakein@gmail.com</t>
+  </si>
+  <si>
+    <t>최현민</t>
+  </si>
+  <si>
+    <t>paulcho1004@naver.com</t>
+  </si>
+  <si>
+    <t>조민형</t>
+  </si>
+  <si>
+    <t>p20236727@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부</t>
+  </si>
+  <si>
+    <t>박진서</t>
+  </si>
+  <si>
+    <t>sunshade132@gmail.com</t>
+  </si>
+  <si>
+    <t>박기택</t>
+  </si>
+  <si>
+    <t>yerang0917@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학부</t>
+  </si>
+  <si>
+    <t>최예랑</t>
+  </si>
+  <si>
+    <t>creeper_a@naver.com</t>
+  </si>
+  <si>
+    <t>최대현</t>
+  </si>
+  <si>
+    <t>jinhee1082@naver.com</t>
+  </si>
+  <si>
+    <t>박진희</t>
+  </si>
+  <si>
+    <t>tjdehs4809@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">국어국문학과 </t>
+  </si>
+  <si>
+    <t>최성돈</t>
+  </si>
+  <si>
+    <t>sws62550100@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">금융재무학과 </t>
+  </si>
+  <si>
+    <t>서우성</t>
+  </si>
+  <si>
+    <t>corsica2001@naver.com</t>
+  </si>
+  <si>
+    <t>박상우</t>
+  </si>
+  <si>
+    <t>gisung5864@naver.com</t>
+  </si>
+  <si>
+    <t>조기성</t>
+  </si>
+  <si>
+    <t>hizero0223@naver.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>kimminseon2102@naver.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>dlwl0898@naver.com</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>wjdalsrb303@naver.com</t>
+  </si>
+  <si>
+    <t>정민규</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1335,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM82" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM108" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -11338,113 +11512,2973 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="25">
+      <c r="A82" s="21">
         <v>45588.66308143518</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="D82" s="26">
+      <c r="D82" s="22">
         <v>2.0243907E7</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F82" s="27">
+      <c r="F82" s="23">
         <v>0.6618055555591127</v>
       </c>
-      <c r="G82" s="26" t="s">
+      <c r="G82" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="I82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="J82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="K82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="L82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="M82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="N82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="O82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="P82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Q82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="R82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="S82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="T82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="U82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="V82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="W82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="X82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Y82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Z82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AA82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AB82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AC82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AD82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AE82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AF82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AG82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AH82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AI82" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AJ82" s="26">
-        <v>3.0</v>
+      <c r="H82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI82" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ82" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="17">
+        <v>45588.687413796295</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="18">
+        <v>2.0207065E7</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="F83" s="19">
+        <v>0.6847222222204437</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I83" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J83" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K83" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="L83" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M83" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N83" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O83" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="P83" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q83" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R83" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S83" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T83" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U83" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V83" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W83" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X83" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y83" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z83" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA83" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB83" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC83" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD83" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE83" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF83" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG83" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH83" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI83" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ83" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="21">
+        <v>45588.691982187505</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="22">
+        <v>2.0227024E7</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="F84" s="23">
+        <v>0.6784722222218988</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK84" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN84" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP84" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV84" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW84" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY84" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA84" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB84" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC84" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF84" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH84" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI84" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK84" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL84" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM84" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="17">
+        <v>45588.69532451389</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" s="18">
+        <v>2.0222606E7</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="F85" s="19">
+        <v>0.6930555555591127</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I85" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J85" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K85" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L85" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M85" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N85" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O85" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P85" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q85" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R85" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S85" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T85" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U85" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V85" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W85" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X85" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y85" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z85" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA85" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB85" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC85" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD85" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE85" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF85" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG85" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH85" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI85" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ85" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="21">
+        <v>45588.701497974536</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D86" s="22">
+        <v>2.0243968E7</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="F86" s="23">
+        <v>0.6999999999970896</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H86" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K86" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L86" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M86" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P86" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q86" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="R86" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S86" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T86" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U86" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z86" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD86" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE86" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG86" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH86" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI86" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ86" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="17">
+        <v>45588.72846708333</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="18">
+        <v>2.0242997E7</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F87" s="19">
+        <v>0.7270833333313931</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL87" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM87" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="21">
+        <v>45588.73625480324</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="22">
+        <v>2.0232527E7</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F88" s="23">
+        <v>0.7215277777795563</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK88" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AP88" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ88" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT88" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV88" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW88" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX88" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC88" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD88" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG88" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH88" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ88" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK88" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL88" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM88" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="17">
+        <v>45588.77273994213</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="18">
+        <v>2.0172896E7</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F89" s="19">
+        <v>0.7708333333357587</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK89" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL89" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM89" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN89" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO89" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP89" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ89" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR89" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS89" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT89" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU89" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV89" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW89" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX89" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY89" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ89" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA89" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB89" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC89" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD89" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE89" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF89" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG89" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH89" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI89" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ89" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK89" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL89" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM89" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="21">
+        <v>45588.80577219908</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="22">
+        <v>2.0214116E7</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F90" s="23">
+        <v>0.8041666666686069</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H90" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="L90" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M90" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q90" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T90" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U90" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z90" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD90" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE90" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG90" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH90" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI90" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ90" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="17">
+        <v>45588.864452407404</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" s="18">
+        <v>2.0242973E7</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F91" s="19">
+        <v>0.8611111111094942</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK91" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AL91" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM91" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN91" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO91" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP91" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ91" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR91" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS91" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT91" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU91" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV91" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW91" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX91" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY91" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ91" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA91" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB91" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC91" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD91" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE91" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF91" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG91" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH91" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI91" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ91" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK91" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL91" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BM91" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="21">
+        <v>45588.89190210648</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" s="22">
+        <v>2.0243929E7</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F92" s="23">
+        <v>0.8756944444467081</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK92" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL92" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM92" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN92" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO92" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP92" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ92" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR92" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS92" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT92" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU92" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV92" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW92" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX92" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY92" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ92" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA92" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB92" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC92" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD92" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE92" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF92" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG92" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH92" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI92" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ92" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK92" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL92" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM92" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="17">
+        <v>45588.903981944444</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D93" s="18">
+        <v>2.0203957E7</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="F93" s="19">
+        <v>0.9020833333343035</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK93" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM93" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AN93" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AO93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP93" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ93" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT93" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AV93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX93" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY93" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BA93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB93" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BC93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD93" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BE93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BG93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH93" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI93" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BK93" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL93" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM93" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="21">
+        <v>45588.921572418985</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="22">
+        <v>2.0241106E7</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F94" s="23">
+        <v>0.42013888889050577</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK94" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL94" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM94" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN94" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO94" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP94" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ94" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR94" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS94" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT94" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU94" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV94" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW94" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX94" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY94" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ94" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA94" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BB94" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC94" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD94" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE94" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF94" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG94" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH94" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI94" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ94" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK94" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL94" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM94" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="17">
+        <v>45588.928843368056</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="18">
+        <v>2.0193836E7</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F95" s="19">
+        <v>0.9250000000029104</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK95" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL95" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AM95" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AN95" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO95" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP95" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AQ95" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR95" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS95" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT95" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU95" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV95" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AW95" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX95" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY95" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AZ95" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA95" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB95" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC95" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD95" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BE95" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF95" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BG95" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH95" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI95" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ95" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK95" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL95" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM95" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="21">
+        <v>45588.9294033912</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D96" s="22">
+        <v>2.0236727E7</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="F96" s="23">
+        <v>0.9270833333357587</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H96" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I96" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J96" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K96" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L96" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M96" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N96" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O96" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P96" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q96" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R96" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S96" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T96" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U96" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V96" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W96" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X96" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y96" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z96" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA96" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB96" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC96" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD96" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AE96" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF96" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG96" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH96" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI96" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ96" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="17">
+        <v>45588.93922872686</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" s="18">
+        <v>2.0222526E7</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="F97" s="19">
+        <v>0.43402777778101154</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H97" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I97" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J97" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K97" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L97" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M97" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N97" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O97" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P97" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q97" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R97" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S97" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T97" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U97" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V97" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W97" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X97" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y97" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z97" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA97" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB97" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC97" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD97" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE97" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF97" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG97" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH97" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI97" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ97" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="21">
+        <v>45588.9476269213</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98" s="22">
+        <v>2.0242356E7</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F98" s="23">
+        <v>0.9458333333313931</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK98" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL98" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM98" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN98" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP98" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ98" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU98" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW98" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX98" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA98" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB98" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD98" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG98" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH98" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK98" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL98" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM98" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="17">
+        <v>45588.97490053241</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="18">
+        <v>2.0194153E7</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F99" s="19">
+        <v>0.9701388888934162</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ99" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL99" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM99" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="21">
+        <v>45589.03123644676</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" s="22">
+        <v>2.022253E7</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="F100" s="23">
+        <v>0.026388888887595385</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK100" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL100" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM100" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN100" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO100" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP100" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ100" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR100" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS100" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT100" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU100" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV100" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW100" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX100" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY100" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ100" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA100" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB100" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC100" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD100" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE100" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF100" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG100" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BH100" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI100" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ100" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK100" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL100" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM100" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="17">
+        <v>45589.092282604164</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D101" s="18">
+        <v>2.0201103E7</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="F101" s="19">
+        <v>0.08680555555474712</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK101" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL101" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM101" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN101" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO101" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP101" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ101" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR101" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS101" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT101" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AU101" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV101" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW101" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX101" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY101" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ101" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA101" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB101" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC101" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD101" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE101" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF101" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG101" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH101" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI101" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ101" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK101" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL101" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM101" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="21">
+        <v>45589.15246745371</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D102" s="22">
+        <v>2.0227036E7</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="F102" s="23">
+        <v>0.14652777777519077</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK102" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL102" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM102" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN102" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO102" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP102" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ102" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR102" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AS102" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT102" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU102" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AV102" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AW102" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX102" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY102" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ102" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA102" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB102" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC102" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD102" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE102" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF102" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG102" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH102" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI102" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BJ102" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK102" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BL102" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM102" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="17">
+        <v>45589.56424868056</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103" s="18">
+        <v>2.0202817E7</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F103" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H103" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I103" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J103" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K103" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L103" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M103" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N103" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="O103" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P103" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q103" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R103" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S103" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T103" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U103" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V103" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W103" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X103" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y103" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z103" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA103" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB103" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC103" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD103" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE103" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF103" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG103" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AH103" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI103" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ103" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="21">
+        <v>45589.56872506945</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D104" s="22">
+        <v>2.0216526E7</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="F104" s="23">
+        <v>0.5673611111124046</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I104" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J104" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M104" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N104" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P104" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI104" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ104" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="17">
+        <v>45589.62003423611</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="18">
+        <v>2.0243038E7</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="F105" s="19">
+        <v>0.6180555555547471</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H105" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I105" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J105" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K105" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L105" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M105" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N105" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O105" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P105" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q105" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R105" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S105" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T105" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U105" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V105" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W105" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X105" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y105" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z105" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA105" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB105" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC105" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD105" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE105" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF105" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG105" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AH105" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI105" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ105" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="21">
+        <v>45589.638564270834</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="22">
+        <v>2.0242707E7</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="F106" s="23">
+        <v>0.6347222222248092</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H106" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I106" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J106" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K106" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L106" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M106" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N106" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O106" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P106" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q106" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R106" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S106" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T106" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U106" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V106" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W106" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X106" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y106" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z106" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA106" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB106" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC106" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD106" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE106" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF106" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG106" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH106" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI106" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ106" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="17">
+        <v>45589.638805509254</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D107" s="18">
+        <v>2.0202561E7</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="F107" s="19">
+        <v>0.6388888888905058</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H107" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I107" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J107" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K107" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L107" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M107" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N107" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O107" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P107" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q107" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R107" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S107" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T107" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U107" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V107" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W107" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X107" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y107" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z107" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA107" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB107" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC107" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD107" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE107" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF107" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG107" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH107" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI107" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ107" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="25">
+        <v>45589.64990635417</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D108" s="26">
+        <v>2.0202431E7</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="F108" s="27">
+        <v>0.6479166666686069</v>
+      </c>
+      <c r="G108" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H108" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="I108" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="J108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="K108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="L108" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="M108" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="N108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="O108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="P108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Q108" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="R108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="S108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="T108" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="U108" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="V108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="W108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="X108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Y108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Z108" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AA108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AB108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AC108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AD108" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AE108" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AF108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AG108" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AH108" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AI108" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AJ108" s="26">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="354">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1002,6 +1002,78 @@
   </si>
   <si>
     <t>정민규</t>
+  </si>
+  <si>
+    <t>h20241207@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>문소정</t>
+  </si>
+  <si>
+    <t>whovian2@naver.com</t>
+  </si>
+  <si>
+    <t>이새한</t>
+  </si>
+  <si>
+    <t>sunkeun.han@gmail.com</t>
+  </si>
+  <si>
+    <t>한선근</t>
+  </si>
+  <si>
+    <t>woonsuck0916@naver.com</t>
+  </si>
+  <si>
+    <t>스마트IoT</t>
+  </si>
+  <si>
+    <t>운석현</t>
+  </si>
+  <si>
+    <t>jjy021026@gmail.com</t>
+  </si>
+  <si>
+    <t>전지환</t>
+  </si>
+  <si>
+    <t>mongsik5@naver.com</t>
+  </si>
+  <si>
+    <t>thdwlsrud0@naver.com</t>
+  </si>
+  <si>
+    <t>송진경</t>
+  </si>
+  <si>
+    <t>915rlaalstjd@naver.com</t>
+  </si>
+  <si>
+    <t>스마트Iot</t>
+  </si>
+  <si>
+    <t>김민성</t>
+  </si>
+  <si>
+    <t>oepdwrtyy@gmail.com</t>
+  </si>
+  <si>
+    <t>강종현</t>
+  </si>
+  <si>
+    <t>ckswo00@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터</t>
+  </si>
+  <si>
+    <t>이찬재</t>
+  </si>
+  <si>
+    <t>zzlsderela3355@gmail.com</t>
+  </si>
+  <si>
+    <t>신예진</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1237,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1176,13 +1248,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1335,7 +1407,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM108" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM119" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -14372,113 +14444,1323 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="25">
+      <c r="A108" s="21">
         <v>45589.64990635417</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D108" s="26">
+      <c r="D108" s="22">
         <v>2.0202431E7</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="F108" s="27">
+      <c r="F108" s="23">
         <v>0.6479166666686069</v>
       </c>
-      <c r="G108" s="26" t="s">
+      <c r="G108" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H108" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="I108" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="J108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="K108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="L108" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="M108" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="N108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="O108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="P108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="Q108" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="R108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="S108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="T108" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="U108" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="V108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="W108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="X108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="Y108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="Z108" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AA108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AB108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AC108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AD108" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AE108" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AF108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AG108" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AH108" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AI108" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AJ108" s="26">
-        <v>1.0</v>
+      <c r="H108" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I108" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="L108" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M108" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q108" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T108" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U108" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z108" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD108" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE108" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG108" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH108" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI108" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ108" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="17">
+        <v>45589.67596958333</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="18">
+        <v>2.0241207E7</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F109" s="19">
+        <v>0.6736111111094942</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H109" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I109" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J109" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K109" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L109" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M109" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N109" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O109" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P109" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q109" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R109" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S109" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T109" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U109" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V109" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W109" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X109" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y109" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z109" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA109" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB109" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC109" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD109" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE109" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF109" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG109" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH109" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI109" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ109" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="21">
+        <v>45589.68403326389</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D110" s="22">
+        <v>2.0191226E7</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="F110" s="23">
+        <v>0.6840277777810115</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI110" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ110" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="17">
+        <v>45589.68664847223</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D111" s="18">
+        <v>2.0213644E7</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F111" s="19">
+        <v>0.6854166666671517</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL111" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM111" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="21">
+        <v>45589.69559695602</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D112" s="22">
+        <v>2.0205206E7</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="F112" s="23">
+        <v>0.6937499999985448</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK112" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL112" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO112" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP112" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT112" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW112" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX112" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB112" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC112" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF112" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG112" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH112" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ112" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK112" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL112" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM112" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="17">
+        <v>45589.70506263889</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D113" s="18">
+        <v>2.0214143E7</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="F113" s="19">
+        <v>0.6993055555576575</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK113" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN113" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP113" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ113" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR113" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT113" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU113" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX113" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ113" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB113" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG113" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH113" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI113" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK113" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL113" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM113" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="21">
+        <v>45589.72050556713</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D114" s="22">
+        <v>2.0202809E7</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F114" s="23">
+        <v>0.7166666666671517</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK114" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AL114" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM114" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN114" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AO114" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP114" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ114" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR114" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS114" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT114" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU114" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV114" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW114" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX114" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY114" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AZ114" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA114" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB114" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC114" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD114" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE114" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF114" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG114" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH114" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI114" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ114" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK114" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL114" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM114" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="17">
+        <v>45589.72375451389</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="18">
+        <v>2.0182339E7</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="F115" s="19">
+        <v>0.7194444444467081</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK115" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP115" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ115" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT115" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU115" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV115" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW115" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX115" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC115" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE115" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG115" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH115" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ115" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK115" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL115" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM115" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="21">
+        <v>45589.7288812037</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="D116" s="22">
+        <v>2.0205133E7</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F116" s="23">
+        <v>0.7270833333313931</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H116" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I116" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J116" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K116" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L116" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M116" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N116" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O116" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P116" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q116" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R116" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S116" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T116" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U116" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V116" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W116" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X116" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y116" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z116" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA116" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB116" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC116" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD116" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE116" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF116" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG116" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH116" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI116" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ116" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="17">
+        <v>45589.73185243056</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="18">
+        <v>2.0241003E7</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F117" s="19">
+        <v>0.7284722222248092</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK117" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO117" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP117" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT117" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AU117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV117" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW117" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AX117" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AY117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ117" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA117" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB117" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC117" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG117" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK117" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL117" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BM117" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="21">
+        <v>45589.76025128472</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D118" s="22">
+        <v>2.0217151E7</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="F118" s="23">
+        <v>0.7597222222248092</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD118" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE118" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AF118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG118" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI118" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ118" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="25">
+        <v>45589.767243298615</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D119" s="26">
+        <v>2.0246252E7</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="F119" s="27">
+        <v>0.7638888888905058</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="I119" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="J119" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="K119" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="L119" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="M119" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="N119" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="O119" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="P119" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Q119" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="R119" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="S119" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="T119" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="U119" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="V119" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="W119" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="X119" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Y119" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="Z119" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AA119" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AB119" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AC119" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AD119" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AE119" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AF119" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AG119" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AH119" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AI119" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AJ119" s="26">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="410">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1074,6 +1074,174 @@
   </si>
   <si>
     <t>신예진</t>
+  </si>
+  <si>
+    <t>yssong1919@naver.com</t>
+  </si>
+  <si>
+    <t>송예상</t>
+  </si>
+  <si>
+    <t>znfh527gkfn@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지학부 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">조준연 </t>
+  </si>
+  <si>
+    <t>zmgofk1591@gmail.com</t>
+  </si>
+  <si>
+    <t>AI로봇융합</t>
+  </si>
+  <si>
+    <t>박하늘</t>
+  </si>
+  <si>
+    <t>kimseyoung0130@gmail.com</t>
+  </si>
+  <si>
+    <t>중국학과</t>
+  </si>
+  <si>
+    <t>김세영</t>
+  </si>
+  <si>
+    <t>leecm051202@gmail.com</t>
+  </si>
+  <si>
+    <t>이채민</t>
+  </si>
+  <si>
+    <t>yujin31836@gmail.com</t>
+  </si>
+  <si>
+    <t>최유진</t>
+  </si>
+  <si>
+    <t>ji040414@naver.com</t>
+  </si>
+  <si>
+    <t>최윤지</t>
+  </si>
+  <si>
+    <t>jw010705@naver.com</t>
+  </si>
+  <si>
+    <t>유정우</t>
+  </si>
+  <si>
+    <t>rivernine369@naver.com</t>
+  </si>
+  <si>
+    <t>강재구</t>
+  </si>
+  <si>
+    <t>doheehana@naver.com</t>
+  </si>
+  <si>
+    <t>김도희</t>
+  </si>
+  <si>
+    <t>yhh323@naver.com</t>
+  </si>
+  <si>
+    <t>유형호</t>
+  </si>
+  <si>
+    <t>donghyun6652@gmail.com</t>
+  </si>
+  <si>
+    <t>한동현</t>
+  </si>
+  <si>
+    <t>ming041230@gmail.com</t>
+  </si>
+  <si>
+    <t>서민지</t>
+  </si>
+  <si>
+    <t>sumine0601@naver.com</t>
+  </si>
+  <si>
+    <t>장수민</t>
+  </si>
+  <si>
+    <t>03jungwoo@naver.com</t>
+  </si>
+  <si>
+    <t>김정우</t>
+  </si>
+  <si>
+    <t>junsa215909@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>hje10314@naver.com</t>
+  </si>
+  <si>
+    <t>한지은</t>
+  </si>
+  <si>
+    <t>sally200408@gmail.com</t>
+  </si>
+  <si>
+    <t>박경화</t>
+  </si>
+  <si>
+    <t>bagj11532@gmail.com</t>
+  </si>
+  <si>
+    <t>체육하과</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>rlarkfka2255@naver.com</t>
+  </si>
+  <si>
+    <t>김가람</t>
+  </si>
+  <si>
+    <t>20242528@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>석진영</t>
+  </si>
+  <si>
+    <t>ms071207@naver.com</t>
+  </si>
+  <si>
+    <t>정민서</t>
+  </si>
+  <si>
+    <t>limjh3027@naver.com</t>
+  </si>
+  <si>
+    <t>임종현</t>
+  </si>
+  <si>
+    <t>uhan0802@gmail.com</t>
+  </si>
+  <si>
+    <t>이유한</t>
+  </si>
+  <si>
+    <t>ysh050116@naver.com</t>
+  </si>
+  <si>
+    <t>윤시한</t>
+  </si>
+  <si>
+    <t>nayeone0306@naver.com</t>
+  </si>
+  <si>
+    <t>김나연</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1575,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM119" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM145" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -15654,113 +15822,2973 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="25">
+      <c r="A119" s="17">
         <v>45589.767243298615</v>
       </c>
-      <c r="B119" s="26" t="s">
+      <c r="B119" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D119" s="26">
+      <c r="D119" s="18">
         <v>2.0246252E7</v>
       </c>
-      <c r="E119" s="26" t="s">
+      <c r="E119" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="F119" s="27">
+      <c r="F119" s="19">
         <v>0.7638888888905058</v>
       </c>
-      <c r="G119" s="26" t="s">
+      <c r="G119" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H119" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I119" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="J119" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="K119" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="L119" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="M119" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="N119" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="O119" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="P119" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Q119" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="R119" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="S119" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="T119" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="U119" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="V119" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="W119" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="X119" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Y119" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Z119" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AA119" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AB119" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AC119" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AD119" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AE119" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AF119" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AG119" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AH119" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AI119" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AJ119" s="26">
-        <v>2.0</v>
+      <c r="H119" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I119" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J119" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K119" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L119" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M119" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N119" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O119" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P119" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q119" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R119" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S119" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T119" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U119" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V119" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W119" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X119" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y119" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z119" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA119" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB119" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC119" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD119" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE119" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF119" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG119" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH119" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI119" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ119" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="21">
+        <v>45589.7796240162</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D120" s="22">
+        <v>2.0227078E7</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="F120" s="23">
+        <v>0.7777777777810115</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I120" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J120" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K120" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L120" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M120" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N120" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O120" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P120" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q120" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R120" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S120" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T120" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U120" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V120" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W120" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X120" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y120" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z120" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA120" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB120" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC120" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD120" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE120" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF120" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG120" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH120" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI120" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ120" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="17">
+        <v>45589.78615028935</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D121" s="18">
+        <v>2.0222359E7</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="F121" s="19">
+        <v>0.7777777777810115</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL121" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN121" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO121" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP121" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT121" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AU121" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY121" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA121" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB121" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD121" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF121" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI121" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ121" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK121" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL121" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM121" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="21">
+        <v>45589.81367230324</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D122" s="22">
+        <v>2.0216731E7</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="F122" s="23">
+        <v>0.8076388888875954</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H122" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I122" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J122" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K122" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L122" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M122" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N122" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O122" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P122" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q122" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R122" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S122" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T122" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U122" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V122" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W122" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X122" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y122" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z122" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA122" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB122" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC122" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD122" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE122" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF122" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG122" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH122" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI122" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ122" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="17">
+        <v>45589.83626280093</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D123" s="18">
+        <v>2.0231506E7</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F123" s="19">
+        <v>0.8340277777751908</v>
+      </c>
+      <c r="G123" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H123" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I123" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J123" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K123" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L123" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M123" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N123" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O123" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P123" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q123" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R123" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S123" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T123" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U123" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V123" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W123" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X123" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y123" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z123" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA123" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB123" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC123" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD123" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE123" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF123" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG123" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH123" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI123" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ123" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="21">
+        <v>45589.856133379624</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D124" s="22">
+        <v>2.0242344E7</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="F124" s="23">
+        <v>0.8548611111109494</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H124" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L124" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N124" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O124" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R124" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W124" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA124" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB124" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE124" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH124" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AI124" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ124" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="17">
+        <v>45589.85855092593</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125" s="18">
+        <v>2.0243961E7</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="F125" s="19">
+        <v>0.8534722222248092</v>
+      </c>
+      <c r="G125" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK125" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL125" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM125" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN125" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO125" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP125" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ125" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR125" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS125" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT125" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU125" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV125" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW125" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AX125" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY125" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ125" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA125" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB125" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC125" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD125" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE125" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF125" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG125" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH125" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI125" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ125" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK125" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL125" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM125" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="21">
+        <v>45589.862561435184</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D126" s="22">
+        <v>2.0233055E7</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="F126" s="23">
+        <v>0.8611111111094942</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H126" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I126" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Q126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R126" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U126" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V126" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="X126" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA126" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB126" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD126" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE126" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AH126" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI126" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ126" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="17">
+        <v>45589.8935844213</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" s="18">
+        <v>2.0202834E7</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F127" s="19">
+        <v>0.8874999999970896</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H127" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I127" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J127" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K127" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L127" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M127" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N127" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O127" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P127" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q127" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R127" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S127" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T127" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U127" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V127" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W127" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X127" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y127" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z127" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA127" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB127" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC127" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD127" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE127" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF127" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG127" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH127" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI127" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ127" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="21">
+        <v>45589.89747273148</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D128" s="22">
+        <v>2.0212801E7</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="F128" s="23">
+        <v>0.8965277777751908</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL128" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM128" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="17">
+        <v>45589.902557974536</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D129" s="18">
+        <v>2.0246215E7</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="F129" s="19">
+        <v>0.9006944444408873</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK129" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL129" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AM129" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN129" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO129" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP129" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ129" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR129" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS129" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT129" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AU129" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV129" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW129" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX129" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY129" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ129" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA129" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB129" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC129" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD129" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE129" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF129" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG129" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH129" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI129" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ129" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK129" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL129" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM129" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="21">
+        <v>45589.90435619213</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D130" s="22">
+        <v>2.0184132E7</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F130" s="23">
+        <v>0.9034722222204437</v>
+      </c>
+      <c r="G130" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK130" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU130" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AV130" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AW130" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ130" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BA130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE130" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF130" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BG130" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH130" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ130" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK130" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL130" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM130" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="17">
+        <v>45589.93730579861</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D131" s="18">
+        <v>2.02463E7</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F131" s="19">
+        <v>0.9361111111065838</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L131" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M131" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q131" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T131" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z131" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC131" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD131" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE131" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF131" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG131" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH131" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI131" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ131" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="21">
+        <v>45589.93766811343</v>
+      </c>
+      <c r="B132" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D132" s="22">
+        <v>2.0242525E7</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="F132" s="23">
+        <v>0.9340277777810115</v>
+      </c>
+      <c r="G132" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H132" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I132" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J132" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K132" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L132" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M132" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N132" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O132" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P132" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q132" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R132" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S132" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T132" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U132" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V132" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W132" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X132" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y132" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z132" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA132" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB132" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC132" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD132" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE132" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AF132" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG132" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH132" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI132" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ132" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="17">
+        <v>45589.93953771991</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D133" s="18">
+        <v>2.0202637E7</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F133" s="19">
+        <v>0.9354166666671517</v>
+      </c>
+      <c r="G133" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK133" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL133" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AM133" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN133" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO133" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP133" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ133" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR133" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS133" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT133" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU133" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV133" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW133" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX133" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY133" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ133" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA133" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB133" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC133" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD133" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE133" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF133" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG133" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH133" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI133" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ133" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK133" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL133" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM133" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="21">
+        <v>45589.94397324074</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" s="22">
+        <v>2.0242515E7</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F134" s="23">
+        <v>0.9423611111124046</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H134" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="L134" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M134" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q134" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T134" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U134" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z134" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC134" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD134" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE134" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF134" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG134" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH134" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI134" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ134" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="17">
+        <v>45589.950708449076</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D135" s="18">
+        <v>2.0203006E7</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="F135" s="19">
+        <v>0.9479166666642413</v>
+      </c>
+      <c r="G135" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK135" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL135" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM135" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN135" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO135" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP135" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ135" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR135" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS135" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT135" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU135" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AV135" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW135" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX135" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY135" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ135" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA135" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB135" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC135" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD135" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE135" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF135" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG135" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH135" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI135" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ135" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK135" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL135" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM135" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="21">
+        <v>45589.95235010417</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D136" s="22">
+        <v>2.0222367E7</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="F136" s="23">
+        <v>0.9444444444452529</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK136" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL136" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM136" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN136" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO136" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP136" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ136" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR136" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS136" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT136" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU136" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV136" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW136" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX136" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY136" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ136" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA136" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB136" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC136" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD136" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE136" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF136" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG136" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH136" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI136" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ136" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK136" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL136" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM136" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="17">
+        <v>45589.96582578703</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D137" s="18">
+        <v>2.0212818E7</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="F137" s="19">
+        <v>0.961111111115315</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK137" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL137" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO137" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP137" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ137" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT137" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU137" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW137" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AX137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC137" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE137" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH137" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ137" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK137" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL137" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM137" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="21">
+        <v>45589.9711671875</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D138" s="22">
+        <v>2.024412E7</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="F138" s="23">
+        <v>0.96875</v>
+      </c>
+      <c r="G138" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H138" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I138" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J138" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K138" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L138" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M138" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N138" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O138" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P138" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q138" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R138" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S138" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T138" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U138" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V138" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W138" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X138" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y138" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z138" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA138" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB138" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC138" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD138" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE138" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF138" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG138" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH138" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI138" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ138" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="17">
+        <v>45589.971744317125</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D139" s="18">
+        <v>2.0243804E7</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="F139" s="19">
+        <v>0.96875</v>
+      </c>
+      <c r="G139" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM139" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN139" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP139" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT139" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX139" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC139" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD139" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG139" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH139" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI139" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ139" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK139" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL139" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM139" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="21">
+        <v>45590.02081956019</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D140" s="22">
+        <v>2.0242528E7</v>
+      </c>
+      <c r="E140" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="F140" s="23">
+        <v>0.018750000002910383</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK140" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL140" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM140" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN140" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO140" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP140" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ140" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR140" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS140" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT140" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU140" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV140" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW140" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX140" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY140" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ140" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA140" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB140" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC140" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD140" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE140" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF140" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG140" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH140" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI140" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ140" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BK140" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL140" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM140" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="17">
+        <v>45590.03244372685</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D141" s="18">
+        <v>2.0193644E7</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="F141" s="19">
+        <v>0.030555555553291924</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG141" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI141" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ141" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="21">
+        <v>45590.06576229166</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142" s="22">
+        <v>2.024243E7</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="F142" s="23">
+        <v>0.06388888889341615</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H142" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I142" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J142" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K142" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L142" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M142" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N142" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O142" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P142" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q142" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R142" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S142" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T142" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U142" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V142" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W142" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X142" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y142" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z142" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA142" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB142" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC142" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD142" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE142" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF142" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG142" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH142" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI142" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ142" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="17">
+        <v>45590.07452707176</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D143" s="18">
+        <v>2.0212555E7</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F143" s="19">
+        <v>0.07222222222480923</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK143" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL143" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AM143" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN143" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO143" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP143" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ143" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR143" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS143" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT143" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU143" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AV143" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW143" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX143" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY143" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ143" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA143" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB143" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC143" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD143" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE143" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF143" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BG143" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH143" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI143" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ143" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK143" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL143" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM143" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="21">
+        <v>45590.34197439815</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D144" s="22">
+        <v>2.0246752E7</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F144" s="23">
+        <v>0.34097222222044365</v>
+      </c>
+      <c r="G144" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK144" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL144" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM144" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN144" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO144" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP144" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ144" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR144" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS144" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT144" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU144" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV144" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AW144" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX144" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY144" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AZ144" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA144" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB144" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC144" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD144" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE144" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF144" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG144" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH144" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI144" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ144" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK144" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BL144" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM144" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="25">
+        <v>45590.37011476852</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D145" s="26">
+        <v>2.0246214E7</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F145" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G145" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H145" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="I145" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="J145" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="K145" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="L145" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="M145" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="N145" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="O145" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="P145" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="Q145" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="R145" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="S145" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="T145" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="U145" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="V145" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="W145" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="X145" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Y145" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="Z145" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AA145" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AB145" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AC145" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AD145" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AE145" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AF145" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AG145" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AH145" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AI145" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AJ145" s="26">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="445">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1242,6 +1242,111 @@
   </si>
   <si>
     <t>김나연</t>
+  </si>
+  <si>
+    <t>slaim7888@gmail.com</t>
+  </si>
+  <si>
+    <t>이준민</t>
+  </si>
+  <si>
+    <t>4262cyj@naver.com</t>
+  </si>
+  <si>
+    <t>최윤진</t>
+  </si>
+  <si>
+    <t>csj450422@gmail.com</t>
+  </si>
+  <si>
+    <t>장승진</t>
+  </si>
+  <si>
+    <t>dpdlvldzmfkd1218@naver.com</t>
+  </si>
+  <si>
+    <t>이다혜</t>
+  </si>
+  <si>
+    <t>cgim2421@gmail.com</t>
+  </si>
+  <si>
+    <t>김채윤</t>
+  </si>
+  <si>
+    <t>leenara633@gmail.com</t>
+  </si>
+  <si>
+    <t>이나라</t>
+  </si>
+  <si>
+    <t>k1j40405@naver.com</t>
+  </si>
+  <si>
+    <t>김진아</t>
+  </si>
+  <si>
+    <t>smainas20@naver.com</t>
+  </si>
+  <si>
+    <t>wjsgkdms4@naver.com</t>
+  </si>
+  <si>
+    <t>전하은</t>
+  </si>
+  <si>
+    <t>algus5661@naver.com</t>
+  </si>
+  <si>
+    <t>최미현</t>
+  </si>
+  <si>
+    <t>zorotod@naver.com</t>
+  </si>
+  <si>
+    <t>생명과학과</t>
+  </si>
+  <si>
+    <t>김승욱</t>
+  </si>
+  <si>
+    <t>xogns3043@naver.com</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>ehgmldo2@naver.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>박도희</t>
+  </si>
+  <si>
+    <t>yoonbin0304@naver.com</t>
+  </si>
+  <si>
+    <t>최윤빈</t>
+  </si>
+  <si>
+    <t>leejs7807@gmail.com</t>
+  </si>
+  <si>
+    <t>이종선</t>
+  </si>
+  <si>
+    <t>gangjunu@naver.com</t>
+  </si>
+  <si>
+    <t>강준우</t>
+  </si>
+  <si>
+    <t>qwe92517@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1377,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -1405,10 +1510,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1416,13 +1521,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1432,7 +1551,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1517,6 +1636,9 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1575,7 +1697,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM145" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM162" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -18682,113 +18804,1983 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="25">
+      <c r="A145" s="17">
         <v>45590.37011476852</v>
       </c>
-      <c r="B145" s="26" t="s">
+      <c r="B145" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D145" s="26">
+      <c r="D145" s="18">
         <v>2.0246214E7</v>
       </c>
-      <c r="E145" s="26" t="s">
+      <c r="E145" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="F145" s="27">
+      <c r="F145" s="19">
         <v>0.0</v>
       </c>
-      <c r="G145" s="26" t="s">
+      <c r="G145" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H145" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="I145" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="J145" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="K145" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="L145" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="M145" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="N145" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="O145" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="P145" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Q145" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="R145" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="S145" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="T145" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="U145" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="V145" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="W145" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="X145" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Y145" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Z145" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AA145" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AB145" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AC145" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AD145" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AE145" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AF145" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AG145" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AH145" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AI145" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AJ145" s="26">
-        <v>1.0</v>
+      <c r="H145" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I145" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J145" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K145" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L145" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M145" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N145" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O145" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P145" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q145" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R145" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S145" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T145" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U145" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V145" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W145" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X145" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y145" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z145" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA145" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB145" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC145" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD145" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE145" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF145" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG145" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH145" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI145" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ145" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="21">
+        <v>45590.400373055556</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D146" s="22">
+        <v>2.0242428E7</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F146" s="23">
+        <v>0.3979166666686069</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK146" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ146" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS146" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV146" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW146" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ146" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB146" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC146" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH146" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI146" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ146" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK146" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL146" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM146" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="17">
+        <v>45590.42382244213</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D147" s="18">
+        <v>2.0243048E7</v>
+      </c>
+      <c r="E147" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="F147" s="19">
+        <v>0.4131944444452529</v>
+      </c>
+      <c r="G147" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP147" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ147" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR147" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS147" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU147" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV147" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY147" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ147" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA147" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB147" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE147" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF147" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH147" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI147" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ147" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL147" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM147" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="21">
+        <v>45590.47931253472</v>
+      </c>
+      <c r="B148" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D148" s="22">
+        <v>2.0233637E7</v>
+      </c>
+      <c r="E148" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F148" s="23">
+        <v>0.4756944444452529</v>
+      </c>
+      <c r="G148" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I148" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J148" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L148" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M148" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P148" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T148" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W148" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z148" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD148" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE148" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AF148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH148" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI148" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ148" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="17">
+        <v>45590.48425368055</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D149" s="18">
+        <v>2.0243933E7</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F149" s="19">
+        <v>0.4798611111109494</v>
+      </c>
+      <c r="G149" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK149" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL149" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM149" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN149" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO149" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP149" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ149" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR149" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS149" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT149" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AU149" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV149" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW149" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX149" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY149" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ149" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA149" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB149" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC149" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BD149" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE149" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BF149" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG149" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BH149" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI149" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ149" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK149" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL149" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM149" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="21">
+        <v>45590.53699412037</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D150" s="22">
+        <v>2.0241517E7</v>
+      </c>
+      <c r="E150" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="F150" s="23">
+        <v>0.5347222222189885</v>
+      </c>
+      <c r="G150" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H150" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I150" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J150" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K150" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="L150" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M150" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N150" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O150" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P150" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q150" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R150" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S150" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T150" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U150" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V150" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W150" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X150" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y150" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z150" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA150" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB150" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC150" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD150" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE150" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF150" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG150" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH150" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI150" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ150" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="17">
+        <v>45590.589529062505</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D151" s="18">
+        <v>2.0241065E7</v>
+      </c>
+      <c r="E151" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="F151" s="19">
+        <v>0.08472222222189885</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL151" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM151" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="21">
+        <v>45590.59343190972</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D152" s="22">
+        <v>2.0243408E7</v>
+      </c>
+      <c r="E152" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="F152" s="23">
+        <v>0.5923611111065838</v>
+      </c>
+      <c r="G152" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H152" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L152" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M152" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q152" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T152" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U152" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z152" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD152" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE152" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG152" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH152" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI152" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ152" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="17">
+        <v>45590.625691712965</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D153" s="18">
+        <v>2.0233031E7</v>
+      </c>
+      <c r="E153" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="F153" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="G153" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK153" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL153" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO153" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ153" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT153" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW153" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX153" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA153" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD153" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG153" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH153" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI153" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ153" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK153" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL153" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM153" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="21">
+        <v>45590.645924780096</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D154" s="22">
+        <v>2.020257E7</v>
+      </c>
+      <c r="E154" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F154" s="23">
+        <v>0.6395833333372138</v>
+      </c>
+      <c r="G154" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK154" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL154" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM154" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN154" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO154" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP154" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ154" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR154" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS154" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT154" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU154" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV154" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW154" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX154" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY154" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ154" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA154" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB154" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC154" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD154" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE154" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF154" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG154" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH154" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI154" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ154" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK154" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL154" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM154" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="17">
+        <v>45590.648398888894</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D155" s="18">
+        <v>2.0242355E7</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="F155" s="19">
+        <v>0.6437500000029104</v>
+      </c>
+      <c r="G155" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK155" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL155" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM155" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN155" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO155" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP155" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ155" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR155" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS155" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT155" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU155" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV155" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW155" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX155" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY155" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ155" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA155" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB155" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC155" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD155" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE155" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF155" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BG155" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH155" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI155" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ155" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK155" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL155" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM155" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="21">
+        <v>45590.67819975695</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D156" s="22">
+        <v>2.0193508E7</v>
+      </c>
+      <c r="E156" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="F156" s="23">
+        <v>0.6770833333357587</v>
+      </c>
+      <c r="G156" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL156" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM156" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="17">
+        <v>45590.72788255787</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D157" s="18">
+        <v>2.022704E7</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="F157" s="19">
+        <v>0.7256944444452529</v>
+      </c>
+      <c r="G157" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H157" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I157" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J157" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K157" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L157" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M157" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N157" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O157" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P157" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q157" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R157" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S157" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T157" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U157" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V157" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W157" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X157" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y157" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z157" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA157" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB157" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC157" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD157" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE157" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF157" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG157" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH157" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI157" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ157" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="21">
+        <v>45590.72963381944</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D158" s="22">
+        <v>2.0213219E7</v>
+      </c>
+      <c r="E158" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="F158" s="23">
+        <v>0.726388888884685</v>
+      </c>
+      <c r="G158" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H158" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I158" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J158" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K158" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L158" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M158" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N158" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O158" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P158" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q158" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R158" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S158" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T158" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U158" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V158" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W158" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X158" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y158" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z158" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA158" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB158" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC158" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD158" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE158" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF158" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG158" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH158" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI158" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ158" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="17">
+        <v>45590.73640451389</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D159" s="18">
+        <v>2.0242138E7</v>
+      </c>
+      <c r="E159" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="F159" s="19">
+        <v>0.734722222223354</v>
+      </c>
+      <c r="G159" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H159" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I159" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J159" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K159" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L159" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M159" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N159" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O159" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P159" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q159" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R159" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S159" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T159" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U159" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V159" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W159" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="X159" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Y159" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z159" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA159" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB159" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC159" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AD159" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE159" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF159" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG159" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH159" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI159" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ159" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="21">
+        <v>45590.75628826389</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D160" s="22">
+        <v>2.0223249E7</v>
+      </c>
+      <c r="E160" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="F160" s="23">
+        <v>0.7513888888934162</v>
+      </c>
+      <c r="G160" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK160" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL160" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM160" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN160" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO160" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP160" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ160" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR160" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS160" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT160" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU160" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV160" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW160" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX160" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY160" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ160" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA160" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB160" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC160" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BD160" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BE160" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF160" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG160" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH160" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI160" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ160" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK160" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL160" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM160" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="17">
+        <v>45590.80038402778</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D161" s="18">
+        <v>2.0242901E7</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="F161" s="19">
+        <v>0.7986111111094942</v>
+      </c>
+      <c r="G161" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I161" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K161" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="L161" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="M161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N161" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R161" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S161" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T161" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V161" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X161" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB161" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC161" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE161" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF161" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG161" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH161" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI161" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ161" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="25">
+        <v>45590.82229751158</v>
+      </c>
+      <c r="B162" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D162" s="26">
+        <v>2.0246271E7</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="F162" s="27">
+        <v>0.8215277777781012</v>
+      </c>
+      <c r="G162" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AL162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AM162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AN162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AO162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AP162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AQ162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AR162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AS162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AT162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AU162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AV162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AW162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AX162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AY162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AZ162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BA162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BB162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BC162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BD162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BE162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BF162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BG162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BH162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BI162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BJ162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BK162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BL162" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BM162" s="28">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="496">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1347,6 +1347,159 @@
   </si>
   <si>
     <t>이진영</t>
+  </si>
+  <si>
+    <t>cjh5779@naver.com</t>
+  </si>
+  <si>
+    <t>최정환</t>
+  </si>
+  <si>
+    <t>youngold057@gmail.com</t>
+  </si>
+  <si>
+    <t>윤태영</t>
+  </si>
+  <si>
+    <t>sengyu0805@gmail.com</t>
+  </si>
+  <si>
+    <t>나선아</t>
+  </si>
+  <si>
+    <t>bgm5082@gmail.com</t>
+  </si>
+  <si>
+    <t>배경민</t>
+  </si>
+  <si>
+    <t>jdayeong86@gmail.com</t>
+  </si>
+  <si>
+    <t>경영</t>
+  </si>
+  <si>
+    <t>정다영</t>
+  </si>
+  <si>
+    <t>ystop061012@naver.com</t>
+  </si>
+  <si>
+    <t>손연수</t>
+  </si>
+  <si>
+    <t>ye1651@naver.com</t>
+  </si>
+  <si>
+    <t>전예은</t>
+  </si>
+  <si>
+    <t>mt1661@naver.com</t>
+  </si>
+  <si>
+    <t>콘탠츠IT</t>
+  </si>
+  <si>
+    <t>정성민</t>
+  </si>
+  <si>
+    <t>woosm050530@gmail.com</t>
+  </si>
+  <si>
+    <t>바이오베디컬학과</t>
+  </si>
+  <si>
+    <t>우수민</t>
+  </si>
+  <si>
+    <t>bvc023@naver.com</t>
+  </si>
+  <si>
+    <t>김수영</t>
+  </si>
+  <si>
+    <t>orientfun@gmail.com</t>
+  </si>
+  <si>
+    <t>이동화</t>
+  </si>
+  <si>
+    <t>wnsrl2498@naver.com</t>
+  </si>
+  <si>
+    <t>김준기</t>
+  </si>
+  <si>
+    <t>ujeong1030@gmail.com</t>
+  </si>
+  <si>
+    <t>최유정</t>
+  </si>
+  <si>
+    <t>obbobb7@gmail.com</t>
+  </si>
+  <si>
+    <t>구재영</t>
+  </si>
+  <si>
+    <t>a01051265769@gmail.com</t>
+  </si>
+  <si>
+    <t>안현영</t>
+  </si>
+  <si>
+    <t>efgh124@naver.com</t>
+  </si>
+  <si>
+    <t>정윤서</t>
+  </si>
+  <si>
+    <t>yumi0901gami@gmail.com</t>
+  </si>
+  <si>
+    <t>jangjunhyeok1001@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>장준혁</t>
+  </si>
+  <si>
+    <t>rlaskrud0917@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>김나경</t>
+  </si>
+  <si>
+    <t>yhc0564@naver.com</t>
+  </si>
+  <si>
+    <t>윤홍채</t>
+  </si>
+  <si>
+    <t>liz030404@naver.com</t>
+  </si>
+  <si>
+    <t>for1369@gmail.com</t>
+  </si>
+  <si>
+    <t>성동진</t>
+  </si>
+  <si>
+    <t>aj7082331@gmail.com</t>
+  </si>
+  <si>
+    <t>조아나</t>
+  </si>
+  <si>
+    <t>sehyun1901@gmail.com</t>
+  </si>
+  <si>
+    <t>임세현</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1850,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM162" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM186" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -20674,113 +20827,2753 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="25">
+      <c r="A162" s="21">
         <v>45590.82229751158</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B162" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="C162" s="26" t="s">
+      <c r="C162" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D162" s="26">
+      <c r="D162" s="22">
         <v>2.0246271E7</v>
       </c>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="F162" s="27">
+      <c r="F162" s="23">
         <v>0.8215277777781012</v>
       </c>
-      <c r="G162" s="26" t="s">
+      <c r="G162" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AK162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AL162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AM162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AN162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AO162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AP162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AQ162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AR162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AS162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AT162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AU162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AV162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AW162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AX162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AY162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AZ162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BA162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BB162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BC162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BD162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BE162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BF162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BG162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BH162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BI162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BJ162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BK162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BL162" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BM162" s="28">
-        <v>3.0</v>
+      <c r="AK162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL162" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM162" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="17">
+        <v>45590.82974378472</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D163" s="18">
+        <v>2.0215262E7</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="F163" s="19">
+        <v>0.827777777776646</v>
+      </c>
+      <c r="G163" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H163" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="L163" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M163" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="O163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q163" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T163" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U163" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z163" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD163" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE163" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG163" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AH163" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI163" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ163" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="21">
+        <v>45590.843055370366</v>
+      </c>
+      <c r="B164" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D164" s="22">
+        <v>2.0242336E7</v>
+      </c>
+      <c r="E164" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="F164" s="23">
+        <v>0.8409722222204437</v>
+      </c>
+      <c r="G164" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H164" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K164" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L164" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M164" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q164" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U164" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z164" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD164" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE164" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH164" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI164" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ164" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="17">
+        <v>45590.85007670139</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D165" s="18">
+        <v>2.0245152E7</v>
+      </c>
+      <c r="E165" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="F165" s="19">
+        <v>0.836111111115315</v>
+      </c>
+      <c r="G165" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK165" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL165" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM165" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN165" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO165" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP165" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ165" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR165" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS165" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT165" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AU165" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV165" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW165" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX165" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY165" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ165" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA165" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB165" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC165" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD165" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE165" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF165" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG165" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH165" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI165" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ165" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK165" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL165" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM165" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="21">
+        <v>45590.857215254626</v>
+      </c>
+      <c r="B166" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D166" s="22">
+        <v>2.022296E7</v>
+      </c>
+      <c r="E166" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="F166" s="23">
+        <v>0.8541666666642413</v>
+      </c>
+      <c r="G166" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H166" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I166" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J166" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K166" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L166" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M166" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N166" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O166" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P166" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q166" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R166" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S166" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T166" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U166" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V166" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W166" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X166" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y166" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z166" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA166" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB166" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC166" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD166" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE166" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF166" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG166" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH166" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI166" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ166" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="17">
+        <v>45590.86279159722</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="D167" s="18">
+        <v>2.0213035E7</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="F167" s="19">
+        <v>0.33333333333575865</v>
+      </c>
+      <c r="G167" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL167" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM167" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN167" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO167" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP167" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ167" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR167" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS167" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT167" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU167" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV167" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW167" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX167" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK167" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL167" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BM167" s="20">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="21">
+        <v>45590.86630695601</v>
+      </c>
+      <c r="B168" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D168" s="22">
+        <v>2.0246628E7</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="F168" s="23">
+        <v>0.8659722222218988</v>
+      </c>
+      <c r="G168" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK168" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL168" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN168" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ168" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS168" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AT168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI168" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ168" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK168" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL168" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM168" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="17">
+        <v>45590.88022011574</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D169" s="18">
+        <v>2.0243949E7</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="F169" s="19">
+        <v>0.8770833333328483</v>
+      </c>
+      <c r="G169" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK169" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL169" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM169" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN169" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO169" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP169" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ169" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR169" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS169" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT169" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU169" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV169" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW169" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX169" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY169" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ169" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA169" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB169" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC169" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD169" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE169" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF169" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG169" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH169" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI169" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ169" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK169" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL169" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM169" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="21">
+        <v>45590.890869236115</v>
+      </c>
+      <c r="B170" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D170" s="22">
+        <v>2.0215239E7</v>
+      </c>
+      <c r="E170" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="F170" s="23">
+        <v>0.8888888888905058</v>
+      </c>
+      <c r="G170" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK170" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN170" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP170" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT170" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU170" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW170" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX170" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ170" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC170" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF170" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI170" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK170" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL170" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM170" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="17">
+        <v>45590.89319503472</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="D171" s="18">
+        <v>2.024363E7</v>
+      </c>
+      <c r="E171" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="F171" s="19">
+        <v>0.8923611111094942</v>
+      </c>
+      <c r="G171" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL171" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM171" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="21">
+        <v>45590.94422726852</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D172" s="22">
+        <v>2.0217035E7</v>
+      </c>
+      <c r="E172" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="F172" s="23">
+        <v>0.9375</v>
+      </c>
+      <c r="G172" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I172" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N172" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R172" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S172" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T172" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V172" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W172" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y172" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC172" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF172" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG172" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH172" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI172" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AJ172" s="22">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="17">
+        <v>45590.958968923616</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D173" s="18">
+        <v>2.0245218E7</v>
+      </c>
+      <c r="E173" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="F173" s="19">
+        <v>0.9340277777810115</v>
+      </c>
+      <c r="G173" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H173" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L173" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI173" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ173" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="21">
+        <v>45590.984944675925</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D174" s="22">
+        <v>2.0227093E7</v>
+      </c>
+      <c r="E174" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="F174" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="G174" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O174" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U174" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF174" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI174" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ174" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="17">
+        <v>45591.00319857639</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D175" s="18">
+        <v>2.0232637E7</v>
+      </c>
+      <c r="E175" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="F175" s="19">
+        <v>0.9347222222204437</v>
+      </c>
+      <c r="G175" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H175" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I175" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J175" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K175" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L175" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M175" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N175" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O175" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P175" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q175" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R175" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S175" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T175" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U175" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V175" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W175" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X175" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y175" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z175" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA175" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB175" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC175" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD175" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE175" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF175" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG175" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH175" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI175" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ175" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="21">
+        <v>45591.00336965278</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D176" s="22">
+        <v>2.0193305E7</v>
+      </c>
+      <c r="E176" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="F176" s="23">
+        <v>0.9993055555532919</v>
+      </c>
+      <c r="G176" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK176" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL176" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM176" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN176" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO176" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP176" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ176" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR176" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS176" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT176" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU176" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV176" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW176" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX176" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY176" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ176" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA176" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB176" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC176" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD176" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE176" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BF176" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG176" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH176" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI176" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ176" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK176" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL176" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM176" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="17">
+        <v>45591.048661469904</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D177" s="18">
+        <v>2.0243414E7</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="F177" s="19">
+        <v>0.04374999999708962</v>
+      </c>
+      <c r="G177" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK177" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL177" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM177" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN177" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO177" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP177" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ177" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR177" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS177" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT177" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AU177" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV177" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW177" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX177" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY177" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ177" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA177" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BB177" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC177" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD177" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE177" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF177" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG177" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH177" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI177" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ177" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK177" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL177" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM177" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="21">
+        <v>45591.05118711806</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D178" s="22">
+        <v>2.0246282E7</v>
+      </c>
+      <c r="E178" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="F178" s="23">
+        <v>0.024305555554747116</v>
+      </c>
+      <c r="G178" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK178" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL178" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM178" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN178" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO178" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP178" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ178" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR178" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS178" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT178" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU178" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV178" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW178" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX178" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY178" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ178" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA178" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB178" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC178" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD178" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE178" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF178" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG178" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH178" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI178" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ178" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK178" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL178" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM178" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="17">
+        <v>45591.05323297453</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D179" s="18">
+        <v>2.0241515E7</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="F179" s="19">
+        <v>0.04652777777664596</v>
+      </c>
+      <c r="G179" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN179" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP179" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ179" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT179" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU179" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW179" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AX179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY179" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ179" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC179" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG179" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BH179" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ179" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL179" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM179" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="21">
+        <v>45591.058728703705</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="D180" s="22">
+        <v>2.0193341E7</v>
+      </c>
+      <c r="E180" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F180" s="23">
+        <v>0.057638888887595385</v>
+      </c>
+      <c r="G180" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL180" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM180" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="17">
+        <v>45591.081239004634</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="D181" s="18">
+        <v>2.0221005E7</v>
+      </c>
+      <c r="E181" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="F181" s="19">
+        <v>0.07708333333721384</v>
+      </c>
+      <c r="G181" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK181" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL181" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM181" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN181" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO181" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP181" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR181" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS181" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT181" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB181" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC181" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG181" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH181" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI181" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK181" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL181" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM181" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="21">
+        <v>45591.08193284722</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="C182" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D182" s="22">
+        <v>2.0192931E7</v>
+      </c>
+      <c r="E182" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F182" s="23">
+        <v>0.05833333333430346</v>
+      </c>
+      <c r="G182" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK182" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL182" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM182" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN182" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO182" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP182" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ182" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR182" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS182" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT182" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU182" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV182" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW182" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX182" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY182" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ182" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA182" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB182" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC182" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD182" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE182" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF182" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG182" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH182" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI182" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ182" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK182" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL182" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM182" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="17">
+        <v>45591.08503914352</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D183" s="18">
+        <v>2.0243237E7</v>
+      </c>
+      <c r="E183" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F183" s="19">
+        <v>0.08333333333575865</v>
+      </c>
+      <c r="G183" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H183" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I183" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J183" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K183" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L183" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M183" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N183" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O183" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P183" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q183" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R183" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S183" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T183" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U183" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V183" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W183" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X183" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y183" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z183" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA183" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB183" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC183" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD183" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE183" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF183" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG183" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AH183" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI183" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ183" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="21">
+        <v>45591.10975096065</v>
+      </c>
+      <c r="B184" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D184" s="22">
+        <v>2.0243921E7</v>
+      </c>
+      <c r="E184" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="F184" s="23">
+        <v>0.10694444444379769</v>
+      </c>
+      <c r="G184" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H184" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L184" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q184" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE184" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG184" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH184" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI184" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ184" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="17">
+        <v>45591.31218995371</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D185" s="18">
+        <v>2.0233849E7</v>
+      </c>
+      <c r="E185" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="F185" s="19">
+        <v>0.30833333333430346</v>
+      </c>
+      <c r="G185" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK185" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL185" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM185" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN185" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AO185" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP185" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ185" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR185" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS185" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT185" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU185" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV185" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW185" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX185" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY185" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ185" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA185" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB185" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC185" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD185" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE185" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF185" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG185" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH185" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI185" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ185" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK185" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL185" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM185" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="25">
+        <v>45591.38974854167</v>
+      </c>
+      <c r="B186" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D186" s="26">
+        <v>2.024302E7</v>
+      </c>
+      <c r="E186" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="F186" s="27">
+        <v>0.3861111111109494</v>
+      </c>
+      <c r="G186" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK186" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AL186" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AM186" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AN186" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AO186" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AP186" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AQ186" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AR186" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AS186" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AT186" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AU186" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AV186" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AW186" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AX186" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AY186" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AZ186" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BA186" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BB186" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BC186" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BD186" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BE186" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BF186" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BG186" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BH186" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BI186" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BJ186" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BK186" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BL186" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BM186" s="28">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="550">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1500,6 +1500,168 @@
   </si>
   <si>
     <t>임세현</t>
+  </si>
+  <si>
+    <t>oys55736@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤서</t>
+  </si>
+  <si>
+    <t>anfytlrtk3@naver.com</t>
+  </si>
+  <si>
+    <t>윤가영</t>
+  </si>
+  <si>
+    <t>loollypoolly@naver.com</t>
+  </si>
+  <si>
+    <t>김수정</t>
+  </si>
+  <si>
+    <t>leeaumin1@naver.com</t>
+  </si>
+  <si>
+    <t>이수민</t>
+  </si>
+  <si>
+    <t>stacy4036@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지과</t>
+  </si>
+  <si>
+    <t>최하은</t>
+  </si>
+  <si>
+    <t>bevery2685@gmail.com</t>
+  </si>
+  <si>
+    <t>조영태</t>
+  </si>
+  <si>
+    <t>sin50407899@gmail.com</t>
+  </si>
+  <si>
+    <t>신재화</t>
+  </si>
+  <si>
+    <t>towp7563@gmail.com</t>
+  </si>
+  <si>
+    <t>오승현</t>
+  </si>
+  <si>
+    <t>baeksa01@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>콘텐츠IT 전공</t>
+  </si>
+  <si>
+    <t>서휘도</t>
+  </si>
+  <si>
+    <t>cjc0623@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과 콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>gmlfkr6241@naver.com</t>
+  </si>
+  <si>
+    <t>한희락</t>
+  </si>
+  <si>
+    <t>sangim041113@gmail.com</t>
+  </si>
+  <si>
+    <t>용상임</t>
+  </si>
+  <si>
+    <t>whrudghks030604@naver.com</t>
+  </si>
+  <si>
+    <t>조경환</t>
+  </si>
+  <si>
+    <t>fkdlsalstjd@naver.com</t>
+  </si>
+  <si>
+    <t>yeonjej51@gmail.com</t>
+  </si>
+  <si>
+    <t>정연제</t>
+  </si>
+  <si>
+    <t>010726kjm@naver.com</t>
+  </si>
+  <si>
+    <t>김정민</t>
+  </si>
+  <si>
+    <t>seohyemin2003@naver.com</t>
+  </si>
+  <si>
+    <t>서혜민</t>
+  </si>
+  <si>
+    <t>parkjinseo23@naver.com</t>
+  </si>
+  <si>
+    <t>tigerhaha1@naver.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>leedowon567@naver.com</t>
+  </si>
+  <si>
+    <t>이도원</t>
+  </si>
+  <si>
+    <t>qortjdus27@naver.com</t>
+  </si>
+  <si>
+    <t>경영대핟</t>
+  </si>
+  <si>
+    <t>백서연</t>
+  </si>
+  <si>
+    <t>ggamy3637@naver.com</t>
+  </si>
+  <si>
+    <t>러시아학과</t>
+  </si>
+  <si>
+    <t>최효윤</t>
+  </si>
+  <si>
+    <t>dltlgus1119@naver.com</t>
+  </si>
+  <si>
+    <t>이시현</t>
+  </si>
+  <si>
+    <t>y5het3e@naver.com</t>
+  </si>
+  <si>
+    <t>박재근</t>
+  </si>
+  <si>
+    <t>ljy46tkd@naver.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1692,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -1686,25 +1848,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1789,9 +1937,6 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1850,7 +1995,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM186" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM212" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -23467,112 +23612,2972 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="25">
+      <c r="A186" s="21">
         <v>45591.38974854167</v>
       </c>
-      <c r="B186" s="26" t="s">
+      <c r="B186" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="C186" s="26" t="s">
+      <c r="C186" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D186" s="26">
+      <c r="D186" s="22">
         <v>2.024302E7</v>
       </c>
-      <c r="E186" s="26" t="s">
+      <c r="E186" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="F186" s="27">
+      <c r="F186" s="23">
         <v>0.3861111111109494</v>
       </c>
-      <c r="G186" s="26" t="s">
+      <c r="G186" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AK186" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AL186" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AM186" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AN186" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AO186" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AP186" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AQ186" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AR186" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AS186" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AT186" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AU186" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AV186" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AW186" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AX186" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AY186" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AZ186" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BA186" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BB186" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BC186" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BD186" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BE186" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BF186" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BG186" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BH186" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BI186" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BJ186" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BK186" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BL186" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BM186" s="28">
+      <c r="AK186" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL186" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM186" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN186" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO186" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP186" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ186" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR186" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS186" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT186" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AU186" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV186" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW186" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX186" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY186" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ186" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA186" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB186" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC186" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD186" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE186" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF186" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG186" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH186" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI186" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ186" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK186" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL186" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM186" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="17">
+        <v>45591.42554614584</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D187" s="18">
+        <v>2.0242332E7</v>
+      </c>
+      <c r="E187" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="F187" s="19">
+        <v>0.4180555555576575</v>
+      </c>
+      <c r="G187" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK187" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL187" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM187" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN187" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO187" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP187" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ187" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR187" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS187" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT187" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU187" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV187" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW187" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX187" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY187" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ187" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA187" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB187" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC187" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD187" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE187" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF187" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG187" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH187" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI187" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ187" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK187" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL187" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM187" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="21">
+        <v>45591.45284881945</v>
+      </c>
+      <c r="B188" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D188" s="22">
+        <v>2.024383E7</v>
+      </c>
+      <c r="E188" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="F188" s="23">
+        <v>0.45138888889050577</v>
+      </c>
+      <c r="G188" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H188" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I188" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J188" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K188" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L188" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M188" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N188" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O188" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P188" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q188" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R188" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S188" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T188" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U188" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V188" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W188" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X188" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y188" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z188" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA188" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB188" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC188" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD188" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE188" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF188" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG188" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH188" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI188" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ188" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="17">
+        <v>45591.45585737268</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D189" s="18">
+        <v>2.0243699E7</v>
+      </c>
+      <c r="E189" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="F189" s="19">
+        <v>0.45277777777664596</v>
+      </c>
+      <c r="G189" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H189" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I189" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J189" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K189" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L189" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M189" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N189" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O189" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P189" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q189" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R189" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S189" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T189" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U189" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V189" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W189" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X189" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y189" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z189" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA189" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB189" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC189" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD189" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE189" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF189" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG189" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH189" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI189" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ189" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="21">
+        <v>45591.46043914351</v>
+      </c>
+      <c r="B190" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D190" s="22">
+        <v>2.0243E7</v>
+      </c>
+      <c r="E190" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="F190" s="23">
+        <v>0.4555555555562023</v>
+      </c>
+      <c r="G190" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK190" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL190" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM190" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN190" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO190" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP190" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ190" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR190" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS190" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT190" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU190" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV190" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW190" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX190" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY190" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ190" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA190" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB190" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC190" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD190" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE190" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF190" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG190" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH190" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI190" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ190" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK190" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL190" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM190" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="17">
+        <v>45591.47975013889</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="D191" s="18">
+        <v>2.0227034E7</v>
+      </c>
+      <c r="E191" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F191" s="19">
+        <v>0.47847222222480923</v>
+      </c>
+      <c r="G191" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL191" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM191" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="21">
+        <v>45591.510573391206</v>
+      </c>
+      <c r="B192" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D192" s="22">
+        <v>2.0243354E7</v>
+      </c>
+      <c r="E192" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="F192" s="23">
+        <v>0.00972222222480923</v>
+      </c>
+      <c r="G192" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM192" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO192" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT192" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ192" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA192" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL192" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM192" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="17">
+        <v>45591.510722129635</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D193" s="18">
+        <v>2.0202538E7</v>
+      </c>
+      <c r="E193" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="F193" s="19">
+        <v>0.5083333333313931</v>
+      </c>
+      <c r="G193" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I193" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J193" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K193" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L193" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M193" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P193" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q193" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W193" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y193" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z193" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA193" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD193" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF193" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG193" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH193" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI193" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ193" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="21">
+        <v>45591.539144560185</v>
+      </c>
+      <c r="B194" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="C194" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D194" s="22">
+        <v>2.0243826E7</v>
+      </c>
+      <c r="E194" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="F194" s="23">
+        <v>0.5347222222189885</v>
+      </c>
+      <c r="G194" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL194" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM194" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="17">
+        <v>45591.5480340625</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="D195" s="18">
+        <v>2.0205188E7</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="F195" s="19">
+        <v>0.5451388888905058</v>
+      </c>
+      <c r="G195" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L195" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M195" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P195" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q195" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R195" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U195" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V195" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="X195" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y195" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z195" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AD195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE195" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF195" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AG195" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AH195" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI195" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ195" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="21">
+        <v>45591.55796898148</v>
+      </c>
+      <c r="B196" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="C196" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="D196" s="22">
+        <v>2.0215264E7</v>
+      </c>
+      <c r="E196" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F196" s="23">
+        <v>0.5520833333357587</v>
+      </c>
+      <c r="G196" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK196" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM196" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN196" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP196" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS196" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT196" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW196" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX196" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC196" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE196" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH196" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ196" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK196" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL196" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM196" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="17">
+        <v>45591.567629513884</v>
+      </c>
+      <c r="B197" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D197" s="18">
+        <v>2.0243741E7</v>
+      </c>
+      <c r="E197" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="F197" s="19">
+        <v>0.5562500000014552</v>
+      </c>
+      <c r="G197" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H197" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I197" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J197" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K197" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="L197" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M197" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N197" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O197" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P197" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q197" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R197" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S197" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T197" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U197" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V197" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W197" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X197" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y197" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z197" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA197" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB197" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC197" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD197" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE197" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF197" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG197" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH197" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI197" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ197" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="21">
+        <v>45591.581013159725</v>
+      </c>
+      <c r="B198" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="C198" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D198" s="22">
+        <v>2.0246303E7</v>
+      </c>
+      <c r="E198" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="F198" s="23">
+        <v>0.5770833333372138</v>
+      </c>
+      <c r="G198" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK198" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL198" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM198" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN198" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO198" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP198" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ198" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR198" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS198" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT198" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU198" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV198" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW198" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX198" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY198" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ198" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA198" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB198" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC198" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD198" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE198" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF198" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG198" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH198" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI198" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ198" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK198" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL198" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM198" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="17">
+        <v>45591.61017984954</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D199" s="18">
+        <v>2.0235209E7</v>
+      </c>
+      <c r="E199" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="F199" s="19">
+        <v>0.6069444444437977</v>
+      </c>
+      <c r="G199" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK199" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL199" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM199" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN199" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO199" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP199" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ199" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR199" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS199" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT199" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AU199" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV199" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW199" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX199" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY199" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AZ199" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA199" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB199" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC199" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD199" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE199" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF199" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG199" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH199" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI199" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ199" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK199" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL199" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM199" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="21">
+        <v>45591.63185763889</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="C200" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D200" s="22">
+        <v>2.0243955E7</v>
+      </c>
+      <c r="E200" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="F200" s="23">
+        <v>0.6298611111124046</v>
+      </c>
+      <c r="G200" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK200" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL200" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM200" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN200" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO200" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP200" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ200" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR200" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS200" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT200" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU200" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV200" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW200" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX200" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY200" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ200" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA200" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB200" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC200" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD200" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE200" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF200" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG200" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH200" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI200" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ200" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK200" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL200" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM200" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="17">
+        <v>45591.63380138889</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="C201" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D201" s="18">
+        <v>2.0242924E7</v>
+      </c>
+      <c r="E201" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F201" s="19">
+        <v>0.632638888884685</v>
+      </c>
+      <c r="G201" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL201" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM201" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="21">
+        <v>45591.63389207176</v>
+      </c>
+      <c r="B202" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D202" s="22">
+        <v>2.0241234E7</v>
+      </c>
+      <c r="E202" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="F202" s="23">
+        <v>0.6333333333313931</v>
+      </c>
+      <c r="G202" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL202" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM202" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="17">
+        <v>45591.64076659722</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D203" s="18">
+        <v>2.0203513E7</v>
+      </c>
+      <c r="E203" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="F203" s="19">
+        <v>0.6284722222189885</v>
+      </c>
+      <c r="G203" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H203" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I203" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="L203" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M203" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="O203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="R203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T203" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U203" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z203" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA203" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB203" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC203" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD203" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE203" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF203" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG203" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH203" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI203" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ203" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="21">
+        <v>45591.653602499995</v>
+      </c>
+      <c r="B204" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D204" s="22">
+        <v>2.0232216E7</v>
+      </c>
+      <c r="E204" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="F204" s="23">
+        <v>0.04930555555620231</v>
+      </c>
+      <c r="G204" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK204" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM204" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO204" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ204" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR204" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT204" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU204" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BL204" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM204" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="17">
+        <v>45591.67264388889</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C205" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D205" s="18">
+        <v>2.0242824E7</v>
+      </c>
+      <c r="E205" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="F205" s="19">
+        <v>0.6701388888905058</v>
+      </c>
+      <c r="G205" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H205" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I205" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J205" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K205" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L205" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M205" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N205" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O205" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P205" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q205" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R205" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S205" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T205" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U205" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V205" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W205" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X205" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y205" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z205" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA205" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB205" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC205" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD205" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE205" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF205" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG205" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AH205" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI205" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ205" s="18">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="21">
+        <v>45591.68063689815</v>
+      </c>
+      <c r="B206" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D206" s="22">
+        <v>2.0216716E7</v>
+      </c>
+      <c r="E206" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="F206" s="23">
+        <v>0.6784722222218988</v>
+      </c>
+      <c r="G206" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK206" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN206" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO206" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ206" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT206" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU206" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AV206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW206" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY206" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA206" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BB206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD206" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE206" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG206" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH206" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ206" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK206" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL206" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM206" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="17">
+        <v>45591.71188962963</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D207" s="18">
+        <v>2.0211625E7</v>
+      </c>
+      <c r="E207" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="F207" s="19">
+        <v>0.7104166666686069</v>
+      </c>
+      <c r="G207" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AL207" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN207" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO207" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ207" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR207" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT207" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AX207" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY207" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA207" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB207" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE207" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF207" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BG207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH207" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ207" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK207" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL207" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM207" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="21">
+        <v>45591.715807175926</v>
+      </c>
+      <c r="B208" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="D208" s="22">
+        <v>2.0242971E7</v>
+      </c>
+      <c r="E208" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="F208" s="23">
+        <v>0.7125000000014552</v>
+      </c>
+      <c r="G208" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H208" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I208" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J208" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K208" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="L208" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M208" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N208" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O208" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P208" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q208" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R208" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S208" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T208" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U208" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V208" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W208" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X208" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y208" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z208" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA208" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB208" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC208" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD208" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE208" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF208" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG208" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH208" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI208" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ208" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="17">
+        <v>45591.73459826389</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D209" s="18">
+        <v>2.0201733E7</v>
+      </c>
+      <c r="E209" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="F209" s="19">
+        <v>0.7305555555576575</v>
+      </c>
+      <c r="G209" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK209" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL209" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM209" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN209" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO209" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP209" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ209" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR209" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS209" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT209" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AU209" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV209" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW209" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX209" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY209" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ209" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA209" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB209" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC209" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD209" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE209" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF209" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG209" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH209" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI209" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ209" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK209" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL209" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM209" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="21">
+        <v>45591.739095763885</v>
+      </c>
+      <c r="B210" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D210" s="22">
+        <v>2.0205226E7</v>
+      </c>
+      <c r="E210" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="F210" s="23">
+        <v>0.23611111110949423</v>
+      </c>
+      <c r="G210" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK210" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL210" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM210" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN210" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO210" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP210" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ210" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR210" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS210" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT210" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU210" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV210" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW210" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX210" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY210" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ210" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA210" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB210" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC210" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD210" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE210" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF210" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG210" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH210" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI210" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ210" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK210" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL210" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM210" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="17">
+        <v>45591.746417268514</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D211" s="18">
+        <v>2.0215158E7</v>
+      </c>
+      <c r="E211" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="F211" s="19">
+        <v>0.7430555555547471</v>
+      </c>
+      <c r="G211" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK211" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL211" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM211" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN211" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO211" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP211" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ211" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR211" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS211" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT211" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AU211" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV211" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW211" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX211" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY211" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ211" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA211" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB211" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC211" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD211" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE211" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF211" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG211" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BH211" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI211" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ211" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK211" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL211" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM211" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="25">
+        <v>45591.74761619213</v>
+      </c>
+      <c r="B212" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D212" s="26">
+        <v>2.0242737E7</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="F212" s="27">
+        <v>0.7458333333343035</v>
+      </c>
+      <c r="G212" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H212" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="I212" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="J212" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="K212" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="L212" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="M212" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="N212" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="O212" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="P212" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Q212" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="R212" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="S212" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="T212" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="U212" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="V212" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="W212" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="X212" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Y212" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="Z212" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AA212" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AB212" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AC212" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AD212" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AE212" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AF212" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AG212" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AH212" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AI212" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AJ212" s="26">
         <v>4.0</v>
       </c>
     </row>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="588">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1662,6 +1662,120 @@
   </si>
   <si>
     <t>이정연</t>
+  </si>
+  <si>
+    <t>huiju4684@naver.com</t>
+  </si>
+  <si>
+    <t>강희주</t>
+  </si>
+  <si>
+    <t>kimguswls6685@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>lucy1004486@naver.com</t>
+  </si>
+  <si>
+    <t>김소연</t>
+  </si>
+  <si>
+    <t>eung4077@gmail.com</t>
+  </si>
+  <si>
+    <t>강은결</t>
+  </si>
+  <si>
+    <t>youjin9387@naver.com</t>
+  </si>
+  <si>
+    <t>김유진</t>
+  </si>
+  <si>
+    <t>hanyeong09@naver.com</t>
+  </si>
+  <si>
+    <t>이한영</t>
+  </si>
+  <si>
+    <t>dbfrhr02@naver.com</t>
+  </si>
+  <si>
+    <t>심건휘</t>
+  </si>
+  <si>
+    <t>cobas67@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>박근혁</t>
+  </si>
+  <si>
+    <t>nwjcq14@naver.com</t>
+  </si>
+  <si>
+    <t>임미정</t>
+  </si>
+  <si>
+    <t>chetbaker22@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>김채원</t>
+  </si>
+  <si>
+    <t>qaz5316qaz@naver.com</t>
+  </si>
+  <si>
+    <t>이동기</t>
+  </si>
+  <si>
+    <t>u151pp@gmail.com</t>
+  </si>
+  <si>
+    <t>장대건</t>
+  </si>
+  <si>
+    <t>jyc6212@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학전공</t>
+  </si>
+  <si>
+    <t>정윤채</t>
+  </si>
+  <si>
+    <t>eunse051013@naver.com</t>
+  </si>
+  <si>
+    <t>김은세</t>
+  </si>
+  <si>
+    <t>kate7633@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>syw050819@naver.com</t>
+  </si>
+  <si>
+    <t>신예원</t>
+  </si>
+  <si>
+    <t>inheo0428@gmail.com</t>
+  </si>
+  <si>
+    <t>허인</t>
   </si>
 </sst>
 </file>
@@ -1825,10 +1939,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1836,13 +1950,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1995,7 +2109,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM212" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM229" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -26472,113 +26586,1983 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="25">
+      <c r="A212" s="21">
         <v>45591.74761619213</v>
       </c>
-      <c r="B212" s="26" t="s">
+      <c r="B212" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="C212" s="26" t="s">
+      <c r="C212" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D212" s="26">
+      <c r="D212" s="22">
         <v>2.0242737E7</v>
       </c>
-      <c r="E212" s="26" t="s">
+      <c r="E212" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="F212" s="27">
+      <c r="F212" s="23">
         <v>0.7458333333343035</v>
       </c>
-      <c r="G212" s="26" t="s">
+      <c r="G212" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H212" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="I212" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="J212" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="K212" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="L212" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="M212" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="N212" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="O212" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="P212" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Q212" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="R212" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="S212" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="T212" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="U212" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="V212" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="W212" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="X212" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="Y212" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="Z212" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AA212" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AB212" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AC212" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AD212" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AE212" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AF212" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AG212" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AH212" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AI212" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AJ212" s="26">
-        <v>4.0</v>
+      <c r="H212" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I212" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J212" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K212" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L212" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M212" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N212" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O212" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P212" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q212" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R212" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S212" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T212" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U212" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V212" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W212" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X212" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y212" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z212" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA212" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB212" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC212" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD212" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE212" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF212" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG212" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH212" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI212" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ212" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="17">
+        <v>45591.77444461806</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D213" s="18">
+        <v>2.0217097E7</v>
+      </c>
+      <c r="E213" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F213" s="19">
+        <v>0.7708333333357587</v>
+      </c>
+      <c r="G213" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK213" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN213" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP213" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ213" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT213" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AU213" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX213" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ213" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA213" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB213" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD213" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF213" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG213" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH213" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK213" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL213" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM213" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="21">
+        <v>45591.78277855324</v>
+      </c>
+      <c r="B214" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="D214" s="22">
+        <v>2.0215144E7</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="F214" s="23">
+        <v>0.78125</v>
+      </c>
+      <c r="G214" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H214" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I214" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J214" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K214" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L214" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M214" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N214" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O214" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P214" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q214" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R214" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S214" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T214" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U214" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V214" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W214" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X214" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y214" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z214" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA214" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB214" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC214" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD214" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE214" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF214" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG214" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH214" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI214" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ214" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="17">
+        <v>45591.78468633102</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D215" s="18">
+        <v>2.0232512E7</v>
+      </c>
+      <c r="E215" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="F215" s="19">
+        <v>0.7826388888934162</v>
+      </c>
+      <c r="G215" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H215" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I215" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J215" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K215" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L215" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M215" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N215" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O215" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P215" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q215" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R215" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S215" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T215" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U215" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V215" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W215" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X215" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y215" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z215" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA215" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB215" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC215" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD215" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE215" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF215" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG215" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH215" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI215" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ215" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="21">
+        <v>45591.790963148145</v>
+      </c>
+      <c r="B216" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="C216" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D216" s="22">
+        <v>2.0242201E7</v>
+      </c>
+      <c r="E216" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="F216" s="23">
+        <v>0.7861111111124046</v>
+      </c>
+      <c r="G216" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM216" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR216" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS216" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT216" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU216" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV216" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW216" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX216" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ216" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BA216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB216" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD216" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI216" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ216" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK216" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL216" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM216" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="17">
+        <v>45591.80016366898</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D217" s="18">
+        <v>2.0241709E7</v>
+      </c>
+      <c r="E217" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="F217" s="19">
+        <v>0.7958333333372138</v>
+      </c>
+      <c r="G217" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK217" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL217" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM217" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN217" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO217" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP217" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ217" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR217" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS217" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT217" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU217" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV217" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW217" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX217" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY217" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ217" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA217" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB217" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC217" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD217" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE217" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF217" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG217" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH217" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI217" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BJ217" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK217" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL217" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM217" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="21">
+        <v>45591.81617</v>
+      </c>
+      <c r="B218" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D218" s="22">
+        <v>2.0203423E7</v>
+      </c>
+      <c r="E218" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="F218" s="23">
+        <v>0.8013888888890506</v>
+      </c>
+      <c r="G218" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H218" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K218" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M218" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N218" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T218" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U218" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y218" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z218" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE218" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AF218" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG218" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH218" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI218" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ218" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="17">
+        <v>45591.829647280094</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="C219" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D219" s="18">
+        <v>2.0212971E7</v>
+      </c>
+      <c r="E219" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="F219" s="19">
+        <v>0.8270833333372138</v>
+      </c>
+      <c r="G219" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H219" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I219" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J219" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K219" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L219" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M219" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N219" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O219" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P219" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q219" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R219" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S219" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T219" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U219" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V219" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W219" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X219" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y219" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z219" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA219" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB219" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC219" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD219" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE219" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF219" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG219" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH219" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI219" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ219" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="21">
+        <v>45591.832602916664</v>
+      </c>
+      <c r="B220" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="D220" s="22">
+        <v>2.0205165E7</v>
+      </c>
+      <c r="E220" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="F220" s="23">
+        <v>0.8305555555562023</v>
+      </c>
+      <c r="G220" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR220" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS220" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT220" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU220" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX220" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL220" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM220" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="17">
+        <v>45591.84169151621</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="C221" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D221" s="18">
+        <v>2.0216631E7</v>
+      </c>
+      <c r="E221" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="F221" s="19">
+        <v>0.8388888888875954</v>
+      </c>
+      <c r="G221" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H221" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I221" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J221" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K221" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L221" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M221" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N221" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O221" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P221" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q221" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R221" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S221" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T221" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U221" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V221" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W221" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X221" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y221" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z221" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA221" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB221" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC221" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD221" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE221" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF221" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG221" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH221" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI221" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ221" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="21">
+        <v>45591.856212928236</v>
+      </c>
+      <c r="B222" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="D222" s="22">
+        <v>2.0201031E7</v>
+      </c>
+      <c r="E222" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="F222" s="23">
+        <v>0.33333333333575865</v>
+      </c>
+      <c r="G222" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL222" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN222" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR222" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV222" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX222" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ222" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC222" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD222" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE222" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH222" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ222" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL222" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM222" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="17">
+        <v>45591.85690121527</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="C223" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D223" s="18">
+        <v>2.0192936E7</v>
+      </c>
+      <c r="E223" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="F223" s="19">
+        <v>0.8548611111109494</v>
+      </c>
+      <c r="G223" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H223" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I223" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J223" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K223" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L223" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M223" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N223" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O223" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P223" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q223" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R223" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="S223" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T223" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U223" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V223" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W223" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="X223" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y223" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z223" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA223" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB223" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC223" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD223" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE223" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF223" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG223" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH223" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI223" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ223" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="21">
+        <v>45591.86593107639</v>
+      </c>
+      <c r="B224" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="C224" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D224" s="22">
+        <v>2.0243246E7</v>
+      </c>
+      <c r="E224" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="F224" s="23">
+        <v>0.8638888888890506</v>
+      </c>
+      <c r="G224" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J224" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N224" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R224" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S224" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T224" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V224" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y224" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB224" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC224" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD224" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF224" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG224" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH224" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI224" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AJ224" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="17">
+        <v>45591.870208125</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="C225" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="D225" s="18">
+        <v>2.0232361E7</v>
+      </c>
+      <c r="E225" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="F225" s="19">
+        <v>0.8694444444408873</v>
+      </c>
+      <c r="G225" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK225" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AL225" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM225" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO225" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP225" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR225" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS225" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL225" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM225" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="21">
+        <v>45591.87443915509</v>
+      </c>
+      <c r="B226" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="C226" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D226" s="22">
+        <v>2.0246225E7</v>
+      </c>
+      <c r="E226" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="F226" s="23">
+        <v>0.8722222222204437</v>
+      </c>
+      <c r="G226" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK226" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL226" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO226" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AP226" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT226" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW226" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC226" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG226" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH226" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ226" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK226" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL226" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM226" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="17">
+        <v>45591.87863100694</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="C227" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D227" s="18">
+        <v>2.0242632E7</v>
+      </c>
+      <c r="E227" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="F227" s="19">
+        <v>0.8770833333328483</v>
+      </c>
+      <c r="G227" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I227" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J227" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K227" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="L227" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M227" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N227" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O227" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P227" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R227" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T227" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U227" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF227" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG227" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH227" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AI227" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ227" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="21">
+        <v>45591.890550185184</v>
+      </c>
+      <c r="B228" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D228" s="22">
+        <v>2.0246251E7</v>
+      </c>
+      <c r="E228" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="F228" s="23">
+        <v>0.5562500000014552</v>
+      </c>
+      <c r="G228" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H228" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I228" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J228" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K228" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L228" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M228" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N228" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O228" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P228" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q228" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R228" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S228" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T228" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U228" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V228" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W228" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X228" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y228" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z228" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA228" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB228" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC228" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD228" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE228" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF228" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG228" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH228" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI228" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ228" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="25">
+        <v>45591.90633233797</v>
+      </c>
+      <c r="B229" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="C229" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D229" s="26">
+        <v>2.0242358E7</v>
+      </c>
+      <c r="E229" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="F229" s="27">
+        <v>0.9041666666671517</v>
+      </c>
+      <c r="G229" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H229" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="I229" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="J229" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="K229" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="L229" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="M229" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="N229" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="O229" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="P229" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Q229" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="R229" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="S229" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="T229" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="U229" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="V229" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="W229" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="X229" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Y229" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Z229" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AA229" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AB229" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AC229" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AD229" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AE229" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AF229" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AG229" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AH229" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AI229" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AJ229" s="26">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="622">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1776,6 +1776,108 @@
   </si>
   <si>
     <t>허인</t>
+  </si>
+  <si>
+    <t>awinni@naver.com</t>
+  </si>
+  <si>
+    <t>우현진</t>
+  </si>
+  <si>
+    <t>zzun1414@naver.com</t>
+  </si>
+  <si>
+    <t>반도체·디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황준영</t>
+  </si>
+  <si>
+    <t>joo061222@gmail.com</t>
+  </si>
+  <si>
+    <t>강민주</t>
+  </si>
+  <si>
+    <t>kkkssshhh2005@naver.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>kjinju0518@naver.com</t>
+  </si>
+  <si>
+    <t>김진주</t>
+  </si>
+  <si>
+    <t>ye_ji_02@naver.com</t>
+  </si>
+  <si>
+    <t>전예지</t>
+  </si>
+  <si>
+    <t>pdh9467472@gmail.com</t>
+  </si>
+  <si>
+    <t>법</t>
+  </si>
+  <si>
+    <t>박두환</t>
+  </si>
+  <si>
+    <t>kangna1448@gmail.com</t>
+  </si>
+  <si>
+    <t>강나현</t>
+  </si>
+  <si>
+    <t>raon02271@naver.com</t>
+  </si>
+  <si>
+    <t>이채윤</t>
+  </si>
+  <si>
+    <t>ginny1024@naver.com</t>
+  </si>
+  <si>
+    <t>김희원</t>
+  </si>
+  <si>
+    <t>kimdonghyeon0869@naver.com</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>snp040609@naver.com</t>
+  </si>
+  <si>
+    <t>박세나</t>
+  </si>
+  <si>
+    <t>eunllis6@gmail.com</t>
+  </si>
+  <si>
+    <t>박시은</t>
+  </si>
+  <si>
+    <t>grace0388@naver.com</t>
+  </si>
+  <si>
+    <t>김하은</t>
+  </si>
+  <si>
+    <t>tommy21940@gmail.com</t>
+  </si>
+  <si>
+    <t>양민혁</t>
+  </si>
+  <si>
+    <t>smartcindyya@gmail.com</t>
+  </si>
+  <si>
+    <t>박지현</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2211,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM229" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM245" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -28456,113 +28558,1873 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="25">
+      <c r="A229" s="17">
         <v>45591.90633233797</v>
       </c>
-      <c r="B229" s="26" t="s">
+      <c r="B229" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="C229" s="26" t="s">
+      <c r="C229" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="D229" s="26">
+      <c r="D229" s="18">
         <v>2.0242358E7</v>
       </c>
-      <c r="E229" s="26" t="s">
+      <c r="E229" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="F229" s="27">
+      <c r="F229" s="19">
         <v>0.9041666666671517</v>
       </c>
-      <c r="G229" s="26" t="s">
+      <c r="G229" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H229" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="I229" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="J229" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="K229" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="L229" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="M229" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="N229" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="O229" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="P229" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="Q229" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="R229" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="S229" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="T229" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="U229" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="V229" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="W229" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="X229" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="Y229" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Z229" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AA229" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AB229" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AC229" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AD229" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AE229" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AF229" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AG229" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AH229" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AI229" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AJ229" s="26">
-        <v>1.0</v>
+      <c r="H229" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I229" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J229" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K229" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L229" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M229" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N229" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O229" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P229" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q229" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R229" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S229" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T229" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U229" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V229" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W229" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X229" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y229" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z229" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA229" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB229" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC229" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD229" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE229" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF229" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG229" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH229" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI229" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ229" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="21">
+        <v>45591.92113945602</v>
+      </c>
+      <c r="B230" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="C230" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D230" s="22">
+        <v>2.0245207E7</v>
+      </c>
+      <c r="E230" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="F230" s="23">
+        <v>0.9152777777781012</v>
+      </c>
+      <c r="G230" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I230" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L230" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M230" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N230" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q230" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R230" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T230" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y230" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z230" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB230" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC230" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD230" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE230" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG230" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH230" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI230" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ230" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="17">
+        <v>45591.92814502315</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="C231" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="D231" s="18">
+        <v>2.0203352E7</v>
+      </c>
+      <c r="E231" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="F231" s="19">
+        <v>0.9263888888890506</v>
+      </c>
+      <c r="G231" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H231" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I231" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J231" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K231" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="L231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M231" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O231" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P231" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q231" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R231" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T231" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W231" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X231" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y231" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE231" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH231" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI231" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ231" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="21">
+        <v>45591.931888796295</v>
+      </c>
+      <c r="B232" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="C232" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D232" s="22">
+        <v>2.0243801E7</v>
+      </c>
+      <c r="E232" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="F232" s="23">
+        <v>0.9284722222218988</v>
+      </c>
+      <c r="G232" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H232" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I232" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J232" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K232" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L232" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M232" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N232" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O232" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P232" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q232" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R232" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S232" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T232" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="U232" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V232" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W232" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X232" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y232" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z232" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AA232" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB232" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC232" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD232" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AE232" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF232" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG232" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH232" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI232" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ232" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="17">
+        <v>45591.94762678241</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="C233" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D233" s="18">
+        <v>2.024321E7</v>
+      </c>
+      <c r="E233" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="F233" s="19">
+        <v>0.9444444444452529</v>
+      </c>
+      <c r="G233" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H233" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I233" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J233" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K233" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L233" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M233" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N233" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O233" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P233" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q233" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R233" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S233" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T233" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U233" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="V233" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W233" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X233" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y233" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z233" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA233" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB233" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC233" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD233" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE233" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF233" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG233" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH233" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI233" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ233" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="21">
+        <v>45591.96085346065</v>
+      </c>
+      <c r="B234" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="C234" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D234" s="22">
+        <v>2.0232937E7</v>
+      </c>
+      <c r="E234" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="F234" s="23">
+        <v>0.45902777777519077</v>
+      </c>
+      <c r="G234" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK234" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN234" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP234" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS234" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AT234" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA234" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB234" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF234" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG234" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH234" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL234" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM234" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="17">
+        <v>45591.970582615744</v>
+      </c>
+      <c r="B235" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="C235" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D235" s="18">
+        <v>2.0213839E7</v>
+      </c>
+      <c r="E235" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="F235" s="19">
+        <v>0.9680555555532919</v>
+      </c>
+      <c r="G235" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H235" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I235" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J235" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K235" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L235" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M235" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N235" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O235" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P235" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q235" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R235" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S235" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T235" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U235" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V235" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W235" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X235" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y235" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z235" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA235" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB235" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC235" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD235" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE235" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF235" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG235" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH235" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI235" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ235" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="21">
+        <v>45591.97549369213</v>
+      </c>
+      <c r="B236" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C236" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="D236" s="22">
+        <v>2.0172719E7</v>
+      </c>
+      <c r="E236" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="F236" s="23">
+        <v>0.9743055555591127</v>
+      </c>
+      <c r="G236" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL236" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM236" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="17">
+        <v>45591.97828736111</v>
+      </c>
+      <c r="B237" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="C237" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D237" s="18">
+        <v>2.0243601E7</v>
+      </c>
+      <c r="E237" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="F237" s="19">
+        <v>0.9777777777781012</v>
+      </c>
+      <c r="G237" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK237" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM237" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP237" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ237" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS237" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU237" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW237" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AX237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY237" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA237" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC237" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE237" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG237" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH237" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ237" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK237" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL237" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM237" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="21">
+        <v>45591.98243221064</v>
+      </c>
+      <c r="B238" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="C238" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D238" s="22">
+        <v>2.0233954E7</v>
+      </c>
+      <c r="E238" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="F238" s="23">
+        <v>0.9805555555576575</v>
+      </c>
+      <c r="G238" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H238" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I238" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J238" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K238" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L238" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M238" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N238" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O238" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P238" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q238" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R238" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S238" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T238" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="U238" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V238" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W238" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X238" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y238" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z238" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA238" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB238" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC238" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD238" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE238" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF238" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG238" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH238" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI238" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ238" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="17">
+        <v>45591.98279109954</v>
+      </c>
+      <c r="B239" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="C239" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D239" s="18">
+        <v>2.0246233E7</v>
+      </c>
+      <c r="E239" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="F239" s="19">
+        <v>0.9791666666642413</v>
+      </c>
+      <c r="G239" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H239" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I239" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J239" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K239" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L239" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M239" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N239" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O239" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P239" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q239" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R239" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S239" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T239" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U239" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V239" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W239" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X239" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y239" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z239" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA239" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB239" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC239" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD239" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE239" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF239" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG239" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH239" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI239" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ239" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="21">
+        <v>45591.98718513889</v>
+      </c>
+      <c r="B240" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="C240" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D240" s="22">
+        <v>2.0212912E7</v>
+      </c>
+      <c r="E240" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="F240" s="23">
+        <v>0.984722222223354</v>
+      </c>
+      <c r="G240" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK240" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL240" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM240" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN240" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO240" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP240" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ240" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR240" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AS240" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT240" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU240" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV240" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW240" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX240" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY240" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ240" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA240" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB240" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC240" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BD240" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE240" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF240" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG240" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BH240" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI240" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ240" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK240" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL240" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM240" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="17">
+        <v>45592.01004005787</v>
+      </c>
+      <c r="B241" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="C241" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D241" s="18">
+        <v>2.0242957E7</v>
+      </c>
+      <c r="E241" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="F241" s="19">
+        <v>0.008333333331393078</v>
+      </c>
+      <c r="G241" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK241" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP241" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ241" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR241" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT241" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AU241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV241" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW241" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX241" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC241" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG241" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH241" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK241" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BL241" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM241" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="21">
+        <v>45592.02184809028</v>
+      </c>
+      <c r="B242" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="C242" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D242" s="22">
+        <v>2.0243618E7</v>
+      </c>
+      <c r="E242" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="F242" s="23">
+        <v>0.0194444444423425</v>
+      </c>
+      <c r="G242" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK242" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL242" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM242" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN242" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO242" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP242" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ242" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR242" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS242" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT242" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU242" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV242" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW242" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX242" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY242" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ242" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA242" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB242" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC242" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD242" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE242" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF242" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG242" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH242" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI242" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ242" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK242" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL242" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM242" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="17">
+        <v>45592.02971959491</v>
+      </c>
+      <c r="B243" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="C243" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D243" s="18">
+        <v>2.0222715E7</v>
+      </c>
+      <c r="E243" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="F243" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="G243" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL243" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO243" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ243" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL243" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM243" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="21">
+        <v>45592.059166122686</v>
+      </c>
+      <c r="B244" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="C244" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D244" s="22">
+        <v>2.0241054E7</v>
+      </c>
+      <c r="E244" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="F244" s="23">
+        <v>0.05625000000145519</v>
+      </c>
+      <c r="G244" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H244" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I244" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J244" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K244" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L244" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M244" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N244" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O244" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P244" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q244" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R244" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S244" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T244" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U244" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V244" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W244" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X244" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y244" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z244" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA244" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB244" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC244" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD244" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE244" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF244" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG244" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH244" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AI244" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ244" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="25">
+        <v>45592.08496332176</v>
+      </c>
+      <c r="B245" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="C245" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D245" s="26">
+        <v>2.0245172E7</v>
+      </c>
+      <c r="E245" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="F245" s="27">
+        <v>0.0819444444423425</v>
+      </c>
+      <c r="G245" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H245" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="I245" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="J245" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="K245" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="L245" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="M245" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="N245" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="O245" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="P245" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Q245" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="R245" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="S245" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="T245" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="U245" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="V245" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="W245" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="X245" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Y245" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Z245" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AA245" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AB245" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AC245" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AD245" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AE245" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AF245" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AG245" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AH245" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AI245" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AJ245" s="26">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="639">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1878,6 +1878,57 @@
   </si>
   <si>
     <t>박지현</t>
+  </si>
+  <si>
+    <t>wtbaa33@naver.com</t>
+  </si>
+  <si>
+    <t>김민교</t>
+  </si>
+  <si>
+    <t>ab47cd32@gmail.com</t>
+  </si>
+  <si>
+    <t>우로겸</t>
+  </si>
+  <si>
+    <t>ade1125@naver.com</t>
+  </si>
+  <si>
+    <t>안다은</t>
+  </si>
+  <si>
+    <t>cheun0423@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>dayae6762@naver.com</t>
+  </si>
+  <si>
+    <t>장다예</t>
+  </si>
+  <si>
+    <t>ytkay05@gmail.com</t>
+  </si>
+  <si>
+    <t>김영민</t>
+  </si>
+  <si>
+    <t>rabbit1657@gmail.com</t>
+  </si>
+  <si>
+    <t>이예원</t>
+  </si>
+  <si>
+    <t>ssw805525@naver.com</t>
+  </si>
+  <si>
+    <t>박찬</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1959,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -2064,11 +2115,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2153,6 +2218,9 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2211,7 +2279,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM245" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM253" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -30318,113 +30386,993 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="25">
+      <c r="A245" s="17">
         <v>45592.08496332176</v>
       </c>
-      <c r="B245" s="26" t="s">
+      <c r="B245" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C245" s="26" t="s">
+      <c r="C245" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D245" s="26">
+      <c r="D245" s="18">
         <v>2.0245172E7</v>
       </c>
-      <c r="E245" s="26" t="s">
+      <c r="E245" s="18" t="s">
         <v>621</v>
       </c>
-      <c r="F245" s="27">
+      <c r="F245" s="19">
         <v>0.0819444444423425</v>
       </c>
-      <c r="G245" s="26" t="s">
+      <c r="G245" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H245" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="I245" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="J245" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="K245" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="L245" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="M245" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="N245" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="O245" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="P245" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Q245" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="R245" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="S245" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="T245" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="U245" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="V245" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="W245" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="X245" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Y245" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Z245" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AA245" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AB245" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AC245" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AD245" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AE245" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AF245" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AG245" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AH245" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AI245" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AJ245" s="26">
-        <v>4.0</v>
+      <c r="H245" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I245" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J245" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K245" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L245" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M245" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N245" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O245" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P245" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q245" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R245" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S245" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T245" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U245" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V245" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W245" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X245" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y245" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z245" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA245" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB245" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC245" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD245" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE245" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF245" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG245" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH245" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI245" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ245" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="21">
+        <v>45592.37639613426</v>
+      </c>
+      <c r="B246" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="C246" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D246" s="22">
+        <v>2.0241605E7</v>
+      </c>
+      <c r="E246" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="F246" s="23">
+        <v>0.36041666666278616</v>
+      </c>
+      <c r="G246" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK246" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL246" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM246" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN246" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO246" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP246" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ246" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR246" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS246" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT246" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU246" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV246" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW246" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX246" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY246" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ246" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA246" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB246" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC246" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD246" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE246" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF246" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG246" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH246" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI246" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ246" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK246" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL246" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM246" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="17">
+        <v>45592.40781586806</v>
+      </c>
+      <c r="B247" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="C247" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D247" s="18">
+        <v>2.0242128E7</v>
+      </c>
+      <c r="E247" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="F247" s="19">
+        <v>0.40416666666715173</v>
+      </c>
+      <c r="G247" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK247" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL247" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AM247" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN247" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO247" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP247" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ247" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR247" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS247" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT247" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU247" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV247" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW247" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AX247" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY247" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ247" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA247" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB247" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC247" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD247" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE247" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF247" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG247" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH247" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI247" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ247" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BK247" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL247" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM247" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="21">
+        <v>45592.4090368287</v>
+      </c>
+      <c r="B248" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D248" s="22">
+        <v>2.0232548E7</v>
+      </c>
+      <c r="E248" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="F248" s="23">
+        <v>0.4055555555532919</v>
+      </c>
+      <c r="G248" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK248" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL248" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM248" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN248" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO248" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP248" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ248" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR248" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS248" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT248" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU248" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV248" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW248" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX248" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY248" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ248" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA248" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB248" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC248" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD248" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE248" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF248" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG248" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH248" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI248" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ248" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK248" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL248" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM248" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="17">
+        <v>45592.418682256946</v>
+      </c>
+      <c r="B249" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="C249" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="D249" s="18">
+        <v>2.0217152E7</v>
+      </c>
+      <c r="E249" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="F249" s="19">
+        <v>0.4180555555576575</v>
+      </c>
+      <c r="G249" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK249" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM249" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN249" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO249" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ249" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR249" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW249" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE249" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG249" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH249" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI249" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ249" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BK249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL249" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM249" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="21">
+        <v>45592.46965475695</v>
+      </c>
+      <c r="B250" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="C250" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D250" s="22">
+        <v>2.0241081E7</v>
+      </c>
+      <c r="E250" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="F250" s="23">
+        <v>0.46666666666715173</v>
+      </c>
+      <c r="G250" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK250" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL250" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM250" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW250" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL250" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM250" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="17">
+        <v>45592.47175465278</v>
+      </c>
+      <c r="B251" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="C251" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D251" s="18">
+        <v>2.0243214E7</v>
+      </c>
+      <c r="E251" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="F251" s="19">
+        <v>0.47083333333284827</v>
+      </c>
+      <c r="G251" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H251" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I251" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J251" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K251" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L251" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M251" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N251" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O251" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P251" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q251" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R251" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S251" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T251" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U251" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V251" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W251" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X251" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y251" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z251" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA251" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB251" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC251" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD251" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE251" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF251" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG251" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH251" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI251" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ251" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="21">
+        <v>45592.47391017361</v>
+      </c>
+      <c r="B252" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="C252" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D252" s="22">
+        <v>2.0243939E7</v>
+      </c>
+      <c r="E252" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="F252" s="23">
+        <v>0.47222222221898846</v>
+      </c>
+      <c r="G252" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H252" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="L252" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M252" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q252" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T252" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U252" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z252" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD252" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE252" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG252" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH252" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI252" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ252" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="25">
+        <v>45592.48733604167</v>
+      </c>
+      <c r="B253" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="C253" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D253" s="26">
+        <v>2.0204123E7</v>
+      </c>
+      <c r="E253" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="F253" s="27">
+        <v>0.4930555555547471</v>
+      </c>
+      <c r="G253" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK253" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AL253" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AM253" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AN253" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AO253" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AP253" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AQ253" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AR253" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AS253" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AT253" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AU253" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AV253" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AW253" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AX253" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AY253" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AZ253" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BA253" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BB253" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BC253" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BD253" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BE253" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BF253" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BG253" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BH253" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BI253" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BJ253" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BK253" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BL253" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BM253" s="28">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="718">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1929,6 +1929,243 @@
   </si>
   <si>
     <t>박찬</t>
+  </si>
+  <si>
+    <t>sshee718@gmail.com</t>
+  </si>
+  <si>
+    <t>권도운</t>
+  </si>
+  <si>
+    <t>kbi70722@gmail.com</t>
+  </si>
+  <si>
+    <t>김병일</t>
+  </si>
+  <si>
+    <t>hhy062700@naver.com</t>
+  </si>
+  <si>
+    <t>황희영</t>
+  </si>
+  <si>
+    <t>yxnjxn0331@gmail.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>raon2812@naver.com</t>
+  </si>
+  <si>
+    <t>최라온</t>
+  </si>
+  <si>
+    <t>baeseung1211@gmail.com</t>
+  </si>
+  <si>
+    <t>배승혁</t>
+  </si>
+  <si>
+    <t>dlaehdghks123@gmail.com</t>
+  </si>
+  <si>
+    <t>임동환</t>
+  </si>
+  <si>
+    <t>goemf100@naver.com</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>cyj292513@naver.com</t>
+  </si>
+  <si>
+    <t>최영준</t>
+  </si>
+  <si>
+    <t>kjins1234@naver.com</t>
+  </si>
+  <si>
+    <t>김진수</t>
+  </si>
+  <si>
+    <t>ataraxia050508@naver.com</t>
+  </si>
+  <si>
+    <t>박정호</t>
+  </si>
+  <si>
+    <t>lindenjw12@gmail.com</t>
+  </si>
+  <si>
+    <t>이지우</t>
+  </si>
+  <si>
+    <t>pjobin0821@naver.com</t>
+  </si>
+  <si>
+    <t>조유빈</t>
+  </si>
+  <si>
+    <t>hhr0408@naver.com</t>
+  </si>
+  <si>
+    <t>한혜령</t>
+  </si>
+  <si>
+    <t>eojeongmin146@gmail.com</t>
+  </si>
+  <si>
+    <t>어정민</t>
+  </si>
+  <si>
+    <t>lyn392392@naver.com</t>
+  </si>
+  <si>
+    <t>이유나</t>
+  </si>
+  <si>
+    <t>ansk999@gmail.com</t>
+  </si>
+  <si>
+    <t>위수현</t>
+  </si>
+  <si>
+    <t>jenniferdy@naver.com</t>
+  </si>
+  <si>
+    <t>권도연</t>
+  </si>
+  <si>
+    <t>seeun1012123@naver.com</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>0616sdh@naver.com</t>
+  </si>
+  <si>
+    <t>신동현</t>
+  </si>
+  <si>
+    <t>rer220@naver.com</t>
+  </si>
+  <si>
+    <t>김대명</t>
+  </si>
+  <si>
+    <t>smarthulk0318@naver.com</t>
+  </si>
+  <si>
+    <t>조성민</t>
+  </si>
+  <si>
+    <t>leedug87@gmail.com</t>
+  </si>
+  <si>
+    <t>이두현</t>
+  </si>
+  <si>
+    <t>a01028349689@gmail.com</t>
+  </si>
+  <si>
+    <t>최다인</t>
+  </si>
+  <si>
+    <t>guj2205146@gmail.com</t>
+  </si>
+  <si>
+    <t>강의주</t>
+  </si>
+  <si>
+    <t>sujdiamond@gmail.com</t>
+  </si>
+  <si>
+    <t>심유진</t>
+  </si>
+  <si>
+    <t>jdragon0151@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>신준용</t>
+  </si>
+  <si>
+    <t>nyj7013@naver.com</t>
+  </si>
+  <si>
+    <t>노예진</t>
+  </si>
+  <si>
+    <t>dkddkd8480@gmail.com</t>
+  </si>
+  <si>
+    <t>유용재</t>
+  </si>
+  <si>
+    <t>ywj0423@gmail.com</t>
+  </si>
+  <si>
+    <t>장예원</t>
+  </si>
+  <si>
+    <t>cjfghksznszns1100119@naver.com</t>
+  </si>
+  <si>
+    <t>유철환</t>
+  </si>
+  <si>
+    <t>mani4262421@naver.com</t>
+  </si>
+  <si>
+    <t>jiminn101777@gmail.com</t>
+  </si>
+  <si>
+    <t>권지민</t>
+  </si>
+  <si>
+    <t>seollo020531@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과</t>
+  </si>
+  <si>
+    <t>설창원</t>
+  </si>
+  <si>
+    <t>juhui050356@naver.com</t>
+  </si>
+  <si>
+    <t>김주희</t>
+  </si>
+  <si>
+    <t>giyongi37@gmail.com</t>
+  </si>
+  <si>
+    <t>이기용</t>
+  </si>
+  <si>
+    <t>whalsrl124@naver.com</t>
+  </si>
+  <si>
+    <t>조민기</t>
+  </si>
+  <si>
+    <t>seoeunchan5@gmail.com</t>
+  </si>
+  <si>
+    <t>서은찬</t>
+  </si>
+  <si>
+    <t>8428kyn@naver.com</t>
+  </si>
+  <si>
+    <t>김예나</t>
   </si>
 </sst>
 </file>
@@ -1959,7 +2196,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -2092,10 +2329,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2103,27 +2340,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2133,7 +2356,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2218,9 +2441,6 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2279,7 +2499,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM253" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM292" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -31266,113 +31486,4403 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="25">
+      <c r="A253" s="17">
         <v>45592.48733604167</v>
       </c>
-      <c r="B253" s="26" t="s">
+      <c r="B253" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="C253" s="26" t="s">
+      <c r="C253" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D253" s="26">
+      <c r="D253" s="18">
         <v>2.0204123E7</v>
       </c>
-      <c r="E253" s="26" t="s">
+      <c r="E253" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="F253" s="27">
+      <c r="F253" s="19">
         <v>0.4930555555547471</v>
       </c>
-      <c r="G253" s="26" t="s">
+      <c r="G253" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AK253" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AL253" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AM253" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AN253" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AO253" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AP253" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AQ253" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AR253" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AS253" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AT253" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AU253" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AV253" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AW253" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AX253" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AY253" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AZ253" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BA253" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BB253" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BC253" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BD253" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BE253" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BF253" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BG253" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BH253" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="BI253" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BJ253" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BK253" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="BL253" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="BM253" s="28">
-        <v>2.0</v>
+      <c r="AK253" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL253" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM253" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN253" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO253" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP253" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ253" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR253" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS253" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT253" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU253" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV253" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW253" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AX253" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY253" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ253" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA253" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB253" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC253" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD253" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE253" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF253" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG253" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH253" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI253" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ253" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK253" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL253" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM253" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="21">
+        <v>45592.488647997685</v>
+      </c>
+      <c r="B254" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D254" s="22">
+        <v>2.0243702E7</v>
+      </c>
+      <c r="E254" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="F254" s="23">
+        <v>0.45833333333575865</v>
+      </c>
+      <c r="G254" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AS254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AT254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AV254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AW254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AZ254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BA254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BB254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BC254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BG254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH254" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BJ254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BK254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL254" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM254" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="17">
+        <v>45592.49377108796</v>
+      </c>
+      <c r="B255" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="C255" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D255" s="18">
+        <v>2.0191604E7</v>
+      </c>
+      <c r="E255" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F255" s="19">
+        <v>0.4916666666686069</v>
+      </c>
+      <c r="G255" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H255" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I255" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J255" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K255" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L255" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M255" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N255" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O255" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P255" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q255" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R255" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S255" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T255" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U255" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V255" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W255" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X255" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y255" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z255" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA255" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB255" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC255" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD255" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE255" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF255" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG255" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH255" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI255" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ255" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="21">
+        <v>45592.49923243056</v>
+      </c>
+      <c r="B256" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D256" s="22">
+        <v>2.0243971E7</v>
+      </c>
+      <c r="E256" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="F256" s="23">
+        <v>0.49652777778101154</v>
+      </c>
+      <c r="G256" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK256" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL256" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM256" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP256" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT256" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW256" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC256" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH256" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ256" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK256" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL256" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM256" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="17">
+        <v>45592.515101585646</v>
+      </c>
+      <c r="B257" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="C257" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D257" s="18">
+        <v>2.0217015E7</v>
+      </c>
+      <c r="E257" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="F257" s="19">
+        <v>0.5118055555576575</v>
+      </c>
+      <c r="G257" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I257" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O257" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Q257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="S257" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="T257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="W257" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y257" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z257" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA257" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AB257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC257" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AD257" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE257" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH257" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI257" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ257" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="21">
+        <v>45592.523199166666</v>
+      </c>
+      <c r="B258" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D258" s="22">
+        <v>2.0242751E7</v>
+      </c>
+      <c r="E258" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="F258" s="23">
+        <v>0.020833333335758653</v>
+      </c>
+      <c r="G258" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H258" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I258" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J258" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K258" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L258" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M258" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N258" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O258" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P258" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q258" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R258" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S258" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T258" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U258" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V258" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W258" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X258" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y258" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z258" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA258" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB258" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC258" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD258" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE258" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF258" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG258" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH258" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI258" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ258" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="17">
+        <v>45592.52812990741</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="C259" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="D259" s="18">
+        <v>2.0235179E7</v>
+      </c>
+      <c r="E259" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="F259" s="19">
+        <v>0.5270833333343035</v>
+      </c>
+      <c r="G259" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H259" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I259" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J259" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K259" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L259" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M259" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N259" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O259" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P259" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q259" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R259" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="S259" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T259" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U259" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V259" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W259" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X259" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y259" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z259" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA259" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB259" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC259" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AD259" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE259" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF259" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG259" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH259" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI259" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ259" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="21">
+        <v>45592.533267430554</v>
+      </c>
+      <c r="B260" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D260" s="22">
+        <v>2.0213533E7</v>
+      </c>
+      <c r="E260" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="F260" s="23">
+        <v>0.53125</v>
+      </c>
+      <c r="G260" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK260" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL260" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN260" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO260" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AP260" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT260" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW260" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX260" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BD260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG260" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH260" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ260" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK260" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL260" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM260" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="17">
+        <v>45592.54046122685</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="C261" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D261" s="18">
+        <v>2.0222709E7</v>
+      </c>
+      <c r="E261" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="F261" s="19">
+        <v>0.538888888884685</v>
+      </c>
+      <c r="G261" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS261" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU261" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AV261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW261" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY261" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AZ261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC261" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD261" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL261" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM261" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="21">
+        <v>45592.54078689815</v>
+      </c>
+      <c r="B262" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D262" s="22">
+        <v>2.024244E7</v>
+      </c>
+      <c r="E262" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="F262" s="23">
+        <v>0.5319444444467081</v>
+      </c>
+      <c r="G262" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK262" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL262" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM262" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN262" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO262" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP262" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ262" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR262" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS262" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT262" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU262" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV262" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW262" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX262" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY262" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ262" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA262" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB262" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC262" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD262" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE262" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF262" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG262" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BH262" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI262" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ262" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK262" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL262" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM262" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="17">
+        <v>45592.54154679398</v>
+      </c>
+      <c r="B263" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="C263" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D263" s="18">
+        <v>2.0182845E7</v>
+      </c>
+      <c r="E263" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="F263" s="19">
+        <v>0.5402777777781012</v>
+      </c>
+      <c r="G263" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H263" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I263" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J263" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K263" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L263" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M263" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N263" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O263" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P263" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q263" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R263" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S263" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T263" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U263" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V263" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W263" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X263" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y263" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z263" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA263" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB263" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC263" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD263" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE263" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF263" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG263" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH263" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI263" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ263" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="21">
+        <v>45592.5566043287</v>
+      </c>
+      <c r="B264" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="C264" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D264" s="22">
+        <v>2.0242118E7</v>
+      </c>
+      <c r="E264" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="F264" s="23">
+        <v>0.5486111111094942</v>
+      </c>
+      <c r="G264" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK264" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AL264" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM264" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN264" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AO264" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP264" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ264" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR264" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS264" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AT264" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU264" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV264" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW264" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX264" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY264" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AZ264" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA264" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB264" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC264" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD264" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE264" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF264" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG264" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH264" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI264" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ264" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK264" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL264" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM264" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="17">
+        <v>45592.561466307874</v>
+      </c>
+      <c r="B265" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="C265" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D265" s="18">
+        <v>2.0233016E7</v>
+      </c>
+      <c r="E265" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="F265" s="19">
+        <v>0.5590277777810115</v>
+      </c>
+      <c r="G265" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H265" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I265" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J265" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K265" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L265" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M265" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N265" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O265" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P265" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q265" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R265" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S265" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T265" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U265" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V265" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W265" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X265" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y265" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z265" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA265" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB265" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC265" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD265" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AE265" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF265" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG265" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH265" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI265" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ265" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="21">
+        <v>45592.56864243056</v>
+      </c>
+      <c r="B266" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D266" s="22">
+        <v>2.024173E7</v>
+      </c>
+      <c r="E266" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="F266" s="23">
+        <v>0.5666666666656965</v>
+      </c>
+      <c r="G266" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H266" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I266" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J266" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K266" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L266" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M266" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N266" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O266" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P266" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q266" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R266" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S266" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T266" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U266" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V266" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W266" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X266" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y266" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z266" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA266" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB266" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC266" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD266" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE266" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF266" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG266" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH266" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI266" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ266" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="17">
+        <v>45592.57279892361</v>
+      </c>
+      <c r="B267" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="C267" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D267" s="18">
+        <v>2.0246648E7</v>
+      </c>
+      <c r="E267" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="F267" s="19">
+        <v>0.070138888884685</v>
+      </c>
+      <c r="G267" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H267" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I267" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J267" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K267" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L267" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M267" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N267" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O267" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P267" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q267" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="R267" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S267" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T267" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U267" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V267" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W267" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X267" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y267" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z267" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AA267" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AB267" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AC267" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AD267" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AE267" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF267" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG267" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH267" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI267" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ267" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="21">
+        <v>45592.57495391204</v>
+      </c>
+      <c r="B268" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="C268" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D268" s="22">
+        <v>2.0242725E7</v>
+      </c>
+      <c r="E268" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="F268" s="23">
+        <v>0.5722222222248092</v>
+      </c>
+      <c r="G268" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I268" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J268" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K268" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N268" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O268" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S268" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U268" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V268" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC268" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD268" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF268" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI268" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ268" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="17">
+        <v>45592.58023346065</v>
+      </c>
+      <c r="B269" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="C269" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D269" s="18">
+        <v>2.0243007E7</v>
+      </c>
+      <c r="E269" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="F269" s="19">
+        <v>0.577777777776646</v>
+      </c>
+      <c r="G269" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H269" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I269" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J269" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K269" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L269" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M269" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N269" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O269" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P269" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q269" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R269" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S269" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T269" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U269" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V269" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W269" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="X269" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y269" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z269" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA269" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB269" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC269" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD269" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE269" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF269" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG269" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH269" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI269" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ269" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="21">
+        <v>45592.58298900463</v>
+      </c>
+      <c r="B270" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D270" s="22">
+        <v>2.0202736E7</v>
+      </c>
+      <c r="E270" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="F270" s="23">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="G270" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK270" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL270" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM270" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN270" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO270" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP270" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ270" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR270" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS270" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT270" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU270" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV270" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW270" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX270" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY270" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ270" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA270" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB270" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC270" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD270" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE270" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BF270" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG270" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH270" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI270" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ270" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK270" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL270" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM270" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="17">
+        <v>45592.58729751158</v>
+      </c>
+      <c r="B271" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="C271" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D271" s="18">
+        <v>2.0246206E7</v>
+      </c>
+      <c r="E271" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="F271" s="19">
+        <v>0.586111111115315</v>
+      </c>
+      <c r="G271" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK271" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AM271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AN271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AO271" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AP271" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AR271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AS271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT271" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AU271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AW271" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX271" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AZ271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BB271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BC271" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BE271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BF271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BG271" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH271" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI271" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ271" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BK271" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL271" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM271" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="21">
+        <v>45592.59050898148</v>
+      </c>
+      <c r="B272" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="C272" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D272" s="22">
+        <v>2.0241068E7</v>
+      </c>
+      <c r="E272" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="F272" s="23">
+        <v>0.5881944444408873</v>
+      </c>
+      <c r="G272" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H272" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I272" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J272" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K272" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L272" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M272" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N272" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="O272" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P272" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q272" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R272" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S272" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T272" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="U272" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V272" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W272" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X272" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y272" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z272" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA272" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB272" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC272" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD272" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE272" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF272" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG272" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH272" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI272" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ272" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="17">
+        <v>45592.598870208334</v>
+      </c>
+      <c r="B273" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="C273" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D273" s="18">
+        <v>2.020273E7</v>
+      </c>
+      <c r="E273" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="F273" s="19">
+        <v>0.5972222222189885</v>
+      </c>
+      <c r="G273" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H273" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L273" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M273" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N273" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O273" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q273" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T273" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U273" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z273" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD273" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE273" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF273" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH273" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI273" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ273" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="21">
+        <v>45592.59940413194</v>
+      </c>
+      <c r="B274" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D274" s="22">
+        <v>2.0205124E7</v>
+      </c>
+      <c r="E274" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="F274" s="23">
+        <v>0.5944444444467081</v>
+      </c>
+      <c r="G274" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK274" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL274" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AM274" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN274" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO274" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AP274" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ274" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AR274" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS274" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT274" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU274" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AV274" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AW274" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX274" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY274" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AZ274" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA274" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB274" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC274" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD274" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE274" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF274" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG274" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH274" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI274" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ274" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK274" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL274" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM274" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="17">
+        <v>45592.601180300924</v>
+      </c>
+      <c r="B275" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="C275" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D275" s="18">
+        <v>2.0241095E7</v>
+      </c>
+      <c r="E275" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="F275" s="19">
+        <v>0.5944444444467081</v>
+      </c>
+      <c r="G275" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL275" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP275" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT275" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV275" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC275" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE275" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH275" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ275" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK275" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL275" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM275" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="21">
+        <v>45592.615800740736</v>
+      </c>
+      <c r="B276" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D276" s="22">
+        <v>2.0231623E7</v>
+      </c>
+      <c r="E276" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="F276" s="23">
+        <v>0.6111111111094942</v>
+      </c>
+      <c r="G276" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK276" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL276" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM276" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN276" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO276" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AP276" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ276" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR276" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS276" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT276" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU276" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV276" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW276" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX276" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY276" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ276" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA276" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB276" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BC276" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BD276" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE276" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF276" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG276" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH276" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI276" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ276" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BK276" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL276" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM276" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="17">
+        <v>45592.62425113426</v>
+      </c>
+      <c r="B277" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="C277" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D277" s="18">
+        <v>2.0242635E7</v>
+      </c>
+      <c r="E277" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="F277" s="19">
+        <v>0.6236111111065838</v>
+      </c>
+      <c r="G277" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK277" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL277" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ277" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR277" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS277" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU277" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY277" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ277" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA277" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD277" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE277" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF277" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG277" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK277" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL277" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM277" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="21">
+        <v>45592.65654287037</v>
+      </c>
+      <c r="B278" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D278" s="22">
+        <v>2.0242101E7</v>
+      </c>
+      <c r="E278" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="F278" s="23">
+        <v>0.6506944444408873</v>
+      </c>
+      <c r="G278" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK278" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL278" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM278" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN278" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO278" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP278" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ278" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR278" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS278" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT278" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU278" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV278" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW278" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX278" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY278" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ278" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA278" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB278" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC278" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD278" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE278" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF278" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG278" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH278" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI278" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ278" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK278" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL278" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM278" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="17">
+        <v>45592.661601886575</v>
+      </c>
+      <c r="B279" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="C279" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D279" s="18">
+        <v>2.0243627E7</v>
+      </c>
+      <c r="E279" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="F279" s="19">
+        <v>0.6541666666671517</v>
+      </c>
+      <c r="G279" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK279" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL279" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM279" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN279" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO279" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP279" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AQ279" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR279" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AS279" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT279" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AU279" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV279" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW279" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX279" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AY279" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ279" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA279" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB279" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC279" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD279" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE279" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF279" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG279" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH279" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI279" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ279" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK279" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL279" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BM279" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="21">
+        <v>45592.66762828703</v>
+      </c>
+      <c r="B280" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="D280" s="22">
+        <v>2.0205195E7</v>
+      </c>
+      <c r="E280" s="22" t="s">
+        <v>693</v>
+      </c>
+      <c r="F280" s="23">
+        <v>0.6666666666642413</v>
+      </c>
+      <c r="G280" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK280" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL280" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM280" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN280" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO280" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP280" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ280" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR280" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS280" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT280" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU280" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV280" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW280" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX280" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY280" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ280" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA280" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB280" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BC280" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD280" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE280" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF280" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG280" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH280" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI280" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ280" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK280" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL280" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM280" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="17">
+        <v>45592.671896458334</v>
+      </c>
+      <c r="B281" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="C281" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D281" s="18">
+        <v>2.0246235E7</v>
+      </c>
+      <c r="E281" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="F281" s="19">
+        <v>0.6701388888905058</v>
+      </c>
+      <c r="G281" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H281" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I281" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J281" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K281" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L281" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M281" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N281" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O281" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P281" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q281" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R281" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S281" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T281" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U281" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V281" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W281" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X281" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y281" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z281" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA281" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB281" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC281" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD281" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE281" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF281" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG281" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH281" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI281" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ281" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="21">
+        <v>45592.67259178241</v>
+      </c>
+      <c r="B282" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="C282" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D282" s="22">
+        <v>2.0243235E7</v>
+      </c>
+      <c r="E282" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="F282" s="23">
+        <v>0.671527777776646</v>
+      </c>
+      <c r="G282" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL282" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM282" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="17">
+        <v>45592.67402452546</v>
+      </c>
+      <c r="B283" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="C283" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D283" s="18">
+        <v>2.0241082E7</v>
+      </c>
+      <c r="E283" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="F283" s="19">
+        <v>0.672222222223354</v>
+      </c>
+      <c r="G283" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H283" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I283" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J283" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K283" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L283" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M283" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N283" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O283" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P283" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q283" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R283" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S283" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T283" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U283" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="V283" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W283" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X283" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y283" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z283" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA283" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB283" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC283" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD283" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AE283" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF283" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG283" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH283" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI283" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ283" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="21">
+        <v>45592.68583741898</v>
+      </c>
+      <c r="B284" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="C284" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D284" s="22">
+        <v>2.0243829E7</v>
+      </c>
+      <c r="E284" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="F284" s="23">
+        <v>0.6840277777810115</v>
+      </c>
+      <c r="G284" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK284" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO284" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT284" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU284" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV284" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW284" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX284" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY284" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH284" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ284" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK284" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL284" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM284" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="17">
+        <v>45592.686920162036</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="C285" s="18">
+        <v>2.0223022E7</v>
+      </c>
+      <c r="D285" s="18">
+        <v>2.0223022E7</v>
+      </c>
+      <c r="E285" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="F285" s="19">
+        <v>0.6840277777810115</v>
+      </c>
+      <c r="G285" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H285" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I285" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J285" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K285" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L285" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M285" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N285" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="O285" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P285" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q285" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R285" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="S285" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T285" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U285" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V285" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W285" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X285" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y285" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z285" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA285" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB285" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC285" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD285" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE285" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF285" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG285" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH285" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI285" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ285" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="21">
+        <v>45592.691626608794</v>
+      </c>
+      <c r="B286" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="C286" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D286" s="22">
+        <v>2.0242306E7</v>
+      </c>
+      <c r="E286" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="F286" s="23">
+        <v>0.6902777777795563</v>
+      </c>
+      <c r="G286" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL286" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM286" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT286" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL286" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM286" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="17">
+        <v>45592.69384841435</v>
+      </c>
+      <c r="B287" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="C287" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="D287" s="18">
+        <v>2.0225175E7</v>
+      </c>
+      <c r="E287" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="F287" s="19">
+        <v>0.6666666666642413</v>
+      </c>
+      <c r="G287" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H287" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I287" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J287" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K287" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L287" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M287" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N287" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O287" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P287" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q287" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R287" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S287" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T287" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U287" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V287" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W287" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X287" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y287" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z287" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA287" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB287" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC287" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD287" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE287" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF287" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG287" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH287" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI287" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ287" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="21">
+        <v>45592.69737243056</v>
+      </c>
+      <c r="B288" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D288" s="22">
+        <v>2.0242111E7</v>
+      </c>
+      <c r="E288" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="F288" s="23">
+        <v>0.6958333333313931</v>
+      </c>
+      <c r="G288" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H288" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I288" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J288" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K288" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L288" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M288" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N288" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O288" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P288" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q288" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R288" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S288" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T288" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U288" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="V288" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W288" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X288" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y288" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z288" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AA288" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB288" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC288" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD288" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE288" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AF288" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG288" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH288" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI288" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ288" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="17">
+        <v>45592.69919625</v>
+      </c>
+      <c r="B289" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="C289" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D289" s="18">
+        <v>2.0215199E7</v>
+      </c>
+      <c r="E289" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="F289" s="19">
+        <v>0.6986111111109494</v>
+      </c>
+      <c r="G289" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK289" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL289" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM289" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="21">
+        <v>45592.70143079861</v>
+      </c>
+      <c r="B290" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="C290" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D290" s="22">
+        <v>2.0192986E7</v>
+      </c>
+      <c r="E290" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="F290" s="23">
+        <v>0.7006944444437977</v>
+      </c>
+      <c r="G290" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK290" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM290" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO290" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS290" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU290" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW290" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX290" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC290" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG290" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH290" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ290" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK290" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL290" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM290" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="17">
+        <v>45592.71871543981</v>
+      </c>
+      <c r="B291" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="C291" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D291" s="18">
+        <v>2.0245183E7</v>
+      </c>
+      <c r="E291" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="F291" s="19">
+        <v>0.7180555555532919</v>
+      </c>
+      <c r="G291" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK291" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM291" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO291" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP291" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT291" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU291" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX291" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB291" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD291" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF291" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ291" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL291" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM291" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="25">
+        <v>45592.720026689814</v>
+      </c>
+      <c r="B292" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="C292" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D292" s="26">
+        <v>2.0241017E7</v>
+      </c>
+      <c r="E292" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="F292" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="G292" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H292" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="I292" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="J292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="K292" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="L292" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="M292" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="N292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="O292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="P292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Q292" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="R292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="S292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="T292" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="U292" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="V292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="W292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="X292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Y292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Z292" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AA292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AB292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AC292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AD292" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AE292" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AF292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AG292" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AH292" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AI292" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AJ292" s="26">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="757">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2166,6 +2166,123 @@
   </si>
   <si>
     <t>김예나</t>
+  </si>
+  <si>
+    <t>chiyoon12@gmail.com</t>
+  </si>
+  <si>
+    <t>김치윤</t>
+  </si>
+  <si>
+    <t>ran0753@gmail.com</t>
+  </si>
+  <si>
+    <t>김태란</t>
+  </si>
+  <si>
+    <t>haeunlife@naver.com</t>
+  </si>
+  <si>
+    <t>오하은</t>
+  </si>
+  <si>
+    <t>Psj050317@naver.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>wikzids0418@naver.com</t>
+  </si>
+  <si>
+    <t>박혜인</t>
+  </si>
+  <si>
+    <t>yohihong@gmail.com</t>
+  </si>
+  <si>
+    <t>민홍기</t>
+  </si>
+  <si>
+    <t>qkfdmltls@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지과 </t>
+  </si>
+  <si>
+    <t>조혜람</t>
+  </si>
+  <si>
+    <t>ncu11069@naver.com</t>
+  </si>
+  <si>
+    <t>이규민</t>
+  </si>
+  <si>
+    <t>shinsohee0713@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어컨텐츠학과</t>
+  </si>
+  <si>
+    <t>신소희</t>
+  </si>
+  <si>
+    <t>ahrang1225@gmail.com</t>
+  </si>
+  <si>
+    <t>탁아랑</t>
+  </si>
+  <si>
+    <t>siqyy2003@gmail.com</t>
+  </si>
+  <si>
+    <t>양민서</t>
+  </si>
+  <si>
+    <t>syb00syb00@naver.com</t>
+  </si>
+  <si>
+    <t>신유비</t>
+  </si>
+  <si>
+    <t>dmtn0001@naver.com</t>
+  </si>
+  <si>
+    <t>김의수</t>
+  </si>
+  <si>
+    <t>obokboki@naver.com</t>
+  </si>
+  <si>
+    <t>최서윤</t>
+  </si>
+  <si>
+    <t>kms050915@naver.com</t>
+  </si>
+  <si>
+    <t>융합과학수사학과</t>
+  </si>
+  <si>
+    <t>강명수</t>
+  </si>
+  <si>
+    <t>hyunwoo4223021@naver.com</t>
+  </si>
+  <si>
+    <t>김현우</t>
+  </si>
+  <si>
+    <t>scott1234698@gmail.com</t>
+  </si>
+  <si>
+    <t>우성진</t>
+  </si>
+  <si>
+    <t>httv08@naver.com</t>
+  </si>
+  <si>
+    <t>전현태</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2313,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -2352,11 +2469,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2441,6 +2572,9 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2499,7 +2633,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM292" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM310" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -35776,112 +35910,2092 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="25">
+      <c r="A292" s="21">
         <v>45592.720026689814</v>
       </c>
-      <c r="B292" s="26" t="s">
+      <c r="B292" s="22" t="s">
         <v>716</v>
       </c>
-      <c r="C292" s="26" t="s">
+      <c r="C292" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D292" s="26">
+      <c r="D292" s="22">
         <v>2.0241017E7</v>
       </c>
-      <c r="E292" s="26" t="s">
+      <c r="E292" s="22" t="s">
         <v>717</v>
       </c>
-      <c r="F292" s="27">
+      <c r="F292" s="23">
         <v>0.875</v>
       </c>
-      <c r="G292" s="26" t="s">
+      <c r="G292" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H292" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="I292" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="J292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="K292" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="L292" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="M292" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="N292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="O292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="P292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="Q292" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="R292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="S292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="T292" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="U292" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="V292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="W292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="X292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="Y292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="Z292" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AA292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AB292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AC292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AD292" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AE292" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AF292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AG292" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AH292" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AI292" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AJ292" s="26">
+      <c r="H292" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I292" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K292" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L292" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M292" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q292" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T292" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U292" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z292" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD292" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE292" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG292" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH292" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI292" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ292" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="17">
+        <v>45592.721992719904</v>
+      </c>
+      <c r="B293" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="C293" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D293" s="18">
+        <v>2.0232938E7</v>
+      </c>
+      <c r="E293" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="F293" s="19">
+        <v>0.7180555555532919</v>
+      </c>
+      <c r="G293" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK293" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL293" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM293" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN293" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO293" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP293" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ293" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR293" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS293" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT293" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU293" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV293" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW293" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX293" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY293" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ293" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA293" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB293" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC293" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD293" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE293" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF293" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG293" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH293" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI293" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ293" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK293" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL293" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM293" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="21">
+        <v>45592.72307375</v>
+      </c>
+      <c r="B294" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="C294" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D294" s="22">
+        <v>2.0243615E7</v>
+      </c>
+      <c r="E294" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="F294" s="23">
+        <v>0.7180555555532919</v>
+      </c>
+      <c r="G294" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK294" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL294" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM294" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN294" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO294" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP294" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ294" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR294" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS294" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT294" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU294" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV294" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW294" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX294" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY294" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ294" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA294" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB294" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC294" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD294" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE294" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF294" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG294" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH294" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI294" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ294" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK294" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL294" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM294" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="17">
+        <v>45592.7255597801</v>
+      </c>
+      <c r="B295" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D295" s="18">
+        <v>2.0242624E7</v>
+      </c>
+      <c r="E295" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="F295" s="19">
+        <v>0.7236111111124046</v>
+      </c>
+      <c r="G295" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK295" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL295" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM295" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN295" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO295" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP295" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ295" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR295" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS295" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT295" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU295" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV295" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW295" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX295" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY295" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ295" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA295" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB295" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC295" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD295" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE295" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF295" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG295" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH295" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI295" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ295" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK295" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL295" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM295" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="21">
+        <v>45592.728588321756</v>
+      </c>
+      <c r="B296" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="C296" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D296" s="22">
+        <v>2.0242323E7</v>
+      </c>
+      <c r="E296" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="F296" s="23">
+        <v>0.226388888884685</v>
+      </c>
+      <c r="G296" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H296" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I296" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J296" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K296" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L296" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M296" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N296" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O296" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P296" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q296" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R296" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S296" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T296" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U296" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V296" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W296" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X296" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y296" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z296" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA296" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB296" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC296" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD296" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE296" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF296" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG296" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH296" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI296" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ296" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="17">
+        <v>45592.73835247685</v>
+      </c>
+      <c r="B297" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="C297" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D297" s="18">
+        <v>2.0242327E7</v>
+      </c>
+      <c r="E297" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="F297" s="19">
+        <v>0.7361111111094942</v>
+      </c>
+      <c r="G297" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H297" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I297" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J297" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K297" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L297" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M297" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N297" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O297" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P297" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q297" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R297" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S297" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T297" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U297" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V297" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W297" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X297" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y297" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z297" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA297" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB297" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC297" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD297" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE297" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF297" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG297" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH297" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI297" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ297" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="21">
+        <v>45592.740183194444</v>
+      </c>
+      <c r="B298" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="C298" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D298" s="22">
+        <v>2.0245161E7</v>
+      </c>
+      <c r="E298" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="F298" s="23">
+        <v>0.7381944444423425</v>
+      </c>
+      <c r="G298" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK298" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL298" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM298" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN298" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO298" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP298" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ298" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR298" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS298" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT298" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU298" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV298" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AW298" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX298" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY298" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ298" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA298" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB298" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BC298" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD298" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BE298" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF298" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG298" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH298" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI298" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ298" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK298" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL298" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM298" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="17">
+        <v>45592.74461469907</v>
+      </c>
+      <c r="B299" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="C299" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="D299" s="18">
+        <v>2.0227022E7</v>
+      </c>
+      <c r="E299" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="F299" s="19">
+        <v>0.7430555555547471</v>
+      </c>
+      <c r="G299" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L299" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N299" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R299" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S299" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U299" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y299" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA299" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD299" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH299" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI299" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ299" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="21">
+        <v>45592.74611396991</v>
+      </c>
+      <c r="B300" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="C300" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D300" s="22">
+        <v>2.0231622E7</v>
+      </c>
+      <c r="E300" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="F300" s="23">
+        <v>0.7444444444408873</v>
+      </c>
+      <c r="G300" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H300" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J300" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K300" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M300" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q300" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S300" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T300" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U300" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD300" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE300" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG300" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH300" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI300" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ300" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="17">
+        <v>45592.751177384256</v>
+      </c>
+      <c r="B301" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="C301" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="D301" s="18">
+        <v>2.0235198E7</v>
+      </c>
+      <c r="E301" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="F301" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="G301" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H301" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I301" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J301" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K301" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L301" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M301" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N301" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O301" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P301" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Q301" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R301" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S301" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T301" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U301" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V301" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W301" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X301" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y301" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z301" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA301" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB301" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC301" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD301" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE301" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF301" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG301" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH301" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI301" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AJ301" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="21">
+        <v>45592.75970306713</v>
+      </c>
+      <c r="B302" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="C302" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D302" s="22">
+        <v>2.024224E7</v>
+      </c>
+      <c r="E302" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="F302" s="23">
+        <v>0.2569444444452529</v>
+      </c>
+      <c r="G302" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I302" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J302" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K302" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L302" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M302" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N302" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O302" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P302" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q302" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S302" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T302" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U302" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z302" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD302" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE302" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AI302" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AJ302" s="22">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="17">
+        <v>45592.77354045139</v>
+      </c>
+      <c r="B303" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D303" s="18">
+        <v>2.0224123E7</v>
+      </c>
+      <c r="E303" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="F303" s="19">
+        <v>0.7729166666686069</v>
+      </c>
+      <c r="G303" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL303" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM303" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="21">
+        <v>45592.78296157408</v>
+      </c>
+      <c r="B304" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="C304" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D304" s="22">
+        <v>2.0234128E7</v>
+      </c>
+      <c r="E304" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="F304" s="23">
+        <v>0.7819444444467081</v>
+      </c>
+      <c r="G304" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H304" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I304" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J304" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K304" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L304" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M304" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N304" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O304" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P304" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q304" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R304" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S304" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T304" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U304" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V304" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W304" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X304" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y304" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z304" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA304" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB304" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC304" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD304" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE304" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF304" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG304" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH304" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI304" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ304" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="17">
+        <v>45592.7853612037</v>
+      </c>
+      <c r="B305" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="C305" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D305" s="18">
+        <v>2.0212927E7</v>
+      </c>
+      <c r="E305" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="F305" s="19">
+        <v>0.7791666666671517</v>
+      </c>
+      <c r="G305" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H305" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I305" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J305" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K305" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L305" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M305" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N305" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O305" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P305" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q305" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R305" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S305" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T305" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U305" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V305" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W305" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X305" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y305" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z305" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA305" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB305" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC305" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD305" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE305" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF305" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG305" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH305" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI305" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ305" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="21">
+        <v>45592.78540155092</v>
+      </c>
+      <c r="B306" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="C306" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D306" s="22">
+        <v>2.0241236E7</v>
+      </c>
+      <c r="E306" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="F306" s="23">
+        <v>0.7840277777795563</v>
+      </c>
+      <c r="G306" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK306" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL306" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AM306" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN306" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO306" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP306" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ306" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR306" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS306" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT306" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU306" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV306" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW306" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX306" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY306" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ306" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA306" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB306" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC306" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD306" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE306" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF306" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG306" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH306" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI306" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ306" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK306" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL306" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM306" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="17">
+        <v>45592.792359375</v>
+      </c>
+      <c r="B307" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="C307" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="D307" s="18">
+        <v>2.0246902E7</v>
+      </c>
+      <c r="E307" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="F307" s="19">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="G307" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI307" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ307" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="21">
+        <v>45592.80589148148</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="C308" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D308" s="22">
+        <v>2.04242613E8</v>
+      </c>
+      <c r="E308" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="F308" s="23">
+        <v>0.8034722222218988</v>
+      </c>
+      <c r="G308" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK308" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL308" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM308" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN308" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO308" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP308" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ308" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR308" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS308" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT308" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU308" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV308" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW308" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX308" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY308" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ308" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA308" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB308" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC308" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD308" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE308" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF308" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG308" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH308" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI308" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ308" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK308" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL308" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM308" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="17">
+        <v>45592.80624320602</v>
+      </c>
+      <c r="B309" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="C309" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D309" s="18">
+        <v>2.0246633E7</v>
+      </c>
+      <c r="E309" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="F309" s="19">
+        <v>0.8041666666686069</v>
+      </c>
+      <c r="G309" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H309" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I309" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J309" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K309" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L309" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M309" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N309" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O309" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P309" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q309" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R309" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S309" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T309" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U309" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V309" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W309" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X309" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y309" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z309" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA309" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB309" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC309" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD309" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE309" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF309" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG309" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH309" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI309" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ309" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="25">
+        <v>45592.80772814815</v>
+      </c>
+      <c r="B310" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="C310" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D310" s="26">
+        <v>2.0212566E7</v>
+      </c>
+      <c r="E310" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="F310" s="27">
+        <v>0.8062500000014552</v>
+      </c>
+      <c r="G310" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK310" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AL310" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AM310" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AN310" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AO310" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AP310" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AQ310" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AR310" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AS310" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AT310" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AU310" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AV310" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AW310" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AX310" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AY310" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AZ310" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BA310" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BB310" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BC310" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BD310" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BE310" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BF310" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BG310" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BH310" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BI310" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BJ310" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BK310" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BL310" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BM310" s="28">
         <v>1.0</v>
       </c>
     </row>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="822">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2283,6 +2283,201 @@
   </si>
   <si>
     <t>전현태</t>
+  </si>
+  <si>
+    <t>ehddn0504@naver.com</t>
+  </si>
+  <si>
+    <t>신동우</t>
+  </si>
+  <si>
+    <t>nurasun050718@naver.com</t>
+  </si>
+  <si>
+    <t>이주연</t>
+  </si>
+  <si>
+    <t>lucy37lucy37lucy37@naver.com</t>
+  </si>
+  <si>
+    <t>이은지</t>
+  </si>
+  <si>
+    <t>123plokml123@gmail.com</t>
+  </si>
+  <si>
+    <t>지현배</t>
+  </si>
+  <si>
+    <t>hijgc8282@naver.com</t>
+  </si>
+  <si>
+    <t>윤장근</t>
+  </si>
+  <si>
+    <t>jennydz@naver.com</t>
+  </si>
+  <si>
+    <t>허지수</t>
+  </si>
+  <si>
+    <t>jh2600646@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>박지훈</t>
+  </si>
+  <si>
+    <t>minkyoung961@naver.com</t>
+  </si>
+  <si>
+    <t>hyeonjin0976@gmail.com</t>
+  </si>
+  <si>
+    <t>류현진</t>
+  </si>
+  <si>
+    <t>soo060102@gmail.com</t>
+  </si>
+  <si>
+    <t>남궁수</t>
+  </si>
+  <si>
+    <t>narinsong3@gmail.com</t>
+  </si>
+  <si>
+    <t>송나린</t>
+  </si>
+  <si>
+    <t>chjames2005@naver.com</t>
+  </si>
+  <si>
+    <t>최재현</t>
+  </si>
+  <si>
+    <t>kwonseoyoung0923@gmail.com</t>
+  </si>
+  <si>
+    <t>권서영</t>
+  </si>
+  <si>
+    <t>detect5641@gmail.com</t>
+  </si>
+  <si>
+    <t>이주성</t>
+  </si>
+  <si>
+    <t>kcwel1109@gmail.com</t>
+  </si>
+  <si>
+    <t>고미연</t>
+  </si>
+  <si>
+    <t>jsh050906@naver.com</t>
+  </si>
+  <si>
+    <t>정송희</t>
+  </si>
+  <si>
+    <t>pinkyeon7@gmail.com</t>
+  </si>
+  <si>
+    <t>박채연</t>
+  </si>
+  <si>
+    <t>chorok052150@naver.com</t>
+  </si>
+  <si>
+    <t>김미니</t>
+  </si>
+  <si>
+    <t>seon93804@gmail.com</t>
+  </si>
+  <si>
+    <t>김인선</t>
+  </si>
+  <si>
+    <t>tjtkdwns0909@naver.com</t>
+  </si>
+  <si>
+    <t>서상준</t>
+  </si>
+  <si>
+    <t>his86814189@gmail.com</t>
+  </si>
+  <si>
+    <t>융합과학수사</t>
+  </si>
+  <si>
+    <t>황인성</t>
+  </si>
+  <si>
+    <t>mjys9155@gmail.com</t>
+  </si>
+  <si>
+    <t>ljk2942@gmail.com</t>
+  </si>
+  <si>
+    <t>이재권</t>
+  </si>
+  <si>
+    <t>lion5166@naver.com</t>
+  </si>
+  <si>
+    <t>김정연</t>
+  </si>
+  <si>
+    <t>bagminhyeog534@gmail.com</t>
+  </si>
+  <si>
+    <t>박민혁</t>
+  </si>
+  <si>
+    <t>qkhkasin17@naver.com</t>
+  </si>
+  <si>
+    <t>박가현</t>
+  </si>
+  <si>
+    <t>ekzkdi12@naver.com</t>
+  </si>
+  <si>
+    <t>박정민</t>
+  </si>
+  <si>
+    <t>kayla1071702@gmail.com</t>
+  </si>
+  <si>
+    <t>임혜빈</t>
+  </si>
+  <si>
+    <t>kmhhth5@gmail.com</t>
+  </si>
+  <si>
+    <t>최진호</t>
+  </si>
+  <si>
+    <t>captaingogo@naver.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이</t>
+  </si>
+  <si>
+    <t>김진안</t>
+  </si>
+  <si>
+    <t>jkmy2516@naver.com</t>
+  </si>
+  <si>
+    <t>장석빈</t>
+  </si>
+  <si>
+    <t>soyeong6832@gmail.com</t>
+  </si>
+  <si>
+    <t>지소영</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2508,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -2469,25 +2664,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2572,9 +2753,6 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2633,7 +2811,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM310" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM342" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -37890,113 +38068,3633 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="25">
+      <c r="A310" s="21">
         <v>45592.80772814815</v>
       </c>
-      <c r="B310" s="26" t="s">
+      <c r="B310" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="C310" s="26" t="s">
+      <c r="C310" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D310" s="26">
+      <c r="D310" s="22">
         <v>2.0212566E7</v>
       </c>
-      <c r="E310" s="26" t="s">
+      <c r="E310" s="22" t="s">
         <v>756</v>
       </c>
-      <c r="F310" s="27">
+      <c r="F310" s="23">
         <v>0.8062500000014552</v>
       </c>
-      <c r="G310" s="26" t="s">
+      <c r="G310" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AK310" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AL310" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AM310" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AN310" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AO310" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AP310" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AQ310" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AR310" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AS310" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AT310" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AU310" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AV310" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AW310" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AX310" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AY310" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AZ310" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BA310" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BB310" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BC310" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BD310" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BE310" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BF310" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BG310" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BH310" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="BI310" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BJ310" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BK310" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="BL310" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="BM310" s="28">
-        <v>1.0</v>
+      <c r="AK310" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL310" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM310" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN310" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO310" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP310" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ310" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR310" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AS310" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT310" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU310" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV310" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW310" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX310" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY310" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ310" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA310" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB310" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC310" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD310" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE310" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF310" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG310" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH310" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI310" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ310" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK310" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL310" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM310" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="17">
+        <v>45592.82071356481</v>
+      </c>
+      <c r="B311" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="C311" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D311" s="18">
+        <v>2.0245186E7</v>
+      </c>
+      <c r="E311" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="F311" s="19">
+        <v>0.820138888884685</v>
+      </c>
+      <c r="G311" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK311" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AL311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM311" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN311" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO311" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AP311" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR311" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU311" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AV311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW311" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA311" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC311" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD311" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF311" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI311" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK311" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL311" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM311" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="21">
+        <v>45592.83781561343</v>
+      </c>
+      <c r="B312" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="C312" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D312" s="22">
+        <v>2.0243636E7</v>
+      </c>
+      <c r="E312" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="F312" s="23">
+        <v>0.3041666666686069</v>
+      </c>
+      <c r="G312" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H312" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K312" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L312" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P312" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R312" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U312" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W312" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X312" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z312" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB312" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC312" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD312" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE312" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG312" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH312" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI312" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ312" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="17">
+        <v>45592.837814976854</v>
+      </c>
+      <c r="B313" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="C313" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D313" s="18">
+        <v>2.022301E7</v>
+      </c>
+      <c r="E313" s="18" t="s">
+        <v>762</v>
+      </c>
+      <c r="F313" s="19">
+        <v>0.8368055555547471</v>
+      </c>
+      <c r="G313" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL313" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP313" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR313" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV313" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY313" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ313" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC313" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG313" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI313" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK313" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL313" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM313" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="21">
+        <v>45592.84148829861</v>
+      </c>
+      <c r="B314" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="C314" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D314" s="22">
+        <v>2.0245266E7</v>
+      </c>
+      <c r="E314" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="F314" s="23">
+        <v>0.8402777777810115</v>
+      </c>
+      <c r="G314" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL314" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN314" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ314" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR314" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS314" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU314" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV314" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW314" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AX314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY314" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB314" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC314" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BD314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE314" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF314" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH314" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL314" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM314" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="17">
+        <v>45592.84700259259</v>
+      </c>
+      <c r="B315" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="C315" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D315" s="18">
+        <v>2.019256E7</v>
+      </c>
+      <c r="E315" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="F315" s="19">
+        <v>0.8444444444467081</v>
+      </c>
+      <c r="G315" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H315" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L315" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M315" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P315" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q315" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T315" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U315" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X315" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z315" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD315" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE315" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG315" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH315" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI315" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ315" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="21">
+        <v>45592.84894231481</v>
+      </c>
+      <c r="B316" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="C316" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D316" s="22">
+        <v>2.0213543E7</v>
+      </c>
+      <c r="E316" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="F316" s="23">
+        <v>0.8312500000029104</v>
+      </c>
+      <c r="G316" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK316" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AP316" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT316" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW316" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC316" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BH316" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ316" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK316" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL316" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM316" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="17">
+        <v>45592.852190254634</v>
+      </c>
+      <c r="B317" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="C317" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="D317" s="18">
+        <v>2.0213224E7</v>
+      </c>
+      <c r="E317" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="F317" s="19">
+        <v>0.8493055555591127</v>
+      </c>
+      <c r="G317" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H317" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I317" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J317" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K317" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L317" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M317" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N317" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O317" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P317" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q317" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R317" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S317" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T317" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U317" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V317" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W317" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X317" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y317" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z317" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA317" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB317" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC317" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD317" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE317" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF317" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG317" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH317" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI317" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ317" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="21">
+        <v>45592.86169775463</v>
+      </c>
+      <c r="B318" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="C318" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="D318" s="22">
+        <v>2.0231706E7</v>
+      </c>
+      <c r="E318" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F318" s="23">
+        <v>0.859027777776646</v>
+      </c>
+      <c r="G318" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK318" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL318" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM318" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN318" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO318" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP318" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ318" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR318" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS318" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT318" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU318" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV318" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW318" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX318" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY318" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ318" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA318" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB318" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC318" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD318" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE318" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF318" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG318" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH318" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI318" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ318" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK318" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL318" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM318" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="17">
+        <v>45592.86382528935</v>
+      </c>
+      <c r="B319" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="C319" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D319" s="18">
+        <v>2.0192717E7</v>
+      </c>
+      <c r="E319" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="F319" s="19">
+        <v>0.8604166666627862</v>
+      </c>
+      <c r="G319" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK319" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL319" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM319" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN319" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AO319" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP319" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ319" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR319" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS319" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT319" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AU319" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AV319" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW319" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX319" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY319" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AZ319" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA319" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB319" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC319" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD319" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BE319" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF319" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG319" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BH319" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI319" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ319" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK319" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL319" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM319" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="21">
+        <v>45592.87141064815</v>
+      </c>
+      <c r="B320" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="C320" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D320" s="22">
+        <v>2.024371E7</v>
+      </c>
+      <c r="E320" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="F320" s="23">
+        <v>0.8687500000014552</v>
+      </c>
+      <c r="G320" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK320" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL320" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS320" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT320" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW320" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB320" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC320" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH320" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ320" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK320" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL320" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM320" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="17">
+        <v>45592.87309076389</v>
+      </c>
+      <c r="B321" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="C321" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D321" s="18">
+        <v>2.0246248E7</v>
+      </c>
+      <c r="E321" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="F321" s="19">
+        <v>0.8715277777810115</v>
+      </c>
+      <c r="G321" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK321" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN321" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR321" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS321" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW321" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AX321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA321" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC321" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK321" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BL321" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM321" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="21">
+        <v>45592.88008476852</v>
+      </c>
+      <c r="B322" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="C322" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D322" s="22">
+        <v>2.0243259E7</v>
+      </c>
+      <c r="E322" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="F322" s="23">
+        <v>0.8777777777795563</v>
+      </c>
+      <c r="G322" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK322" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO322" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP322" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT322" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW322" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC322" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG322" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH322" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ322" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK322" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL322" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM322" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="17">
+        <v>45592.885299270834</v>
+      </c>
+      <c r="B323" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C323" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D323" s="18">
+        <v>2.0243606E7</v>
+      </c>
+      <c r="E323" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="F323" s="19">
+        <v>0.882638888884685</v>
+      </c>
+      <c r="G323" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I323" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K323" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L323" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N323" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O323" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q323" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R323" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z323" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA323" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC323" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD323" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF323" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG323" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH323" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI323" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ323" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="21">
+        <v>45592.88793730324</v>
+      </c>
+      <c r="B324" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="C324" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D324" s="22">
+        <v>2.024523E7</v>
+      </c>
+      <c r="E324" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="F324" s="23">
+        <v>0.8847222222248092</v>
+      </c>
+      <c r="G324" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H324" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J324" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K324" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L324" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M324" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O324" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P324" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q324" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T324" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U324" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z324" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA324" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE324" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG324" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH324" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI324" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ324" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="17">
+        <v>45592.89510170139</v>
+      </c>
+      <c r="B325" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="C325" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D325" s="18">
+        <v>2.0246204E7</v>
+      </c>
+      <c r="E325" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="F325" s="19">
+        <v>0.8923611111094942</v>
+      </c>
+      <c r="G325" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H325" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I325" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J325" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K325" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L325" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M325" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N325" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O325" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P325" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q325" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R325" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S325" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T325" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U325" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V325" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W325" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X325" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y325" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z325" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA325" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB325" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC325" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD325" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE325" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF325" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG325" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH325" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI325" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ325" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="21">
+        <v>45592.896637638885</v>
+      </c>
+      <c r="B326" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="C326" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D326" s="22">
+        <v>2.0243032E7</v>
+      </c>
+      <c r="E326" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="F326" s="23">
+        <v>0.8951388888890506</v>
+      </c>
+      <c r="G326" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK326" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL326" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM326" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN326" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO326" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP326" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ326" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR326" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AS326" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT326" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU326" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV326" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW326" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX326" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY326" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ326" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA326" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB326" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC326" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD326" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE326" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF326" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG326" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH326" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI326" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ326" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK326" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL326" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM326" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="17">
+        <v>45592.903095347225</v>
+      </c>
+      <c r="B327" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="C327" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D327" s="18">
+        <v>2.0227141E7</v>
+      </c>
+      <c r="E327" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="F327" s="19">
+        <v>0.9020833333343035</v>
+      </c>
+      <c r="G327" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL327" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM327" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="21">
+        <v>45592.90838670139</v>
+      </c>
+      <c r="B328" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="C328" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D328" s="22">
+        <v>2.0242307E7</v>
+      </c>
+      <c r="E328" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="F328" s="23">
+        <v>0.9027777777810115</v>
+      </c>
+      <c r="G328" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK328" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL328" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM328" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN328" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO328" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AP328" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ328" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR328" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS328" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AT328" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU328" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV328" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AW328" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX328" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY328" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ328" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA328" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB328" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC328" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD328" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE328" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF328" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG328" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH328" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI328" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ328" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK328" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL328" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM328" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="17">
+        <v>45592.908676817126</v>
+      </c>
+      <c r="B329" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C329" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D329" s="18">
+        <v>2.0221209E7</v>
+      </c>
+      <c r="E329" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="F329" s="19">
+        <v>0.9076388888934162</v>
+      </c>
+      <c r="G329" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK329" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM329" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN329" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO329" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP329" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ329" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR329" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS329" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT329" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX329" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY329" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE329" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL329" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM329" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="21">
+        <v>45592.91181467593</v>
+      </c>
+      <c r="B330" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="C330" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D330" s="22">
+        <v>2.0244123E7</v>
+      </c>
+      <c r="E330" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="F330" s="23">
+        <v>0.9097222222189885</v>
+      </c>
+      <c r="G330" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H330" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M330" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q330" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T330" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U330" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z330" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA330" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE330" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG330" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH330" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI330" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ330" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="17">
+        <v>45592.916231111114</v>
+      </c>
+      <c r="B331" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="C331" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="D331" s="18">
+        <v>2.0246942E7</v>
+      </c>
+      <c r="E331" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="F331" s="19">
+        <v>0.9145833333313931</v>
+      </c>
+      <c r="G331" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H331" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I331" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K331" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M331" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N331" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P331" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q331" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T331" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y331" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z331" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC331" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD331" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE331" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG331" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH331" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI331" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ331" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="21">
+        <v>45592.92084518519</v>
+      </c>
+      <c r="B332" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="C332" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D332" s="22">
+        <v>2.0241044E7</v>
+      </c>
+      <c r="E332" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="F332" s="23">
+        <v>0.9180555555576575</v>
+      </c>
+      <c r="G332" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK332" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL332" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM332" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN332" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO332" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP332" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ332" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR332" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS332" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT332" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU332" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV332" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW332" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX332" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY332" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ332" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA332" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB332" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC332" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD332" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE332" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF332" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG332" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH332" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI332" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BJ332" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK332" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL332" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM332" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="17">
+        <v>45592.921748125</v>
+      </c>
+      <c r="B333" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="C333" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D333" s="18">
+        <v>2.0241224E7</v>
+      </c>
+      <c r="E333" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="F333" s="19">
+        <v>0.7993055555562023</v>
+      </c>
+      <c r="G333" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL333" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM333" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="21">
+        <v>45592.963302118056</v>
+      </c>
+      <c r="B334" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="C334" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D334" s="22">
+        <v>2.0243612E7</v>
+      </c>
+      <c r="E334" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="F334" s="23">
+        <v>0.9576388888890506</v>
+      </c>
+      <c r="G334" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H334" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I334" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J334" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K334" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L334" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M334" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N334" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O334" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P334" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q334" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R334" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S334" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T334" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U334" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V334" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W334" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X334" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y334" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z334" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA334" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB334" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC334" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD334" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE334" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF334" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG334" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH334" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI334" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ334" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="17">
+        <v>45592.96438006945</v>
+      </c>
+      <c r="B335" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="C335" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D335" s="18">
+        <v>2.024232E7</v>
+      </c>
+      <c r="E335" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="F335" s="19">
+        <v>0.9604166666686069</v>
+      </c>
+      <c r="G335" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK335" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL335" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AM335" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AN335" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO335" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP335" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ335" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR335" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS335" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT335" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU335" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV335" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AW335" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX335" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY335" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ335" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA335" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB335" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC335" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD335" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE335" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF335" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG335" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH335" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI335" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ335" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK335" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL335" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM335" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="21">
+        <v>45592.96794025463</v>
+      </c>
+      <c r="B336" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="C336" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D336" s="22">
+        <v>2.0232953E7</v>
+      </c>
+      <c r="E336" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="F336" s="23">
+        <v>0.9652777777810115</v>
+      </c>
+      <c r="G336" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H336" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I336" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J336" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K336" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L336" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M336" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N336" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O336" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="P336" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q336" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R336" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S336" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T336" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="U336" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V336" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W336" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X336" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y336" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z336" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA336" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB336" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC336" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD336" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE336" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF336" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG336" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH336" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI336" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ336" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="17">
+        <v>45592.98385340278</v>
+      </c>
+      <c r="B337" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="C337" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D337" s="18">
+        <v>2.024296E7</v>
+      </c>
+      <c r="E337" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="F337" s="19">
+        <v>0.9812499999970896</v>
+      </c>
+      <c r="G337" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK337" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AL337" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM337" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN337" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO337" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP337" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ337" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR337" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS337" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT337" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU337" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV337" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW337" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX337" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY337" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ337" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA337" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB337" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC337" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD337" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE337" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF337" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG337" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH337" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI337" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ337" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK337" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL337" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BM337" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="21">
+        <v>45592.985188287035</v>
+      </c>
+      <c r="B338" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="C338" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D338" s="22">
+        <v>2.0242347E7</v>
+      </c>
+      <c r="E338" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="F338" s="23">
+        <v>0.9833333333372138</v>
+      </c>
+      <c r="G338" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H338" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I338" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L338" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M338" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q338" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R338" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T338" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U338" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y338" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z338" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD338" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE338" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG338" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH338" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI338" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ338" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="17">
+        <v>45592.98739350695</v>
+      </c>
+      <c r="B339" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="C339" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D339" s="18">
+        <v>2.024415E7</v>
+      </c>
+      <c r="E339" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="F339" s="19">
+        <v>0.9861111111094942</v>
+      </c>
+      <c r="G339" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL339" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM339" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ339" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS339" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX339" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ339" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA339" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB339" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL339" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM339" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="21">
+        <v>45592.98746019676</v>
+      </c>
+      <c r="B340" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="C340" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="D340" s="22">
+        <v>2.0243311E7</v>
+      </c>
+      <c r="E340" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="F340" s="23">
+        <v>0.9861111111094942</v>
+      </c>
+      <c r="G340" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H340" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I340" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J340" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K340" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="M340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="N340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="R340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="U340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="V340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AA340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC340" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD340" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE340" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF340" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG340" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AH340" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI340" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ340" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="17">
+        <v>45592.98873949074</v>
+      </c>
+      <c r="B341" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="C341" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D341" s="18">
+        <v>2.0191084E7</v>
+      </c>
+      <c r="E341" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="F341" s="19">
+        <v>0.9861111111094942</v>
+      </c>
+      <c r="G341" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H341" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I341" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J341" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K341" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L341" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M341" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N341" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O341" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P341" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q341" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R341" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S341" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T341" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U341" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V341" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="W341" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X341" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y341" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z341" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA341" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB341" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC341" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD341" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE341" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF341" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG341" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH341" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI341" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ341" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="25">
+        <v>45592.994832303244</v>
+      </c>
+      <c r="B342" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="C342" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D342" s="26">
+        <v>2.0227111E7</v>
+      </c>
+      <c r="E342" s="26" t="s">
+        <v>821</v>
+      </c>
+      <c r="F342" s="27">
+        <v>0.9937500000014552</v>
+      </c>
+      <c r="G342" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H342" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="I342" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="J342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="K342" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="L342" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="M342" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="N342" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="O342" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="P342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Q342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="R342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="S342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="T342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="U342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="V342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="W342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="X342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Y342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Z342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AA342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AB342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AC342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AD342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AE342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AF342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AG342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AH342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AI342" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AJ342" s="26">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="844">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2478,6 +2478,72 @@
   </si>
   <si>
     <t>지소영</t>
+  </si>
+  <si>
+    <t>sehyeon0330@naver.com</t>
+  </si>
+  <si>
+    <t>김세현</t>
+  </si>
+  <si>
+    <t>withhowon@gmail.com</t>
+  </si>
+  <si>
+    <t>서호원</t>
+  </si>
+  <si>
+    <t>kter0506@naver.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>ksong1210@icloud.com</t>
+  </si>
+  <si>
+    <t>곽송</t>
+  </si>
+  <si>
+    <t>ujs4198@navre.com</t>
+  </si>
+  <si>
+    <t>엄준식</t>
+  </si>
+  <si>
+    <t>erang051216@naver.com</t>
+  </si>
+  <si>
+    <t>박이랑</t>
+  </si>
+  <si>
+    <t>ydchufd@naver.com</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>minuhwang16@gmail.com</t>
+  </si>
+  <si>
+    <t>황민우</t>
+  </si>
+  <si>
+    <t>gchans0524@gmail.com</t>
+  </si>
+  <si>
+    <t>한기찬</t>
+  </si>
+  <si>
+    <t>ella2005710@gmail.com</t>
+  </si>
+  <si>
+    <t>김송이</t>
+  </si>
+  <si>
+    <t>mmin121420@naver.com</t>
+  </si>
+  <si>
+    <t>김승민</t>
   </si>
 </sst>
 </file>
@@ -2641,10 +2707,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2652,13 +2718,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2811,7 +2877,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM342" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM353" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -41588,112 +41654,1322 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="25">
+      <c r="A342" s="21">
         <v>45592.994832303244</v>
       </c>
-      <c r="B342" s="26" t="s">
+      <c r="B342" s="22" t="s">
         <v>820</v>
       </c>
-      <c r="C342" s="26" t="s">
+      <c r="C342" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D342" s="26">
+      <c r="D342" s="22">
         <v>2.0227111E7</v>
       </c>
-      <c r="E342" s="26" t="s">
+      <c r="E342" s="22" t="s">
         <v>821</v>
       </c>
-      <c r="F342" s="27">
+      <c r="F342" s="23">
         <v>0.9937500000014552</v>
       </c>
-      <c r="G342" s="26" t="s">
+      <c r="G342" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H342" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="I342" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="J342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="K342" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="L342" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="M342" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="N342" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="O342" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="P342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Q342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="R342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="S342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="T342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="U342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="V342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="W342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="X342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Y342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Z342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AA342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AB342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AC342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AD342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AE342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AF342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AG342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AH342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AI342" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AJ342" s="26">
+      <c r="H342" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I342" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K342" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L342" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M342" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="N342" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O342" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI342" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ342" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="17">
+        <v>45593.00504021991</v>
+      </c>
+      <c r="B343" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="C343" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D343" s="18">
+        <v>2.0212609E7</v>
+      </c>
+      <c r="E343" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="F343" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G343" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H343" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I343" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J343" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K343" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M343" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N343" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q343" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T343" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U343" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W343" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y343" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z343" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI343" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ343" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="21">
+        <v>45593.00631498842</v>
+      </c>
+      <c r="B344" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="C344" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D344" s="22">
+        <v>2.0246245E7</v>
+      </c>
+      <c r="E344" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="F344" s="23">
+        <v>0.004861111112404615</v>
+      </c>
+      <c r="G344" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK344" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL344" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM344" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN344" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO344" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP344" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ344" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR344" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS344" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT344" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU344" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV344" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW344" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX344" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY344" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ344" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA344" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB344" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC344" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD344" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE344" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF344" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG344" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH344" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI344" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ344" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK344" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL344" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM344" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="17">
+        <v>45593.06545144676</v>
+      </c>
+      <c r="B345" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="C345" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D345" s="18">
+        <v>2.0243813E7</v>
+      </c>
+      <c r="E345" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="F345" s="19">
+        <v>0.0625</v>
+      </c>
+      <c r="G345" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL345" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN345" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AO345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ345" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR345" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU345" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW345" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ345" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB345" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF345" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG345" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH345" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ345" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK345" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL345" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM345" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="21">
+        <v>45593.08351265047</v>
+      </c>
+      <c r="B346" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="C346" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D346" s="22">
+        <v>2.0242304E7</v>
+      </c>
+      <c r="E346" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="F346" s="23">
+        <v>0.08125000000291038</v>
+      </c>
+      <c r="G346" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H346" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J346" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K346" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L346" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N346" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O346" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q346" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T346" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V346" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AA346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB346" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD346" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AE346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AF346" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG346" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH346" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI346" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ346" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="17">
+        <v>45593.10346091435</v>
+      </c>
+      <c r="B347" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="C347" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D347" s="18">
+        <v>2.0197118E7</v>
+      </c>
+      <c r="E347" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="F347" s="19">
+        <v>0.101388888884685</v>
+      </c>
+      <c r="G347" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK347" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL347" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM347" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="21">
+        <v>45593.10703377315</v>
+      </c>
+      <c r="B348" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="C348" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D348" s="22">
+        <v>2.0243223E7</v>
+      </c>
+      <c r="E348" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="F348" s="23">
+        <v>0.09999999999854481</v>
+      </c>
+      <c r="G348" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK348" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL348" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM348" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN348" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO348" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AP348" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ348" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR348" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS348" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT348" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU348" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV348" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW348" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX348" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY348" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AZ348" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA348" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB348" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC348" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD348" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE348" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF348" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG348" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH348" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI348" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ348" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK348" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL348" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM348" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="17">
+        <v>45593.109136053245</v>
+      </c>
+      <c r="B349" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="C349" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D349" s="18">
+        <v>2.0242363E7</v>
+      </c>
+      <c r="E349" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="F349" s="19">
+        <v>0.10416666666424135</v>
+      </c>
+      <c r="G349" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H349" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I349" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J349" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K349" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L349" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M349" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N349" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O349" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P349" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q349" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R349" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S349" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T349" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U349" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V349" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W349" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X349" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y349" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z349" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA349" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB349" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC349" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD349" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AE349" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF349" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG349" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH349" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI349" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ349" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="21">
+        <v>45593.11717570602</v>
+      </c>
+      <c r="B350" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="C350" s="22">
+        <v>2.0243967E7</v>
+      </c>
+      <c r="D350" s="22">
+        <v>2.0243967E7</v>
+      </c>
+      <c r="E350" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="F350" s="23">
+        <v>0.11666666666860692</v>
+      </c>
+      <c r="G350" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U350" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X350" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD350" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG350" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH350" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI350" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ350" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="17">
+        <v>45593.14752748843</v>
+      </c>
+      <c r="B351" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="C351" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D351" s="18">
+        <v>2.0244152E7</v>
+      </c>
+      <c r="E351" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="F351" s="19">
+        <v>0.14583333333575865</v>
+      </c>
+      <c r="G351" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H351" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I351" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="L351" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M351" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="O351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q351" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T351" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U351" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z351" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA351" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD351" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE351" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG351" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AH351" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI351" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ351" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="21">
+        <v>45593.23072222222</v>
+      </c>
+      <c r="B352" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="C352" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D352" s="22">
+        <v>2.0246222E7</v>
+      </c>
+      <c r="E352" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="F352" s="23">
+        <v>0.22916666666424135</v>
+      </c>
+      <c r="G352" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK352" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL352" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM352" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN352" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO352" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP352" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ352" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR352" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS352" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT352" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU352" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV352" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW352" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX352" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AY352" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ352" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA352" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB352" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC352" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD352" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE352" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BF352" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG352" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH352" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI352" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ352" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK352" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL352" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM352" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="25">
+        <v>45593.32159706019</v>
+      </c>
+      <c r="B353" s="26" t="s">
+        <v>842</v>
+      </c>
+      <c r="C353" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D353" s="26">
+        <v>2.024411E7</v>
+      </c>
+      <c r="E353" s="26" t="s">
+        <v>843</v>
+      </c>
+      <c r="F353" s="27">
+        <v>0.29027777777810115</v>
+      </c>
+      <c r="G353" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="I353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="J353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="K353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="L353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="M353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="N353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="O353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="P353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Q353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="R353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="S353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="T353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="U353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="V353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="W353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="X353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Y353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Z353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AA353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AB353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AC353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AD353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AE353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AF353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AG353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AH353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AI353" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AJ353" s="26">
         <v>4.0</v>
       </c>
     </row>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="880">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2544,6 +2544,114 @@
   </si>
   <si>
     <t>김승민</t>
+  </si>
+  <si>
+    <t>sejun4@naver.com</t>
+  </si>
+  <si>
+    <t>경영/청각</t>
+  </si>
+  <si>
+    <t>박세준</t>
+  </si>
+  <si>
+    <t>kyj57980@gmail.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>kwakmin427@gmail.com</t>
+  </si>
+  <si>
+    <t>곽민규</t>
+  </si>
+  <si>
+    <t>06kongkongsoon@gmail.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>wogh1587@naver.com</t>
+  </si>
+  <si>
+    <t>현재호</t>
+  </si>
+  <si>
+    <t>hihi2679@gmail.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>kingdom980201@gmail.com</t>
+  </si>
+  <si>
+    <t>언어청각학과</t>
+  </si>
+  <si>
+    <t>박성경</t>
+  </si>
+  <si>
+    <t>ddoyeong0509@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소영</t>
+  </si>
+  <si>
+    <t>4080jjh@gmail.com</t>
+  </si>
+  <si>
+    <t>장재환</t>
+  </si>
+  <si>
+    <t>wlduddember6@gmail.com</t>
+  </si>
+  <si>
+    <t>이지영</t>
+  </si>
+  <si>
+    <t>dongkyo4@gmail.com</t>
+  </si>
+  <si>
+    <t>이동교</t>
+  </si>
+  <si>
+    <t>jin0321558@gmail.com</t>
+  </si>
+  <si>
+    <t>전시연</t>
+  </si>
+  <si>
+    <t>dawn2368@gmail.com</t>
+  </si>
+  <si>
+    <t>허다운</t>
+  </si>
+  <si>
+    <t>xodet0817@naver.com</t>
+  </si>
+  <si>
+    <t>문종윤</t>
+  </si>
+  <si>
+    <t>gomdolri05@naver.com</t>
+  </si>
+  <si>
+    <t>이아영</t>
+  </si>
+  <si>
+    <t>ilylive999@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>taehwankim05@gmail.com</t>
+  </si>
+  <si>
+    <t>김태환</t>
   </si>
 </sst>
 </file>
@@ -2574,7 +2682,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -2707,10 +2815,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2718,13 +2826,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2734,7 +2856,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2819,6 +2941,9 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2877,7 +3002,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM353" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM370" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -42864,113 +42989,1983 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="25">
+      <c r="A353" s="17">
         <v>45593.32159706019</v>
       </c>
-      <c r="B353" s="26" t="s">
+      <c r="B353" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="C353" s="26" t="s">
+      <c r="C353" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D353" s="26">
+      <c r="D353" s="18">
         <v>2.024411E7</v>
       </c>
-      <c r="E353" s="26" t="s">
+      <c r="E353" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="F353" s="27">
+      <c r="F353" s="19">
         <v>0.29027777777810115</v>
       </c>
-      <c r="G353" s="26" t="s">
+      <c r="G353" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="I353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="J353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="K353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="L353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="M353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="N353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="O353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="P353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Q353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="R353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="S353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="T353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="U353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="V353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="W353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="X353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Y353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Z353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AA353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AB353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AC353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AD353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AE353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AF353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AG353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AH353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AI353" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AJ353" s="26">
-        <v>4.0</v>
+      <c r="H353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI353" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ353" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="21">
+        <v>45593.439179733796</v>
+      </c>
+      <c r="B354" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="C354" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="D354" s="22">
+        <v>2.0193968E7</v>
+      </c>
+      <c r="E354" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="F354" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="G354" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H354" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M354" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S354" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T354" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U354" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z354" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA354" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD354" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE354" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG354" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH354" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI354" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ354" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="17">
+        <v>45593.482983194444</v>
+      </c>
+      <c r="B355" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="C355" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D355" s="18">
+        <v>2.0202319E7</v>
+      </c>
+      <c r="E355" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="F355" s="19">
+        <v>0.4819444444437977</v>
+      </c>
+      <c r="G355" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL355" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM355" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="21">
+        <v>45593.516578449075</v>
+      </c>
+      <c r="B356" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="C356" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D356" s="22">
+        <v>2.0243605E7</v>
+      </c>
+      <c r="E356" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="F356" s="23">
+        <v>0.515277777776646</v>
+      </c>
+      <c r="G356" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL356" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM356" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="17">
+        <v>45593.558834027775</v>
+      </c>
+      <c r="B357" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="C357" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D357" s="18">
+        <v>2.0242732E7</v>
+      </c>
+      <c r="E357" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="F357" s="19">
+        <v>0.5569444444408873</v>
+      </c>
+      <c r="G357" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK357" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN357" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO357" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP357" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ357" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR357" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS357" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU357" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW357" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC357" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD357" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH357" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ357" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK357" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL357" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BM357" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="21">
+        <v>45593.6304930787</v>
+      </c>
+      <c r="B358" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="C358" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D358" s="22">
+        <v>2.0192366E7</v>
+      </c>
+      <c r="E358" s="22" t="s">
+        <v>854</v>
+      </c>
+      <c r="F358" s="23">
+        <v>0.6263888888934162</v>
+      </c>
+      <c r="G358" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H358" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I358" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J358" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K358" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L358" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M358" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N358" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O358" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P358" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q358" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R358" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S358" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T358" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U358" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V358" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W358" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X358" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y358" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z358" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA358" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB358" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC358" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD358" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE358" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF358" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG358" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH358" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI358" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ358" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="17">
+        <v>45593.639395949074</v>
+      </c>
+      <c r="B359" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="C359" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D359" s="18">
+        <v>2.0243815E7</v>
+      </c>
+      <c r="E359" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="F359" s="19">
+        <v>0.6361111111109494</v>
+      </c>
+      <c r="G359" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H359" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I359" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J359" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K359" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L359" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="M359" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N359" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O359" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P359" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q359" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R359" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S359" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T359" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U359" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V359" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W359" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X359" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y359" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z359" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA359" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB359" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC359" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD359" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AE359" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AF359" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG359" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH359" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI359" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ359" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="21">
+        <v>45593.72582591436</v>
+      </c>
+      <c r="B360" s="22" t="s">
+        <v>857</v>
+      </c>
+      <c r="C360" s="22" t="s">
+        <v>858</v>
+      </c>
+      <c r="D360" s="22">
+        <v>2.0243917E7</v>
+      </c>
+      <c r="E360" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="F360" s="23">
+        <v>0.7249999999985448</v>
+      </c>
+      <c r="G360" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="I360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="L360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="M360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="N360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="R360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="U360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="V360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AA360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AE360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AF360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AI360" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AJ360" s="22">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="17">
+        <v>45593.754035034726</v>
+      </c>
+      <c r="B361" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="C361" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D361" s="18">
+        <v>2.0242424E7</v>
+      </c>
+      <c r="E361" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="F361" s="19">
+        <v>0.7479166666671517</v>
+      </c>
+      <c r="G361" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H361" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I361" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J361" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K361" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L361" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M361" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N361" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O361" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P361" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q361" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R361" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S361" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T361" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U361" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V361" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W361" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X361" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y361" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z361" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA361" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB361" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC361" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD361" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE361" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF361" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG361" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH361" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI361" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ361" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="21">
+        <v>45593.75605827547</v>
+      </c>
+      <c r="B362" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="C362" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D362" s="22">
+        <v>2.0182436E7</v>
+      </c>
+      <c r="E362" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="F362" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="G362" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H362" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I362" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J362" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K362" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L362" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M362" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N362" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O362" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P362" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q362" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R362" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S362" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T362" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U362" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V362" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W362" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X362" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y362" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z362" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA362" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB362" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC362" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD362" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE362" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF362" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG362" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH362" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI362" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ362" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="17">
+        <v>45593.78084663194</v>
+      </c>
+      <c r="B363" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="C363" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D363" s="18">
+        <v>2.0246639E7</v>
+      </c>
+      <c r="E363" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="F363" s="19">
+        <v>0.33333333333575865</v>
+      </c>
+      <c r="G363" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL363" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM363" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="21">
+        <v>45593.82359934028</v>
+      </c>
+      <c r="B364" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="C364" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D364" s="22">
+        <v>2.0213241E7</v>
+      </c>
+      <c r="E364" s="22" t="s">
+        <v>867</v>
+      </c>
+      <c r="F364" s="23">
+        <v>0.8208333333313931</v>
+      </c>
+      <c r="G364" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H364" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I364" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J364" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K364" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L364" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M364" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N364" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O364" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="P364" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q364" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R364" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="S364" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T364" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U364" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V364" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W364" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X364" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y364" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z364" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA364" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB364" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC364" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD364" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE364" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AF364" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG364" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH364" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI364" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ364" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="17">
+        <v>45593.831139375005</v>
+      </c>
+      <c r="B365" s="18" t="s">
+        <v>868</v>
+      </c>
+      <c r="C365" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="D365" s="18">
+        <v>2.0246932E7</v>
+      </c>
+      <c r="E365" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="F365" s="19">
+        <v>0.8263888888905058</v>
+      </c>
+      <c r="G365" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK365" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL365" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AM365" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN365" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO365" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP365" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ365" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR365" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS365" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT365" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU365" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV365" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW365" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX365" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY365" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ365" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA365" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB365" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC365" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD365" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE365" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF365" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG365" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH365" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI365" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ365" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK365" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL365" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM365" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="21">
+        <v>45593.83149540509</v>
+      </c>
+      <c r="B366" s="22" t="s">
+        <v>870</v>
+      </c>
+      <c r="C366" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D366" s="22">
+        <v>2.0197126E7</v>
+      </c>
+      <c r="E366" s="22" t="s">
+        <v>871</v>
+      </c>
+      <c r="F366" s="23">
+        <v>0.8298611111094942</v>
+      </c>
+      <c r="G366" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H366" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I366" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J366" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K366" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="L366" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M366" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N366" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O366" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P366" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q366" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R366" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S366" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T366" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U366" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="V366" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W366" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X366" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y366" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z366" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA366" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB366" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC366" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD366" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE366" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF366" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG366" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH366" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI366" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ366" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="17">
+        <v>45593.83261576389</v>
+      </c>
+      <c r="B367" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="C367" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D367" s="18">
+        <v>2.0203616E7</v>
+      </c>
+      <c r="E367" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="F367" s="19">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="G367" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK367" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL367" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM367" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN367" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO367" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP367" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ367" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR367" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS367" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT367" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU367" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV367" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW367" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX367" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY367" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ367" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA367" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB367" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC367" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD367" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE367" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF367" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BG367" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH367" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI367" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ367" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK367" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL367" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM367" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="21">
+        <v>45593.84970136574</v>
+      </c>
+      <c r="B368" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="C368" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D368" s="22">
+        <v>2.0242227E7</v>
+      </c>
+      <c r="E368" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="F368" s="23">
+        <v>0.8472222222189885</v>
+      </c>
+      <c r="G368" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H368" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I368" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J368" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K368" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="L368" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M368" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N368" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O368" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P368" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q368" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R368" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S368" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T368" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U368" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V368" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W368" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X368" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y368" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z368" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA368" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB368" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC368" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD368" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE368" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF368" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG368" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH368" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI368" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ368" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="17">
+        <v>45593.86246199074</v>
+      </c>
+      <c r="B369" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="C369" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D369" s="18">
+        <v>2.0231621E7</v>
+      </c>
+      <c r="E369" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="F369" s="19">
+        <v>0.859722222223354</v>
+      </c>
+      <c r="G369" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H369" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I369" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J369" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K369" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L369" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M369" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N369" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O369" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P369" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q369" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R369" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S369" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T369" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U369" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V369" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W369" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X369" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y369" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z369" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA369" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB369" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC369" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD369" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE369" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF369" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG369" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH369" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI369" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ369" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="25">
+        <v>45593.89156724537</v>
+      </c>
+      <c r="B370" s="26" t="s">
+        <v>878</v>
+      </c>
+      <c r="C370" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D370" s="26">
+        <v>2.0242411E7</v>
+      </c>
+      <c r="E370" s="26" t="s">
+        <v>879</v>
+      </c>
+      <c r="F370" s="27">
+        <v>0.8881944444437977</v>
+      </c>
+      <c r="G370" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK370" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AL370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AM370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AN370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AO370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AP370" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AQ370" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AR370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AS370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AT370" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AU370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AV370" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AW370" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AX370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AY370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AZ370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BA370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BB370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BC370" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BD370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BE370" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BF370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BG370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BH370" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BI370" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BJ370" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BK370" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BL370" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BM370" s="28">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="889">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2652,6 +2652,33 @@
   </si>
   <si>
     <t>김태환</t>
+  </si>
+  <si>
+    <t>chsmdfur123@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>이한얼</t>
+  </si>
+  <si>
+    <t>kangyein0810@gmail.com</t>
+  </si>
+  <si>
+    <t>강예인</t>
+  </si>
+  <si>
+    <t>fruitekomi@naver.com</t>
+  </si>
+  <si>
+    <t>김예은</t>
+  </si>
+  <si>
+    <t>seostone1018@gmail.com</t>
+  </si>
+  <si>
+    <t>서준석</t>
   </si>
 </sst>
 </file>
@@ -2682,7 +2709,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -2838,25 +2865,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2941,9 +2954,6 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3002,7 +3012,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM370" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM374" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -44859,113 +44869,553 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="25">
+      <c r="A370" s="21">
         <v>45593.89156724537</v>
       </c>
-      <c r="B370" s="26" t="s">
+      <c r="B370" s="22" t="s">
         <v>878</v>
       </c>
-      <c r="C370" s="26" t="s">
+      <c r="C370" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D370" s="26">
+      <c r="D370" s="22">
         <v>2.0242411E7</v>
       </c>
-      <c r="E370" s="26" t="s">
+      <c r="E370" s="22" t="s">
         <v>879</v>
       </c>
-      <c r="F370" s="27">
+      <c r="F370" s="23">
         <v>0.8881944444437977</v>
       </c>
-      <c r="G370" s="26" t="s">
+      <c r="G370" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AK370" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AL370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AM370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AN370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AO370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AP370" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AQ370" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AR370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AS370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AT370" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AU370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AV370" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AW370" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AX370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AY370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AZ370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BA370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BB370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BC370" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BD370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BE370" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="BF370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BG370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BH370" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="BI370" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BJ370" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BK370" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BL370" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BM370" s="28">
-        <v>3.0</v>
+      <c r="AK370" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP370" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ370" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT370" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV370" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW370" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC370" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE370" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH370" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI370" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ370" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK370" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL370" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM370" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="17">
+        <v>45593.9189025463</v>
+      </c>
+      <c r="B371" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="C371" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="D371" s="18">
+        <v>2.0203026E7</v>
+      </c>
+      <c r="E371" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="F371" s="19">
+        <v>0.9124999999985448</v>
+      </c>
+      <c r="G371" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK371" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO371" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP371" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR371" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS371" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT371" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU371" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW371" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX371" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB371" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC371" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG371" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH371" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK371" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL371" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM371" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="21">
+        <v>45594.04908523148</v>
+      </c>
+      <c r="B372" s="22" t="s">
+        <v>883</v>
+      </c>
+      <c r="C372" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D372" s="22">
+        <v>2.0246603E7</v>
+      </c>
+      <c r="E372" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="F372" s="23">
+        <v>0.04722222222335404</v>
+      </c>
+      <c r="G372" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H372" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I372" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J372" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K372" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L372" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M372" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N372" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O372" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P372" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="Q372" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="R372" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S372" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T372" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="U372" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V372" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W372" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X372" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y372" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z372" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA372" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB372" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC372" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD372" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE372" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF372" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG372" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH372" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI372" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ372" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="17">
+        <v>45594.05518112269</v>
+      </c>
+      <c r="B373" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="C373" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D373" s="18">
+        <v>2.023371E7</v>
+      </c>
+      <c r="E373" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="F373" s="19">
+        <v>0.0506944444423425</v>
+      </c>
+      <c r="G373" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK373" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL373" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM373" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN373" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO373" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP373" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ373" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR373" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS373" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT373" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AU373" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV373" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW373" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX373" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY373" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ373" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA373" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB373" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC373" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD373" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE373" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF373" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG373" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH373" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI373" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ373" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK373" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL373" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM373" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="25">
+        <v>45594.391809479166</v>
+      </c>
+      <c r="B374" s="26" t="s">
+        <v>887</v>
+      </c>
+      <c r="C374" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D374" s="26">
+        <v>2.0243227E7</v>
+      </c>
+      <c r="E374" s="26" t="s">
+        <v>888</v>
+      </c>
+      <c r="F374" s="27">
+        <v>0.3861111111109494</v>
+      </c>
+      <c r="G374" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H374" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="I374" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="J374" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="K374" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="L374" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="M374" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="N374" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="O374" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="P374" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Q374" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="R374" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="S374" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="T374" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="U374" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="V374" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="W374" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="X374" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Y374" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Z374" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AA374" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AB374" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AC374" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AD374" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AE374" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AF374" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AG374" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AH374" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AI374" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AJ374" s="26">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="929">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2679,6 +2679,126 @@
   </si>
   <si>
     <t>서준석</t>
+  </si>
+  <si>
+    <t>jiah1622@naver.com</t>
+  </si>
+  <si>
+    <t>최지아</t>
+  </si>
+  <si>
+    <t>r67890@naver.com</t>
+  </si>
+  <si>
+    <t>이규형</t>
+  </si>
+  <si>
+    <t>jym85362@naver.com</t>
+  </si>
+  <si>
+    <t>유수현</t>
+  </si>
+  <si>
+    <t>jklucky09@naver.com</t>
+  </si>
+  <si>
+    <t>최준근</t>
+  </si>
+  <si>
+    <t>junseok5310@naver.com</t>
+  </si>
+  <si>
+    <t>오준석</t>
+  </si>
+  <si>
+    <t>leyy2k@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>schoe357@gmail.com</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>dabinchoe05@gmail.com</t>
+  </si>
+  <si>
+    <t>최다빈</t>
+  </si>
+  <si>
+    <t>imhyeongu00@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>임현구</t>
+  </si>
+  <si>
+    <t>jione0831@naver.com</t>
+  </si>
+  <si>
+    <t>윤지원</t>
+  </si>
+  <si>
+    <t>yeel6945@naver.com</t>
+  </si>
+  <si>
+    <t>이수빈</t>
+  </si>
+  <si>
+    <t>joazzzzz@naver.com</t>
+  </si>
+  <si>
+    <t>김진구</t>
+  </si>
+  <si>
+    <t>yongwoo7701@gmail.com</t>
+  </si>
+  <si>
+    <t>유용우</t>
+  </si>
+  <si>
+    <t>csm06125@naver.com</t>
+  </si>
+  <si>
+    <t>박근태</t>
+  </si>
+  <si>
+    <t>cindy_lol@naver.com</t>
+  </si>
+  <si>
+    <t>권한별</t>
+  </si>
+  <si>
+    <t>ksy91637@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>김성열</t>
+  </si>
+  <si>
+    <t>ohsolbi050521@gmail.com</t>
+  </si>
+  <si>
+    <t>오솔비</t>
+  </si>
+  <si>
+    <t>lucas3767@naver.com</t>
+  </si>
+  <si>
+    <t>권민재</t>
+  </si>
+  <si>
+    <t>msy123581@naver.com</t>
+  </si>
+  <si>
+    <t>문신영</t>
   </si>
 </sst>
 </file>
@@ -2842,10 +2962,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2853,13 +2973,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3012,7 +3132,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM374" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM393" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -45309,112 +45429,2202 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="25">
+      <c r="A374" s="21">
         <v>45594.391809479166</v>
       </c>
-      <c r="B374" s="26" t="s">
+      <c r="B374" s="22" t="s">
         <v>887</v>
       </c>
-      <c r="C374" s="26" t="s">
+      <c r="C374" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D374" s="26">
+      <c r="D374" s="22">
         <v>2.0243227E7</v>
       </c>
-      <c r="E374" s="26" t="s">
+      <c r="E374" s="22" t="s">
         <v>888</v>
       </c>
-      <c r="F374" s="27">
+      <c r="F374" s="23">
         <v>0.3861111111109494</v>
       </c>
-      <c r="G374" s="26" t="s">
+      <c r="G374" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H374" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="I374" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="J374" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="K374" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="L374" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="M374" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="N374" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="O374" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="P374" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="Q374" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="R374" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="S374" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="T374" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="U374" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="V374" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="W374" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="X374" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Y374" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="Z374" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AA374" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AB374" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AC374" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AD374" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AE374" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AF374" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AG374" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AH374" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AI374" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AJ374" s="26">
+      <c r="H374" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I374" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J374" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K374" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L374" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M374" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N374" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O374" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P374" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q374" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R374" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S374" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T374" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U374" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V374" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W374" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X374" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y374" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z374" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA374" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB374" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC374" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD374" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE374" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF374" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG374" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH374" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI374" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ374" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="17">
+        <v>45594.451676770834</v>
+      </c>
+      <c r="B375" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="C375" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D375" s="18">
+        <v>2.0245271E7</v>
+      </c>
+      <c r="E375" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="F375" s="19">
+        <v>0.44652777777810115</v>
+      </c>
+      <c r="G375" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK375" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO375" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP375" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT375" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW375" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AX375" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC375" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BD375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE375" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BF375" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG375" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BH375" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ375" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK375" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL375" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM375" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="21">
+        <v>45594.4747928588</v>
+      </c>
+      <c r="B376" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="C376" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="D376" s="22">
+        <v>2.0205217E7</v>
+      </c>
+      <c r="E376" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="F376" s="23">
+        <v>0.47291666666569654</v>
+      </c>
+      <c r="G376" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H376" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I376" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J376" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K376" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L376" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M376" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N376" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O376" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P376" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q376" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R376" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S376" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T376" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U376" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V376" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W376" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X376" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y376" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z376" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA376" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB376" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC376" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD376" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE376" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF376" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG376" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH376" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI376" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ376" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="17">
+        <v>45594.51136134259</v>
+      </c>
+      <c r="B377" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="C377" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="D377" s="18">
+        <v>2.0243234E7</v>
+      </c>
+      <c r="E377" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="F377" s="19">
+        <v>0.010416666664241347</v>
+      </c>
+      <c r="G377" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H377" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI377" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ377" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="21">
+        <v>45594.55415361111</v>
+      </c>
+      <c r="B378" s="22" t="s">
+        <v>895</v>
+      </c>
+      <c r="C378" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D378" s="22">
+        <v>2.0171101E7</v>
+      </c>
+      <c r="E378" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="F378" s="23">
+        <v>0.5506944444423425</v>
+      </c>
+      <c r="G378" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H378" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I378" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J378" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K378" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L378" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M378" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O378" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P378" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q378" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R378" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S378" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T378" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD378" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF378" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH378" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI378" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ378" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="17">
+        <v>45594.569208483794</v>
+      </c>
+      <c r="B379" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="C379" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D379" s="18">
+        <v>2.0193626E7</v>
+      </c>
+      <c r="E379" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="F379" s="19">
+        <v>0.5680555555591127</v>
+      </c>
+      <c r="G379" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK379" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO379" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP379" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT379" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU379" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV379" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW379" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX379" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ379" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA379" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD379" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ379" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK379" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL379" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM379" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="21">
+        <v>45594.58425637732</v>
+      </c>
+      <c r="B380" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="C380" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D380" s="22">
+        <v>2.0215115E7</v>
+      </c>
+      <c r="E380" s="22" t="s">
+        <v>900</v>
+      </c>
+      <c r="F380" s="23">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="G380" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I380" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L380" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M380" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O380" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q380" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S380" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T380" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U380" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X380" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y380" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z380" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AA380" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE380" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH380" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI380" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ380" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="17">
+        <v>45594.71140824074</v>
+      </c>
+      <c r="B381" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="C381" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D381" s="18">
+        <v>2.0246782E7</v>
+      </c>
+      <c r="E381" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="F381" s="19">
+        <v>0.7083333333357587</v>
+      </c>
+      <c r="G381" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H381" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I381" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J381" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K381" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L381" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M381" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N381" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O381" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P381" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q381" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R381" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S381" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T381" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U381" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V381" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W381" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X381" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y381" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z381" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA381" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB381" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC381" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD381" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE381" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AF381" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG381" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH381" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI381" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ381" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="21">
+        <v>45594.711838020834</v>
+      </c>
+      <c r="B382" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="C382" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D382" s="22">
+        <v>2.024678E7</v>
+      </c>
+      <c r="E382" s="22" t="s">
+        <v>904</v>
+      </c>
+      <c r="F382" s="23">
+        <v>0.7090277777751908</v>
+      </c>
+      <c r="G382" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I382" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K382" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L382" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N382" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q382" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R382" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S382" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T382" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z382" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB382" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD382" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE382" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF382" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG382" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH382" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI382" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ382" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="17">
+        <v>45594.72908761574</v>
+      </c>
+      <c r="B383" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="C383" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="D383" s="18">
+        <v>2.0192575E7</v>
+      </c>
+      <c r="E383" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="F383" s="19">
+        <v>0.7291666666642413</v>
+      </c>
+      <c r="G383" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H383" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K383" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L383" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M383" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q383" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S383" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T383" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U383" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z383" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA383" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB383" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD383" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE383" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG383" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH383" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI383" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ383" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="21">
+        <v>45594.80701671296</v>
+      </c>
+      <c r="B384" s="22" t="s">
+        <v>908</v>
+      </c>
+      <c r="C384" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D384" s="22">
+        <v>2.0246262E7</v>
+      </c>
+      <c r="E384" s="22" t="s">
+        <v>909</v>
+      </c>
+      <c r="F384" s="23">
+        <v>0.8041666666686069</v>
+      </c>
+      <c r="G384" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H384" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I384" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J384" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K384" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L384" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M384" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N384" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="O384" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="P384" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Q384" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R384" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S384" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T384" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U384" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V384" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W384" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X384" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y384" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z384" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AA384" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB384" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC384" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD384" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE384" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AF384" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG384" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH384" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI384" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AJ384" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="17">
+        <v>45594.87152126158</v>
+      </c>
+      <c r="B385" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="C385" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D385" s="18">
+        <v>2.0203635E7</v>
+      </c>
+      <c r="E385" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="F385" s="19">
+        <v>0.8708333333343035</v>
+      </c>
+      <c r="G385" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI385" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ385" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="21">
+        <v>45594.88159047454</v>
+      </c>
+      <c r="B386" s="22" t="s">
+        <v>912</v>
+      </c>
+      <c r="C386" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="D386" s="22">
+        <v>2.0203213E7</v>
+      </c>
+      <c r="E386" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="F386" s="23">
+        <v>0.8680555555547471</v>
+      </c>
+      <c r="G386" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H386" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I386" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J386" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K386" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L386" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M386" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N386" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O386" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P386" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q386" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R386" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="S386" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T386" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U386" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V386" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W386" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X386" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y386" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z386" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA386" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB386" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC386" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD386" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE386" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF386" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG386" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH386" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI386" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AJ386" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="17">
+        <v>45594.89142140046</v>
+      </c>
+      <c r="B387" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="C387" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D387" s="18">
+        <v>2.024413E7</v>
+      </c>
+      <c r="E387" s="18" t="s">
+        <v>915</v>
+      </c>
+      <c r="F387" s="19">
+        <v>0.8854166666642413</v>
+      </c>
+      <c r="G387" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H387" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I387" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J387" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K387" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L387" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M387" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N387" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O387" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P387" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q387" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R387" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S387" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T387" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U387" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V387" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W387" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X387" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y387" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z387" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA387" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB387" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC387" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD387" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE387" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF387" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG387" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH387" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI387" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ387" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="21">
+        <v>45594.89627434028</v>
+      </c>
+      <c r="B388" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="C388" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="D388" s="22">
+        <v>2.0203321E7</v>
+      </c>
+      <c r="E388" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="F388" s="23">
+        <v>0.8930555555562023</v>
+      </c>
+      <c r="G388" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK388" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL388" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM388" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN388" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO388" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP388" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ388" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR388" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS388" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT388" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU388" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV388" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AW388" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX388" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY388" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ388" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA388" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB388" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC388" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD388" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE388" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF388" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG388" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH388" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI388" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ388" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK388" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL388" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM388" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="17">
+        <v>45594.92736266204</v>
+      </c>
+      <c r="B389" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="C389" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="D389" s="18">
+        <v>2.0201007E7</v>
+      </c>
+      <c r="E389" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="F389" s="19">
+        <v>0.9368055555532919</v>
+      </c>
+      <c r="G389" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO389" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AV389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY389" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AZ389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BA389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BG389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BK389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL389" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM389" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="21">
+        <v>45594.94733765046</v>
+      </c>
+      <c r="B390" s="22" t="s">
+        <v>920</v>
+      </c>
+      <c r="C390" s="22" t="s">
+        <v>921</v>
+      </c>
+      <c r="D390" s="22">
+        <v>2.0205139E7</v>
+      </c>
+      <c r="E390" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="F390" s="23">
+        <v>0.9409722222189885</v>
+      </c>
+      <c r="G390" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK390" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL390" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM390" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN390" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO390" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP390" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ390" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR390" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS390" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT390" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU390" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV390" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW390" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX390" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY390" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ390" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA390" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB390" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC390" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD390" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE390" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BF390" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG390" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH390" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI390" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ390" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK390" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL390" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM390" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="17">
+        <v>45594.951640150466</v>
+      </c>
+      <c r="B391" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="C391" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D391" s="18">
+        <v>2.0246631E7</v>
+      </c>
+      <c r="E391" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="F391" s="19">
+        <v>0.9493055555576575</v>
+      </c>
+      <c r="G391" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK391" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO391" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT391" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW391" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX391" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC391" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD391" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE391" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF391" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG391" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH391" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ391" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK391" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL391" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM391" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="21">
+        <v>45595.07403827546</v>
+      </c>
+      <c r="B392" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="C392" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D392" s="22">
+        <v>2.0242702E7</v>
+      </c>
+      <c r="E392" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="F392" s="23">
+        <v>0.07222222222480923</v>
+      </c>
+      <c r="G392" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL392" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM392" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="25">
+        <v>45595.142103645834</v>
+      </c>
+      <c r="B393" s="26" t="s">
+        <v>927</v>
+      </c>
+      <c r="C393" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D393" s="26">
+        <v>2.0241519E7</v>
+      </c>
+      <c r="E393" s="26" t="s">
+        <v>928</v>
+      </c>
+      <c r="F393" s="27">
+        <v>0.14027777777664596</v>
+      </c>
+      <c r="G393" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H393" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="I393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="J393" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="K393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="L393" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="M393" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="N393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="O393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="P393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Q393" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="R393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="S393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="T393" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="U393" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="V393" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="W393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="X393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Y393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Z393" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AA393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AB393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AC393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AD393" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AE393" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AF393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AG393" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AH393" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AI393" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AJ393" s="26">
         <v>1.0</v>
       </c>
     </row>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1015">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2799,6 +2799,264 @@
   </si>
   <si>
     <t>문신영</t>
+  </si>
+  <si>
+    <t>mik21366@naver.com</t>
+  </si>
+  <si>
+    <t>김수진</t>
+  </si>
+  <si>
+    <t>kimteawan347@gmail.com</t>
+  </si>
+  <si>
+    <t>김태완</t>
+  </si>
+  <si>
+    <t>dkhong2003@gmail.com</t>
+  </si>
+  <si>
+    <t>홍다경</t>
+  </si>
+  <si>
+    <t>fred0203@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학전공</t>
+  </si>
+  <si>
+    <t>이강준</t>
+  </si>
+  <si>
+    <t>il8v6u@naver.com</t>
+  </si>
+  <si>
+    <t>최윤서</t>
+  </si>
+  <si>
+    <t>minwl19@naver.com</t>
+  </si>
+  <si>
+    <t>조민지</t>
+  </si>
+  <si>
+    <t>ksfu03@naver.com</t>
+  </si>
+  <si>
+    <t>이규성</t>
+  </si>
+  <si>
+    <t>mi88368836@gmail.com</t>
+  </si>
+  <si>
+    <t>신민서</t>
+  </si>
+  <si>
+    <t>lc990728@naver.com</t>
+  </si>
+  <si>
+    <t>이하은</t>
+  </si>
+  <si>
+    <t>jiyewon5555@gmail.com</t>
+  </si>
+  <si>
+    <t>지예원</t>
+  </si>
+  <si>
+    <t>leeleeya1013@gmail.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>hyeonse0@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>황현서</t>
+  </si>
+  <si>
+    <t>ryul1128@naver.com</t>
+  </si>
+  <si>
+    <t>김률아</t>
+  </si>
+  <si>
+    <t>jungha051026@naver.com</t>
+  </si>
+  <si>
+    <t>윤정하</t>
+  </si>
+  <si>
+    <t>sf12nam@naver.com</t>
+  </si>
+  <si>
+    <t>남유정</t>
+  </si>
+  <si>
+    <t>kth4159@gmail.com</t>
+  </si>
+  <si>
+    <t>mi3107359@gmail.com</t>
+  </si>
+  <si>
+    <t>이미진</t>
+  </si>
+  <si>
+    <t>leesy470666@gmail.com</t>
+  </si>
+  <si>
+    <t>이수용</t>
+  </si>
+  <si>
+    <t>kmc20051114@gmail.com</t>
+  </si>
+  <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t>alyssa3257@naver.com</t>
+  </si>
+  <si>
+    <t>전영주</t>
+  </si>
+  <si>
+    <t>chaecjb@naver.com</t>
+  </si>
+  <si>
+    <t>채희수</t>
+  </si>
+  <si>
+    <t>smsong1036@gmail.com</t>
+  </si>
+  <si>
+    <t>송승민</t>
+  </si>
+  <si>
+    <t>rlaehdnr999@naver.com</t>
+  </si>
+  <si>
+    <t>김도욱</t>
+  </si>
+  <si>
+    <t>kangdmscks@gmail.com</t>
+  </si>
+  <si>
+    <t>강은찬</t>
+  </si>
+  <si>
+    <t>kdhmonkeyking@gmail.com</t>
+  </si>
+  <si>
+    <t>xormr1505@naver.com</t>
+  </si>
+  <si>
+    <t>박찬원</t>
+  </si>
+  <si>
+    <t>phc5120@naver.com</t>
+  </si>
+  <si>
+    <t>박희철</t>
+  </si>
+  <si>
+    <t>kimhemi05@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜미</t>
+  </si>
+  <si>
+    <t>kylebusy@naver.com</t>
+  </si>
+  <si>
+    <t>이동훈</t>
+  </si>
+  <si>
+    <t>lg01022928122@gmail.com</t>
+  </si>
+  <si>
+    <t>권주용</t>
+  </si>
+  <si>
+    <t>leeeunbi0717@naver.com</t>
+  </si>
+  <si>
+    <t>이은비</t>
+  </si>
+  <si>
+    <t>ahfahf12@gmail.com</t>
+  </si>
+  <si>
+    <t>김원준</t>
+  </si>
+  <si>
+    <t>rladud624@gmail.com</t>
+  </si>
+  <si>
+    <t>김영</t>
+  </si>
+  <si>
+    <t>jsk991012@naver.com</t>
+  </si>
+  <si>
+    <t>김준서</t>
+  </si>
+  <si>
+    <t>yeonju455@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미래융합스쿨 </t>
+  </si>
+  <si>
+    <t>정연주</t>
+  </si>
+  <si>
+    <t>jerryterryharry@gmail.com</t>
+  </si>
+  <si>
+    <t>문진영</t>
+  </si>
+  <si>
+    <t>donghunea@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>한동훈</t>
+  </si>
+  <si>
+    <t>yoonsolmin@naver.com</t>
+  </si>
+  <si>
+    <t>윤솔민</t>
+  </si>
+  <si>
+    <t>gyucheol0503@naver.com</t>
+  </si>
+  <si>
+    <t>홍규철</t>
+  </si>
+  <si>
+    <t>leejhzzang2005@naver.com</t>
+  </si>
+  <si>
+    <t>이주현</t>
+  </si>
+  <si>
+    <t>aldidhd1112@naver.com</t>
+  </si>
+  <si>
+    <t>권효서</t>
+  </si>
+  <si>
+    <t>sssm08155@gmail.com</t>
+  </si>
+  <si>
+    <t>윤희주</t>
   </si>
 </sst>
 </file>
@@ -2829,7 +3087,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -2985,11 +3243,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3074,6 +3346,9 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3132,7 +3407,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM393" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM435" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -47519,113 +47794,4733 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="25">
+      <c r="A393" s="17">
         <v>45595.142103645834</v>
       </c>
-      <c r="B393" s="26" t="s">
+      <c r="B393" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="C393" s="26" t="s">
+      <c r="C393" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="D393" s="26">
+      <c r="D393" s="18">
         <v>2.0241519E7</v>
       </c>
-      <c r="E393" s="26" t="s">
+      <c r="E393" s="18" t="s">
         <v>928</v>
       </c>
-      <c r="F393" s="27">
+      <c r="F393" s="19">
         <v>0.14027777777664596</v>
       </c>
-      <c r="G393" s="26" t="s">
+      <c r="G393" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H393" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="I393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="J393" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="K393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="L393" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="M393" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="N393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="O393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="P393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Q393" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="R393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="S393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="T393" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="U393" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="V393" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="W393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="X393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Y393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Z393" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AA393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AB393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AC393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AD393" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AE393" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AF393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AG393" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AH393" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AI393" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AJ393" s="26">
-        <v>1.0</v>
+      <c r="H393" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J393" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L393" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M393" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q393" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T393" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U393" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V393" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z393" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD393" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE393" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG393" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH393" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI393" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ393" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="21">
+        <v>45595.5108903125</v>
+      </c>
+      <c r="B394" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="C394" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D394" s="22">
+        <v>2.0233808E7</v>
+      </c>
+      <c r="E394" s="22" t="s">
+        <v>930</v>
+      </c>
+      <c r="F394" s="23">
+        <v>0.5090277777781012</v>
+      </c>
+      <c r="G394" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H394" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I394" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J394" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K394" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L394" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M394" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N394" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O394" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P394" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q394" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R394" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S394" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T394" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U394" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V394" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W394" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X394" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y394" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z394" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA394" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB394" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC394" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD394" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE394" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF394" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG394" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH394" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI394" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ394" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="17">
+        <v>45595.51382489583</v>
+      </c>
+      <c r="B395" s="18" t="s">
+        <v>931</v>
+      </c>
+      <c r="C395" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D395" s="18">
+        <v>2.0212613E7</v>
+      </c>
+      <c r="E395" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="F395" s="19">
+        <v>0.5118055555576575</v>
+      </c>
+      <c r="G395" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I395" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M395" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="N395" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="O395" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q395" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R395" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V395" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W395" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y395" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA395" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB395" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC395" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF395" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG395" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH395" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AI395" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AJ395" s="18">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="21">
+        <v>45595.563689629635</v>
+      </c>
+      <c r="B396" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="C396" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D396" s="22">
+        <v>2.0246305E7</v>
+      </c>
+      <c r="E396" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="F396" s="23">
+        <v>0.5597222222204437</v>
+      </c>
+      <c r="G396" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK396" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL396" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP396" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ396" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU396" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV396" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW396" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB396" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC396" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH396" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK396" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL396" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM396" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="17">
+        <v>45595.5650934375</v>
+      </c>
+      <c r="B397" s="18" t="s">
+        <v>935</v>
+      </c>
+      <c r="C397" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="D397" s="18">
+        <v>2.0227091E7</v>
+      </c>
+      <c r="E397" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="F397" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="G397" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H397" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="I397" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J397" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K397" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L397" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M397" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N397" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O397" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P397" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Q397" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R397" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S397" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T397" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U397" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V397" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W397" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X397" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y397" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z397" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA397" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB397" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC397" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD397" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE397" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF397" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG397" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH397" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI397" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ397" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="21">
+        <v>45595.56769040509</v>
+      </c>
+      <c r="B398" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="C398" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D398" s="22">
+        <v>2.0242582E7</v>
+      </c>
+      <c r="E398" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="F398" s="23">
+        <v>0.5645833333328483</v>
+      </c>
+      <c r="G398" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H398" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I398" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J398" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K398" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L398" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M398" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N398" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O398" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P398" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q398" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R398" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S398" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T398" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U398" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V398" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W398" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X398" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y398" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z398" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA398" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB398" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC398" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD398" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE398" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF398" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG398" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH398" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI398" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ398" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="17">
+        <v>45595.591288125</v>
+      </c>
+      <c r="B399" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="C399" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D399" s="18">
+        <v>2.0217178E7</v>
+      </c>
+      <c r="E399" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="F399" s="19">
+        <v>0.5854166666686069</v>
+      </c>
+      <c r="G399" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK399" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL399" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM399" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN399" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO399" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP399" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ399" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR399" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS399" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT399" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU399" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV399" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW399" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX399" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY399" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ399" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA399" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB399" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC399" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD399" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE399" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF399" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG399" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH399" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI399" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ399" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK399" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL399" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM399" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="21">
+        <v>45595.59911293982</v>
+      </c>
+      <c r="B400" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="C400" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D400" s="22">
+        <v>2.0201071E7</v>
+      </c>
+      <c r="E400" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="F400" s="23">
+        <v>0.5979166666656965</v>
+      </c>
+      <c r="G400" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK400" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL400" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS400" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT400" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU400" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV400" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW400" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC400" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK400" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL400" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM400" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="17">
+        <v>45595.60412263889</v>
+      </c>
+      <c r="B401" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="C401" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D401" s="18">
+        <v>2.0244126E7</v>
+      </c>
+      <c r="E401" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="F401" s="19">
+        <v>0.10208333333139308</v>
+      </c>
+      <c r="G401" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK401" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM401" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN401" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP401" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AQ401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS401" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT401" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU401" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AV401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW401" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY401" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ401" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE401" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG401" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ401" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BK401" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL401" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM401" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="21">
+        <v>45595.629515023145</v>
+      </c>
+      <c r="B402" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="C402" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D402" s="22">
+        <v>2.0245233E7</v>
+      </c>
+      <c r="E402" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="F402" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="G402" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H402" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I402" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J402" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L402" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N402" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O402" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P402" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Q402" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T402" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U402" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W402" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X402" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB402" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC402" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG402" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI402" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ402" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="17">
+        <v>45595.708801782406</v>
+      </c>
+      <c r="B403" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="C403" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D403" s="18">
+        <v>2.0202641E7</v>
+      </c>
+      <c r="E403" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="F403" s="19">
+        <v>0.7076388888890506</v>
+      </c>
+      <c r="G403" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H403" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I403" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J403" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K403" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L403" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M403" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N403" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O403" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P403" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q403" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R403" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S403" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T403" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U403" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V403" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W403" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X403" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y403" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z403" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA403" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB403" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC403" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD403" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE403" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF403" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG403" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH403" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI403" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ403" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="21">
+        <v>45595.74705358796</v>
+      </c>
+      <c r="B404" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="C404" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D404" s="22">
+        <v>2.024661E7</v>
+      </c>
+      <c r="E404" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="F404" s="23">
+        <v>0.7451388888875954</v>
+      </c>
+      <c r="G404" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H404" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I404" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J404" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K404" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L404" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M404" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N404" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O404" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P404" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q404" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R404" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S404" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T404" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="U404" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V404" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W404" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X404" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y404" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z404" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AA404" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB404" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC404" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD404" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE404" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF404" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG404" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH404" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AI404" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AJ404" s="22">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="17">
+        <v>45595.774445358795</v>
+      </c>
+      <c r="B405" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="C405" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="D405" s="18">
+        <v>2.0202761E7</v>
+      </c>
+      <c r="E405" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="F405" s="19">
+        <v>0.7715277777751908</v>
+      </c>
+      <c r="G405" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK405" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL405" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM405" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN405" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO405" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP405" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ405" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR405" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS405" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT405" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AU405" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV405" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW405" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX405" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY405" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AZ405" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA405" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB405" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC405" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD405" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE405" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF405" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG405" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH405" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI405" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ405" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK405" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL405" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM405" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="21">
+        <v>45595.82904960648</v>
+      </c>
+      <c r="B406" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="C406" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D406" s="22">
+        <v>2.0243806E7</v>
+      </c>
+      <c r="E406" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="F406" s="23">
+        <v>0.8256944444437977</v>
+      </c>
+      <c r="G406" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H406" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I406" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J406" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K406" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L406" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M406" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N406" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O406" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P406" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q406" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R406" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S406" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T406" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U406" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V406" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W406" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X406" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y406" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z406" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA406" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB406" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC406" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD406" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE406" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF406" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG406" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH406" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI406" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ406" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="17">
+        <v>45595.82948417824</v>
+      </c>
+      <c r="B407" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C407" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D407" s="18">
+        <v>2.0245213E7</v>
+      </c>
+      <c r="E407" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="F407" s="19">
+        <v>0.827777777776646</v>
+      </c>
+      <c r="G407" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y407" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI407" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ407" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="21">
+        <v>45595.85415704861</v>
+      </c>
+      <c r="B408" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="C408" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D408" s="22">
+        <v>2.0233716E7</v>
+      </c>
+      <c r="E408" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="F408" s="23">
+        <v>0.8506944444452529</v>
+      </c>
+      <c r="G408" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H408" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I408" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J408" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K408" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L408" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M408" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N408" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="O408" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P408" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="Q408" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R408" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S408" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T408" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U408" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V408" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W408" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="X408" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="Y408" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z408" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA408" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AB408" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC408" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD408" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AE408" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF408" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG408" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH408" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI408" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ408" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="17">
+        <v>45595.876592835644</v>
+      </c>
+      <c r="B409" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="C409" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D409" s="18">
+        <v>2.024623E7</v>
+      </c>
+      <c r="E409" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F409" s="19">
+        <v>0.8756944444467081</v>
+      </c>
+      <c r="G409" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL409" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM409" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="21">
+        <v>45595.911600844905</v>
+      </c>
+      <c r="B410" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="C410" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D410" s="22">
+        <v>2.024122E7</v>
+      </c>
+      <c r="E410" s="22" t="s">
+        <v>963</v>
+      </c>
+      <c r="F410" s="23">
+        <v>0.9097222222189885</v>
+      </c>
+      <c r="G410" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H410" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I410" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J410" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K410" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L410" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M410" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N410" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O410" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P410" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q410" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R410" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S410" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T410" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U410" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V410" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W410" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X410" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y410" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z410" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA410" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB410" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC410" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD410" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE410" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF410" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG410" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH410" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI410" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ410" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="17">
+        <v>45596.00045304398</v>
+      </c>
+      <c r="B411" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="C411" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D411" s="18">
+        <v>2.0243938E7</v>
+      </c>
+      <c r="E411" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="F411" s="19">
+        <v>0.9972222222204437</v>
+      </c>
+      <c r="G411" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK411" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AL411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ411" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS411" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT411" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU411" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW411" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY411" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ411" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI411" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ411" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK411" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BL411" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BM411" s="20">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="21">
+        <v>45596.016697824074</v>
+      </c>
+      <c r="B412" s="22" t="s">
+        <v>966</v>
+      </c>
+      <c r="C412" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D412" s="22">
+        <v>2.0243905E7</v>
+      </c>
+      <c r="E412" s="22" t="s">
+        <v>967</v>
+      </c>
+      <c r="F412" s="23">
+        <v>0.014583333337213844</v>
+      </c>
+      <c r="G412" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H412" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I412" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J412" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K412" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="L412" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M412" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N412" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O412" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P412" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q412" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R412" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S412" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T412" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U412" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V412" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W412" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X412" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y412" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z412" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA412" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB412" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC412" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD412" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE412" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF412" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG412" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH412" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI412" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ412" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="17">
+        <v>45596.07889434027</v>
+      </c>
+      <c r="B413" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="C413" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D413" s="18">
+        <v>2.0246279E7</v>
+      </c>
+      <c r="E413" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="F413" s="19">
+        <v>0.07777777777664596</v>
+      </c>
+      <c r="G413" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK413" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO413" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ413" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU413" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW413" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC413" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL413" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM413" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="21">
+        <v>45596.07911815972</v>
+      </c>
+      <c r="B414" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="C414" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D414" s="22">
+        <v>2.0203046E7</v>
+      </c>
+      <c r="E414" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="F414" s="23">
+        <v>0.07569444444379769</v>
+      </c>
+      <c r="G414" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H414" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I414" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J414" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K414" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L414" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M414" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N414" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O414" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P414" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q414" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R414" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S414" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T414" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U414" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V414" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W414" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X414" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y414" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z414" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA414" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB414" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC414" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD414" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE414" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF414" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG414" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH414" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI414" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ414" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="17">
+        <v>45596.09219469907</v>
+      </c>
+      <c r="B415" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="C415" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D415" s="18">
+        <v>2.0243624E7</v>
+      </c>
+      <c r="E415" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="F415" s="19">
+        <v>0.09097222222044365</v>
+      </c>
+      <c r="G415" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H415" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I415" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J415" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K415" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L415" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M415" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N415" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O415" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P415" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q415" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R415" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S415" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T415" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U415" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V415" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W415" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X415" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y415" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z415" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA415" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB415" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC415" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD415" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE415" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF415" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG415" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH415" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI415" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ415" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="21">
+        <v>45596.17619778935</v>
+      </c>
+      <c r="B416" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="C416" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D416" s="22">
+        <v>2.0221007E7</v>
+      </c>
+      <c r="E416" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="F416" s="23">
+        <v>0.17361111110949423</v>
+      </c>
+      <c r="G416" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK416" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN416" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO416" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ416" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS416" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU416" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV416" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX416" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ416" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA416" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD416" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE416" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI416" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK416" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BL416" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM416" s="24">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="17">
+        <v>45596.381841759256</v>
+      </c>
+      <c r="B417" s="18" t="s">
+        <v>976</v>
+      </c>
+      <c r="C417" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="D417" s="18">
+        <v>2.0246904E7</v>
+      </c>
+      <c r="E417" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="F417" s="19">
+        <v>0.3805555555591127</v>
+      </c>
+      <c r="G417" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H417" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I417" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J417" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K417" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L417" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M417" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N417" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O417" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P417" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q417" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R417" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S417" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T417" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U417" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V417" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W417" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X417" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y417" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z417" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA417" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB417" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC417" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD417" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE417" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF417" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG417" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH417" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI417" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ417" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="21">
+        <v>45596.40109806713</v>
+      </c>
+      <c r="B418" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="C418" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D418" s="22">
+        <v>2.024151E7</v>
+      </c>
+      <c r="E418" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="F418" s="23">
+        <v>0.398611111115315</v>
+      </c>
+      <c r="G418" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK418" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL418" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM418" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN418" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO418" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP418" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ418" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR418" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS418" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT418" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU418" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV418" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW418" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX418" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY418" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ418" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA418" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB418" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC418" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD418" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE418" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF418" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG418" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH418" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI418" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ418" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK418" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL418" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM418" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="17">
+        <v>45596.45758263889</v>
+      </c>
+      <c r="B419" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="C419" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D419" s="18">
+        <v>2.0205176E7</v>
+      </c>
+      <c r="E419" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="F419" s="19">
+        <v>0.4562500000029104</v>
+      </c>
+      <c r="G419" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H419" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J419" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L419" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M419" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P419" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q419" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R419" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T419" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U419" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z419" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD419" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE419" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG419" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH419" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI419" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ419" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="21">
+        <v>45596.46566696759</v>
+      </c>
+      <c r="B420" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="C420" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D420" s="22">
+        <v>2.0183824E7</v>
+      </c>
+      <c r="E420" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="F420" s="23">
+        <v>0.45833333333575865</v>
+      </c>
+      <c r="G420" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK420" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL420" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM420" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN420" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO420" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP420" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ420" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR420" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS420" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT420" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU420" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV420" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW420" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX420" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY420" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ420" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA420" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB420" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC420" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD420" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE420" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF420" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG420" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH420" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI420" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ420" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK420" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL420" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM420" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="17">
+        <v>45596.52320880787</v>
+      </c>
+      <c r="B421" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="C421" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D421" s="18">
+        <v>2.0242112E7</v>
+      </c>
+      <c r="E421" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="F421" s="19">
+        <v>0.5145833333372138</v>
+      </c>
+      <c r="G421" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H421" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I421" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J421" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K421" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L421" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M421" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N421" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O421" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P421" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q421" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R421" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S421" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T421" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U421" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V421" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W421" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X421" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y421" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z421" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA421" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB421" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC421" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AD421" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE421" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF421" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG421" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH421" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI421" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ421" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="21">
+        <v>45596.57213083333</v>
+      </c>
+      <c r="B422" s="22" t="s">
+        <v>985</v>
+      </c>
+      <c r="C422" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D422" s="22">
+        <v>2.0212551E7</v>
+      </c>
+      <c r="E422" s="22" t="s">
+        <v>986</v>
+      </c>
+      <c r="F422" s="23">
+        <v>0.5694444444452529</v>
+      </c>
+      <c r="G422" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK422" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL422" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM422" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN422" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO422" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP422" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ422" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR422" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS422" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT422" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU422" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV422" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW422" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX422" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY422" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ422" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA422" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB422" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC422" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD422" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE422" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF422" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG422" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BH422" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI422" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ422" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK422" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL422" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM422" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="17">
+        <v>45596.57678862268</v>
+      </c>
+      <c r="B423" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="C423" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D423" s="18">
+        <v>2.0215109E7</v>
+      </c>
+      <c r="E423" s="18" t="s">
+        <v>988</v>
+      </c>
+      <c r="F423" s="19">
+        <v>0.5722222222248092</v>
+      </c>
+      <c r="G423" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK423" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL423" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM423" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AN423" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO423" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP423" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AQ423" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AR423" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS423" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT423" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU423" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV423" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AW423" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AX423" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AY423" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AZ423" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA423" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB423" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC423" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BD423" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BE423" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF423" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG423" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH423" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI423" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ423" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BK423" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL423" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM423" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="21">
+        <v>45596.61105115741</v>
+      </c>
+      <c r="B424" s="22" t="s">
+        <v>989</v>
+      </c>
+      <c r="C424" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D424" s="22">
+        <v>2.024234E7</v>
+      </c>
+      <c r="E424" s="22" t="s">
+        <v>990</v>
+      </c>
+      <c r="F424" s="23">
+        <v>0.10763888889050577</v>
+      </c>
+      <c r="G424" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L424" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M424" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O424" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q424" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T424" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W424" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y424" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA424" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC424" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD424" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AE424" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AF424" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG424" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH424" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI424" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ424" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="17">
+        <v>45596.62770386574</v>
+      </c>
+      <c r="B425" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="C425" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D425" s="18">
+        <v>2.0202408E7</v>
+      </c>
+      <c r="E425" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="F425" s="19">
+        <v>0.5819444444423425</v>
+      </c>
+      <c r="G425" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK425" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT425" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU425" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV425" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW425" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AX425" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC425" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG425" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BH425" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ425" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK425" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL425" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM425" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="21">
+        <v>45596.63187060185</v>
+      </c>
+      <c r="B426" s="22" t="s">
+        <v>993</v>
+      </c>
+      <c r="C426" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D426" s="22">
+        <v>2.0202925E7</v>
+      </c>
+      <c r="E426" s="22" t="s">
+        <v>994</v>
+      </c>
+      <c r="F426" s="23">
+        <v>0.6305555555591127</v>
+      </c>
+      <c r="G426" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H426" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I426" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J426" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K426" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L426" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M426" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N426" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O426" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P426" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q426" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R426" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S426" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T426" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U426" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V426" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W426" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X426" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y426" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z426" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA426" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB426" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC426" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD426" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE426" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF426" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG426" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH426" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI426" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ426" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="17">
+        <v>45596.631964409724</v>
+      </c>
+      <c r="B427" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="C427" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D427" s="18">
+        <v>2.0182519E7</v>
+      </c>
+      <c r="E427" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="F427" s="19">
+        <v>0.6319444444452529</v>
+      </c>
+      <c r="G427" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H427" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J427" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K427" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M427" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P427" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Q427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R427" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="S427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U427" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V427" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X427" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA427" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB427" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD427" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF427" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH427" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI427" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ427" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="21">
+        <v>45596.63536673611</v>
+      </c>
+      <c r="B428" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="C428" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="D428" s="22">
+        <v>2.0226638E7</v>
+      </c>
+      <c r="E428" s="22" t="s">
+        <v>999</v>
+      </c>
+      <c r="F428" s="23">
+        <v>0.6319444444452529</v>
+      </c>
+      <c r="G428" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK428" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO428" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP428" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT428" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX428" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA428" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB428" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BC428" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE428" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG428" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH428" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ428" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK428" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL428" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM428" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="17">
+        <v>45596.7279309838</v>
+      </c>
+      <c r="B429" s="18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C429" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D429" s="18">
+        <v>2.0205162E7</v>
+      </c>
+      <c r="E429" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F429" s="19">
+        <v>0.7256944444452529</v>
+      </c>
+      <c r="G429" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H429" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I429" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J429" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K429" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L429" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M429" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N429" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O429" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P429" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q429" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R429" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S429" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T429" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U429" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V429" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W429" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X429" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y429" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z429" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA429" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB429" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC429" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD429" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE429" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF429" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG429" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH429" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI429" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ429" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="21">
+        <v>45596.73538961806</v>
+      </c>
+      <c r="B430" s="22" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C430" s="22" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D430" s="22">
+        <v>2.0205267E7</v>
+      </c>
+      <c r="E430" s="22" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F430" s="23">
+        <v>0.734027777776646</v>
+      </c>
+      <c r="G430" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H430" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I430" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J430" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K430" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L430" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M430" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q430" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T430" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U430" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z430" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD430" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE430" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG430" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH430" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI430" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ430" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="17">
+        <v>45596.77802304398</v>
+      </c>
+      <c r="B431" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C431" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D431" s="18">
+        <v>2.0222128E7</v>
+      </c>
+      <c r="E431" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F431" s="19">
+        <v>0.7770833333343035</v>
+      </c>
+      <c r="G431" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV431" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX431" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ431" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB431" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD431" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF431" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG431" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK431" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL431" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM431" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="21">
+        <v>45596.80486563657</v>
+      </c>
+      <c r="B432" s="22" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C432" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D432" s="22">
+        <v>2.024365E7</v>
+      </c>
+      <c r="E432" s="22" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F432" s="23">
+        <v>0.8027777777751908</v>
+      </c>
+      <c r="G432" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H432" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I432" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J432" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K432" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L432" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M432" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N432" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O432" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P432" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q432" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R432" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S432" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T432" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U432" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V432" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W432" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X432" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y432" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z432" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA432" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB432" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC432" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD432" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE432" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF432" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG432" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH432" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI432" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ432" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="17">
+        <v>45596.99220684028</v>
+      </c>
+      <c r="B433" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C433" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D433" s="18">
+        <v>2.0242342E7</v>
+      </c>
+      <c r="E433" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F433" s="19">
+        <v>0.9902777777751908</v>
+      </c>
+      <c r="G433" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H433" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I433" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J433" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K433" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L433" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M433" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N433" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O433" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P433" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q433" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R433" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S433" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T433" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U433" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V433" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W433" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X433" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y433" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z433" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA433" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB433" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC433" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD433" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE433" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF433" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG433" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH433" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AI433" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AJ433" s="18">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="21">
+        <v>45597.16251846065</v>
+      </c>
+      <c r="B434" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C434" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D434" s="22">
+        <v>2.0172808E7</v>
+      </c>
+      <c r="E434" s="22" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F434" s="23">
+        <v>0.16111111111240461</v>
+      </c>
+      <c r="G434" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS434" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU434" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY434" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL434" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM434" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="25">
+        <v>45597.37073920139</v>
+      </c>
+      <c r="B435" s="26" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C435" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D435" s="26">
+        <v>2.0201079E7</v>
+      </c>
+      <c r="E435" s="26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F435" s="27">
+        <v>0.3680555555547471</v>
+      </c>
+      <c r="G435" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK435" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AL435" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AM435" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AN435" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AO435" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AP435" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AQ435" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AR435" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AS435" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AT435" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AU435" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AV435" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AW435" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AX435" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AY435" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AZ435" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BA435" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BB435" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BC435" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BD435" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BE435" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BF435" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BG435" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BH435" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BI435" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BJ435" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BK435" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BL435" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BM435" s="28">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="1051">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3057,6 +3057,114 @@
   </si>
   <si>
     <t>윤희주</t>
+  </si>
+  <si>
+    <t>iwhwigw836292@naver.com</t>
+  </si>
+  <si>
+    <t>김나현</t>
+  </si>
+  <si>
+    <t>shysooo@naver.com</t>
+  </si>
+  <si>
+    <t>신윤수</t>
+  </si>
+  <si>
+    <t>lyjo0823@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>이연주</t>
+  </si>
+  <si>
+    <t>leedongyoung797@gmail.com</t>
+  </si>
+  <si>
+    <t>이동영</t>
+  </si>
+  <si>
+    <t>misunhong0707@gmail.com</t>
+  </si>
+  <si>
+    <t>홍미선</t>
+  </si>
+  <si>
+    <t>youeyd77@gmail.com</t>
+  </si>
+  <si>
+    <t>임소이</t>
+  </si>
+  <si>
+    <t>jhry0903@naver.com</t>
+  </si>
+  <si>
+    <t>조하령</t>
+  </si>
+  <si>
+    <t>a01053076907@gmail.com</t>
+  </si>
+  <si>
+    <t>원은성</t>
+  </si>
+  <si>
+    <t>tpdkdb0401@gmail.com</t>
+  </si>
+  <si>
+    <t>유세아</t>
+  </si>
+  <si>
+    <t>tngusvhs@gmail.com</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>kimdongx0813@gmail.com</t>
+  </si>
+  <si>
+    <t>swncelt@naver.com</t>
+  </si>
+  <si>
+    <t>박은서</t>
+  </si>
+  <si>
+    <t>qotnqls1126@naver.com</t>
+  </si>
+  <si>
+    <t>배수빈</t>
+  </si>
+  <si>
+    <t>wweufc0913123456@gmail.com</t>
+  </si>
+  <si>
+    <t>지강민</t>
+  </si>
+  <si>
+    <t>sk2000tyr@naver.com</t>
+  </si>
+  <si>
+    <t>이지한</t>
+  </si>
+  <si>
+    <t>tqwquqqi@naver.com</t>
+  </si>
+  <si>
+    <t>강하늘</t>
+  </si>
+  <si>
+    <t>jyb051128@gmail.com</t>
+  </si>
+  <si>
+    <t>전유빈</t>
+  </si>
+  <si>
+    <t>haksun0217@naver.com</t>
+  </si>
+  <si>
+    <t>김학선</t>
   </si>
 </sst>
 </file>
@@ -3087,7 +3195,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -3243,25 +3351,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3346,9 +3440,6 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3407,7 +3498,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM435" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM453" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -52414,112 +52505,2092 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="25">
+      <c r="A435" s="17">
         <v>45597.37073920139</v>
       </c>
-      <c r="B435" s="26" t="s">
+      <c r="B435" s="18" t="s">
         <v>1013</v>
       </c>
-      <c r="C435" s="26" t="s">
+      <c r="C435" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D435" s="26">
+      <c r="D435" s="18">
         <v>2.0201079E7</v>
       </c>
-      <c r="E435" s="26" t="s">
+      <c r="E435" s="18" t="s">
         <v>1014</v>
       </c>
-      <c r="F435" s="27">
+      <c r="F435" s="19">
         <v>0.3680555555547471</v>
       </c>
-      <c r="G435" s="26" t="s">
+      <c r="G435" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AK435" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AL435" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AM435" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AN435" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AO435" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AP435" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AQ435" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AR435" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AS435" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AT435" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AU435" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AV435" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AW435" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AX435" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AY435" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AZ435" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BA435" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BB435" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BC435" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BD435" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BE435" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BF435" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BG435" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BH435" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="BI435" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BJ435" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BK435" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BL435" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="BM435" s="28">
+      <c r="AK435" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL435" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM435" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN435" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO435" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AP435" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ435" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR435" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS435" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT435" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU435" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV435" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW435" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX435" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY435" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ435" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA435" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB435" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC435" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD435" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE435" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF435" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG435" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH435" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI435" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ435" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK435" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL435" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM435" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="21">
+        <v>45597.389274270834</v>
+      </c>
+      <c r="B436" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C436" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D436" s="22">
+        <v>2.0243903E7</v>
+      </c>
+      <c r="E436" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F436" s="23">
+        <v>0.38888888889050577</v>
+      </c>
+      <c r="G436" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK436" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM436" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO436" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ436" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR436" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS436" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU436" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW436" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY436" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB436" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD436" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG436" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ436" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK436" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL436" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM436" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="17">
+        <v>45597.39887236111</v>
+      </c>
+      <c r="B437" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C437" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D437" s="18">
+        <v>2.0227155E7</v>
+      </c>
+      <c r="E437" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F437" s="19">
+        <v>0.39722222222189885</v>
+      </c>
+      <c r="G437" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H437" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I437" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J437" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K437" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L437" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M437" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N437" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="O437" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P437" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q437" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R437" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S437" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T437" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U437" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V437" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W437" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X437" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y437" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z437" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA437" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB437" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC437" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD437" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE437" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF437" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG437" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH437" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI437" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ437" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="21">
+        <v>45597.419191469904</v>
+      </c>
+      <c r="B438" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C438" s="22" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D438" s="22">
+        <v>2.0225218E7</v>
+      </c>
+      <c r="E438" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F438" s="23">
+        <v>0.4173611111109494</v>
+      </c>
+      <c r="G438" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK438" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL438" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM438" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN438" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO438" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP438" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AQ438" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR438" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS438" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT438" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AU438" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV438" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW438" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AX438" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY438" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ438" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA438" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB438" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC438" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BD438" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE438" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF438" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG438" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH438" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI438" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ438" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK438" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL438" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BM438" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="17">
+        <v>45597.522868831016</v>
+      </c>
+      <c r="B439" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C439" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D439" s="18">
+        <v>2.0243934E7</v>
+      </c>
+      <c r="E439" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F439" s="19">
+        <v>0.5215277777751908</v>
+      </c>
+      <c r="G439" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H439" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="L439" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M439" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="O439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q439" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T439" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U439" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z439" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD439" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE439" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG439" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AH439" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI439" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ439" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="21">
+        <v>45597.5638141088</v>
+      </c>
+      <c r="B440" s="22" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C440" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="D440" s="22">
+        <v>2.024694E7</v>
+      </c>
+      <c r="E440" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F440" s="23">
+        <v>0.5618055555532919</v>
+      </c>
+      <c r="G440" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS440" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU440" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW440" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AX440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY440" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF440" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL440" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM440" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="17">
+        <v>45597.58461859953</v>
+      </c>
+      <c r="B441" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C441" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D441" s="18">
+        <v>2.0232745E7</v>
+      </c>
+      <c r="E441" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F441" s="19">
+        <v>0.5805555555562023</v>
+      </c>
+      <c r="G441" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK441" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL441" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM441" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN441" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO441" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AP441" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ441" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR441" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS441" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT441" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU441" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV441" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW441" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX441" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY441" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ441" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA441" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB441" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC441" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD441" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE441" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF441" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG441" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH441" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI441" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ441" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK441" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL441" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM441" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="21">
+        <v>45597.598769930555</v>
+      </c>
+      <c r="B442" s="22" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C442" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D442" s="22">
+        <v>2.0241097E7</v>
+      </c>
+      <c r="E442" s="22" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F442" s="23">
+        <v>0.5923611111065838</v>
+      </c>
+      <c r="G442" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H442" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I442" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J442" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K442" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="L442" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M442" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N442" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O442" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P442" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q442" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R442" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S442" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T442" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U442" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V442" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W442" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X442" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y442" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z442" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA442" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB442" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC442" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD442" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE442" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF442" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG442" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH442" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI442" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ442" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="17">
+        <v>45597.60000900463</v>
+      </c>
+      <c r="B443" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C443" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="D443" s="18">
+        <v>2.0246927E7</v>
+      </c>
+      <c r="E443" s="18" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F443" s="19">
+        <v>0.5993055555591127</v>
+      </c>
+      <c r="G443" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM443" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP443" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ443" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU443" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW443" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX443" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ443" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA443" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB443" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC443" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE443" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF443" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI443" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ443" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK443" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BL443" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM443" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="21">
+        <v>45597.62623394676</v>
+      </c>
+      <c r="B444" s="22" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C444" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D444" s="22">
+        <v>2.0235213E7</v>
+      </c>
+      <c r="E444" s="22" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F444" s="23">
+        <v>0.6229166666671517</v>
+      </c>
+      <c r="G444" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H444" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I444" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J444" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K444" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L444" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M444" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N444" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O444" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P444" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q444" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R444" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S444" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T444" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U444" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V444" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W444" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X444" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y444" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z444" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA444" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB444" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC444" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD444" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE444" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF444" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG444" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH444" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI444" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AJ444" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="17">
+        <v>45597.63239868055</v>
+      </c>
+      <c r="B445" s="18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C445" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D445" s="18">
+        <v>2.0243529E7</v>
+      </c>
+      <c r="E445" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F445" s="19">
+        <v>0.6270833333328483</v>
+      </c>
+      <c r="G445" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK445" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL445" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM445" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN445" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO445" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP445" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AQ445" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR445" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS445" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT445" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU445" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV445" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW445" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX445" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY445" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ445" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA445" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB445" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC445" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD445" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE445" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF445" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG445" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH445" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI445" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ445" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BK445" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL445" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM445" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="21">
+        <v>45597.69026511574</v>
+      </c>
+      <c r="B446" s="22" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C446" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D446" s="22">
+        <v>2.0182308E7</v>
+      </c>
+      <c r="E446" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="F446" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="G446" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK446" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL446" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM446" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN446" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO446" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP446" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ446" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR446" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS446" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT446" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU446" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV446" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW446" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX446" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY446" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ446" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA446" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB446" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC446" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD446" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE446" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF446" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG446" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH446" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI446" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ446" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK446" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BL446" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM446" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="17">
+        <v>45597.6921703125</v>
+      </c>
+      <c r="B447" s="18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C447" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D447" s="18">
+        <v>2.0192876E7</v>
+      </c>
+      <c r="E447" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F447" s="19">
+        <v>0.6868055555532919</v>
+      </c>
+      <c r="G447" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK447" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL447" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM447" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN447" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO447" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP447" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ447" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR447" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS447" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT447" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU447" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV447" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW447" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX447" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY447" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ447" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA447" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB447" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC447" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD447" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE447" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF447" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG447" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH447" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI447" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ447" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK447" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL447" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM447" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="21">
+        <v>45597.71207767361</v>
+      </c>
+      <c r="B448" s="22" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C448" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D448" s="22">
+        <v>2.020382E7</v>
+      </c>
+      <c r="E448" s="22" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F448" s="23">
+        <v>0.7090277777751908</v>
+      </c>
+      <c r="G448" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK448" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL448" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM448" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN448" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO448" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AP448" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ448" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR448" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS448" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT448" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU448" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV448" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW448" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX448" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY448" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ448" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA448" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB448" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC448" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD448" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE448" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF448" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG448" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH448" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI448" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ448" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK448" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL448" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM448" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="17">
+        <v>45597.773633159726</v>
+      </c>
+      <c r="B449" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C449" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D449" s="18">
+        <v>2.0231539E7</v>
+      </c>
+      <c r="E449" s="18" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F449" s="19">
+        <v>0.7715277777751908</v>
+      </c>
+      <c r="G449" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H449" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K449" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M449" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P449" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q449" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T449" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE449" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG449" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH449" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI449" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ449" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="21">
+        <v>45597.83084652778</v>
+      </c>
+      <c r="B450" s="22" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C450" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D450" s="22">
+        <v>2.0227073E7</v>
+      </c>
+      <c r="E450" s="22" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F450" s="23">
+        <v>0.8298611111094942</v>
+      </c>
+      <c r="G450" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H450" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I450" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J450" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K450" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L450" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M450" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O450" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q450" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T450" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U450" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z450" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD450" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE450" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG450" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH450" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI450" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ450" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="17">
+        <v>45597.871620798614</v>
+      </c>
+      <c r="B451" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C451" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D451" s="18">
+        <v>2.0222905E7</v>
+      </c>
+      <c r="E451" s="18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F451" s="19">
+        <v>0.8687500000014552</v>
+      </c>
+      <c r="G451" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK451" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL451" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AM451" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AN451" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AO451" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP451" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ451" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AR451" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS451" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT451" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU451" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV451" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW451" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX451" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY451" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AZ451" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA451" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB451" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC451" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD451" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BE451" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF451" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG451" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BH451" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI451" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BJ451" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK451" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL451" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BM451" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="21">
+        <v>45597.88106526621</v>
+      </c>
+      <c r="B452" s="22" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C452" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D452" s="22">
+        <v>2.0243646E7</v>
+      </c>
+      <c r="E452" s="22" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F452" s="23">
+        <v>0.8756944444467081</v>
+      </c>
+      <c r="G452" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK452" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM452" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN452" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR452" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV452" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY452" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC452" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD452" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF452" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BL452" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM452" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="25">
+        <v>45597.89667502315</v>
+      </c>
+      <c r="B453" s="26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C453" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D453" s="26">
+        <v>2.0243814E7</v>
+      </c>
+      <c r="E453" s="26" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F453" s="27">
+        <v>0.8958333333357587</v>
+      </c>
+      <c r="G453" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="I453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="J453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="K453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="L453" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="M453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="N453" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="O453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="P453" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Q453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="R453" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="S453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="T453" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="U453" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="V453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="W453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="X453" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Y453" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Z453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AA453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AB453" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AC453" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AD453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AE453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AF453" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AG453" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AH453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AI453" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AJ453" s="26">
         <v>3.0</v>
       </c>
     </row>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1078">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3165,6 +3165,87 @@
   </si>
   <si>
     <t>김학선</t>
+  </si>
+  <si>
+    <t>rachal7449@naver.com</t>
+  </si>
+  <si>
+    <t>최자영</t>
+  </si>
+  <si>
+    <t>kimeunji0512@naver.vom</t>
+  </si>
+  <si>
+    <t>김은지</t>
+  </si>
+  <si>
+    <t>jyl06070@naver.com</t>
+  </si>
+  <si>
+    <t>장유림</t>
+  </si>
+  <si>
+    <t>njhouuu05@naver.com</t>
+  </si>
+  <si>
+    <t>남진호</t>
+  </si>
+  <si>
+    <t>ssjm9652@naver.com</t>
+  </si>
+  <si>
+    <t>소정민</t>
+  </si>
+  <si>
+    <t>rlaalstjd051003@naver.com</t>
+  </si>
+  <si>
+    <t>20242925@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김민우</t>
+  </si>
+  <si>
+    <t>andy041001@naver.com</t>
+  </si>
+  <si>
+    <t>이형범</t>
+  </si>
+  <si>
+    <t>bjw2934@naver.com</t>
+  </si>
+  <si>
+    <t>방정우</t>
+  </si>
+  <si>
+    <t>seokhoo1@naver.com</t>
+  </si>
+  <si>
+    <t>박석호</t>
+  </si>
+  <si>
+    <t>corki1234@daum.net</t>
+  </si>
+  <si>
+    <t>윤서웅</t>
+  </si>
+  <si>
+    <t>inju7931@naver.com</t>
+  </si>
+  <si>
+    <t>문인주</t>
+  </si>
+  <si>
+    <t>eunjin6604__@naver.com</t>
+  </si>
+  <si>
+    <t>남은진</t>
+  </si>
+  <si>
+    <t>sojunghanbomul@gmail.com</t>
+  </si>
+  <si>
+    <t>김상준</t>
   </si>
 </sst>
 </file>
@@ -3498,7 +3579,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM453" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM467" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -54485,113 +54566,1653 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="25">
+      <c r="A453" s="17">
         <v>45597.89667502315</v>
       </c>
-      <c r="B453" s="26" t="s">
+      <c r="B453" s="18" t="s">
         <v>1049</v>
       </c>
-      <c r="C453" s="26" t="s">
+      <c r="C453" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D453" s="26">
+      <c r="D453" s="18">
         <v>2.0243814E7</v>
       </c>
-      <c r="E453" s="26" t="s">
+      <c r="E453" s="18" t="s">
         <v>1050</v>
       </c>
-      <c r="F453" s="27">
+      <c r="F453" s="19">
         <v>0.8958333333357587</v>
       </c>
-      <c r="G453" s="26" t="s">
+      <c r="G453" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="I453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="J453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="K453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="L453" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="M453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="N453" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="O453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="P453" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Q453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="R453" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="S453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="T453" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="U453" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="V453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="W453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="X453" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Y453" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Z453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AA453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AB453" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AC453" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AD453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AE453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AF453" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AG453" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AH453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AI453" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AJ453" s="26">
-        <v>3.0</v>
+      <c r="H453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L453" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N453" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P453" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R453" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T453" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U453" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X453" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y453" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB453" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC453" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF453" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG453" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI453" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ453" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="21">
+        <v>45597.92479321759</v>
+      </c>
+      <c r="B454" s="22" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C454" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D454" s="22">
+        <v>2.0242753E7</v>
+      </c>
+      <c r="E454" s="22" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F454" s="23">
+        <v>0.9159722222248092</v>
+      </c>
+      <c r="G454" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK454" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL454" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM454" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN454" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO454" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP454" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ454" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR454" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS454" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT454" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU454" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV454" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AW454" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX454" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY454" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ454" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA454" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB454" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC454" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD454" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE454" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF454" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG454" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH454" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI454" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ454" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK454" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL454" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM454" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="17">
+        <v>45597.92589539352</v>
+      </c>
+      <c r="B455" s="18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C455" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D455" s="18">
+        <v>2.024391E7</v>
+      </c>
+      <c r="E455" s="18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F455" s="19">
+        <v>0.9083333333328483</v>
+      </c>
+      <c r="G455" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK455" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL455" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM455" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AN455" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO455" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP455" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AQ455" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AR455" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AS455" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT455" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU455" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV455" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW455" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX455" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY455" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ455" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA455" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB455" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC455" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD455" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE455" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF455" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG455" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH455" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI455" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ455" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK455" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL455" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM455" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="21">
+        <v>45597.93851799768</v>
+      </c>
+      <c r="B456" s="22" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C456" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D456" s="22">
+        <v>2.0212749E7</v>
+      </c>
+      <c r="E456" s="22" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F456" s="23">
+        <v>0.3125</v>
+      </c>
+      <c r="G456" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK456" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL456" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP456" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW456" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX456" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ456" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BA456" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BB456" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BC456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE456" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI456" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BJ456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL456" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM456" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="17">
+        <v>45597.96023202546</v>
+      </c>
+      <c r="B457" s="18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C457" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D457" s="18">
+        <v>2.0245156E7</v>
+      </c>
+      <c r="E457" s="18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F457" s="19">
+        <v>0.9583333333357587</v>
+      </c>
+      <c r="G457" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H457" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I457" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L457" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N457" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R457" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S457" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T457" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V457" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="W457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X457" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z457" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB457" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD457" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE457" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF457" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH457" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI457" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ457" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="21">
+        <v>45597.96540072917</v>
+      </c>
+      <c r="B458" s="22" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C458" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D458" s="22">
+        <v>2.0241047E7</v>
+      </c>
+      <c r="E458" s="22" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F458" s="23">
+        <v>0.9645833333343035</v>
+      </c>
+      <c r="G458" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK458" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL458" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM458" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN458" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO458" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP458" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT458" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV458" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW458" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX458" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC458" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD458" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BH458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BI458" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BL458" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BM458" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="17">
+        <v>45597.986604537036</v>
+      </c>
+      <c r="B459" s="18" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C459" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D459" s="18">
+        <v>2.024101E7</v>
+      </c>
+      <c r="E459" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F459" s="19">
+        <v>0.9854166666627862</v>
+      </c>
+      <c r="G459" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK459" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL459" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM459" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN459" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO459" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP459" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ459" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR459" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS459" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT459" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU459" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV459" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW459" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AX459" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY459" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ459" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA459" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB459" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC459" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD459" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE459" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF459" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG459" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH459" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI459" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ459" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK459" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL459" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM459" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="21">
+        <v>45598.022349942126</v>
+      </c>
+      <c r="B460" s="22" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C460" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D460" s="22">
+        <v>2.0242925E7</v>
+      </c>
+      <c r="E460" s="22" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F460" s="23">
+        <v>0.020833333335758653</v>
+      </c>
+      <c r="G460" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H460" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I460" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J460" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K460" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L460" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M460" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q460" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T460" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U460" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z460" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD460" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE460" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG460" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH460" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI460" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ460" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="17">
+        <v>45598.02999553241</v>
+      </c>
+      <c r="B461" s="18" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C461" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D461" s="18">
+        <v>2.023172E7</v>
+      </c>
+      <c r="E461" s="18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F461" s="19">
+        <v>0.026388888887595385</v>
+      </c>
+      <c r="G461" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK461" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL461" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM461" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN461" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO461" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP461" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ461" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR461" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS461" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT461" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU461" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV461" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW461" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX461" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY461" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ461" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA461" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB461" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC461" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD461" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE461" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF461" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BG461" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH461" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI461" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ461" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BK461" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL461" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM461" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="21">
+        <v>45598.03925101852</v>
+      </c>
+      <c r="B462" s="22" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C462" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D462" s="22">
+        <v>2.0205182E7</v>
+      </c>
+      <c r="E462" s="22" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F462" s="23">
+        <v>0.03749999999854481</v>
+      </c>
+      <c r="G462" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H462" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I462" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J462" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K462" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L462" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M462" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N462" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="O462" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P462" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q462" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R462" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S462" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T462" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U462" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V462" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W462" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X462" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y462" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z462" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA462" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB462" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC462" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD462" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE462" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF462" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG462" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH462" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI462" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ462" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="17">
+        <v>45598.061511817126</v>
+      </c>
+      <c r="B463" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C463" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D463" s="18">
+        <v>2.0241038E7</v>
+      </c>
+      <c r="E463" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F463" s="19">
+        <v>0.013888888890505768</v>
+      </c>
+      <c r="G463" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H463" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I463" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J463" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K463" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L463" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M463" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N463" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O463" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P463" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q463" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R463" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S463" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T463" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U463" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V463" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W463" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X463" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y463" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z463" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA463" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB463" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC463" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD463" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE463" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF463" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG463" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH463" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI463" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ463" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="21">
+        <v>45598.0676628125</v>
+      </c>
+      <c r="B464" s="22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C464" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D464" s="22">
+        <v>2.0211523E7</v>
+      </c>
+      <c r="E464" s="22" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F464" s="23">
+        <v>0.06597222221898846</v>
+      </c>
+      <c r="G464" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H464" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI464" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ464" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="17">
+        <v>45598.07795075231</v>
+      </c>
+      <c r="B465" s="18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C465" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="D465" s="18">
+        <v>2.019516E7</v>
+      </c>
+      <c r="E465" s="18" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F465" s="19">
+        <v>0.07638888889050577</v>
+      </c>
+      <c r="G465" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H465" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I465" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J465" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K465" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L465" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M465" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N465" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O465" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P465" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q465" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R465" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S465" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T465" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U465" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V465" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W465" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X465" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y465" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z465" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA465" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB465" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC465" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD465" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE465" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF465" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG465" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH465" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI465" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ465" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="21">
+        <v>45598.111422222224</v>
+      </c>
+      <c r="B466" s="22" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C466" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D466" s="22">
+        <v>2.0233408E7</v>
+      </c>
+      <c r="E466" s="22" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F466" s="23">
+        <v>0.11041666666278616</v>
+      </c>
+      <c r="G466" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL466" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM466" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP466" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS466" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT466" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU466" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AV466" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AW466" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX466" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY466" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AZ466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA466" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG466" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH466" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL466" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM466" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="25">
+        <v>45598.229115821756</v>
+      </c>
+      <c r="B467" s="26" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C467" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D467" s="26">
+        <v>2.0241513E7</v>
+      </c>
+      <c r="E467" s="26" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F467" s="27">
+        <v>0.22777777777810115</v>
+      </c>
+      <c r="G467" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H467" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="I467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="J467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="K467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="L467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="M467" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="N467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="O467" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="P467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="Q467" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="R467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="S467" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="T467" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="U467" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="V467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="W467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="X467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="Y467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="Z467" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AA467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AB467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AC467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AD467" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AE467" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AF467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AG467" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AH467" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AI467" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AJ467" s="26">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="1096">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3246,6 +3246,60 @@
   </si>
   <si>
     <t>김상준</t>
+  </si>
+  <si>
+    <t>krdevmon@gmail.com</t>
+  </si>
+  <si>
+    <t>안봉근</t>
+  </si>
+  <si>
+    <t>bamddol2@gmail.com</t>
+  </si>
+  <si>
+    <t>조찬영</t>
+  </si>
+  <si>
+    <t>haeyaxx@naver.com</t>
+  </si>
+  <si>
+    <t>차지혜</t>
+  </si>
+  <si>
+    <t>seomina0503@naver.com</t>
+  </si>
+  <si>
+    <t>서민아</t>
+  </si>
+  <si>
+    <t>youu0729@naver.com</t>
+  </si>
+  <si>
+    <t>유이현</t>
+  </si>
+  <si>
+    <t>azxsk0187@gmail.com</t>
+  </si>
+  <si>
+    <t>한윤서</t>
+  </si>
+  <si>
+    <t>zeus0010@naver.com</t>
+  </si>
+  <si>
+    <t>김지우</t>
+  </si>
+  <si>
+    <t>hyj13223@naver.com</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>iaan0104@naver.com</t>
+  </si>
+  <si>
+    <t>조이안</t>
   </si>
 </sst>
 </file>
@@ -3409,10 +3463,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3420,13 +3474,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3579,7 +3633,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM467" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM476" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -56106,112 +56160,1102 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="25">
+      <c r="A467" s="17">
         <v>45598.229115821756</v>
       </c>
-      <c r="B467" s="26" t="s">
+      <c r="B467" s="18" t="s">
         <v>1076</v>
       </c>
-      <c r="C467" s="26" t="s">
+      <c r="C467" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="D467" s="26">
+      <c r="D467" s="18">
         <v>2.0241513E7</v>
       </c>
-      <c r="E467" s="26" t="s">
+      <c r="E467" s="18" t="s">
         <v>1077</v>
       </c>
-      <c r="F467" s="27">
+      <c r="F467" s="19">
         <v>0.22777777777810115</v>
       </c>
-      <c r="G467" s="26" t="s">
+      <c r="G467" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H467" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="I467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="J467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="K467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="L467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="M467" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="N467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="O467" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="P467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Q467" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="R467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="S467" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="T467" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="U467" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="V467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="W467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="X467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Y467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Z467" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AA467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AB467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AC467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AD467" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AE467" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AF467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AG467" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AH467" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AI467" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AJ467" s="26">
+      <c r="H467" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M467" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O467" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q467" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S467" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T467" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U467" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z467" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD467" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE467" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG467" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH467" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI467" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ467" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="21">
+        <v>45598.31408358796</v>
+      </c>
+      <c r="B468" s="22" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C468" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D468" s="22">
+        <v>2.0205198E7</v>
+      </c>
+      <c r="E468" s="22" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F468" s="23">
+        <v>0.31111111110658385</v>
+      </c>
+      <c r="G468" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK468" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL468" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN468" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO468" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP468" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT468" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW468" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX468" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC468" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG468" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH468" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ468" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK468" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL468" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM468" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="17">
+        <v>45598.39330361111</v>
+      </c>
+      <c r="B469" s="18" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C469" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D469" s="18">
+        <v>2.0161632E7</v>
+      </c>
+      <c r="E469" s="18" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F469" s="19">
+        <v>0.39097222222335404</v>
+      </c>
+      <c r="G469" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H469" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="I469" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J469" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K469" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L469" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M469" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N469" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O469" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="P469" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q469" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="R469" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S469" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T469" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U469" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V469" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W469" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="X469" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y469" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z469" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AA469" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB469" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC469" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AD469" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AE469" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF469" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AG469" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH469" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI469" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AJ469" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="21">
+        <v>45598.405767766206</v>
+      </c>
+      <c r="B470" s="22" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C470" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D470" s="22">
+        <v>2.0212846E7</v>
+      </c>
+      <c r="E470" s="22" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F470" s="23">
+        <v>0.3979166666686069</v>
+      </c>
+      <c r="G470" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK470" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AL470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AM470" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AO470" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AP470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AR470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AS470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AT470" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AU470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AV470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AW470" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AX470" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AZ470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BA470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BB470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BC470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD470" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE470" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BG470" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BH470" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BI470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BJ470" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BK470" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BL470" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BM470" s="24">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="17">
+        <v>45598.43920841435</v>
+      </c>
+      <c r="B471" s="18" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C471" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D471" s="18">
+        <v>2.0246244E7</v>
+      </c>
+      <c r="E471" s="18" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F471" s="19">
+        <v>0.4381944444467081</v>
+      </c>
+      <c r="G471" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H471" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I471" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L471" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M471" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P471" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R471" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="S471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U471" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W471" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="X471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y471" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA471" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC471" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AD471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF471" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG471" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH471" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI471" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ471" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="21">
+        <v>45598.49098537037</v>
+      </c>
+      <c r="B472" s="22" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C472" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D472" s="22">
+        <v>2.0242335E7</v>
+      </c>
+      <c r="E472" s="22" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F472" s="23">
+        <v>0.4868055555562023</v>
+      </c>
+      <c r="G472" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H472" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I472" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J472" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K472" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L472" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M472" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N472" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O472" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P472" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q472" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R472" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S472" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T472" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U472" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V472" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W472" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X472" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y472" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z472" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA472" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB472" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC472" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD472" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE472" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF472" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG472" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH472" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI472" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ472" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="17">
+        <v>45598.49389521991</v>
+      </c>
+      <c r="B473" s="18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C473" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D473" s="18">
+        <v>2.0246301E7</v>
+      </c>
+      <c r="E473" s="18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F473" s="19">
+        <v>0.4888888888890506</v>
+      </c>
+      <c r="G473" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK473" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL473" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM473" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN473" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO473" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AP473" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ473" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR473" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS473" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT473" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU473" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV473" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW473" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX473" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY473" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ473" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA473" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB473" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC473" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD473" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE473" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF473" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG473" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH473" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI473" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ473" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK473" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL473" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM473" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="21">
+        <v>45598.50809878472</v>
+      </c>
+      <c r="B474" s="22" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C474" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D474" s="22">
+        <v>2.0205148E7</v>
+      </c>
+      <c r="E474" s="22" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F474" s="23">
+        <v>0.507638888884685</v>
+      </c>
+      <c r="G474" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI474" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ474" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="17">
+        <v>45598.56989629629</v>
+      </c>
+      <c r="B475" s="18" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C475" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D475" s="18">
+        <v>2.0212432E7</v>
+      </c>
+      <c r="E475" s="18" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F475" s="19">
+        <v>0.5645833333328483</v>
+      </c>
+      <c r="G475" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H475" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I475" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J475" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K475" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L475" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M475" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N475" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O475" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P475" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q475" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R475" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S475" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T475" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U475" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V475" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W475" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X475" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y475" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z475" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA475" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB475" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC475" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD475" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE475" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF475" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG475" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH475" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI475" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ475" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="25">
+        <v>45598.59867609954</v>
+      </c>
+      <c r="B476" s="26" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C476" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="D476" s="26">
+        <v>2.0245259E7</v>
+      </c>
+      <c r="E476" s="26" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F476" s="27">
+        <v>0.5958333333328483</v>
+      </c>
+      <c r="G476" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H476" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="I476" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="J476" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="K476" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="L476" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="M476" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="N476" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="O476" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="P476" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Q476" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="R476" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="S476" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="T476" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="U476" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="V476" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="W476" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="X476" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Y476" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Z476" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AA476" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AB476" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AC476" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AD476" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AE476" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AF476" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AG476" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AH476" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AI476" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AJ476" s="26">
         <v>1.0</v>
       </c>
     </row>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1162">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3300,6 +3300,204 @@
   </si>
   <si>
     <t>조이안</t>
+  </si>
+  <si>
+    <t>alwo990@naver.com</t>
+  </si>
+  <si>
+    <t>서정웅</t>
+  </si>
+  <si>
+    <t>jmju0711@naver.com</t>
+  </si>
+  <si>
+    <t>정민주</t>
+  </si>
+  <si>
+    <t>sohn1118@naver.com</t>
+  </si>
+  <si>
+    <t>손정빈</t>
+  </si>
+  <si>
+    <t>tlsdmsco1130@naver.com</t>
+  </si>
+  <si>
+    <t>신은채</t>
+  </si>
+  <si>
+    <t>wooyoomilk@naver.com</t>
+  </si>
+  <si>
+    <t>우연준</t>
+  </si>
+  <si>
+    <t>ran8410@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학과</t>
+  </si>
+  <si>
+    <t>박경란</t>
+  </si>
+  <si>
+    <t>hmg4898@naver.com</t>
+  </si>
+  <si>
+    <t>철학전공</t>
+  </si>
+  <si>
+    <t>한민교</t>
+  </si>
+  <si>
+    <t>ojg1476@naver.com</t>
+  </si>
+  <si>
+    <t>오정건</t>
+  </si>
+  <si>
+    <t>mjjb1102@gmail.com</t>
+  </si>
+  <si>
+    <t>이민재</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>emf1811@naver.com</t>
+  </si>
+  <si>
+    <t>김들</t>
+  </si>
+  <si>
+    <t>scjscj913@naver.com</t>
+  </si>
+  <si>
+    <t>최수정</t>
+  </si>
+  <si>
+    <t>gmldbs0812@gmail.com</t>
+  </si>
+  <si>
+    <t>식품영양</t>
+  </si>
+  <si>
+    <t>강희윤</t>
+  </si>
+  <si>
+    <t>you33013301@gmail.com</t>
+  </si>
+  <si>
+    <t>권유정</t>
+  </si>
+  <si>
+    <t>park_minkyu@naver.com</t>
+  </si>
+  <si>
+    <t>박민규</t>
+  </si>
+  <si>
+    <t>solepkinsg@gmail.com</t>
+  </si>
+  <si>
+    <t>박인성</t>
+  </si>
+  <si>
+    <t>chhs337@naver.com</t>
+  </si>
+  <si>
+    <t>최홍서</t>
+  </si>
+  <si>
+    <t>rhoy3156@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>노원철</t>
+  </si>
+  <si>
+    <t>lapter1122@naver.com</t>
+  </si>
+  <si>
+    <t>진유진</t>
+  </si>
+  <si>
+    <t>thddnjs1030@naver.com</t>
+  </si>
+  <si>
+    <t>박송원</t>
+  </si>
+  <si>
+    <t>juna324a324@naver.com</t>
+  </si>
+  <si>
+    <t>디지털인문예술</t>
+  </si>
+  <si>
+    <t>정준우</t>
+  </si>
+  <si>
+    <t>leeyubin050328@naver.com</t>
+  </si>
+  <si>
+    <t>soeunjeong0816@naver.com</t>
+  </si>
+  <si>
+    <t>정소은</t>
+  </si>
+  <si>
+    <t>tidlswjddms@naver.com</t>
+  </si>
+  <si>
+    <t>임정은</t>
+  </si>
+  <si>
+    <t>dlalstmd03@naver.con</t>
+  </si>
+  <si>
+    <t>이민승</t>
+  </si>
+  <si>
+    <t>h20202564@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이호연</t>
+  </si>
+  <si>
+    <t>pintang@naver.com</t>
+  </si>
+  <si>
+    <t>당빈</t>
+  </si>
+  <si>
+    <t>marlboroe53@naver.com</t>
+  </si>
+  <si>
+    <t>hshkjh1234@naver.com</t>
+  </si>
+  <si>
+    <t>황소현</t>
+  </si>
+  <si>
+    <t>ahry60006@naver.com</t>
+  </si>
+  <si>
+    <t>김성진</t>
+  </si>
+  <si>
+    <t>lhw2565@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>you72460601@gmail.com</t>
+  </si>
+  <si>
+    <t>유지원</t>
   </si>
 </sst>
 </file>
@@ -3633,7 +3831,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM476" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM508" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -57150,113 +57348,3633 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="25">
+      <c r="A476" s="21">
         <v>45598.59867609954</v>
       </c>
-      <c r="B476" s="26" t="s">
+      <c r="B476" s="22" t="s">
         <v>1094</v>
       </c>
-      <c r="C476" s="26" t="s">
+      <c r="C476" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="D476" s="26">
+      <c r="D476" s="22">
         <v>2.0245259E7</v>
       </c>
-      <c r="E476" s="26" t="s">
+      <c r="E476" s="22" t="s">
         <v>1095</v>
       </c>
-      <c r="F476" s="27">
+      <c r="F476" s="23">
         <v>0.5958333333328483</v>
       </c>
-      <c r="G476" s="26" t="s">
+      <c r="G476" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H476" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I476" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="J476" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="K476" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="L476" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="M476" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="N476" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="O476" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="P476" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="Q476" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="R476" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="S476" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="T476" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="U476" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="V476" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="W476" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="X476" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Y476" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Z476" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AA476" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AB476" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AC476" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AD476" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AE476" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AF476" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AG476" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AH476" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AI476" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AJ476" s="26">
-        <v>1.0</v>
+      <c r="H476" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I476" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J476" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K476" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L476" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M476" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N476" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O476" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P476" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q476" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R476" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S476" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T476" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U476" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V476" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W476" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X476" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y476" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z476" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA476" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB476" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC476" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD476" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE476" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF476" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG476" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH476" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI476" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ476" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="17">
+        <v>45598.6403885301</v>
+      </c>
+      <c r="B477" s="18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C477" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D477" s="18">
+        <v>2.0207133E7</v>
+      </c>
+      <c r="E477" s="18" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F477" s="19">
+        <v>0.6388888888905058</v>
+      </c>
+      <c r="G477" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H477" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J477" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K477" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="L477" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M477" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N477" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S477" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U477" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z477" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB477" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD477" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF477" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG477" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH477" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AI477" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ477" s="18">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="21">
+        <v>45598.64833177083</v>
+      </c>
+      <c r="B478" s="22" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C478" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D478" s="22">
+        <v>2.0241088E7</v>
+      </c>
+      <c r="E478" s="22" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F478" s="23">
+        <v>0.6437500000029104</v>
+      </c>
+      <c r="G478" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK478" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL478" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AM478" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN478" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO478" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP478" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ478" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR478" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AS478" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT478" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU478" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV478" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW478" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX478" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY478" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ478" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA478" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB478" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC478" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD478" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE478" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF478" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG478" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH478" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI478" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ478" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK478" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL478" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM478" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="17">
+        <v>45598.670087129634</v>
+      </c>
+      <c r="B479" s="18" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C479" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D479" s="18">
+        <v>2.0223519E7</v>
+      </c>
+      <c r="E479" s="18" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F479" s="19">
+        <v>0.6680555555576575</v>
+      </c>
+      <c r="G479" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H479" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I479" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J479" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K479" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L479" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M479" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N479" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O479" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P479" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q479" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R479" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S479" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T479" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U479" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V479" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W479" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X479" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y479" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z479" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA479" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB479" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC479" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD479" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE479" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF479" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG479" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH479" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI479" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ479" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="21">
+        <v>45598.67959383102</v>
+      </c>
+      <c r="B480" s="22" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C480" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D480" s="22">
+        <v>2.0242532E7</v>
+      </c>
+      <c r="E480" s="22" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F480" s="23">
+        <v>0.6756944444423425</v>
+      </c>
+      <c r="G480" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H480" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I480" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J480" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K480" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L480" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M480" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N480" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O480" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P480" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q480" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R480" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S480" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T480" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U480" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V480" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W480" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X480" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y480" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z480" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA480" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB480" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC480" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD480" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AE480" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF480" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG480" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH480" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI480" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ480" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="17">
+        <v>45598.69097285879</v>
+      </c>
+      <c r="B481" s="18" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C481" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D481" s="18">
+        <v>2.0242988E7</v>
+      </c>
+      <c r="E481" s="18" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F481" s="19">
+        <v>0.6888888888934162</v>
+      </c>
+      <c r="G481" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H481" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I481" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J481" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K481" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L481" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M481" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N481" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O481" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P481" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q481" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R481" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S481" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T481" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U481" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V481" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W481" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X481" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y481" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z481" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA481" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB481" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC481" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD481" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE481" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF481" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG481" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH481" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI481" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ481" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="21">
+        <v>45598.69106060185</v>
+      </c>
+      <c r="B482" s="22" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C482" s="22" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D482" s="22">
+        <v>2.0203918E7</v>
+      </c>
+      <c r="E482" s="22" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F482" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="G482" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H482" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I482" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J482" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K482" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L482" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M482" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N482" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O482" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P482" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q482" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R482" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S482" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T482" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U482" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V482" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W482" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="X482" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y482" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z482" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA482" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB482" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC482" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD482" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE482" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF482" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG482" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH482" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI482" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ482" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="17">
+        <v>45598.70077472222</v>
+      </c>
+      <c r="B483" s="18" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C483" s="18" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D483" s="18">
+        <v>2.0191106E7</v>
+      </c>
+      <c r="E483" s="18" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F483" s="19">
+        <v>0.6944444444452529</v>
+      </c>
+      <c r="G483" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK483" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL483" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM483" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN483" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO483" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP483" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ483" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR483" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS483" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT483" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU483" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV483" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW483" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX483" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY483" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ483" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA483" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB483" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC483" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD483" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE483" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF483" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG483" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH483" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI483" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ483" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK483" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL483" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM483" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="21">
+        <v>45598.74053634259</v>
+      </c>
+      <c r="B484" s="22" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C484" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="D484" s="22">
+        <v>2.0215187E7</v>
+      </c>
+      <c r="E484" s="22" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F484" s="23">
+        <v>0.7388888888890506</v>
+      </c>
+      <c r="G484" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK484" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM484" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ484" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT484" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU484" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV484" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY484" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE484" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF484" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH484" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI484" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ484" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK484" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL484" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM484" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="17">
+        <v>45598.74148320602</v>
+      </c>
+      <c r="B485" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C485" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D485" s="18">
+        <v>2.0206628E7</v>
+      </c>
+      <c r="E485" s="18" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F485" s="19">
+        <v>0.7388888888890506</v>
+      </c>
+      <c r="G485" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK485" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL485" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM485" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN485" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO485" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP485" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ485" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR485" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS485" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT485" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU485" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV485" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW485" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX485" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY485" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ485" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA485" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB485" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC485" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD485" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE485" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF485" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG485" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH485" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI485" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ485" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK485" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL485" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM485" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="21">
+        <v>45598.778133518514</v>
+      </c>
+      <c r="B486" s="22" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C486" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D486" s="22">
+        <v>2.0243959E7</v>
+      </c>
+      <c r="E486" s="22" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F486" s="23">
+        <v>0.7770833333343035</v>
+      </c>
+      <c r="G486" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL486" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN486" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ486" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR486" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS486" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT486" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX486" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY486" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AZ486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB486" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD486" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG486" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI486" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK486" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL486" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM486" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="17">
+        <v>45598.77824140046</v>
+      </c>
+      <c r="B487" s="18" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C487" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D487" s="18">
+        <v>2.0233605E7</v>
+      </c>
+      <c r="E487" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F487" s="19">
+        <v>0.7763888888875954</v>
+      </c>
+      <c r="G487" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK487" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL487" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM487" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN487" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO487" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP487" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ487" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR487" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS487" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT487" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU487" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AV487" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AW487" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX487" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY487" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ487" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA487" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB487" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC487" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD487" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE487" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF487" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG487" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH487" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI487" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ487" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK487" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL487" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM487" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="21">
+        <v>45598.78155393519</v>
+      </c>
+      <c r="B488" s="22" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C488" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D488" s="22">
+        <v>2.021718E7</v>
+      </c>
+      <c r="E488" s="22" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F488" s="23">
+        <v>0.7805555555532919</v>
+      </c>
+      <c r="G488" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H488" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I488" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J488" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K488" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L488" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M488" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N488" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O488" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P488" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q488" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R488" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S488" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T488" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U488" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V488" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W488" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X488" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y488" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z488" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA488" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB488" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC488" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD488" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE488" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF488" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG488" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH488" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI488" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ488" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="17">
+        <v>45598.83152415509</v>
+      </c>
+      <c r="B489" s="18" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C489" s="18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D489" s="18">
+        <v>2.0223801E7</v>
+      </c>
+      <c r="E489" s="18" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F489" s="19">
+        <v>0.828472222223354</v>
+      </c>
+      <c r="G489" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H489" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I489" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J489" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K489" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L489" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M489" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N489" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O489" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P489" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q489" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R489" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S489" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T489" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U489" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V489" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W489" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X489" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y489" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z489" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA489" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB489" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC489" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD489" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE489" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF489" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG489" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH489" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI489" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ489" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="21">
+        <v>45598.8335480324</v>
+      </c>
+      <c r="B490" s="22" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C490" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D490" s="22">
+        <v>2.0223504E7</v>
+      </c>
+      <c r="E490" s="22" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F490" s="23">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="G490" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK490" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO490" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP490" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ490" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR490" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS490" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT490" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU490" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX490" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ490" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA490" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BB490" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC490" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL490" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM490" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="17">
+        <v>45598.83589101852</v>
+      </c>
+      <c r="B491" s="18" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C491" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="D491" s="18">
+        <v>2.0205167E7</v>
+      </c>
+      <c r="E491" s="18" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F491" s="19">
+        <v>0.23611111110949423</v>
+      </c>
+      <c r="G491" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK491" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL491" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM491" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN491" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO491" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AP491" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ491" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR491" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS491" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT491" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU491" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV491" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW491" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AX491" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY491" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ491" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA491" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB491" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC491" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD491" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE491" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF491" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BG491" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH491" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI491" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ491" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK491" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL491" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM491" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="21">
+        <v>45598.83894195602</v>
+      </c>
+      <c r="B492" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C492" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D492" s="22">
+        <v>2.0236615E7</v>
+      </c>
+      <c r="E492" s="22" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F492" s="23">
+        <v>0.8368055555547471</v>
+      </c>
+      <c r="G492" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H492" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I492" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J492" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K492" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L492" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="M492" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N492" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O492" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P492" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q492" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R492" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S492" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T492" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="U492" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V492" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W492" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="X492" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="Y492" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z492" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA492" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB492" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC492" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD492" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE492" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF492" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG492" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AH492" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI492" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AJ492" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="17">
+        <v>45598.84136194445</v>
+      </c>
+      <c r="B493" s="18" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C493" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D493" s="18">
+        <v>2.0183006E7</v>
+      </c>
+      <c r="E493" s="18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F493" s="19">
+        <v>0.8381944444408873</v>
+      </c>
+      <c r="G493" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK493" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL493" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM493" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AN493" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO493" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP493" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ493" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR493" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS493" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT493" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU493" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV493" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW493" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX493" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY493" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ493" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA493" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB493" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC493" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD493" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE493" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF493" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG493" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH493" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI493" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ493" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK493" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL493" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM493" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="21">
+        <v>45598.84879834491</v>
+      </c>
+      <c r="B494" s="22" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C494" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D494" s="22">
+        <v>2.0202719E7</v>
+      </c>
+      <c r="E494" s="22" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F494" s="23">
+        <v>0.8472222222189885</v>
+      </c>
+      <c r="G494" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K494" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N494" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P494" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Q494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S494" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W494" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y494" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC494" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD494" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE494" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH494" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI494" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ494" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="17">
+        <v>45598.85446452546</v>
+      </c>
+      <c r="B495" s="18" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C495" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D495" s="18">
+        <v>2.0232635E7</v>
+      </c>
+      <c r="E495" s="18" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F495" s="19">
+        <v>0.8527777777781012</v>
+      </c>
+      <c r="G495" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L495" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N495" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P495" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q495" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R495" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI495" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ495" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="21">
+        <v>45598.886842002314</v>
+      </c>
+      <c r="B496" s="22" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C496" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D496" s="22">
+        <v>2.0171035E7</v>
+      </c>
+      <c r="E496" s="22" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F496" s="23">
+        <v>0.8854166666642413</v>
+      </c>
+      <c r="G496" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H496" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="L496" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M496" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q496" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T496" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U496" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z496" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD496" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE496" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG496" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH496" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI496" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ496" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="17">
+        <v>45598.93189849537</v>
+      </c>
+      <c r="B497" s="18" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C497" s="18" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D497" s="18">
+        <v>2.0192983E7</v>
+      </c>
+      <c r="E497" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F497" s="19">
+        <v>0.9305555555547471</v>
+      </c>
+      <c r="G497" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I497" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J497" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P497" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R497" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V497" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W497" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB497" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC497" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD497" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI497" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ497" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="21">
+        <v>45598.93393997685</v>
+      </c>
+      <c r="B498" s="22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C498" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="D498" s="22">
+        <v>2.0243008E7</v>
+      </c>
+      <c r="E498" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F498" s="23">
+        <v>0.9291666666686069</v>
+      </c>
+      <c r="G498" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK498" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL498" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM498" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO498" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP498" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS498" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU498" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB498" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BC498" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD498" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF498" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG498" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH498" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ498" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK498" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL498" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM498" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="17">
+        <v>45598.93956841435</v>
+      </c>
+      <c r="B499" s="18" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C499" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D499" s="18">
+        <v>2.0243648E7</v>
+      </c>
+      <c r="E499" s="18" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F499" s="19">
+        <v>0.9388888888934162</v>
+      </c>
+      <c r="G499" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL499" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM499" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="21">
+        <v>45598.96346540509</v>
+      </c>
+      <c r="B500" s="22" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C500" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="D500" s="22">
+        <v>2.020524E7</v>
+      </c>
+      <c r="E500" s="22" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F500" s="23">
+        <v>0.9625000000014552</v>
+      </c>
+      <c r="G500" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK500" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL500" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM500" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN500" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO500" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP500" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ500" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR500" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS500" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT500" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU500" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV500" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW500" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX500" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY500" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ500" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA500" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB500" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC500" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD500" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE500" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF500" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG500" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH500" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI500" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ500" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK500" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BL500" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM500" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="17">
+        <v>45598.97094293981</v>
+      </c>
+      <c r="B501" s="18" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C501" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D501" s="18">
+        <v>2.0227143E7</v>
+      </c>
+      <c r="E501" s="18" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F501" s="19">
+        <v>0.96875</v>
+      </c>
+      <c r="G501" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L501" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M501" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O501" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P501" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T501" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U501" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V501" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W501" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X501" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y501" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z501" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB501" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD501" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG501" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI501" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ501" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="21">
+        <v>45598.97359517361</v>
+      </c>
+      <c r="B502" s="22" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C502" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D502" s="22">
+        <v>2.0202564E7</v>
+      </c>
+      <c r="E502" s="22" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F502" s="23">
+        <v>0.9597222222218988</v>
+      </c>
+      <c r="G502" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H502" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I502" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J502" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K502" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="L502" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M502" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N502" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O502" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P502" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q502" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R502" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S502" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T502" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U502" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V502" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W502" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X502" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y502" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z502" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA502" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB502" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC502" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD502" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE502" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF502" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG502" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH502" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI502" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ502" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="17">
+        <v>45598.979250115735</v>
+      </c>
+      <c r="B503" s="18" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C503" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D503" s="18">
+        <v>2.0191514E7</v>
+      </c>
+      <c r="E503" s="18" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F503" s="19">
+        <v>0.9770833333313931</v>
+      </c>
+      <c r="G503" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK503" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL503" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM503" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN503" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO503" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP503" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ503" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR503" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS503" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT503" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AU503" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV503" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AW503" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX503" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AY503" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ503" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA503" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB503" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BC503" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD503" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE503" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF503" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BG503" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BH503" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI503" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ503" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BK503" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL503" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM503" s="20">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="21">
+        <v>45598.980308541664</v>
+      </c>
+      <c r="B504" s="22" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C504" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D504" s="22">
+        <v>2.0203302E7</v>
+      </c>
+      <c r="E504" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="F504" s="23">
+        <v>0.9791666666642413</v>
+      </c>
+      <c r="G504" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL504" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM504" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="17">
+        <v>45598.98223142361</v>
+      </c>
+      <c r="B505" s="18" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C505" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D505" s="18">
+        <v>2.0243063E7</v>
+      </c>
+      <c r="E505" s="18" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F505" s="19">
+        <v>0.4812499999970896</v>
+      </c>
+      <c r="G505" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K505" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L505" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M505" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N505" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q505" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S505" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T505" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y505" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF505" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG505" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH505" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI505" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ505" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="21">
+        <v>45598.98296483797</v>
+      </c>
+      <c r="B506" s="22" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C506" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D506" s="22">
+        <v>2.0202708E7</v>
+      </c>
+      <c r="E506" s="22" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F506" s="23">
+        <v>0.9805555555576575</v>
+      </c>
+      <c r="G506" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL506" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AM506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO506" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP506" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS506" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU506" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV506" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW506" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF506" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG506" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ506" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK506" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL506" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM506" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="17">
+        <v>45598.98353185185</v>
+      </c>
+      <c r="B507" s="18" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C507" s="18" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D507" s="18">
+        <v>2.0242565E7</v>
+      </c>
+      <c r="E507" s="18" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F507" s="19">
+        <v>0.9826388888905058</v>
+      </c>
+      <c r="G507" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX507" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BG507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BK507" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL507" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM507" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="25">
+        <v>45599.002377372686</v>
+      </c>
+      <c r="B508" s="26" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C508" s="26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D508" s="26">
+        <v>2.0201721E7</v>
+      </c>
+      <c r="E508" s="26" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F508" s="27">
+        <v>6.944444467080757E-4</v>
+      </c>
+      <c r="G508" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H508" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="I508" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="J508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="K508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="L508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="M508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="N508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="O508" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="P508" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Q508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="R508" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="S508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="T508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="U508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="V508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="W508" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="X508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Y508" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="Z508" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AA508" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AB508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AC508" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AD508" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AE508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AF508" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AG508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AH508" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AI508" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AJ508" s="26">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1193">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3498,6 +3498,99 @@
   </si>
   <si>
     <t>유지원</t>
+  </si>
+  <si>
+    <t>gee30901@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>jytoto33@naver.com</t>
+  </si>
+  <si>
+    <t>김지윤</t>
+  </si>
+  <si>
+    <t>benjamin27@naver.com</t>
+  </si>
+  <si>
+    <t>최재혁</t>
+  </si>
+  <si>
+    <t>hsjenny99@gmail.com</t>
+  </si>
+  <si>
+    <t>전소현</t>
+  </si>
+  <si>
+    <t>hanseoyun392@gmail.com</t>
+  </si>
+  <si>
+    <t>한서윤</t>
+  </si>
+  <si>
+    <t>a35142191@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤재</t>
+  </si>
+  <si>
+    <t>vldzmgha0609@naver.com</t>
+  </si>
+  <si>
+    <t>김지수</t>
+  </si>
+  <si>
+    <t>moon050123@naver.com</t>
+  </si>
+  <si>
+    <t>문서원</t>
+  </si>
+  <si>
+    <t>ehdus1113kim@naver.com</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>kya01095509223@gmail.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>김윤아</t>
+  </si>
+  <si>
+    <t>hyeonyonga@naver.com</t>
+  </si>
+  <si>
+    <t>안현용</t>
+  </si>
+  <si>
+    <t>krcar1002@gmail.com</t>
+  </si>
+  <si>
+    <t>김재호</t>
+  </si>
+  <si>
+    <t>jud050207@gmail.com</t>
+  </si>
+  <si>
+    <t>정의돈</t>
+  </si>
+  <si>
+    <t>jyj111212@naver.com</t>
+  </si>
+  <si>
+    <t>장예지</t>
+  </si>
+  <si>
+    <t>dmsdn6462@naver.com</t>
+  </si>
+  <si>
+    <t>김은우</t>
   </si>
 </sst>
 </file>
@@ -3528,7 +3621,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -3661,10 +3754,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3672,13 +3765,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3688,7 +3795,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3773,6 +3880,9 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3831,7 +3941,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM508" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM523" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -60868,113 +60978,1763 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="25">
+      <c r="A508" s="21">
         <v>45599.002377372686</v>
       </c>
-      <c r="B508" s="26" t="s">
+      <c r="B508" s="22" t="s">
         <v>1160</v>
       </c>
-      <c r="C508" s="26" t="s">
+      <c r="C508" s="22" t="s">
         <v>1140</v>
       </c>
-      <c r="D508" s="26">
+      <c r="D508" s="22">
         <v>2.0201721E7</v>
       </c>
-      <c r="E508" s="26" t="s">
+      <c r="E508" s="22" t="s">
         <v>1161</v>
       </c>
-      <c r="F508" s="27">
+      <c r="F508" s="23">
         <v>6.944444467080757E-4</v>
       </c>
-      <c r="G508" s="26" t="s">
+      <c r="G508" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H508" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="I508" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="J508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="K508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="L508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="M508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="N508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="O508" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="P508" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Q508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="R508" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="S508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="T508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="U508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="V508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="W508" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="X508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Y508" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Z508" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AA508" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AB508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AC508" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AD508" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AE508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AF508" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AG508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AH508" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AI508" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AJ508" s="26">
-        <v>2.0</v>
+      <c r="H508" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I508" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O508" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P508" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R508" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W508" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y508" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z508" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA508" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC508" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD508" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF508" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH508" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI508" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ508" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="17">
+        <v>45599.01880143519</v>
+      </c>
+      <c r="B509" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C509" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D509" s="18">
+        <v>2.0246238E7</v>
+      </c>
+      <c r="E509" s="18" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F509" s="19">
+        <v>0.015277777776645962</v>
+      </c>
+      <c r="G509" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK509" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL509" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM509" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN509" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO509" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP509" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ509" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR509" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS509" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT509" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AU509" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV509" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW509" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AX509" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY509" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ509" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA509" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB509" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC509" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD509" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE509" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF509" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG509" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH509" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI509" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ509" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK509" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL509" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM509" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="21">
+        <v>45599.02953829861</v>
+      </c>
+      <c r="B510" s="22" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C510" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D510" s="22">
+        <v>2.0243912E7</v>
+      </c>
+      <c r="E510" s="22" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F510" s="23">
+        <v>0.02500000000145519</v>
+      </c>
+      <c r="G510" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H510" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I510" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J510" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K510" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L510" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M510" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N510" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O510" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P510" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q510" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R510" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S510" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T510" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U510" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="V510" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W510" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X510" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y510" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z510" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AA510" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AB510" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC510" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD510" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE510" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF510" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG510" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AH510" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI510" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AJ510" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="17">
+        <v>45599.04482321759</v>
+      </c>
+      <c r="B511" s="18" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C511" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D511" s="18">
+        <v>2.0212583E7</v>
+      </c>
+      <c r="E511" s="18" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F511" s="19">
+        <v>0.040277777778101154</v>
+      </c>
+      <c r="G511" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H511" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I511" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J511" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K511" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L511" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M511" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N511" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O511" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P511" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Q511" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R511" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S511" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T511" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U511" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V511" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W511" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X511" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y511" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z511" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA511" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB511" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC511" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD511" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AE511" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF511" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG511" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH511" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI511" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ511" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="21">
+        <v>45599.0482081713</v>
+      </c>
+      <c r="B512" s="22" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C512" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D512" s="22">
+        <v>2.0245246E7</v>
+      </c>
+      <c r="E512" s="22" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F512" s="23">
+        <v>0.04444444444379769</v>
+      </c>
+      <c r="G512" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H512" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L512" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q512" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R512" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T512" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U512" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V512" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z512" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC512" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD512" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE512" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG512" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH512" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI512" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ512" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="17">
+        <v>45599.05680023148</v>
+      </c>
+      <c r="B513" s="18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C513" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D513" s="18">
+        <v>2.0243964E7</v>
+      </c>
+      <c r="E513" s="18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F513" s="19">
+        <v>0.05277777777519077</v>
+      </c>
+      <c r="G513" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL513" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO513" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AP513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU513" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW513" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX513" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ513" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC513" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE513" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF513" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG513" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK513" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL513" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BM513" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="21">
+        <v>45599.0705213426</v>
+      </c>
+      <c r="B514" s="22" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C514" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D514" s="22">
+        <v>2.0243241E7</v>
+      </c>
+      <c r="E514" s="22" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F514" s="23">
+        <v>0.070138888884685</v>
+      </c>
+      <c r="G514" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK514" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL514" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM514" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN514" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO514" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AP514" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ514" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR514" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS514" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT514" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU514" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV514" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW514" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX514" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AY514" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ514" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BA514" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB514" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC514" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD514" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE514" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF514" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG514" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH514" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI514" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ514" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK514" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL514" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM514" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="17">
+        <v>45599.089457685186</v>
+      </c>
+      <c r="B515" s="18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C515" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D515" s="18">
+        <v>2.0227039E7</v>
+      </c>
+      <c r="E515" s="18" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F515" s="19">
+        <v>0.086111111115315</v>
+      </c>
+      <c r="G515" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK515" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL515" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM515" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN515" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO515" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP515" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ515" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR515" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS515" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT515" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU515" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AV515" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW515" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX515" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY515" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ515" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA515" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB515" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC515" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD515" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE515" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF515" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG515" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH515" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI515" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ515" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK515" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL515" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BM515" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="21">
+        <v>45599.08948364583</v>
+      </c>
+      <c r="B516" s="22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C516" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D516" s="22">
+        <v>2.0241518E7</v>
+      </c>
+      <c r="E516" s="22" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F516" s="23">
+        <v>0.08819444444088731</v>
+      </c>
+      <c r="G516" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H516" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L516" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M516" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Q516" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="S516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U516" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W516" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y516" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z516" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD516" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE516" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG516" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AH516" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI516" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ516" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="17">
+        <v>45599.09398232639</v>
+      </c>
+      <c r="B517" s="18" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C517" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D517" s="18">
+        <v>2.0232705E7</v>
+      </c>
+      <c r="E517" s="18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F517" s="19">
+        <v>0.09166666666715173</v>
+      </c>
+      <c r="G517" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H517" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I517" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J517" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K517" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L517" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M517" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N517" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O517" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P517" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q517" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R517" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="S517" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T517" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U517" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V517" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W517" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X517" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y517" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Z517" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA517" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AB517" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC517" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AD517" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE517" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF517" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG517" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH517" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI517" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ517" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="21">
+        <v>45599.144704606486</v>
+      </c>
+      <c r="B518" s="22" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C518" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D518" s="22">
+        <v>2.0246224E7</v>
+      </c>
+      <c r="E518" s="22" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F518" s="23">
+        <v>0.13749999999708962</v>
+      </c>
+      <c r="G518" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK518" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL518" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM518" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN518" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO518" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP518" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ518" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR518" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS518" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT518" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU518" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV518" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW518" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX518" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY518" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ518" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA518" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB518" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC518" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD518" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE518" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF518" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG518" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH518" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI518" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ518" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK518" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL518" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM518" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="17">
+        <v>45599.14541990741</v>
+      </c>
+      <c r="B519" s="18" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C519" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D519" s="18">
+        <v>2.0243415E7</v>
+      </c>
+      <c r="E519" s="18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F519" s="19">
+        <v>0.14097222222335404</v>
+      </c>
+      <c r="G519" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H519" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I519" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J519" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K519" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L519" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M519" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N519" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O519" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P519" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q519" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R519" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S519" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T519" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U519" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V519" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W519" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="X519" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y519" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z519" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA519" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB519" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC519" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD519" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE519" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF519" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG519" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH519" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI519" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ519" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="21">
+        <v>45599.17201746527</v>
+      </c>
+      <c r="B520" s="22" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C520" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D520" s="22">
+        <v>2.0242109E7</v>
+      </c>
+      <c r="E520" s="22" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F520" s="23">
+        <v>0.13541666666424135</v>
+      </c>
+      <c r="G520" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK520" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL520" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM520" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN520" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO520" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP520" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ520" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR520" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS520" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT520" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU520" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV520" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW520" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX520" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY520" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ520" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA520" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB520" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC520" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD520" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE520" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF520" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG520" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BH520" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI520" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ520" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK520" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL520" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM520" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="17">
+        <v>45599.2184655787</v>
+      </c>
+      <c r="B521" s="18" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C521" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D521" s="18">
+        <v>2.0245252E7</v>
+      </c>
+      <c r="E521" s="18" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F521" s="19">
+        <v>0.21458333333430346</v>
+      </c>
+      <c r="G521" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H521" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I521" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J521" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K521" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L521" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M521" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N521" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O521" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P521" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q521" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R521" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S521" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T521" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U521" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V521" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W521" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="X521" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y521" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z521" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA521" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB521" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC521" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD521" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE521" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF521" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG521" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH521" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI521" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ521" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="21">
+        <v>45599.22614737268</v>
+      </c>
+      <c r="B522" s="22" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C522" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D522" s="22">
+        <v>2.0241083E7</v>
+      </c>
+      <c r="E522" s="22" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F522" s="23">
+        <v>0.2249999999985448</v>
+      </c>
+      <c r="G522" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM522" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO522" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AP522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ522" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR522" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS522" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW522" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AX522" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ522" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF522" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG522" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH522" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK522" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BL522" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM522" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="25">
+        <v>45599.23657405093</v>
+      </c>
+      <c r="B523" s="26" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C523" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D523" s="26">
+        <v>2.0202106E7</v>
+      </c>
+      <c r="E523" s="26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F523" s="27">
+        <v>0.23541666666278616</v>
+      </c>
+      <c r="G523" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AL523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AM523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AN523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AO523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AP523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AQ523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AR523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AS523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AT523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AU523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AV523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AW523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AX523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AY523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AZ523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BA523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BB523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BC523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BD523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BE523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BF523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BG523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BH523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BI523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BJ523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BK523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BL523" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BM523" s="28">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1231">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3591,6 +3591,120 @@
   </si>
   <si>
     <t>김은우</t>
+  </si>
+  <si>
+    <t>hlu20242513@gmail.com</t>
+  </si>
+  <si>
+    <t>김예준</t>
+  </si>
+  <si>
+    <t>yeon4262@naver.com</t>
+  </si>
+  <si>
+    <t>신수연</t>
+  </si>
+  <si>
+    <t>cbh3trust4@naver.com</t>
+  </si>
+  <si>
+    <t>조정현</t>
+  </si>
+  <si>
+    <t>hyerujys2005@naver.com</t>
+  </si>
+  <si>
+    <t>정윤수</t>
+  </si>
+  <si>
+    <t>sdw20050421@gmail.com</t>
+  </si>
+  <si>
+    <t>송도원</t>
+  </si>
+  <si>
+    <t>sjhaa303028@naver.com</t>
+  </si>
+  <si>
+    <t>신중현</t>
+  </si>
+  <si>
+    <t>ian5791@naver.com</t>
+  </si>
+  <si>
+    <t>박수현</t>
+  </si>
+  <si>
+    <t>ac3512@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학</t>
+  </si>
+  <si>
+    <t>김태근</t>
+  </si>
+  <si>
+    <t>dldpwls5245@naver.com</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>rhkddyd234@naver.com</t>
+  </si>
+  <si>
+    <t>이광용</t>
+  </si>
+  <si>
+    <t>rudongdong0302@naver.com</t>
+  </si>
+  <si>
+    <t>이정효</t>
+  </si>
+  <si>
+    <t>jeongminyoung@naver.com</t>
+  </si>
+  <si>
+    <t>정민영</t>
+  </si>
+  <si>
+    <t>jhkm7400@gmail.com</t>
+  </si>
+  <si>
+    <t>김유건</t>
+  </si>
+  <si>
+    <t>a22234781@gmail.com</t>
+  </si>
+  <si>
+    <t>hg2635394@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>김현준</t>
+  </si>
+  <si>
+    <t>sihyune1104@gmail.com</t>
+  </si>
+  <si>
+    <t>안시현</t>
+  </si>
+  <si>
+    <t>jyoon2233@naver.com</t>
+  </si>
+  <si>
+    <t>신정윤</t>
+  </si>
+  <si>
+    <t>choyunjae2153@gmail.com</t>
+  </si>
+  <si>
+    <t>AI의료융합학과</t>
+  </si>
+  <si>
+    <t>조윤재</t>
   </si>
 </sst>
 </file>
@@ -3941,7 +4055,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM523" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM541" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -62628,113 +62742,2093 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="25">
+      <c r="A523" s="17">
         <v>45599.23657405093</v>
       </c>
-      <c r="B523" s="26" t="s">
+      <c r="B523" s="18" t="s">
         <v>1191</v>
       </c>
-      <c r="C523" s="26" t="s">
+      <c r="C523" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D523" s="26">
+      <c r="D523" s="18">
         <v>2.0202106E7</v>
       </c>
-      <c r="E523" s="26" t="s">
+      <c r="E523" s="18" t="s">
         <v>1192</v>
       </c>
-      <c r="F523" s="27">
+      <c r="F523" s="19">
         <v>0.23541666666278616</v>
       </c>
-      <c r="G523" s="26" t="s">
+      <c r="G523" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AK523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AL523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AM523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AN523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AO523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AP523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AQ523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AR523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AS523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AT523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AU523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AV523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AW523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AX523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AY523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AZ523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BA523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BB523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BC523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BD523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BE523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BF523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BG523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BH523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BI523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BJ523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BK523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BL523" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="BM523" s="28">
-        <v>5.0</v>
+      <c r="AK523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AL523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AU523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AX523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BL523" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BM523" s="20">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="21">
+        <v>45599.281842916665</v>
+      </c>
+      <c r="B524" s="22" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C524" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D524" s="22">
+        <v>2.0242513E7</v>
+      </c>
+      <c r="E524" s="22" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F524" s="23">
+        <v>0.46875</v>
+      </c>
+      <c r="G524" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I524" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J524" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M524" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N524" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q524" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S524" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U524" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V524" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X524" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC524" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD524" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE524" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG524" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH524" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI524" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ524" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="17">
+        <v>45599.2831328125</v>
+      </c>
+      <c r="B525" s="18" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C525" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D525" s="18">
+        <v>2.0223325E7</v>
+      </c>
+      <c r="E525" s="18" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F525" s="19">
+        <v>0.2729166666686069</v>
+      </c>
+      <c r="G525" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK525" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL525" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM525" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN525" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO525" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AP525" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ525" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR525" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS525" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT525" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU525" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV525" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW525" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AX525" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY525" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ525" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA525" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB525" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC525" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD525" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE525" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF525" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG525" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH525" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI525" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ525" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK525" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL525" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM525" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="21">
+        <v>45599.28808180556</v>
+      </c>
+      <c r="B526" s="22" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C526" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D526" s="22">
+        <v>2.0242749E7</v>
+      </c>
+      <c r="E526" s="22" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F526" s="23">
+        <v>0.28402777777955635</v>
+      </c>
+      <c r="G526" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK526" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL526" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM526" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN526" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO526" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AP526" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ526" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR526" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS526" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT526" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU526" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AV526" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW526" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX526" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY526" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ526" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA526" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB526" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC526" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD526" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE526" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF526" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG526" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH526" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI526" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BJ526" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK526" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL526" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM526" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="17">
+        <v>45599.29531710648</v>
+      </c>
+      <c r="B527" s="18" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C527" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D527" s="18">
+        <v>2.0242575E7</v>
+      </c>
+      <c r="E527" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F527" s="19">
+        <v>0.29166666666424135</v>
+      </c>
+      <c r="G527" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H527" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I527" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J527" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K527" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L527" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M527" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N527" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O527" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P527" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q527" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R527" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S527" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T527" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U527" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V527" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W527" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X527" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y527" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z527" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA527" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB527" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC527" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD527" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE527" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF527" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG527" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH527" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI527" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ527" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="21">
+        <v>45599.29663667824</v>
+      </c>
+      <c r="B528" s="22" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C528" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D528" s="22">
+        <v>2.0242418E7</v>
+      </c>
+      <c r="E528" s="22" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F528" s="23">
+        <v>0.2944444444437977</v>
+      </c>
+      <c r="G528" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J528" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K528" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L528" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="M528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O528" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P528" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Q528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R528" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="S528" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V528" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W528" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="X528" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z528" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB528" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC528" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AD528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF528" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG528" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AH528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI528" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ528" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="17">
+        <v>45599.331503865746</v>
+      </c>
+      <c r="B529" s="18" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C529" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D529" s="18">
+        <v>2.0246741E7</v>
+      </c>
+      <c r="E529" s="18" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F529" s="19">
+        <v>0.3305555555562023</v>
+      </c>
+      <c r="G529" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL529" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM529" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="21">
+        <v>45599.336968125004</v>
+      </c>
+      <c r="B530" s="22" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C530" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D530" s="22">
+        <v>2.024152E7</v>
+      </c>
+      <c r="E530" s="22" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F530" s="23">
+        <v>0.33472222222189885</v>
+      </c>
+      <c r="G530" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK530" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL530" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM530" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN530" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO530" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP530" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ530" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR530" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS530" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT530" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU530" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV530" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW530" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX530" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY530" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ530" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA530" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB530" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC530" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD530" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE530" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF530" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG530" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH530" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI530" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ530" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK530" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL530" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM530" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="17">
+        <v>45599.35562739584</v>
+      </c>
+      <c r="B531" s="18" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C531" s="18" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D531" s="18">
+        <v>2.0216609E7</v>
+      </c>
+      <c r="E531" s="18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F531" s="19">
+        <v>0.3548611111109494</v>
+      </c>
+      <c r="G531" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK531" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL531" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM531" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN531" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO531" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP531" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ531" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT531" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV531" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW531" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX531" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL531" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM531" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="21">
+        <v>45599.356554618054</v>
+      </c>
+      <c r="B532" s="22" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C532" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D532" s="22">
+        <v>2.0182747E7</v>
+      </c>
+      <c r="E532" s="22" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F532" s="23">
+        <v>0.35416666666424135</v>
+      </c>
+      <c r="G532" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J532" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K532" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L532" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P532" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q532" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R532" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V532" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W532" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC532" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD532" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF532" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG532" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI532" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ532" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="17">
+        <v>45599.39044546297</v>
+      </c>
+      <c r="B533" s="18" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C533" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D533" s="18">
+        <v>2.019342E7</v>
+      </c>
+      <c r="E533" s="18" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F533" s="19">
+        <v>0.3861111111109494</v>
+      </c>
+      <c r="G533" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK533" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL533" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM533" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN533" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO533" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP533" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ533" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR533" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS533" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT533" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU533" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV533" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW533" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX533" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY533" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ533" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA533" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB533" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC533" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD533" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE533" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BF533" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG533" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH533" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI533" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ533" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK533" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL533" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM533" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="21">
+        <v>45599.393145625</v>
+      </c>
+      <c r="B534" s="22" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C534" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D534" s="22">
+        <v>2.023243E7</v>
+      </c>
+      <c r="E534" s="22" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F534" s="23">
+        <v>0.38958333333721384</v>
+      </c>
+      <c r="G534" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK534" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL534" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM534" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN534" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO534" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP534" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ534" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR534" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS534" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT534" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU534" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV534" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW534" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX534" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY534" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ534" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BA534" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BB534" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC534" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD534" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE534" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BF534" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG534" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH534" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI534" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ534" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK534" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL534" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM534" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="17">
+        <v>45599.40494409722</v>
+      </c>
+      <c r="B535" s="18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C535" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D535" s="18">
+        <v>2.0246281E7</v>
+      </c>
+      <c r="E535" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F535" s="19">
+        <v>0.4006944444408873</v>
+      </c>
+      <c r="G535" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L535" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N535" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P535" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q535" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R535" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V535" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA535" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC535" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD535" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG535" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH535" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI535" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ535" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="21">
+        <v>45599.420231689815</v>
+      </c>
+      <c r="B536" s="22" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C536" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D536" s="22">
+        <v>2.0242932E7</v>
+      </c>
+      <c r="E536" s="22" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F536" s="23">
+        <v>0.4180555555576575</v>
+      </c>
+      <c r="G536" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H536" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I536" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J536" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K536" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L536" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M536" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N536" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O536" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P536" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q536" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R536" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S536" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T536" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U536" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V536" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W536" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X536" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y536" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z536" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA536" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB536" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC536" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD536" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE536" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF536" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG536" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH536" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI536" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ536" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="17">
+        <v>45599.42526927083</v>
+      </c>
+      <c r="B537" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C537" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D537" s="18">
+        <v>2.0201076E7</v>
+      </c>
+      <c r="E537" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="F537" s="19">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="G537" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AL537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AM537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AN537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AO537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AP537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AQ537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AR537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AS537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AU537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AW537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AX537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AY537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AZ537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BB537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BC537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BD537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BE537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BF537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BG537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BH537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BI537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BJ537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BK537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BL537" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BM537" s="20">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="21">
+        <v>45599.43093664352</v>
+      </c>
+      <c r="B538" s="22" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C538" s="22" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D538" s="22">
+        <v>2.0231033E7</v>
+      </c>
+      <c r="E538" s="22" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F538" s="23">
+        <v>0.429861111115315</v>
+      </c>
+      <c r="G538" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H538" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L538" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M538" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N538" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O538" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P538" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R538" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T538" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U538" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y538" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB538" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE538" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF538" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG538" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AH538" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI538" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ538" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="17">
+        <v>45599.436496967595</v>
+      </c>
+      <c r="B539" s="18" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C539" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D539" s="18">
+        <v>2.0232726E7</v>
+      </c>
+      <c r="E539" s="18" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F539" s="19">
+        <v>0.43333333333430346</v>
+      </c>
+      <c r="G539" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J539" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K539" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L539" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P539" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R539" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S539" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T539" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U539" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB539" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC539" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD539" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF539" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG539" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AI539" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ539" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="21">
+        <v>45599.43903087963</v>
+      </c>
+      <c r="B540" s="22" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C540" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D540" s="22">
+        <v>2.024519E7</v>
+      </c>
+      <c r="E540" s="22" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F540" s="23">
+        <v>0.4381944444467081</v>
+      </c>
+      <c r="G540" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L540" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M540" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q540" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T540" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U540" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z540" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD540" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE540" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG540" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH540" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI540" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ540" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="25">
+        <v>45599.442593784726</v>
+      </c>
+      <c r="B541" s="26" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C541" s="26" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D541" s="26">
+        <v>2.0227162E7</v>
+      </c>
+      <c r="E541" s="26" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F541" s="27">
+        <v>0.43958333333284827</v>
+      </c>
+      <c r="G541" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK541" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AL541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AM541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AN541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AO541" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AP541" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AQ541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AR541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AS541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AT541" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AU541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AV541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AW541" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AX541" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AY541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AZ541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BA541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BB541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BC541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BD541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BE541" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BF541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BG541" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BH541" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BI541" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BJ541" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BK541" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BL541" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BM541" s="28">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="1305">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3705,6 +3705,228 @@
   </si>
   <si>
     <t>조윤재</t>
+  </si>
+  <si>
+    <t>chanwoo0807@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이</t>
+  </si>
+  <si>
+    <t>김찬우</t>
+  </si>
+  <si>
+    <t>ghskfen1215@naver.com</t>
+  </si>
+  <si>
+    <t>기정윤</t>
+  </si>
+  <si>
+    <t>soyeon2025@naver.com</t>
+  </si>
+  <si>
+    <t>soonbeom1130@naver.com</t>
+  </si>
+  <si>
+    <t>권순범</t>
+  </si>
+  <si>
+    <t>qudcksl1216@gmail.com</t>
+  </si>
+  <si>
+    <t>윤병찬</t>
+  </si>
+  <si>
+    <t>dudwndi09@naver.com</t>
+  </si>
+  <si>
+    <t>광고홍보</t>
+  </si>
+  <si>
+    <t>권영주</t>
+  </si>
+  <si>
+    <t>5tmddk@naver.com</t>
+  </si>
+  <si>
+    <t>최승아</t>
+  </si>
+  <si>
+    <t>mingtto0920@gmail.com</t>
+  </si>
+  <si>
+    <t>유민서</t>
+  </si>
+  <si>
+    <t>sueuisa04@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융학부</t>
+  </si>
+  <si>
+    <t>신동윤</t>
+  </si>
+  <si>
+    <t>bmj4033@gmail.com</t>
+  </si>
+  <si>
+    <t>백민제</t>
+  </si>
+  <si>
+    <t>kt433@naver.com</t>
+  </si>
+  <si>
+    <t>주혜린</t>
+  </si>
+  <si>
+    <t>aks186@naver.com</t>
+  </si>
+  <si>
+    <t>안준선</t>
+  </si>
+  <si>
+    <t>csqwe2@naver.com</t>
+  </si>
+  <si>
+    <t>장재호</t>
+  </si>
+  <si>
+    <t>kty030122@gmail.com</t>
+  </si>
+  <si>
+    <t>김태연</t>
+  </si>
+  <si>
+    <t>kgh1321@gmail.com</t>
+  </si>
+  <si>
+    <t>김가희</t>
+  </si>
+  <si>
+    <t>wlgus4770752@naver.com</t>
+  </si>
+  <si>
+    <t>의예과</t>
+  </si>
+  <si>
+    <t>김지현</t>
+  </si>
+  <si>
+    <t>bhyejin420@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜진</t>
+  </si>
+  <si>
+    <t>byl0730@naver.com</t>
+  </si>
+  <si>
+    <t>변예림</t>
+  </si>
+  <si>
+    <t>psh020509@naver.com</t>
+  </si>
+  <si>
+    <t>박시환</t>
+  </si>
+  <si>
+    <t>kje9714@gmail.com</t>
+  </si>
+  <si>
+    <t>김재은</t>
+  </si>
+  <si>
+    <t>to_csm@naver.com</t>
+  </si>
+  <si>
+    <t>천상미</t>
+  </si>
+  <si>
+    <t>dong45657@gmail.com</t>
+  </si>
+  <si>
+    <t>채동엽</t>
+  </si>
+  <si>
+    <t>koreavjr@naver.com</t>
+  </si>
+  <si>
+    <t>박지성</t>
+  </si>
+  <si>
+    <t>a01075976680@gmail.com</t>
+  </si>
+  <si>
+    <t>김우진</t>
+  </si>
+  <si>
+    <t>whrhdwn2003@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>abc6518@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체</t>
+  </si>
+  <si>
+    <t>박상준</t>
+  </si>
+  <si>
+    <t>wndus6604@naver.com</t>
+  </si>
+  <si>
+    <t>남주연</t>
+  </si>
+  <si>
+    <t>chaseoyeon0103@naver.com</t>
+  </si>
+  <si>
+    <t>차서연</t>
+  </si>
+  <si>
+    <t>seoeunwkd@gmail.com</t>
+  </si>
+  <si>
+    <t>정서은</t>
+  </si>
+  <si>
+    <t>junwoni20@gmail.com</t>
+  </si>
+  <si>
+    <t>이준원</t>
+  </si>
+  <si>
+    <t>geonu4496@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">디지털미디어콘텐츠 </t>
+  </si>
+  <si>
+    <t>이건우</t>
+  </si>
+  <si>
+    <t>h20191240@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>홍이래</t>
+  </si>
+  <si>
+    <t>ereere05@naver.com</t>
+  </si>
+  <si>
+    <t>황은상</t>
+  </si>
+  <si>
+    <t>kdk3265@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>강은비</t>
   </si>
 </sst>
 </file>
@@ -3735,7 +3957,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -3891,25 +4113,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3994,9 +4202,6 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4055,7 +4260,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM541" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM575" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -64722,113 +64927,3853 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="25">
+      <c r="A541" s="17">
         <v>45599.442593784726</v>
       </c>
-      <c r="B541" s="26" t="s">
+      <c r="B541" s="18" t="s">
         <v>1228</v>
       </c>
-      <c r="C541" s="26" t="s">
+      <c r="C541" s="18" t="s">
         <v>1229</v>
       </c>
-      <c r="D541" s="26">
+      <c r="D541" s="18">
         <v>2.0227162E7</v>
       </c>
-      <c r="E541" s="26" t="s">
+      <c r="E541" s="18" t="s">
         <v>1230</v>
       </c>
-      <c r="F541" s="27">
+      <c r="F541" s="19">
         <v>0.43958333333284827</v>
       </c>
-      <c r="G541" s="26" t="s">
+      <c r="G541" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AK541" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AL541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AM541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AN541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AO541" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AP541" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AQ541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AR541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AS541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AT541" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AU541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AV541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AW541" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AX541" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AY541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AZ541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BA541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BB541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BC541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BD541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BE541" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BF541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BG541" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BH541" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BI541" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BJ541" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BK541" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BL541" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="BM541" s="28">
-        <v>2.0</v>
+      <c r="AK541" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO541" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP541" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT541" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW541" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX541" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE541" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG541" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH541" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI541" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ541" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK541" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL541" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM541" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="21">
+        <v>45599.4520518287</v>
+      </c>
+      <c r="B542" s="22" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C542" s="22" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D542" s="22">
+        <v>2.0223316E7</v>
+      </c>
+      <c r="E542" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F542" s="23">
+        <v>0.4486111111109494</v>
+      </c>
+      <c r="G542" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H542" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I542" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J542" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K542" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L542" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M542" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N542" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O542" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P542" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q542" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R542" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S542" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T542" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U542" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V542" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W542" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X542" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y542" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z542" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA542" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB542" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC542" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD542" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE542" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF542" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG542" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH542" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI542" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ542" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="17">
+        <v>45599.461358506946</v>
+      </c>
+      <c r="B543" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C543" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D543" s="18">
+        <v>2.0236705E7</v>
+      </c>
+      <c r="E543" s="18" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F543" s="19">
+        <v>0.45902777777519077</v>
+      </c>
+      <c r="G543" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK543" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL543" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM543" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN543" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO543" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP543" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ543" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR543" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS543" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT543" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU543" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV543" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW543" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX543" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY543" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ543" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA543" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB543" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC543" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD543" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE543" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF543" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BG543" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH543" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI543" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BJ543" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK543" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL543" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM543" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="21">
+        <v>45599.46585832176</v>
+      </c>
+      <c r="B544" s="22" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C544" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D544" s="22">
+        <v>2.0246221E7</v>
+      </c>
+      <c r="E544" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="F544" s="23">
+        <v>0.4631944444408873</v>
+      </c>
+      <c r="G544" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK544" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL544" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM544" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN544" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO544" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP544" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ544" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR544" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS544" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT544" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU544" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV544" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW544" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX544" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY544" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ544" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA544" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB544" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC544" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD544" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE544" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF544" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG544" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH544" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI544" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ544" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK544" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL544" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM544" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="17">
+        <v>45599.46641675926</v>
+      </c>
+      <c r="B545" s="18" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C545" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="D545" s="18">
+        <v>2.0235112E7</v>
+      </c>
+      <c r="E545" s="18" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F545" s="19">
+        <v>0.46527777778101154</v>
+      </c>
+      <c r="G545" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS545" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK545" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL545" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM545" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="21">
+        <v>45599.46886435185</v>
+      </c>
+      <c r="B546" s="22" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C546" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="D546" s="22">
+        <v>2.0192926E7</v>
+      </c>
+      <c r="E546" s="22" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F546" s="23">
+        <v>0.46736111110658385</v>
+      </c>
+      <c r="G546" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I546" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J546" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N546" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R546" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD546" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH546" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI546" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ546" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="17">
+        <v>45599.491471967594</v>
+      </c>
+      <c r="B547" s="18" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C547" s="18" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D547" s="18">
+        <v>2.0212603E7</v>
+      </c>
+      <c r="E547" s="18" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F547" s="19">
+        <v>0.49097222222189885</v>
+      </c>
+      <c r="G547" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG547" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI547" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ547" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="21">
+        <v>45599.49605598379</v>
+      </c>
+      <c r="B548" s="22" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C548" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D548" s="22">
+        <v>2.0192634E7</v>
+      </c>
+      <c r="E548" s="22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F548" s="23">
+        <v>0.4937500000014552</v>
+      </c>
+      <c r="G548" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H548" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I548" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J548" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K548" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L548" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M548" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N548" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O548" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P548" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q548" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R548" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S548" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T548" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U548" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V548" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W548" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X548" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y548" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z548" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AA548" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB548" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC548" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD548" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE548" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF548" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG548" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH548" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI548" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ548" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="17">
+        <v>45599.50543142361</v>
+      </c>
+      <c r="B549" s="18" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C549" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D549" s="18">
+        <v>2.024254E7</v>
+      </c>
+      <c r="E549" s="18" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F549" s="19">
+        <v>0.5020833333328483</v>
+      </c>
+      <c r="G549" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK549" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL549" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM549" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN549" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO549" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP549" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ549" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR549" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS549" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT549" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AU549" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV549" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW549" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX549" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY549" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ549" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA549" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB549" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC549" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD549" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE549" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF549" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG549" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH549" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI549" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ549" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK549" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL549" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM549" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="21">
+        <v>45599.51380811342</v>
+      </c>
+      <c r="B550" s="22" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C550" s="22" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D550" s="22">
+        <v>2.0236739E7</v>
+      </c>
+      <c r="E550" s="22" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F550" s="23">
+        <v>0.5104166666642413</v>
+      </c>
+      <c r="G550" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK550" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL550" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM550" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN550" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO550" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP550" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ550" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR550" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS550" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT550" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU550" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV550" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW550" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX550" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY550" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ550" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA550" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB550" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC550" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD550" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE550" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF550" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG550" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH550" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI550" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ550" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK550" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL550" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM550" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="17">
+        <v>45599.533016030095</v>
+      </c>
+      <c r="B551" s="18" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C551" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D551" s="18">
+        <v>2.0231712E7</v>
+      </c>
+      <c r="E551" s="18" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F551" s="19">
+        <v>0.5298611111065838</v>
+      </c>
+      <c r="G551" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H551" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I551" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J551" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K551" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L551" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M551" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N551" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O551" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P551" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q551" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R551" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S551" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T551" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U551" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V551" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W551" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X551" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y551" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z551" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA551" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB551" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC551" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD551" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE551" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF551" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG551" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH551" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI551" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ551" s="18">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="21">
+        <v>45599.53346975695</v>
+      </c>
+      <c r="B552" s="22" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C552" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D552" s="22">
+        <v>2.0222361E7</v>
+      </c>
+      <c r="E552" s="22" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F552" s="23">
+        <v>0.5305555555532919</v>
+      </c>
+      <c r="G552" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK552" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO552" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP552" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT552" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW552" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG552" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH552" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ552" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK552" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL552" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM552" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="17">
+        <v>45599.53486584491</v>
+      </c>
+      <c r="B553" s="18" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C553" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D553" s="18">
+        <v>2.0232728E7</v>
+      </c>
+      <c r="E553" s="18" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F553" s="19">
+        <v>0.03125</v>
+      </c>
+      <c r="G553" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK553" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL553" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM553" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AN553" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AO553" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP553" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ553" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR553" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS553" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT553" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU553" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV553" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW553" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX553" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY553" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ553" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA553" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB553" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC553" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD553" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE553" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF553" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG553" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH553" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI553" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ553" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK553" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL553" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM553" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="21">
+        <v>45599.53640916667</v>
+      </c>
+      <c r="B554" s="22" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C554" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D554" s="22">
+        <v>2.0196638E7</v>
+      </c>
+      <c r="E554" s="22" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F554" s="23">
+        <v>0.5305555555532919</v>
+      </c>
+      <c r="G554" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK554" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL554" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM554" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN554" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AO554" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP554" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AQ554" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR554" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AS554" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT554" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU554" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV554" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AW554" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX554" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AY554" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ554" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA554" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BB554" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BC554" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD554" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BE554" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF554" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG554" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH554" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI554" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ554" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BK554" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL554" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BM554" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="17">
+        <v>45599.5378737963</v>
+      </c>
+      <c r="B555" s="18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C555" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D555" s="18">
+        <v>2.0214113E7</v>
+      </c>
+      <c r="E555" s="18" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F555" s="19">
+        <v>0.5361111111124046</v>
+      </c>
+      <c r="G555" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H555" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I555" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J555" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K555" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L555" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M555" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N555" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O555" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P555" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q555" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R555" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S555" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T555" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U555" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V555" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W555" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X555" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y555" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z555" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA555" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB555" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC555" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD555" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE555" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF555" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG555" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AH555" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI555" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ555" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="21">
+        <v>45599.54164672454</v>
+      </c>
+      <c r="B556" s="22" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C556" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D556" s="22">
+        <v>2.0242914E7</v>
+      </c>
+      <c r="E556" s="22" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F556" s="23">
+        <v>0.5402777777781012</v>
+      </c>
+      <c r="G556" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H556" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I556" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L556" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M556" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q556" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T556" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U556" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z556" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB556" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC556" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD556" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE556" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG556" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH556" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI556" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ556" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="17">
+        <v>45599.54222390046</v>
+      </c>
+      <c r="B557" s="18" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C557" s="18" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D557" s="18">
+        <v>2.0236121E7</v>
+      </c>
+      <c r="E557" s="18" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F557" s="19">
+        <v>0.5416666666642413</v>
+      </c>
+      <c r="G557" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H557" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="I557" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J557" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="K557" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="L557" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M557" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N557" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="O557" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P557" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Q557" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R557" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="S557" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="T557" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U557" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V557" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="W557" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="X557" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Y557" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Z557" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA557" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB557" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC557" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AD557" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE557" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF557" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AG557" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AH557" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI557" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ557" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="21">
+        <v>45599.54229881945</v>
+      </c>
+      <c r="B558" s="22" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C558" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D558" s="22">
+        <v>2.0245176E7</v>
+      </c>
+      <c r="E558" s="22" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F558" s="23">
+        <v>0.5381944444452529</v>
+      </c>
+      <c r="G558" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K558" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M558" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N558" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O558" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="P558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q558" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R558" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W558" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y558" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z558" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA558" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD558" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI558" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ558" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="17">
+        <v>45599.54453346065</v>
+      </c>
+      <c r="B559" s="18" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C559" s="18">
+        <v>2.0243715E7</v>
+      </c>
+      <c r="D559" s="18">
+        <v>2.0243715E7</v>
+      </c>
+      <c r="E559" s="18" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F559" s="19">
+        <v>0.4604166666686069</v>
+      </c>
+      <c r="G559" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L559" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M559" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q559" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V559" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y559" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB559" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC559" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AD559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE559" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF559" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG559" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH559" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI559" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ559" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="21">
+        <v>45599.54461237269</v>
+      </c>
+      <c r="B560" s="22" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C560" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D560" s="22">
+        <v>2.021282E7</v>
+      </c>
+      <c r="E560" s="22" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F560" s="23">
+        <v>0.5437499999970896</v>
+      </c>
+      <c r="G560" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN560" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO560" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ560" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR560" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX560" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY560" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AZ560" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BA560" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BB560" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BC560" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD560" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG560" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH560" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ560" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK560" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL560" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM560" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="17">
+        <v>45599.545339930555</v>
+      </c>
+      <c r="B561" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C561" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D561" s="18">
+        <v>2.0233509E7</v>
+      </c>
+      <c r="E561" s="18" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F561" s="19">
+        <v>0.5444444444437977</v>
+      </c>
+      <c r="G561" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK561" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO561" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP561" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT561" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW561" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX561" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC561" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG561" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BH561" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ561" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK561" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL561" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM561" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="21">
+        <v>45599.54689239583</v>
+      </c>
+      <c r="B562" s="22" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C562" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D562" s="22">
+        <v>2.0242844E7</v>
+      </c>
+      <c r="E562" s="22" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F562" s="23">
+        <v>0.5451388888905058</v>
+      </c>
+      <c r="G562" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK562" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL562" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN562" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP562" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ562" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR562" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS562" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU562" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW562" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC562" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD562" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI562" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ562" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL562" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM562" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="17">
+        <v>45599.55025722222</v>
+      </c>
+      <c r="B563" s="18" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C563" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="D563" s="18">
+        <v>2.0193429E7</v>
+      </c>
+      <c r="E563" s="18" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F563" s="19">
+        <v>0.5451388888905058</v>
+      </c>
+      <c r="G563" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK563" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN563" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO563" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT563" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AV563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW563" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX563" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ563" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC563" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE563" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF563" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG563" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ563" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK563" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL563" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM563" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="21">
+        <v>45599.551279039355</v>
+      </c>
+      <c r="B564" s="22" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C564" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D564" s="22">
+        <v>2.0212827E7</v>
+      </c>
+      <c r="E564" s="22" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F564" s="23">
+        <v>0.5298611111065838</v>
+      </c>
+      <c r="G564" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H564" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="I564" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J564" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K564" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L564" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M564" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N564" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P564" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q564" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T564" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U564" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z564" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AA564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC564" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD564" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE564" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AF564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AI564" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AJ564" s="22">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="17">
+        <v>45599.557771782405</v>
+      </c>
+      <c r="B565" s="18" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C565" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D565" s="18">
+        <v>2.0243309E7</v>
+      </c>
+      <c r="E565" s="18" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F565" s="19">
+        <v>0.5562500000014552</v>
+      </c>
+      <c r="G565" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H565" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I565" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J565" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K565" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L565" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M565" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N565" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O565" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P565" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q565" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R565" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S565" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T565" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U565" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V565" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W565" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X565" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y565" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z565" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA565" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB565" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC565" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD565" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE565" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF565" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG565" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH565" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI565" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ565" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="21">
+        <v>45599.5578353125</v>
+      </c>
+      <c r="B566" s="22" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C566" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D566" s="22">
+        <v>2.023275E7</v>
+      </c>
+      <c r="E566" s="22" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F566" s="23">
+        <v>0.5458333333372138</v>
+      </c>
+      <c r="G566" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK566" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL566" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM566" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN566" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO566" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP566" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ566" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR566" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS566" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT566" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU566" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV566" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW566" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX566" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY566" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ566" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA566" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB566" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC566" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD566" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE566" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF566" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG566" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH566" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI566" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ566" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK566" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL566" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM566" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="17">
+        <v>45599.55968989583</v>
+      </c>
+      <c r="B567" s="18" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C567" s="18" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D567" s="18">
+        <v>2.0203322E7</v>
+      </c>
+      <c r="E567" s="18" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F567" s="19">
+        <v>0.5576388888875954</v>
+      </c>
+      <c r="G567" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H567" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I567" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J567" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K567" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L567" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M567" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N567" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O567" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P567" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q567" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R567" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S567" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T567" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U567" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V567" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W567" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X567" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y567" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z567" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA567" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB567" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC567" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD567" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE567" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF567" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG567" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH567" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI567" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ567" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="21">
+        <v>45599.56291142361</v>
+      </c>
+      <c r="B568" s="22" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C568" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D568" s="22">
+        <v>2.0223611E7</v>
+      </c>
+      <c r="E568" s="22" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F568" s="23">
+        <v>0.5604166666671517</v>
+      </c>
+      <c r="G568" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H568" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I568" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J568" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K568" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L568" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M568" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N568" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O568" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P568" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q568" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R568" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S568" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T568" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U568" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V568" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W568" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X568" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y568" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z568" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA568" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB568" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC568" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD568" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE568" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF568" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG568" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH568" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI568" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ568" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="17">
+        <v>45599.57177725695</v>
+      </c>
+      <c r="B569" s="18" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C569" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D569" s="18">
+        <v>2.0241537E7</v>
+      </c>
+      <c r="E569" s="18" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F569" s="19">
+        <v>0.5708333333313931</v>
+      </c>
+      <c r="G569" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H569" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I569" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M569" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q569" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T569" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W569" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z569" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD569" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE569" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH569" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI569" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ569" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="21">
+        <v>45599.572726909726</v>
+      </c>
+      <c r="B570" s="22" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C570" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D570" s="22">
+        <v>2.0243426E7</v>
+      </c>
+      <c r="E570" s="22" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F570" s="23">
+        <v>0.5715277777781012</v>
+      </c>
+      <c r="G570" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI570" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ570" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="17">
+        <v>45599.578043263886</v>
+      </c>
+      <c r="B571" s="18" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C571" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D571" s="18">
+        <v>2.021163E7</v>
+      </c>
+      <c r="E571" s="18" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F571" s="19">
+        <v>0.5763888888905058</v>
+      </c>
+      <c r="G571" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H571" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I571" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J571" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K571" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L571" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M571" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N571" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O571" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P571" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q571" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R571" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S571" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T571" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U571" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V571" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W571" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X571" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y571" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z571" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA571" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB571" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC571" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD571" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE571" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF571" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG571" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH571" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI571" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ571" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="21">
+        <v>45599.57856306713</v>
+      </c>
+      <c r="B572" s="22" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C572" s="22" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D572" s="22">
+        <v>2.0212549E7</v>
+      </c>
+      <c r="E572" s="22" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F572" s="23">
+        <v>0.577777777776646</v>
+      </c>
+      <c r="G572" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q572" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T572" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U572" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z572" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD572" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE572" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG572" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH572" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI572" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ572" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="17">
+        <v>45599.579088784725</v>
+      </c>
+      <c r="B573" s="18" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C573" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D573" s="18">
+        <v>2.019124E7</v>
+      </c>
+      <c r="E573" s="18" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F573" s="19">
+        <v>0.5770833333372138</v>
+      </c>
+      <c r="G573" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK573" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL573" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM573" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN573" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO573" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AP573" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ573" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR573" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS573" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT573" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU573" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV573" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW573" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX573" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY573" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ573" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA573" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB573" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC573" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD573" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE573" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BF573" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG573" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH573" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI573" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ573" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK573" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL573" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM573" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="21">
+        <v>45599.58301488426</v>
+      </c>
+      <c r="B574" s="22" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C574" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D574" s="22">
+        <v>2.0243064E7</v>
+      </c>
+      <c r="E574" s="22" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F574" s="23">
+        <v>0.5826388888890506</v>
+      </c>
+      <c r="G574" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL574" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM574" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="25">
+        <v>45599.58506922454</v>
+      </c>
+      <c r="B575" s="26" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C575" s="26" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D575" s="26">
+        <v>2.0201002E7</v>
+      </c>
+      <c r="E575" s="26" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F575" s="27">
+        <v>0.5805555555562023</v>
+      </c>
+      <c r="G575" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H575" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="I575" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="J575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="K575" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="L575" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="M575" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="N575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="O575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="P575" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="Q575" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="R575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="S575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="T575" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="U575" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="V575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="W575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="X575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Y575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="Z575" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AA575" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AB575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AC575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AD575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AE575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AF575" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AG575" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AH575" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AI575" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AJ575" s="26">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="1370">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3927,6 +3927,201 @@
   </si>
   <si>
     <t>강은비</t>
+  </si>
+  <si>
+    <t>pjy35870859@gmail.com</t>
+  </si>
+  <si>
+    <t>박지연</t>
+  </si>
+  <si>
+    <t>cmin0945@gmail.com</t>
+  </si>
+  <si>
+    <t>조상민</t>
+  </si>
+  <si>
+    <t>whdudgus1013@gmail.com</t>
+  </si>
+  <si>
+    <t>조영현</t>
+  </si>
+  <si>
+    <t>bluelion-gbn9981@naver.com</t>
+  </si>
+  <si>
+    <t>구보늬</t>
+  </si>
+  <si>
+    <t>wnsgud9624@naver.com</t>
+  </si>
+  <si>
+    <t>임준형</t>
+  </si>
+  <si>
+    <t>psw9879@naver.com</t>
+  </si>
+  <si>
+    <t>박상원</t>
+  </si>
+  <si>
+    <t>nyo07@naver.com</t>
+  </si>
+  <si>
+    <t>윤효라</t>
+  </si>
+  <si>
+    <t>77sunhwa@gmail.com</t>
+  </si>
+  <si>
+    <t>박선화</t>
+  </si>
+  <si>
+    <t>minchan6020@gmail.com</t>
+  </si>
+  <si>
+    <t>jin050828@gmail.com</t>
+  </si>
+  <si>
+    <t>김진영</t>
+  </si>
+  <si>
+    <t>zjxps2007@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 it</t>
+  </si>
+  <si>
+    <t>조인호</t>
+  </si>
+  <si>
+    <t>solar08230@naver.com</t>
+  </si>
+  <si>
+    <t>안다빈</t>
+  </si>
+  <si>
+    <t>duke102426@gmail.com</t>
+  </si>
+  <si>
+    <t>문진혁</t>
+  </si>
+  <si>
+    <t>andy9925@naver.com</t>
+  </si>
+  <si>
+    <t>김무극</t>
+  </si>
+  <si>
+    <t>happyfish123@naver.com</t>
+  </si>
+  <si>
+    <t>dustinwon2005@gmail.com</t>
+  </si>
+  <si>
+    <t>원지현</t>
+  </si>
+  <si>
+    <t>leehanseo0521@naver.com</t>
+  </si>
+  <si>
+    <t>이한서</t>
+  </si>
+  <si>
+    <t>h20231025@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>dltmdwo0301@naver.com</t>
+  </si>
+  <si>
+    <t>이승재</t>
+  </si>
+  <si>
+    <t>choikang2010@naver.com</t>
+  </si>
+  <si>
+    <t>최연희</t>
+  </si>
+  <si>
+    <t>minsung5342@naver.com</t>
+  </si>
+  <si>
+    <t>ksj101710@naver.com</t>
+  </si>
+  <si>
+    <t>김경록</t>
+  </si>
+  <si>
+    <t>dydwndus1115@naver.com</t>
+  </si>
+  <si>
+    <t>용주연</t>
+  </si>
+  <si>
+    <t>ahs042400@naver.com</t>
+  </si>
+  <si>
+    <t>안현성</t>
+  </si>
+  <si>
+    <t>rkdwndms112@naver.com</t>
+  </si>
+  <si>
+    <t>강주은</t>
+  </si>
+  <si>
+    <t>akeb110@naver.com</t>
+  </si>
+  <si>
+    <t>김은빈</t>
+  </si>
+  <si>
+    <t>jina20050429@gmail.com</t>
+  </si>
+  <si>
+    <t>이진아</t>
+  </si>
+  <si>
+    <t>seungye04@naver.com</t>
+  </si>
+  <si>
+    <t>정승예</t>
+  </si>
+  <si>
+    <t>jb9517asd@naver.com</t>
+  </si>
+  <si>
+    <t>곽우주</t>
+  </si>
+  <si>
+    <t>vcx76613@gmail.com</t>
+  </si>
+  <si>
+    <t>황인태</t>
+  </si>
+  <si>
+    <t>ydy7495@naver.com</t>
+  </si>
+  <si>
+    <t>윤다연</t>
+  </si>
+  <si>
+    <t>joon020978@gmail.com</t>
+  </si>
+  <si>
+    <t>이준</t>
+  </si>
+  <si>
+    <t>jangsinhyeog6@gmail.cm</t>
+  </si>
+  <si>
+    <t>장신혁</t>
+  </si>
+  <si>
+    <t>oj5803@naver.com</t>
+  </si>
+  <si>
+    <t>이영주</t>
   </si>
 </sst>
 </file>
@@ -3957,7 +4152,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -4113,11 +4308,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4202,6 +4411,9 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4260,7 +4472,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM575" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM609" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -68667,113 +68879,3853 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="25">
+      <c r="A575" s="17">
         <v>45599.58506922454</v>
       </c>
-      <c r="B575" s="26" t="s">
+      <c r="B575" s="18" t="s">
         <v>1302</v>
       </c>
-      <c r="C575" s="26" t="s">
+      <c r="C575" s="18" t="s">
         <v>1303</v>
       </c>
-      <c r="D575" s="26">
+      <c r="D575" s="18">
         <v>2.0201002E7</v>
       </c>
-      <c r="E575" s="26" t="s">
+      <c r="E575" s="18" t="s">
         <v>1304</v>
       </c>
-      <c r="F575" s="27">
+      <c r="F575" s="19">
         <v>0.5805555555562023</v>
       </c>
-      <c r="G575" s="26" t="s">
+      <c r="G575" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H575" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="I575" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="J575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="K575" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="L575" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="M575" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="N575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="O575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="P575" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Q575" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="R575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="S575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="T575" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="U575" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="V575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="W575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="X575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Y575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Z575" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AA575" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AB575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AC575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AD575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AE575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AF575" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AG575" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AH575" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AI575" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AJ575" s="26">
-        <v>4.0</v>
+      <c r="H575" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I575" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K575" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L575" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M575" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P575" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q575" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T575" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U575" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z575" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA575" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF575" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG575" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH575" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI575" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ575" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="21">
+        <v>45599.59227359954</v>
+      </c>
+      <c r="B576" s="22" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C576" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D576" s="22">
+        <v>2.0242618E7</v>
+      </c>
+      <c r="E576" s="22" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F576" s="23">
+        <v>0.5902777777810115</v>
+      </c>
+      <c r="G576" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H576" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I576" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J576" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K576" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L576" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M576" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N576" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O576" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P576" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q576" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R576" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S576" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T576" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U576" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V576" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W576" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="X576" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y576" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z576" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA576" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB576" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC576" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD576" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AE576" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF576" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG576" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH576" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI576" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ576" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="17">
+        <v>45599.597542222225</v>
+      </c>
+      <c r="B577" s="18" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C577" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D577" s="18">
+        <v>2.0246776E7</v>
+      </c>
+      <c r="E577" s="18" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F577" s="19">
+        <v>0.09583333333284827</v>
+      </c>
+      <c r="G577" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H577" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I577" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J577" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K577" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L577" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M577" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N577" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O577" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P577" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q577" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R577" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S577" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T577" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U577" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V577" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W577" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="X577" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y577" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z577" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA577" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB577" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC577" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD577" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE577" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF577" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG577" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH577" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI577" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ577" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="21">
+        <v>45599.599140763894</v>
+      </c>
+      <c r="B578" s="22" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C578" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D578" s="22">
+        <v>2.0243253E7</v>
+      </c>
+      <c r="E578" s="22" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F578" s="23">
+        <v>0.5965277777795563</v>
+      </c>
+      <c r="G578" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H578" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I578" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J578" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K578" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L578" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M578" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N578" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O578" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P578" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q578" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R578" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S578" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T578" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U578" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V578" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W578" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="X578" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y578" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z578" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA578" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB578" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC578" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD578" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE578" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF578" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG578" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH578" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI578" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ578" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="17">
+        <v>45599.59964263889</v>
+      </c>
+      <c r="B579" s="18" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C579" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D579" s="18">
+        <v>2.0243403E7</v>
+      </c>
+      <c r="E579" s="18" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F579" s="19">
+        <v>0.4604166666686069</v>
+      </c>
+      <c r="G579" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK579" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL579" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM579" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN579" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO579" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP579" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ579" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR579" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS579" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT579" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU579" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV579" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW579" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX579" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY579" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ579" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA579" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB579" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC579" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD579" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE579" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF579" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG579" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH579" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI579" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ579" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK579" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL579" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM579" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="21">
+        <v>45599.600650740744</v>
+      </c>
+      <c r="B580" s="22" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C580" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D580" s="22">
+        <v>2.018109E7</v>
+      </c>
+      <c r="E580" s="22" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F580" s="23">
+        <v>0.5979166666656965</v>
+      </c>
+      <c r="G580" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H580" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I580" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J580" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K580" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L580" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M580" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N580" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O580" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="P580" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q580" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R580" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S580" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T580" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U580" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V580" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W580" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X580" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y580" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z580" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA580" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB580" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC580" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD580" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE580" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF580" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG580" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH580" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI580" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ580" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="17">
+        <v>45599.60151478009</v>
+      </c>
+      <c r="B581" s="18" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C581" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="D581" s="18">
+        <v>2.0235164E7</v>
+      </c>
+      <c r="E581" s="18" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F581" s="19">
+        <v>0.5895833333343035</v>
+      </c>
+      <c r="G581" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK581" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO581" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP581" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ581" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT581" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW581" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX581" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC581" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG581" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH581" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI581" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ581" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK581" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL581" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM581" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="21">
+        <v>45599.60257726852</v>
+      </c>
+      <c r="B582" s="22" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C582" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D582" s="22">
+        <v>2.0217087E7</v>
+      </c>
+      <c r="E582" s="22" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F582" s="23">
+        <v>0.5986111111124046</v>
+      </c>
+      <c r="G582" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I582" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J582" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K582" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="L582" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N582" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P582" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R582" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S582" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="T582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V582" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="W582" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB582" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AC582" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AD582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AH582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI582" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ582" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="17">
+        <v>45599.60531219907</v>
+      </c>
+      <c r="B583" s="18" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C583" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D583" s="18">
+        <v>2.0242956E7</v>
+      </c>
+      <c r="E583" s="18" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F583" s="19">
+        <v>0.6034722222248092</v>
+      </c>
+      <c r="G583" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H583" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I583" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J583" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K583" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L583" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M583" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N583" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O583" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P583" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q583" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R583" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S583" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T583" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U583" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V583" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W583" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X583" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y583" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z583" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA583" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB583" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC583" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD583" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE583" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF583" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG583" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH583" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI583" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ583" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="21">
+        <v>45599.61166480324</v>
+      </c>
+      <c r="B584" s="22" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C584" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D584" s="22">
+        <v>2.0242508E7</v>
+      </c>
+      <c r="E584" s="22" t="s">
+        <v>967</v>
+      </c>
+      <c r="F584" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="G584" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AM584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AN584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AO584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AP584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AR584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AS584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AT584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AV584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AW584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AY584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AZ584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BA584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BB584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BC584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BE584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BF584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BG584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BJ584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BK584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL584" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM584" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="17">
+        <v>45599.61558041666</v>
+      </c>
+      <c r="B585" s="18" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C585" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D585" s="18">
+        <v>2.0246715E7</v>
+      </c>
+      <c r="E585" s="18" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F585" s="19">
+        <v>0.6354166666642413</v>
+      </c>
+      <c r="G585" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK585" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL585" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM585" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN585" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO585" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP585" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ585" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR585" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS585" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT585" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU585" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV585" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW585" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX585" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AY585" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ585" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA585" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB585" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC585" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD585" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE585" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF585" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG585" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH585" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI585" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ585" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK585" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL585" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM585" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="21">
+        <v>45599.62439814815</v>
+      </c>
+      <c r="B586" s="22" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C586" s="22" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D586" s="22">
+        <v>2.0195258E7</v>
+      </c>
+      <c r="E586" s="22" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F586" s="23">
+        <v>0.6215277777810115</v>
+      </c>
+      <c r="G586" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK586" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL586" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AM586" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN586" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO586" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AP586" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ586" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR586" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS586" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT586" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AU586" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV586" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW586" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX586" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY586" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ586" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA586" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB586" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC586" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD586" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE586" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF586" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG586" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BH586" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI586" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ586" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK586" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL586" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM586" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="17">
+        <v>45599.626215578704</v>
+      </c>
+      <c r="B587" s="18" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C587" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D587" s="18">
+        <v>2.0221717E7</v>
+      </c>
+      <c r="E587" s="18" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F587" s="19">
+        <v>0.9659722222204437</v>
+      </c>
+      <c r="G587" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H587" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K587" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L587" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N587" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R587" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S587" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T587" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U587" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V587" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y587" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z587" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB587" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD587" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE587" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH587" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI587" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ587" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="21">
+        <v>45599.63076880787</v>
+      </c>
+      <c r="B588" s="22" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C588" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D588" s="22">
+        <v>2.0182862E7</v>
+      </c>
+      <c r="E588" s="22" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F588" s="23">
+        <v>0.6298611111124046</v>
+      </c>
+      <c r="G588" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM588" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO588" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ588" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS588" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU588" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW588" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY588" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC588" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD588" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE588" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF588" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BG588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI588" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ588" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK588" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL588" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM588" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="17">
+        <v>45599.631750555556</v>
+      </c>
+      <c r="B589" s="18" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C589" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D589" s="18">
+        <v>2.023411E7</v>
+      </c>
+      <c r="E589" s="18" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F589" s="19">
+        <v>0.6298611111124046</v>
+      </c>
+      <c r="G589" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H589" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I589" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J589" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K589" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L589" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M589" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N589" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O589" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P589" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q589" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R589" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S589" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T589" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U589" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V589" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W589" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X589" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y589" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z589" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA589" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB589" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC589" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD589" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE589" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF589" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG589" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AH589" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI589" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ589" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="21">
+        <v>45599.631849224534</v>
+      </c>
+      <c r="B590" s="22" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C590" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D590" s="22">
+        <v>2.0242919E7</v>
+      </c>
+      <c r="E590" s="22" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F590" s="23">
+        <v>0.6298611111124046</v>
+      </c>
+      <c r="G590" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H590" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L590" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M590" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N590" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P590" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U590" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z590" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD590" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE590" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG590" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH590" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI590" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ590" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="17">
+        <v>45599.63190582176</v>
+      </c>
+      <c r="B591" s="18" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C591" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D591" s="18">
+        <v>2.0246747E7</v>
+      </c>
+      <c r="E591" s="18" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F591" s="19">
+        <v>0.6305555555591127</v>
+      </c>
+      <c r="G591" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AL591" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO591" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP591" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS591" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AU591" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW591" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA591" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB591" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD591" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH591" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI591" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK591" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL591" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BM591" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="21">
+        <v>45599.632177210646</v>
+      </c>
+      <c r="B592" s="22" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C592" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D592" s="22">
+        <v>2.0236283E7</v>
+      </c>
+      <c r="E592" s="22" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F592" s="23">
+        <v>0.6263888888934162</v>
+      </c>
+      <c r="G592" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK592" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL592" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM592" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN592" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO592" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP592" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ592" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR592" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS592" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT592" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU592" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV592" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW592" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX592" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY592" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ592" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA592" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB592" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC592" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD592" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE592" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF592" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG592" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BH592" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI592" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ592" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK592" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL592" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM592" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="17">
+        <v>45599.635710532406</v>
+      </c>
+      <c r="B593" s="18" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C593" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D593" s="18">
+        <v>2.0231025E7</v>
+      </c>
+      <c r="E593" s="18" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F593" s="19">
+        <v>0.632638888884685</v>
+      </c>
+      <c r="G593" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM593" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN593" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO593" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP593" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS593" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT593" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU593" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV593" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA593" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB593" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD593" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE593" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH593" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ593" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK593" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL593" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM593" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="21">
+        <v>45599.646001851856</v>
+      </c>
+      <c r="B594" s="22" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C594" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D594" s="22">
+        <v>2.022283E7</v>
+      </c>
+      <c r="E594" s="22" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F594" s="23">
+        <v>0.3819444444452529</v>
+      </c>
+      <c r="G594" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Q594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="S594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH594" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI594" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ594" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="17">
+        <v>45599.64711252315</v>
+      </c>
+      <c r="B595" s="18" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C595" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D595" s="18">
+        <v>2.0222238E7</v>
+      </c>
+      <c r="E595" s="18" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F595" s="19">
+        <v>0.6458333333357587</v>
+      </c>
+      <c r="G595" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R595" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S595" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T595" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W595" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y595" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA595" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC595" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AD595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF595" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH595" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI595" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ595" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="21">
+        <v>45599.651298136574</v>
+      </c>
+      <c r="B596" s="22" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C596" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D596" s="22">
+        <v>2.0232311E7</v>
+      </c>
+      <c r="E596" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F596" s="23">
+        <v>0.648611111115315</v>
+      </c>
+      <c r="G596" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H596" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I596" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J596" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K596" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L596" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M596" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O596" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q596" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T596" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U596" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z596" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AD596" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE596" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG596" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH596" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI596" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ596" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="17">
+        <v>45599.65132549769</v>
+      </c>
+      <c r="B597" s="18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C597" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D597" s="18">
+        <v>2.0245117E7</v>
+      </c>
+      <c r="E597" s="18" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F597" s="19">
+        <v>0.148611111115315</v>
+      </c>
+      <c r="G597" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H597" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I597" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J597" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K597" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L597" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M597" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N597" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O597" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P597" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q597" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R597" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S597" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T597" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U597" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="V597" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W597" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X597" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y597" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z597" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA597" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB597" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC597" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD597" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE597" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF597" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG597" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH597" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI597" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ597" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="21">
+        <v>45599.653055717594</v>
+      </c>
+      <c r="B598" s="22" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C598" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D598" s="22">
+        <v>2.0243723E7</v>
+      </c>
+      <c r="E598" s="22" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F598" s="23">
+        <v>0.6500000000014552</v>
+      </c>
+      <c r="G598" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK598" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL598" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO598" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP598" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT598" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV598" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW598" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX598" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC598" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF598" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG598" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH598" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI598" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BJ598" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK598" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL598" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM598" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="17">
+        <v>45599.655378599535</v>
+      </c>
+      <c r="B599" s="18" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C599" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D599" s="18">
+        <v>2.0213719E7</v>
+      </c>
+      <c r="E599" s="18" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F599" s="19">
+        <v>0.6548611111065838</v>
+      </c>
+      <c r="G599" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL599" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN599" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT599" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA599" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB599" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH599" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK599" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL599" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM599" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="21">
+        <v>45599.65754684027</v>
+      </c>
+      <c r="B600" s="22" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C600" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D600" s="22">
+        <v>2.0202501E7</v>
+      </c>
+      <c r="E600" s="22" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F600" s="23">
+        <v>0.6548611111065838</v>
+      </c>
+      <c r="G600" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H600" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I600" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J600" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K600" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L600" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M600" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N600" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O600" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P600" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q600" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R600" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S600" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T600" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U600" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V600" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W600" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X600" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y600" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z600" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA600" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB600" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC600" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD600" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE600" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF600" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG600" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH600" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI600" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ600" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="17">
+        <v>45599.66302060185</v>
+      </c>
+      <c r="B601" s="18" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C601" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D601" s="18">
+        <v>2.0231708E7</v>
+      </c>
+      <c r="E601" s="18" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F601" s="19">
+        <v>0.6611111111124046</v>
+      </c>
+      <c r="G601" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H601" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I601" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J601" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N601" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI601" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ601" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="21">
+        <v>45599.66427383102</v>
+      </c>
+      <c r="B602" s="22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C602" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D602" s="22">
+        <v>2.0243731E7</v>
+      </c>
+      <c r="E602" s="22" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F602" s="23">
+        <v>0.6631944444452529</v>
+      </c>
+      <c r="G602" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H602" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I602" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J602" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K602" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L602" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M602" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N602" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O602" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P602" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q602" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R602" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S602" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T602" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U602" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V602" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W602" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X602" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y602" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z602" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA602" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB602" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC602" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD602" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE602" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF602" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG602" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH602" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI602" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ602" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="17">
+        <v>45599.66674299768</v>
+      </c>
+      <c r="B603" s="18" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C603" s="18" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D603" s="18">
+        <v>2.0233846E7</v>
+      </c>
+      <c r="E603" s="18" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F603" s="19">
+        <v>0.6652777777781012</v>
+      </c>
+      <c r="G603" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK603" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL603" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM603" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN603" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO603" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP603" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ603" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR603" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS603" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT603" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU603" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV603" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW603" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX603" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY603" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ603" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA603" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB603" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC603" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD603" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE603" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF603" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG603" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH603" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI603" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ603" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK603" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL603" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM603" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="21">
+        <v>45599.66893153935</v>
+      </c>
+      <c r="B604" s="22" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C604" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D604" s="22">
+        <v>2.0245109E7</v>
+      </c>
+      <c r="E604" s="22" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F604" s="23">
+        <v>0.16666666666424135</v>
+      </c>
+      <c r="G604" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H604" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I604" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J604" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K604" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L604" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M604" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N604" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O604" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P604" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q604" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R604" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S604" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T604" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U604" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V604" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W604" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X604" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y604" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z604" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA604" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB604" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC604" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD604" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE604" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF604" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG604" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH604" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI604" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ604" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="17">
+        <v>45599.66909621528</v>
+      </c>
+      <c r="B605" s="18" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C605" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D605" s="18">
+        <v>2.0246306E7</v>
+      </c>
+      <c r="E605" s="18" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F605" s="19">
+        <v>0.6680555555576575</v>
+      </c>
+      <c r="G605" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AM605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AN605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AO605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AP605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AQ605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AR605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AS605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AT605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AU605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AV605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AW605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AX605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AY605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AZ605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BA605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BB605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BC605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BD605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BE605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BF605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BG605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BH605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BJ605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BK605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL605" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM605" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="21">
+        <v>45599.669593900464</v>
+      </c>
+      <c r="B606" s="22" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C606" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D606" s="22">
+        <v>2.0242423E7</v>
+      </c>
+      <c r="E606" s="22" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F606" s="23">
+        <v>0.6673611111109494</v>
+      </c>
+      <c r="G606" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK606" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO606" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP606" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT606" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU606" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AV606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW606" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC606" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH606" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ606" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK606" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL606" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM606" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="17">
+        <v>45599.6698515162</v>
+      </c>
+      <c r="B607" s="18" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C607" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D607" s="18">
+        <v>2.024223E7</v>
+      </c>
+      <c r="E607" s="18" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F607" s="19">
+        <v>0.6604166666656965</v>
+      </c>
+      <c r="G607" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H607" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I607" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J607" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K607" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L607" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M607" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N607" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O607" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P607" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q607" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R607" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S607" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T607" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U607" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V607" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W607" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X607" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y607" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z607" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA607" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB607" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC607" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD607" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE607" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF607" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG607" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH607" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI607" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ607" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="21">
+        <v>45599.674149467595</v>
+      </c>
+      <c r="B608" s="22" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C608" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D608" s="22">
+        <v>2.0246768E7</v>
+      </c>
+      <c r="E608" s="22" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F608" s="23">
+        <v>0.671527777776646</v>
+      </c>
+      <c r="G608" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK608" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL608" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM608" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN608" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO608" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP608" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ608" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR608" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AU608" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW608" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB608" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BD608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG608" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH608" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ608" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK608" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BL608" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM608" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="25">
+        <v>45599.67810847222</v>
+      </c>
+      <c r="B609" s="26" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C609" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D609" s="26">
+        <v>2.0242628E7</v>
+      </c>
+      <c r="E609" s="26" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F609" s="27">
+        <v>0.7590277777781012</v>
+      </c>
+      <c r="G609" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK609" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AL609" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AM609" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AN609" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AO609" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AP609" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AQ609" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AR609" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AS609" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AT609" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AU609" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AV609" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AW609" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AX609" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AY609" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AZ609" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="BA609" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BB609" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BC609" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BD609" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BE609" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BF609" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="BG609" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BH609" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BI609" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BJ609" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BK609" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BL609" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BM609" s="28">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="1440">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4122,6 +4122,216 @@
   </si>
   <si>
     <t>이영주</t>
+  </si>
+  <si>
+    <t>ziva0726@naver.com</t>
+  </si>
+  <si>
+    <t>김소현</t>
+  </si>
+  <si>
+    <t>kjh54088@gmail.com</t>
+  </si>
+  <si>
+    <t>김재희</t>
+  </si>
+  <si>
+    <t>dearmy0819@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜원</t>
+  </si>
+  <si>
+    <t>taewon16@naver.com</t>
+  </si>
+  <si>
+    <t>류태원</t>
+  </si>
+  <si>
+    <t>joo6806898@naver.com</t>
+  </si>
+  <si>
+    <t>김승주</t>
+  </si>
+  <si>
+    <t>kusahana8047@gmail.com</t>
+  </si>
+  <si>
+    <t>유현우</t>
+  </si>
+  <si>
+    <t>goeunsue@naver.com</t>
+  </si>
+  <si>
+    <t>고은수</t>
+  </si>
+  <si>
+    <t>hyerim0v0@gmail.com</t>
+  </si>
+  <si>
+    <t>전혜림</t>
+  </si>
+  <si>
+    <t>iiiiii3314@naver.com</t>
+  </si>
+  <si>
+    <t>엄수빈</t>
+  </si>
+  <si>
+    <t>kmjung0948@gmail.com</t>
+  </si>
+  <si>
+    <t>진현수</t>
+  </si>
+  <si>
+    <t>sht05137@gmail.com</t>
+  </si>
+  <si>
+    <t>류정석</t>
+  </si>
+  <si>
+    <t>kesha11@naver.com</t>
+  </si>
+  <si>
+    <t>윤주호</t>
+  </si>
+  <si>
+    <t>crown7308@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>박재환</t>
+  </si>
+  <si>
+    <t>hanyejun339@gmail.com</t>
+  </si>
+  <si>
+    <t>한예준</t>
+  </si>
+  <si>
+    <t>050624alex@gmail.com</t>
+  </si>
+  <si>
+    <t>이승현</t>
+  </si>
+  <si>
+    <t>uj5343@gmail.com</t>
+  </si>
+  <si>
+    <t>장우찬</t>
+  </si>
+  <si>
+    <t>in3019@gmail.com</t>
+  </si>
+  <si>
+    <t>이승윤</t>
+  </si>
+  <si>
+    <t>youmin43@naver.com</t>
+  </si>
+  <si>
+    <t>박유민</t>
+  </si>
+  <si>
+    <t>applehanul@naver.com</t>
+  </si>
+  <si>
+    <t>신하늘</t>
+  </si>
+  <si>
+    <t>kby5432@naver.com</t>
+  </si>
+  <si>
+    <t>윤경빈</t>
+  </si>
+  <si>
+    <t>lendjo@naver.com</t>
+  </si>
+  <si>
+    <t>오한별</t>
+  </si>
+  <si>
+    <t>cth041103@naver.com</t>
+  </si>
+  <si>
+    <t>최태희</t>
+  </si>
+  <si>
+    <t>ann12ann1209@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>peony.chung04@gmail.com</t>
+  </si>
+  <si>
+    <t>정수영</t>
+  </si>
+  <si>
+    <t>ghksltjrl@naver.com</t>
+  </si>
+  <si>
+    <t>이용환</t>
+  </si>
+  <si>
+    <t>jign1106@naver.com</t>
+  </si>
+  <si>
+    <t>지은총</t>
+  </si>
+  <si>
+    <t>p1aymaker9926@gmail.com</t>
+  </si>
+  <si>
+    <t>김대환</t>
+  </si>
+  <si>
+    <t>ljw76825119@gmail.com</t>
+  </si>
+  <si>
+    <t>johanjoon5734@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">조한준 </t>
+  </si>
+  <si>
+    <t>hyu05145@gmail.com</t>
+  </si>
+  <si>
+    <t>정서진</t>
+  </si>
+  <si>
+    <t>mjsong4130@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부 ai로봇융합전공</t>
+  </si>
+  <si>
+    <t>송민재</t>
+  </si>
+  <si>
+    <t>slionrain0819@naver.com</t>
+  </si>
+  <si>
+    <t>정의환</t>
+  </si>
+  <si>
+    <t>sjw9802@naver.com</t>
+  </si>
+  <si>
+    <t>선지우</t>
+  </si>
+  <si>
+    <t>chaerin3940@gmail.com</t>
+  </si>
+  <si>
+    <t>김채린</t>
+  </si>
+  <si>
+    <t>20217096@hallym.ac.kr</t>
   </si>
 </sst>
 </file>
@@ -4285,10 +4495,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -4296,13 +4506,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -4310,13 +4520,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -4472,7 +4682,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM609" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM644" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -72619,113 +72829,3963 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="25">
+      <c r="A609" s="17">
         <v>45599.67810847222</v>
       </c>
-      <c r="B609" s="26" t="s">
+      <c r="B609" s="18" t="s">
         <v>1368</v>
       </c>
-      <c r="C609" s="26" t="s">
+      <c r="C609" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D609" s="26">
+      <c r="D609" s="18">
         <v>2.0242628E7</v>
       </c>
-      <c r="E609" s="26" t="s">
+      <c r="E609" s="18" t="s">
         <v>1369</v>
       </c>
-      <c r="F609" s="27">
+      <c r="F609" s="19">
         <v>0.7590277777781012</v>
       </c>
-      <c r="G609" s="26" t="s">
+      <c r="G609" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AK609" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AL609" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AM609" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AN609" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AO609" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AP609" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AQ609" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AR609" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AS609" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AT609" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AU609" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AV609" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AW609" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="AX609" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AY609" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="AZ609" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="BA609" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BB609" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BC609" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BD609" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BE609" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BF609" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="BG609" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BH609" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BI609" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BJ609" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BK609" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BL609" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BM609" s="28">
-        <v>1.0</v>
+      <c r="AK609" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL609" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM609" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN609" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO609" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP609" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ609" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR609" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS609" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT609" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU609" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV609" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW609" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX609" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY609" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AZ609" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA609" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB609" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC609" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD609" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE609" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF609" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BG609" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH609" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI609" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ609" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK609" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL609" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM609" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="21">
+        <v>45599.68247190972</v>
+      </c>
+      <c r="B610" s="22" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C610" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D610" s="22">
+        <v>2.0212104E7</v>
+      </c>
+      <c r="E610" s="22" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F610" s="23">
+        <v>0.6756944444423425</v>
+      </c>
+      <c r="G610" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK610" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL610" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM610" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN610" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO610" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AP610" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ610" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AR610" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS610" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AT610" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU610" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AV610" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AW610" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX610" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY610" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AZ610" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BA610" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BB610" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BC610" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD610" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BE610" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF610" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG610" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BH610" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI610" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BJ610" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BK610" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL610" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM610" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="17">
+        <v>45599.68370378472</v>
+      </c>
+      <c r="B611" s="18" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C611" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="D611" s="18">
+        <v>2.0243216E7</v>
+      </c>
+      <c r="E611" s="18" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F611" s="19">
+        <v>0.6666666666642413</v>
+      </c>
+      <c r="G611" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL611" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM611" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO611" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP611" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ611" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT611" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA611" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF611" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH611" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI611" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ611" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK611" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL611" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM611" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="21">
+        <v>45599.68419325232</v>
+      </c>
+      <c r="B612" s="22" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C612" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D612" s="22">
+        <v>2.0243225E7</v>
+      </c>
+      <c r="E612" s="22" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F612" s="23">
+        <v>0.6812500000014552</v>
+      </c>
+      <c r="G612" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK612" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL612" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO612" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AP612" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ612" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR612" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT612" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW612" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ612" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA612" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC612" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG612" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH612" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ612" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK612" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL612" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM612" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="17">
+        <v>45599.68553888889</v>
+      </c>
+      <c r="B613" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C613" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D613" s="18">
+        <v>2.0195158E7</v>
+      </c>
+      <c r="E613" s="18" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F613" s="19">
+        <v>0.6875</v>
+      </c>
+      <c r="G613" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H613" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I613" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J613" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K613" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L613" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M613" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N613" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O613" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P613" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q613" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R613" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S613" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T613" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U613" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V613" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W613" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="X613" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y613" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z613" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA613" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB613" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC613" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AD613" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE613" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF613" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG613" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH613" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI613" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ613" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="21">
+        <v>45599.68771059028</v>
+      </c>
+      <c r="B614" s="22" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C614" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D614" s="22">
+        <v>2.0223605E7</v>
+      </c>
+      <c r="E614" s="22" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F614" s="23">
+        <v>0.6868055555532919</v>
+      </c>
+      <c r="G614" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL614" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM614" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="17">
+        <v>45599.68817671297</v>
+      </c>
+      <c r="B615" s="18" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C615" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D615" s="18">
+        <v>2.0192736E7</v>
+      </c>
+      <c r="E615" s="18" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F615" s="19">
+        <v>0.6666666666642413</v>
+      </c>
+      <c r="G615" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK615" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL615" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM615" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN615" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO615" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP615" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ615" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR615" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS615" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT615" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AU615" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV615" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW615" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX615" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY615" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AZ615" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA615" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB615" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC615" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD615" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE615" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF615" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG615" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH615" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI615" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ615" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK615" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL615" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM615" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="21">
+        <v>45599.69385998843</v>
+      </c>
+      <c r="B616" s="22" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C616" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D616" s="22">
+        <v>2.0242907E7</v>
+      </c>
+      <c r="E616" s="22" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F616" s="23">
+        <v>0.6916666666656965</v>
+      </c>
+      <c r="G616" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK616" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL616" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM616" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN616" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO616" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP616" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ616" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR616" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS616" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT616" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU616" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV616" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW616" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX616" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY616" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ616" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA616" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB616" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC616" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD616" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE616" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF616" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG616" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH616" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI616" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ616" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK616" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL616" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM616" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="17">
+        <v>45599.697394710645</v>
+      </c>
+      <c r="B617" s="18" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C617" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D617" s="18">
+        <v>2.023163E7</v>
+      </c>
+      <c r="E617" s="18" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F617" s="19">
+        <v>0.6930555555591127</v>
+      </c>
+      <c r="G617" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H617" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I617" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N617" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O617" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R617" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T617" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y617" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA617" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD617" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF617" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG617" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH617" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI617" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ617" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="21">
+        <v>45599.69967891204</v>
+      </c>
+      <c r="B618" s="22" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C618" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D618" s="22">
+        <v>2.0242986E7</v>
+      </c>
+      <c r="E618" s="22" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F618" s="23">
+        <v>0.6916666666656965</v>
+      </c>
+      <c r="G618" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK618" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL618" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM618" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN618" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO618" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP618" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ618" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR618" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS618" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT618" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU618" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV618" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW618" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX618" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY618" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ618" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA618" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB618" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC618" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD618" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE618" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF618" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG618" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH618" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI618" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ618" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK618" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL618" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM618" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="17">
+        <v>45599.69997302083</v>
+      </c>
+      <c r="B619" s="18" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C619" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D619" s="18">
+        <v>2.0242352E7</v>
+      </c>
+      <c r="E619" s="18" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F619" s="19">
+        <v>0.19999999999708962</v>
+      </c>
+      <c r="G619" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL619" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM619" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="21">
+        <v>45599.70029418981</v>
+      </c>
+      <c r="B620" s="22" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C620" s="22" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D620" s="22">
+        <v>2.0195285E7</v>
+      </c>
+      <c r="E620" s="22" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F620" s="23">
+        <v>0.6979166666642413</v>
+      </c>
+      <c r="G620" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK620" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL620" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM620" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN620" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO620" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ620" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR620" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT620" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU620" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AV620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX620" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG620" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH620" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ620" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK620" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL620" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM620" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="17">
+        <v>45599.701527488425</v>
+      </c>
+      <c r="B621" s="18" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C621" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D621" s="18">
+        <v>2.0211059E7</v>
+      </c>
+      <c r="E621" s="18" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F621" s="19">
+        <v>0.6999999999970896</v>
+      </c>
+      <c r="G621" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK621" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL621" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM621" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN621" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO621" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP621" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ621" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR621" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS621" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT621" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU621" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV621" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW621" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX621" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY621" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ621" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA621" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB621" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC621" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD621" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE621" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF621" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG621" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH621" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI621" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ621" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK621" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL621" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM621" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="21">
+        <v>45599.70182152778</v>
+      </c>
+      <c r="B622" s="22" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C622" s="22" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D622" s="22">
+        <v>2.0205173E7</v>
+      </c>
+      <c r="E622" s="22" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F622" s="23">
+        <v>0.7006944444437977</v>
+      </c>
+      <c r="G622" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL622" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM622" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO622" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR622" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT622" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW622" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA622" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB622" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD622" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL622" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM622" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="17">
+        <v>45599.702293043985</v>
+      </c>
+      <c r="B623" s="18" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C623" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D623" s="18">
+        <v>2.0246649E7</v>
+      </c>
+      <c r="E623" s="18" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F623" s="19">
+        <v>0.7006944444437977</v>
+      </c>
+      <c r="G623" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK623" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AL623" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM623" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN623" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO623" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP623" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ623" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR623" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS623" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT623" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AU623" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV623" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW623" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AX623" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY623" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ623" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA623" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB623" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC623" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD623" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE623" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF623" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG623" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH623" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI623" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ623" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK623" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL623" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BM623" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="21">
+        <v>45599.7027478588</v>
+      </c>
+      <c r="B624" s="22" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C624" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D624" s="22">
+        <v>2.0245224E7</v>
+      </c>
+      <c r="E624" s="22" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F624" s="23">
+        <v>0.6972222222248092</v>
+      </c>
+      <c r="G624" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK624" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL624" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN624" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP624" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR624" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT624" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU624" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY624" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ624" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA624" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB624" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG624" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BH624" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ624" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK624" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL624" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BM624" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="17">
+        <v>45599.70899488426</v>
+      </c>
+      <c r="B625" s="18" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C625" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D625" s="18">
+        <v>2.0243973E7</v>
+      </c>
+      <c r="E625" s="18" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F625" s="19">
+        <v>0.7076388888890506</v>
+      </c>
+      <c r="G625" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H625" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I625" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J625" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K625" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L625" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M625" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N625" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O625" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P625" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q625" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R625" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S625" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T625" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U625" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V625" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W625" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X625" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y625" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z625" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA625" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB625" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC625" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD625" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE625" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF625" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG625" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH625" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI625" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ625" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="21">
+        <v>45599.71036920139</v>
+      </c>
+      <c r="B626" s="22" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C626" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D626" s="22">
+        <v>2.0192229E7</v>
+      </c>
+      <c r="E626" s="22" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F626" s="23">
+        <v>0.7090277777751908</v>
+      </c>
+      <c r="G626" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H626" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L626" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M626" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N626" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q626" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T626" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z626" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC626" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE626" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG626" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH626" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI626" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ626" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="17">
+        <v>45599.71351835648</v>
+      </c>
+      <c r="B627" s="18" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C627" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D627" s="18">
+        <v>2.0246728E7</v>
+      </c>
+      <c r="E627" s="18" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F627" s="19">
+        <v>0.6833333333343035</v>
+      </c>
+      <c r="G627" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H627" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K627" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L627" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M627" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N627" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q627" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T627" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U627" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z627" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE627" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG627" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH627" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI627" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ627" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="21">
+        <v>45599.714750300926</v>
+      </c>
+      <c r="B628" s="22" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C628" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D628" s="22">
+        <v>2.0233412E7</v>
+      </c>
+      <c r="E628" s="22" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F628" s="23">
+        <v>0.7125000000014552</v>
+      </c>
+      <c r="G628" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK628" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AL628" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM628" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN628" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO628" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP628" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AQ628" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR628" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS628" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AT628" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU628" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV628" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AW628" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AX628" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY628" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ628" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA628" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB628" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC628" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD628" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE628" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF628" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG628" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH628" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI628" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BJ628" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK628" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL628" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM628" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="17">
+        <v>45599.7205334375</v>
+      </c>
+      <c r="B629" s="18" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C629" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D629" s="18">
+        <v>2.0192737E7</v>
+      </c>
+      <c r="E629" s="18" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F629" s="19">
+        <v>0.7180555555532919</v>
+      </c>
+      <c r="G629" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H629" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I629" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J629" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K629" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L629" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M629" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N629" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O629" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P629" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q629" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R629" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S629" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T629" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U629" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V629" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W629" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X629" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y629" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z629" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA629" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB629" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC629" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD629" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE629" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF629" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG629" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH629" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI629" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ629" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="21">
+        <v>45599.72180611111</v>
+      </c>
+      <c r="B630" s="22" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C630" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D630" s="22">
+        <v>2.0242625E7</v>
+      </c>
+      <c r="E630" s="22" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F630" s="23">
+        <v>0.71875</v>
+      </c>
+      <c r="G630" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H630" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I630" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J630" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K630" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L630" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M630" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N630" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O630" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P630" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q630" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R630" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S630" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T630" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U630" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V630" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W630" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X630" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y630" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z630" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA630" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB630" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC630" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD630" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE630" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF630" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG630" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AH630" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI630" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ630" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="17">
+        <v>45599.73544493056</v>
+      </c>
+      <c r="B631" s="18" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C631" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D631" s="18">
+        <v>2.0233544E7</v>
+      </c>
+      <c r="E631" s="18" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F631" s="19">
+        <v>0.7298611111109494</v>
+      </c>
+      <c r="G631" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H631" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="I631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L631" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M631" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O631" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P631" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q631" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R631" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T631" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W631" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y631" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC631" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE631" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG631" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH631" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI631" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ631" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="21">
+        <v>45599.740281886574</v>
+      </c>
+      <c r="B632" s="22" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C632" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="D632" s="22">
+        <v>2.0222933E7</v>
+      </c>
+      <c r="E632" s="22" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F632" s="23">
+        <v>0.7395833333357587</v>
+      </c>
+      <c r="G632" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM632" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO632" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP632" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ632" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS632" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU632" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW632" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA632" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE632" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF632" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK632" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL632" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM632" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="17">
+        <v>45599.74064225695</v>
+      </c>
+      <c r="B633" s="18" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C633" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D633" s="18">
+        <v>2.0241728E7</v>
+      </c>
+      <c r="E633" s="18" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F633" s="19">
+        <v>0.7319444444437977</v>
+      </c>
+      <c r="G633" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H633" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I633" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J633" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K633" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L633" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M633" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N633" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O633" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P633" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q633" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R633" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S633" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T633" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U633" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V633" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W633" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X633" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y633" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z633" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA633" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB633" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC633" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD633" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE633" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF633" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG633" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH633" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI633" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ633" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="21">
+        <v>45599.74265903935</v>
+      </c>
+      <c r="B634" s="22" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C634" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D634" s="22">
+        <v>2.0215212E7</v>
+      </c>
+      <c r="E634" s="22" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F634" s="23">
+        <v>0.7416666666686069</v>
+      </c>
+      <c r="G634" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL634" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP634" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR634" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV634" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX634" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB634" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BD634" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI634" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BL634" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM634" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="17">
+        <v>45599.743192256945</v>
+      </c>
+      <c r="B635" s="18" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C635" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D635" s="18">
+        <v>2.0246289E7</v>
+      </c>
+      <c r="E635" s="18" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F635" s="19">
+        <v>0.7381944444423425</v>
+      </c>
+      <c r="G635" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H635" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I635" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J635" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K635" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L635" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M635" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N635" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O635" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P635" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q635" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R635" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S635" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T635" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U635" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V635" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W635" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X635" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y635" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z635" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA635" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB635" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC635" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD635" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE635" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF635" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG635" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH635" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI635" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ635" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="21">
+        <v>45599.74640040509</v>
+      </c>
+      <c r="B636" s="22" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C636" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="D636" s="22">
+        <v>2.0246909E7</v>
+      </c>
+      <c r="E636" s="22" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F636" s="23">
+        <v>0.7444444444408873</v>
+      </c>
+      <c r="G636" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I636" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L636" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M636" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N636" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O636" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Q636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="S636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="X636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y636" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA636" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB636" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG636" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI636" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ636" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="17">
+        <v>45599.74771164352</v>
+      </c>
+      <c r="B637" s="18" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C637" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D637" s="18">
+        <v>2.024664E7</v>
+      </c>
+      <c r="E637" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="F637" s="19">
+        <v>0.7451388888875954</v>
+      </c>
+      <c r="G637" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK637" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL637" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM637" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN637" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO637" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP637" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AQ637" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR637" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS637" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT637" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU637" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV637" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW637" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX637" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY637" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ637" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA637" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB637" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC637" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD637" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE637" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF637" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG637" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH637" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI637" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ637" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK637" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BL637" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM637" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="21">
+        <v>45599.75383347222</v>
+      </c>
+      <c r="B638" s="22" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C638" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="D638" s="22">
+        <v>2.02043359E8</v>
+      </c>
+      <c r="E638" s="22" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F638" s="23">
+        <v>0.7527777777795563</v>
+      </c>
+      <c r="G638" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL638" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM638" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN638" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP638" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ638" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS638" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT638" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW638" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX638" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD638" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH638" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ638" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BL638" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM638" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="17">
+        <v>45599.755587141204</v>
+      </c>
+      <c r="B639" s="18" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C639" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D639" s="18">
+        <v>2.0172433E7</v>
+      </c>
+      <c r="E639" s="18" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F639" s="19">
+        <v>0.7520833333328483</v>
+      </c>
+      <c r="G639" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL639" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM639" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="21">
+        <v>45599.757533020835</v>
+      </c>
+      <c r="B640" s="22" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C640" s="22" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D640" s="22">
+        <v>2.0236736E7</v>
+      </c>
+      <c r="E640" s="22" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F640" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="G640" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK640" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO640" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP640" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR640" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS640" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT640" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW640" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX640" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC640" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG640" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH640" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI640" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BJ640" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK640" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL640" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM640" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="17">
+        <v>45599.76217611111</v>
+      </c>
+      <c r="B641" s="18" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C641" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D641" s="18">
+        <v>2.0243951E7</v>
+      </c>
+      <c r="E641" s="18" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F641" s="19">
+        <v>0.7604166666642413</v>
+      </c>
+      <c r="G641" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H641" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I641" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J641" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K641" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L641" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M641" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N641" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O641" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P641" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q641" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R641" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S641" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T641" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="U641" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V641" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W641" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X641" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y641" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z641" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA641" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB641" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC641" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD641" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE641" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF641" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG641" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH641" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI641" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ641" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="21">
+        <v>45599.76353715278</v>
+      </c>
+      <c r="B642" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C642" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D642" s="22">
+        <v>2.0243622E7</v>
+      </c>
+      <c r="E642" s="22" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F642" s="23">
+        <v>0.7569444444452529</v>
+      </c>
+      <c r="G642" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H642" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I642" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J642" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K642" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L642" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M642" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N642" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O642" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P642" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q642" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R642" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S642" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T642" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U642" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V642" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W642" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X642" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y642" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z642" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA642" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB642" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC642" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD642" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE642" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF642" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG642" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH642" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI642" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ642" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="17">
+        <v>45599.763545925925</v>
+      </c>
+      <c r="B643" s="18" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C643" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D643" s="18">
+        <v>2.023221E7</v>
+      </c>
+      <c r="E643" s="18" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F643" s="19">
+        <v>0.7624999999970896</v>
+      </c>
+      <c r="G643" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL643" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM643" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="25">
+        <v>45599.76539001157</v>
+      </c>
+      <c r="B644" s="26" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C644" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D644" s="26">
+        <v>2.0217096E7</v>
+      </c>
+      <c r="E644" s="26" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F644" s="27">
+        <v>0.7645833333372138</v>
+      </c>
+      <c r="G644" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AL644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AM644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AN644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AO644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AP644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AQ644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AR644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AS644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AT644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AU644" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AV644" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AW644" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AX644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AY644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AZ644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BA644" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BB644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BC644" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BD644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BE644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BF644" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BG644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BH644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BI644" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BJ644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BK644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BL644" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BM644" s="28">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="1499">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4332,6 +4332,183 @@
   </si>
   <si>
     <t>20217096@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>rlatldbs124@naver.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>saycom816@gmail.com</t>
+  </si>
+  <si>
+    <t>김영빈</t>
+  </si>
+  <si>
+    <t>skyflight0656@gmail.com</t>
+  </si>
+  <si>
+    <t>한충서</t>
+  </si>
+  <si>
+    <t>dhpark25678@naver.com</t>
+  </si>
+  <si>
+    <t>박도현</t>
+  </si>
+  <si>
+    <t>lgc01040089921@gmail.com</t>
+  </si>
+  <si>
+    <t>이감찬</t>
+  </si>
+  <si>
+    <t>kimw0707@naver.com</t>
+  </si>
+  <si>
+    <t>김원영</t>
+  </si>
+  <si>
+    <t>20182346@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이용재</t>
+  </si>
+  <si>
+    <t>osmokroyal1@gmail.com</t>
+  </si>
+  <si>
+    <t>오성민</t>
+  </si>
+  <si>
+    <t>kmu2916@naver.com</t>
+  </si>
+  <si>
+    <t>강민욱</t>
+  </si>
+  <si>
+    <t>hshljy7@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털 미디어 콘텐츠</t>
+  </si>
+  <si>
+    <t>황성훈</t>
+  </si>
+  <si>
+    <t>bcy1976@naver.com</t>
+  </si>
+  <si>
+    <t>변치윤</t>
+  </si>
+  <si>
+    <t>20235263@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>wjswlals789@naver.com</t>
+  </si>
+  <si>
+    <t>전지민</t>
+  </si>
+  <si>
+    <t>yeonh990@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학전공</t>
+  </si>
+  <si>
+    <t>박현아</t>
+  </si>
+  <si>
+    <t>jseunghun411@gmail.com</t>
+  </si>
+  <si>
+    <t>정성훈</t>
+  </si>
+  <si>
+    <t>bottom0406@gmail.com</t>
+  </si>
+  <si>
+    <t>박문형</t>
+  </si>
+  <si>
+    <t>junyeong@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>박준영</t>
+  </si>
+  <si>
+    <t>hose0303@gmail.com</t>
+  </si>
+  <si>
+    <t>유정현</t>
+  </si>
+  <si>
+    <t>a01091830132@gmail.com</t>
+  </si>
+  <si>
+    <t>황유민</t>
+  </si>
+  <si>
+    <t>wlghd2352@naver.com</t>
+  </si>
+  <si>
+    <t>안지홍</t>
+  </si>
+  <si>
+    <t>wpghks1145@gmail.com</t>
+  </si>
+  <si>
+    <t>박제환</t>
+  </si>
+  <si>
+    <t>1202kge@naver.com</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>haeun_ob@naver.com</t>
+  </si>
+  <si>
+    <t>박하은</t>
+  </si>
+  <si>
+    <t>eunsoljj@naver.com</t>
+  </si>
+  <si>
+    <t>권은솔</t>
+  </si>
+  <si>
+    <t>skaskgus@gmail.com</t>
+  </si>
+  <si>
+    <t>남나현</t>
+  </si>
+  <si>
+    <t>jongjongsook@naver.com</t>
+  </si>
+  <si>
+    <t>김종숙</t>
+  </si>
+  <si>
+    <t>mkjk1227@naver.com</t>
+  </si>
+  <si>
+    <t>정민기</t>
+  </si>
+  <si>
+    <t>coreykang3@naver.com</t>
+  </si>
+  <si>
+    <t>반도체공학</t>
+  </si>
+  <si>
+    <t>강동훈</t>
   </si>
 </sst>
 </file>
@@ -4495,10 +4672,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -4506,13 +4683,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -4520,13 +4697,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -4682,7 +4859,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM644" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM673" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -76679,112 +76856,3302 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="25">
+      <c r="A644" s="21">
         <v>45599.76539001157</v>
       </c>
-      <c r="B644" s="26" t="s">
+      <c r="B644" s="22" t="s">
         <v>1439</v>
       </c>
-      <c r="C644" s="26" t="s">
+      <c r="C644" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="D644" s="26">
+      <c r="D644" s="22">
         <v>2.0217096E7</v>
       </c>
-      <c r="E644" s="26" t="s">
+      <c r="E644" s="22" t="s">
         <v>1159</v>
       </c>
-      <c r="F644" s="27">
+      <c r="F644" s="23">
         <v>0.7645833333372138</v>
       </c>
-      <c r="G644" s="26" t="s">
+      <c r="G644" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AK644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AL644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AM644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AN644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AO644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AP644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AQ644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AR644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AS644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AT644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AU644" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AV644" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AW644" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="AX644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AY644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AZ644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BA644" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BB644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BC644" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BD644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BE644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BF644" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BG644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BH644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BI644" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BJ644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BK644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BL644" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="BM644" s="28">
+      <c r="AK644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU644" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV644" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW644" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AX644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA644" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC644" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF644" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI644" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL644" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM644" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="17">
+        <v>45599.769991863424</v>
+      </c>
+      <c r="B645" s="18" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C645" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D645" s="18">
+        <v>2.0203807E7</v>
+      </c>
+      <c r="E645" s="18" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F645" s="19">
+        <v>0.7673611111094942</v>
+      </c>
+      <c r="G645" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK645" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL645" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM645" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN645" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO645" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP645" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ645" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR645" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS645" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT645" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU645" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV645" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW645" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX645" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY645" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ645" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA645" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB645" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC645" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD645" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE645" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF645" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG645" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH645" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI645" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ645" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK645" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL645" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM645" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="21">
+        <v>45599.771998854165</v>
+      </c>
+      <c r="B646" s="22" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C646" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D646" s="22">
+        <v>2.024293E7</v>
+      </c>
+      <c r="E646" s="22" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F646" s="23">
+        <v>0.7694444444423425</v>
+      </c>
+      <c r="G646" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H646" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I646" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J646" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K646" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L646" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M646" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N646" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O646" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P646" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q646" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R646" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S646" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T646" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U646" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="V646" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W646" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X646" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y646" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z646" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA646" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB646" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC646" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD646" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE646" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF646" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG646" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH646" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI646" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ646" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="17">
+        <v>45599.78027516203</v>
+      </c>
+      <c r="B647" s="18" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C647" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D647" s="18">
+        <v>2.0215269E7</v>
+      </c>
+      <c r="E647" s="18" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F647" s="19">
+        <v>0.7784722222204437</v>
+      </c>
+      <c r="G647" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H647" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I647" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J647" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K647" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L647" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M647" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N647" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O647" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P647" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q647" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R647" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S647" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T647" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U647" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V647" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W647" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X647" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y647" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z647" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA647" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB647" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC647" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD647" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE647" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF647" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG647" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH647" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI647" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ647" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="21">
+        <v>45599.78265684028</v>
+      </c>
+      <c r="B648" s="22" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C648" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D648" s="22">
+        <v>2.0223224E7</v>
+      </c>
+      <c r="E648" s="22" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F648" s="23">
+        <v>0.7819444444467081</v>
+      </c>
+      <c r="G648" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H648" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M648" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N648" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O648" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P648" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q648" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R648" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S648" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T648" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="X648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Y648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB648" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC648" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF648" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG648" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI648" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ648" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="17">
+        <v>45599.78777635416</v>
+      </c>
+      <c r="B649" s="18" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C649" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D649" s="18">
+        <v>2.0242995E7</v>
+      </c>
+      <c r="E649" s="18" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F649" s="19">
+        <v>0.7861111111124046</v>
+      </c>
+      <c r="G649" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H649" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I649" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J649" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K649" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L649" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M649" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N649" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O649" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P649" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q649" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R649" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="S649" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="T649" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U649" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V649" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W649" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X649" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y649" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z649" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA649" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB649" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC649" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AD649" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AE649" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF649" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG649" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH649" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI649" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ649" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="21">
+        <v>45599.789923993056</v>
+      </c>
+      <c r="B650" s="22" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C650" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D650" s="22">
+        <v>2.0245138E7</v>
+      </c>
+      <c r="E650" s="22" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F650" s="23">
+        <v>0.7861111111124046</v>
+      </c>
+      <c r="G650" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H650" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I650" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J650" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K650" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L650" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M650" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N650" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O650" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P650" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q650" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R650" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="S650" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T650" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U650" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V650" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W650" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X650" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y650" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z650" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA650" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB650" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC650" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD650" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE650" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF650" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG650" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH650" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI650" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ650" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="17">
+        <v>45599.79308405092</v>
+      </c>
+      <c r="B651" s="18" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C651" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D651" s="18">
+        <v>2.0182346E7</v>
+      </c>
+      <c r="E651" s="18" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F651" s="19">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="G651" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H651" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I651" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J651" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K651" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L651" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M651" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N651" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O651" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P651" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Q651" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R651" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S651" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T651" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="U651" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V651" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="W651" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X651" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Y651" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z651" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA651" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB651" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC651" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD651" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE651" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF651" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG651" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH651" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI651" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ651" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="21">
+        <v>45599.79330446759</v>
+      </c>
+      <c r="B652" s="22" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C652" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D652" s="22">
+        <v>2.0241526E7</v>
+      </c>
+      <c r="E652" s="22" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F652" s="23">
+        <v>0.29166666666424135</v>
+      </c>
+      <c r="G652" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H652" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I652" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K652" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L652" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M652" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N652" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S652" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T652" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U652" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z652" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB652" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AE652" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG652" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH652" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI652" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ652" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="17">
+        <v>45599.79347469908</v>
+      </c>
+      <c r="B653" s="18" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C653" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D653" s="18">
+        <v>2.0222902E7</v>
+      </c>
+      <c r="E653" s="18" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F653" s="19">
+        <v>0.7895833333313931</v>
+      </c>
+      <c r="G653" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK653" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO653" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP653" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT653" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AU653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AX653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY653" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AZ653" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA653" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BB653" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BC653" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE653" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF653" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG653" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH653" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ653" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK653" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL653" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM653" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="21">
+        <v>45599.79563925926</v>
+      </c>
+      <c r="B654" s="22" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C654" s="22" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D654" s="22">
+        <v>2.0193017E7</v>
+      </c>
+      <c r="E654" s="22" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F654" s="23">
+        <v>0.7930555555576575</v>
+      </c>
+      <c r="G654" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H654" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I654" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J654" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K654" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="L654" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M654" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N654" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O654" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P654" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q654" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R654" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S654" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T654" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U654" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V654" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W654" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X654" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y654" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z654" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA654" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB654" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC654" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD654" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE654" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF654" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG654" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH654" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI654" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ654" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="17">
+        <v>45599.79652030092</v>
+      </c>
+      <c r="B655" s="18" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C655" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D655" s="18">
+        <v>2.023518E7</v>
+      </c>
+      <c r="E655" s="18" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F655" s="19">
+        <v>0.7951388888905058</v>
+      </c>
+      <c r="G655" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL655" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AN655" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AP655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AQ655" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AS655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AT655" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AV655" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW655" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AY655" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BA655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BB655" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BD655" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BF655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BG655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BH655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BJ655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BK655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL655" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM655" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="21">
+        <v>45599.796633391205</v>
+      </c>
+      <c r="B656" s="22" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C656" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D656" s="22">
+        <v>2.0235263E7</v>
+      </c>
+      <c r="E656" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="F656" s="23">
+        <v>0.7868055555591127</v>
+      </c>
+      <c r="G656" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H656" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L656" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M656" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P656" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q656" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R656" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T656" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U656" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z656" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA656" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC656" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD656" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF656" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI656" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ656" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="17">
+        <v>45599.79963483797</v>
+      </c>
+      <c r="B657" s="18" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C657" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D657" s="18">
+        <v>2.0213731E7</v>
+      </c>
+      <c r="E657" s="18" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F657" s="19">
+        <v>0.7784722222204437</v>
+      </c>
+      <c r="G657" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H657" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I657" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J657" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K657" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W657" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X657" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y657" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB657" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD657" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE657" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF657" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG657" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI657" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ657" s="18">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="21">
+        <v>45599.80089013889</v>
+      </c>
+      <c r="B658" s="22" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C658" s="22" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D658" s="22">
+        <v>2.023393E7</v>
+      </c>
+      <c r="E658" s="22" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F658" s="23">
+        <v>0.7993055555562023</v>
+      </c>
+      <c r="G658" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK658" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP658" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU658" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW658" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC658" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF658" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH658" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ658" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK658" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL658" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM658" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="17">
+        <v>45599.80199673611</v>
+      </c>
+      <c r="B659" s="18" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C659" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="D659" s="18">
+        <v>2.0243031E7</v>
+      </c>
+      <c r="E659" s="18" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F659" s="19">
+        <v>0.7986111111094942</v>
+      </c>
+      <c r="G659" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H659" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I659" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J659" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K659" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M659" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N659" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q659" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T659" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W659" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z659" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD659" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE659" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF659" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG659" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH659" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI659" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ659" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="21">
+        <v>45599.80208040509</v>
+      </c>
+      <c r="B660" s="22" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C660" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D660" s="22">
+        <v>2.0242616E7</v>
+      </c>
+      <c r="E660" s="22" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F660" s="23">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="G660" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H660" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I660" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J660" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K660" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L660" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M660" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N660" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O660" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P660" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q660" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R660" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S660" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T660" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="U660" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V660" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W660" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X660" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y660" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Z660" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AA660" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB660" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC660" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD660" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE660" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF660" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG660" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH660" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AI660" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ660" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="17">
+        <v>45599.80287234954</v>
+      </c>
+      <c r="B661" s="18" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C661" s="18" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D661" s="18">
+        <v>2.0245169E7</v>
+      </c>
+      <c r="E661" s="18" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F661" s="19">
+        <v>0.7986111111094942</v>
+      </c>
+      <c r="G661" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK661" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM661" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN661" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR661" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS661" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT661" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV661" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW661" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX661" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC661" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE661" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG661" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH661" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ661" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK661" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL661" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM661" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="21">
+        <v>45599.80305962963</v>
+      </c>
+      <c r="B662" s="22" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C662" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D662" s="22">
+        <v>2.0223523E7</v>
+      </c>
+      <c r="E662" s="22" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F662" s="23">
+        <v>0.8006944444423425</v>
+      </c>
+      <c r="G662" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H662" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I662" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J662" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K662" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L662" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M662" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N662" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O662" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P662" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q662" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R662" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S662" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T662" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U662" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V662" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W662" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X662" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y662" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z662" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA662" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB662" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC662" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AD662" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE662" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF662" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG662" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH662" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI662" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ662" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="17">
+        <v>45599.80456503472</v>
+      </c>
+      <c r="B663" s="18" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C663" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="D663" s="18">
+        <v>2.0243368E7</v>
+      </c>
+      <c r="E663" s="18" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F663" s="19">
+        <v>0.8034722222218988</v>
+      </c>
+      <c r="G663" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I663" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K663" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L663" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M663" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N663" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O663" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P663" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R663" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T663" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U663" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA663" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC663" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG663" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH663" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI663" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ663" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="21">
+        <v>45599.80477243055</v>
+      </c>
+      <c r="B664" s="22" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C664" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D664" s="22">
+        <v>2.0202418E7</v>
+      </c>
+      <c r="E664" s="22" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F664" s="23">
+        <v>0.8034722222218988</v>
+      </c>
+      <c r="G664" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H664" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K664" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L664" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M664" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q664" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T664" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U664" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z664" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD664" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE664" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG664" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH664" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI664" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ664" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="17">
+        <v>45599.806643460644</v>
+      </c>
+      <c r="B665" s="18" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C665" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D665" s="18">
+        <v>2.0201046E7</v>
+      </c>
+      <c r="E665" s="18" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F665" s="19">
+        <v>0.8013888888890506</v>
+      </c>
+      <c r="G665" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H665" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J665" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="L665" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M665" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N665" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q665" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T665" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U665" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z665" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD665" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE665" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG665" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AH665" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI665" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ665" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="21">
+        <v>45599.80729254629</v>
+      </c>
+      <c r="B666" s="22" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C666" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D666" s="22">
+        <v>2.0242205E7</v>
+      </c>
+      <c r="E666" s="22" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F666" s="23">
+        <v>0.804861111115315</v>
+      </c>
+      <c r="G666" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I666" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K666" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="L666" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M666" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N666" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P666" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q666" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R666" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T666" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U666" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V666" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W666" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X666" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y666" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z666" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AC666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AH666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI666" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ666" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="17">
+        <v>45599.809763125</v>
+      </c>
+      <c r="B667" s="18" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C667" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D667" s="18">
+        <v>2.0222327E7</v>
+      </c>
+      <c r="E667" s="18" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F667" s="19">
+        <v>0.8055555555547471</v>
+      </c>
+      <c r="G667" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK667" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS667" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU667" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV667" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW667" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA667" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB667" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BC667" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD667" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL667" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM667" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="21">
+        <v>45599.810346921295</v>
+      </c>
+      <c r="B668" s="22" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C668" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D668" s="22">
+        <v>2.0245113E7</v>
+      </c>
+      <c r="E668" s="22" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F668" s="23">
+        <v>0.8083333333343035</v>
+      </c>
+      <c r="G668" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO668" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AP668" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS668" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT668" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU668" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AV668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW668" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX668" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ668" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF668" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG668" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH668" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI668" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BJ668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL668" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM668" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="17">
+        <v>45599.810631608794</v>
+      </c>
+      <c r="B669" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="C669" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D669" s="18">
+        <v>2.0197126E7</v>
+      </c>
+      <c r="E669" s="18" t="s">
+        <v>871</v>
+      </c>
+      <c r="F669" s="19">
+        <v>0.8090277777810115</v>
+      </c>
+      <c r="G669" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H669" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I669" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J669" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K669" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L669" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M669" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N669" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O669" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P669" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q669" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R669" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S669" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T669" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U669" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V669" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W669" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X669" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y669" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z669" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA669" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB669" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC669" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD669" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE669" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF669" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG669" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH669" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI669" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ669" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="21">
+        <v>45599.81243996527</v>
+      </c>
+      <c r="B670" s="22" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C670" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D670" s="22">
+        <v>2.0202324E7</v>
+      </c>
+      <c r="E670" s="22" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F670" s="23">
+        <v>0.8104166666671517</v>
+      </c>
+      <c r="G670" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H670" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I670" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J670" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K670" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L670" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M670" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N670" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O670" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P670" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q670" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R670" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S670" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T670" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U670" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V670" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W670" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X670" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y670" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z670" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA670" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB670" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC670" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD670" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE670" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF670" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG670" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH670" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI670" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AJ670" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="17">
+        <v>45599.81282287037</v>
+      </c>
+      <c r="B671" s="18" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C671" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D671" s="18">
+        <v>2.0243613E7</v>
+      </c>
+      <c r="E671" s="18" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F671" s="19">
+        <v>0.8076388888875954</v>
+      </c>
+      <c r="G671" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK671" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL671" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM671" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN671" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO671" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP671" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ671" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR671" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS671" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AT671" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AU671" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV671" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW671" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AX671" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY671" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ671" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA671" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB671" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BC671" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD671" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE671" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF671" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG671" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH671" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI671" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ671" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK671" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL671" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM671" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="21">
+        <v>45599.81359681713</v>
+      </c>
+      <c r="B672" s="22" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C672" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D672" s="22">
+        <v>2.021284E7</v>
+      </c>
+      <c r="E672" s="22" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F672" s="23">
+        <v>0.3125</v>
+      </c>
+      <c r="G672" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H672" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="I672" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J672" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K672" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L672" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M672" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N672" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O672" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P672" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q672" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R672" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S672" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T672" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U672" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V672" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W672" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X672" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y672" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z672" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA672" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB672" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC672" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD672" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE672" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF672" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AG672" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH672" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI672" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ672" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="25">
+        <v>45599.81495353009</v>
+      </c>
+      <c r="B673" s="26" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C673" s="26" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D673" s="26">
+        <v>2.0233301E7</v>
+      </c>
+      <c r="E673" s="26" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F673" s="27">
+        <v>0.8125</v>
+      </c>
+      <c r="G673" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AL673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AM673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AN673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AO673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AP673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AQ673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AR673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AS673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AT673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AU673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AV673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AW673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AX673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AY673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AZ673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BA673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BB673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BC673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BD673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BE673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BF673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BG673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BH673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BI673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BJ673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BK673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BL673" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BM673" s="28">
         <v>4.0</v>
       </c>
     </row>

--- a/R/data/oxford_241021_tmp.xlsx
+++ b/R/data/oxford_241021_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="1499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1628">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4509,6 +4509,393 @@
   </si>
   <si>
     <t>강동훈</t>
+  </si>
+  <si>
+    <t>mire030503@gmail.com</t>
+  </si>
+  <si>
+    <t>김원형</t>
+  </si>
+  <si>
+    <t>dngud4@naver.com</t>
+  </si>
+  <si>
+    <t>이우형</t>
+  </si>
+  <si>
+    <t>soomin0282@gmail.com</t>
+  </si>
+  <si>
+    <t>wendy040507@naver.com</t>
+  </si>
+  <si>
+    <t>lsd5741@naver.com</t>
+  </si>
+  <si>
+    <t>이소담</t>
+  </si>
+  <si>
+    <t>tmddl3538@naver.com</t>
+  </si>
+  <si>
+    <t>oh4559@gmail.com</t>
+  </si>
+  <si>
+    <t>권오현</t>
+  </si>
+  <si>
+    <t>kte1785@naver.com</t>
+  </si>
+  <si>
+    <t>chltjdnjs2421@naver.com</t>
+  </si>
+  <si>
+    <t>최서원</t>
+  </si>
+  <si>
+    <t>jisung050407@naver.com</t>
+  </si>
+  <si>
+    <t>김지성</t>
+  </si>
+  <si>
+    <t>dream03064@gmail.com</t>
+  </si>
+  <si>
+    <t>오채연</t>
+  </si>
+  <si>
+    <t>hjjj051014@naver.com</t>
+  </si>
+  <si>
+    <t>안효정</t>
+  </si>
+  <si>
+    <t>ueusudjsjsksksk@gmail.com</t>
+  </si>
+  <si>
+    <t>강동현</t>
+  </si>
+  <si>
+    <t>ysuyes@gmail.com</t>
+  </si>
+  <si>
+    <t>윤승욱</t>
+  </si>
+  <si>
+    <t>min010417@gmail.com</t>
+  </si>
+  <si>
+    <t>강채민</t>
+  </si>
+  <si>
+    <t>xx0911ram1@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>정하람</t>
+  </si>
+  <si>
+    <t>tlsh1282@naver.com</t>
+  </si>
+  <si>
+    <t>융합관광경영전공</t>
+  </si>
+  <si>
+    <t>원세한</t>
+  </si>
+  <si>
+    <t>chlwnstn777@naver.com</t>
+  </si>
+  <si>
+    <t>최준수</t>
+  </si>
+  <si>
+    <t>jjhjo2070@gmail.com</t>
+  </si>
+  <si>
+    <t>조정훈</t>
+  </si>
+  <si>
+    <t>khj000818@naver.com</t>
+  </si>
+  <si>
+    <t>강현준</t>
+  </si>
+  <si>
+    <t>hanca0607@naver.com</t>
+  </si>
+  <si>
+    <t>한채아</t>
+  </si>
+  <si>
+    <t>yoonsun91124@gmaail.com</t>
+  </si>
+  <si>
+    <t>박윤선</t>
+  </si>
+  <si>
+    <t>skyhaneul0910@naver.com</t>
+  </si>
+  <si>
+    <t>권하늘</t>
+  </si>
+  <si>
+    <t>hiday_516@naver.com</t>
+  </si>
+  <si>
+    <t>양희지</t>
+  </si>
+  <si>
+    <t>tkddnt0608@gmail.com</t>
+  </si>
+  <si>
+    <t>유상욱</t>
+  </si>
+  <si>
+    <t>opix97@naver.com</t>
+  </si>
+  <si>
+    <t>조성훈</t>
+  </si>
+  <si>
+    <t>jaekyung001203@gmail.com</t>
+  </si>
+  <si>
+    <t>안재경</t>
+  </si>
+  <si>
+    <t>seokwony123@gmail.com</t>
+  </si>
+  <si>
+    <t>양석원</t>
+  </si>
+  <si>
+    <t>uek2002@naver.com</t>
+  </si>
+  <si>
+    <t>김기조</t>
+  </si>
+  <si>
+    <t>xluwq264@gmail.com</t>
+  </si>
+  <si>
+    <t>주시은</t>
+  </si>
+  <si>
+    <t>syuniw26@gmail.com</t>
+  </si>
+  <si>
+    <t>이서윤</t>
+  </si>
+  <si>
+    <t>xhddlfqnxkr@naver.com</t>
+  </si>
+  <si>
+    <t>김보경</t>
+  </si>
+  <si>
+    <t>yerimyerim11@naver.com</t>
+  </si>
+  <si>
+    <t>seoeun2003@naver.com</t>
+  </si>
+  <si>
+    <t>최서은</t>
+  </si>
+  <si>
+    <t>yule240110@gmail.com</t>
+  </si>
+  <si>
+    <t>조율</t>
+  </si>
+  <si>
+    <t>u2fjfjrjdjjr2@naver.com</t>
+  </si>
+  <si>
+    <t>기소연</t>
+  </si>
+  <si>
+    <t>bigeyejimmy1@naver.com</t>
+  </si>
+  <si>
+    <t>hcheon27@gmail.com</t>
+  </si>
+  <si>
+    <t>천하윤</t>
+  </si>
+  <si>
+    <t>mnnnmm22@naver.com</t>
+  </si>
+  <si>
+    <t>고현아</t>
+  </si>
+  <si>
+    <t>jinsol.oh84@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영학과 </t>
+  </si>
+  <si>
+    <t>오진솔</t>
+  </si>
+  <si>
+    <t>tlqpfldkghfk@gmail.com</t>
+  </si>
+  <si>
+    <t>hsbg1118@gmail.com</t>
+  </si>
+  <si>
+    <t>전희성</t>
+  </si>
+  <si>
+    <t>20222849@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한애진</t>
+  </si>
+  <si>
+    <t>jiurim0316@naver.com</t>
+  </si>
+  <si>
+    <t>지우림</t>
+  </si>
+  <si>
+    <t>tommy580134@naver.com</t>
+  </si>
+  <si>
+    <t>예준원</t>
+  </si>
+  <si>
+    <t>h20216510@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>AI기술경영융합전공</t>
+  </si>
+  <si>
+    <t>김지인</t>
+  </si>
+  <si>
+    <t>ndd1016@gmail.com</t>
+  </si>
+  <si>
+    <t>최형렬</t>
+  </si>
+  <si>
+    <t>sua@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김수아</t>
+  </si>
+  <si>
+    <t>lsarang1311@gmail.com</t>
+  </si>
+  <si>
+    <t>이사랑</t>
+  </si>
+  <si>
+    <t>dw060419@naver.com</t>
+  </si>
+  <si>
+    <t>김도원</t>
+  </si>
+  <si>
+    <t>p060627@naver.com</t>
+  </si>
+  <si>
+    <t>박찬혁찬혁</t>
+  </si>
+  <si>
+    <t>wkdgotqlc@gmail.com</t>
+  </si>
+  <si>
+    <t>장햇빛</t>
+  </si>
+  <si>
+    <t>gordon0625@naver.com</t>
+  </si>
+  <si>
+    <t>김승재</t>
+  </si>
+  <si>
+    <t>ghkdxo2003@gmail.com</t>
+  </si>
+  <si>
+    <t>황이준</t>
+  </si>
+  <si>
+    <t>kentoku0901@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지</t>
+  </si>
+  <si>
+    <t>김헌덕</t>
+  </si>
+  <si>
+    <t>sasa8294@naver.com</t>
+  </si>
+  <si>
+    <t>신승환</t>
+  </si>
+  <si>
+    <t>dkdud4750@naver.com</t>
+  </si>
+  <si>
+    <t>양아영</t>
+  </si>
+  <si>
+    <t>dbsduwls691@naver.com</t>
+  </si>
+  <si>
+    <t>윤여진</t>
+  </si>
+  <si>
+    <t>nye3796@gmail.com</t>
+  </si>
+  <si>
+    <t>노예은</t>
+  </si>
+  <si>
+    <t>dahyeony410@gmail.com</t>
+  </si>
+  <si>
+    <t>윤다현</t>
+  </si>
+  <si>
+    <t>featherkim@naver.com</t>
+  </si>
+  <si>
+    <t>김향수</t>
+  </si>
+  <si>
+    <t>sky0219msh@naver.com</t>
+  </si>
+  <si>
+    <t>최하늘</t>
+  </si>
+  <si>
+    <t>wjdtn2445@naver.com</t>
+  </si>
+  <si>
+    <t>이정수</t>
+  </si>
+  <si>
+    <t>cardinal0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김수환</t>
+  </si>
+  <si>
+    <t>ism050204@naver.com</t>
+  </si>
+  <si>
+    <t>dojuc1@gmail.com</t>
+  </si>
+  <si>
+    <t>차도준</t>
   </si>
 </sst>
 </file>
@@ -4859,7 +5246,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM673" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BM739" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="65">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -80046,113 +80433,7373 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="25">
+      <c r="A673" s="17">
         <v>45599.81495353009</v>
       </c>
-      <c r="B673" s="26" t="s">
+      <c r="B673" s="18" t="s">
         <v>1496</v>
       </c>
-      <c r="C673" s="26" t="s">
+      <c r="C673" s="18" t="s">
         <v>1497</v>
       </c>
-      <c r="D673" s="26">
+      <c r="D673" s="18">
         <v>2.0233301E7</v>
       </c>
-      <c r="E673" s="26" t="s">
+      <c r="E673" s="18" t="s">
         <v>1498</v>
       </c>
-      <c r="F673" s="27">
+      <c r="F673" s="19">
         <v>0.8125</v>
       </c>
-      <c r="G673" s="26" t="s">
+      <c r="G673" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AK673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AL673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AM673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AN673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AO673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AP673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AQ673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AR673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AS673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AT673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AU673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AV673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AW673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AX673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AY673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="AZ673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BA673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BB673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BC673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BD673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BE673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BF673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BG673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BH673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BI673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BJ673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BK673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BL673" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="BM673" s="28">
-        <v>4.0</v>
+      <c r="AK673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AL673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL673" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM673" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="21">
+        <v>45599.81847640046</v>
+      </c>
+      <c r="B674" s="22" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C674" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="D674" s="22">
+        <v>2.0222514E7</v>
+      </c>
+      <c r="E674" s="22" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F674" s="23">
+        <v>0.7916666666642413</v>
+      </c>
+      <c r="G674" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H674" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L674" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M674" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q674" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R674" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S674" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T674" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U674" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z674" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA674" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD674" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE674" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF674" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AG674" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AH674" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI674" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ674" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="17">
+        <v>45599.81887795139</v>
+      </c>
+      <c r="B675" s="18" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C675" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D675" s="18">
+        <v>2.0222424E7</v>
+      </c>
+      <c r="E675" s="18" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F675" s="19">
+        <v>0.8173611111124046</v>
+      </c>
+      <c r="G675" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H675" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J675" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="L675" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M675" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="O675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q675" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T675" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U675" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y675" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AA675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AE675" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AF675" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG675" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH675" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AI675" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ675" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="21">
+        <v>45599.81996287037</v>
+      </c>
+      <c r="B676" s="22" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C676" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D676" s="22">
+        <v>2.0246614E7</v>
+      </c>
+      <c r="E676" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F676" s="23">
+        <v>0.8194444444452529</v>
+      </c>
+      <c r="G676" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM676" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO676" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS676" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT676" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AU676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW676" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY676" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ676" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB676" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC676" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BD676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF676" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BI676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK676" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL676" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM676" s="24">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="17">
+        <v>45599.82613674768</v>
+      </c>
+      <c r="B677" s="18" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C677" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D677" s="18">
+        <v>2.0243002E7</v>
+      </c>
+      <c r="E677" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="F677" s="19">
+        <v>0.8243055555576575</v>
+      </c>
+      <c r="G677" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H677" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I677" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J677" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K677" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L677" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="M677" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N677" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O677" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P677" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q677" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R677" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S677" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T677" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="U677" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="V677" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W677" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X677" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y677" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z677" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA677" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB677" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC677" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD677" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE677" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF677" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG677" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH677" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI677" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ677" s="18">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="21">
+        <v>45599.828651284726</v>
+      </c>
+      <c r="B678" s="22" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C678" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D678" s="22">
+        <v>2.0242225E7</v>
+      </c>
+      <c r="E678" s="22" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F678" s="23">
+        <v>0.8236111111109494</v>
+      </c>
+      <c r="G678" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP678" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ678" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AR678" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AS678" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AT678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV678" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AW678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA678" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BB678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC678" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD678" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE678" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI678" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BJ678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK678" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL678" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM678" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="17">
+        <v>45599.83370116898</v>
+      </c>
+      <c r="B679" s="18" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C679" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D679" s="18">
+        <v>2.0227037E7</v>
+      </c>
+      <c r="E679" s="18" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F679" s="19">
+        <v>0.8312500000029104</v>
+      </c>
+      <c r="G679" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H679" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I679" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J679" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L679" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P679" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T679" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U679" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z679" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AA679" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD679" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH679" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI679" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AJ679" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="21">
+        <v>45599.83551483796</v>
+      </c>
+      <c r="B680" s="22" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C680" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D680" s="22">
+        <v>2.0215108E7</v>
+      </c>
+      <c r="E680" s="22" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F680" s="23">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="G680" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H680" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I680" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J680" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K680" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L680" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M680" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N680" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O680" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P680" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q680" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R680" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S680" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T680" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U680" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V680" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W680" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X680" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y680" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z680" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA680" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB680" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC680" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD680" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE680" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF680" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG680" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH680" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI680" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ680" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="17">
+        <v>45599.837005023146</v>
+      </c>
+      <c r="B681" s="18" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C681" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D681" s="18">
+        <v>2.0243913E7</v>
+      </c>
+      <c r="E681" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="F681" s="19">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="G681" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK681" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL681" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM681" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN681" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO681" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP681" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AQ681" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR681" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS681" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT681" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AU681" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV681" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW681" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX681" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY681" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ681" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA681" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB681" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC681" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD681" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE681" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF681" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG681" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH681" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BI681" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ681" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK681" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL681" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM681" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="21">
+        <v>45599.83804966435</v>
+      </c>
+      <c r="B682" s="22" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C682" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D682" s="22">
+        <v>2.0242848E7</v>
+      </c>
+      <c r="E682" s="22" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F682" s="23">
+        <v>0.8375000000014552</v>
+      </c>
+      <c r="G682" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK682" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN682" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ682" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR682" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AS682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV682" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY682" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AZ682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB682" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BC682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD682" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH682" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI682" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BJ682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK682" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL682" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM682" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="17">
+        <v>45599.843580416666</v>
+      </c>
+      <c r="B683" s="18" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C683" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D683" s="18">
+        <v>2.0242212E7</v>
+      </c>
+      <c r="E683" s="18" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F683" s="19">
+        <v>0.8402777777810115</v>
+      </c>
+      <c r="G683" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H683" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I683" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J683" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K683" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="L683" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M683" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N683" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O683" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P683" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q683" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R683" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S683" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T683" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="U683" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V683" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W683" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X683" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y683" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z683" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AA683" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB683" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC683" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD683" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE683" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF683" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG683" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH683" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI683" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AJ683" s="18">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="21">
+        <v>45599.84551810185</v>
+      </c>
+      <c r="B684" s="22" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C684" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D684" s="22">
+        <v>2.0243927E7</v>
+      </c>
+      <c r="E684" s="22" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F684" s="23">
+        <v>0.8430555555532919</v>
+      </c>
+      <c r="G684" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H684" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I684" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J684" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K684" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L684" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M684" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q684" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T684" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U684" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD684" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE684" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF684" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG684" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH684" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI684" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ684" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="17">
+        <v>45599.84596280093</v>
+      </c>
+      <c r="B685" s="18" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C685" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D685" s="18">
+        <v>2.0243628E7</v>
+      </c>
+      <c r="E685" s="18" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F685" s="19">
+        <v>0.8347222222218988</v>
+      </c>
+      <c r="G685" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK685" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL685" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM685" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN685" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AO685" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AP685" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ685" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR685" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS685" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT685" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU685" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV685" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW685" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX685" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY685" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ685" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA685" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB685" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC685" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD685" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE685" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF685" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG685" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH685" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI685" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ685" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK685" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BL685" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BM685" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="21">
+        <v>45599.84674530092</v>
+      </c>
+      <c r="B686" s="22" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C686" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D686" s="22">
+        <v>2.0245102E7</v>
+      </c>
+      <c r="E686" s="22" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F686" s="23">
+        <v>0.34236111110658385</v>
+      </c>
+      <c r="G686" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL686" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM686" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="17">
+        <v>45599.848229270836</v>
+      </c>
+      <c r="B687" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C687" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D687" s="18">
+        <v>2.0242992E7</v>
+      </c>
+      <c r="E687" s="18" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F687" s="19">
+        <v>0.8458333333328483</v>
+      </c>
+      <c r="G687" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H687" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="I687" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J687" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K687" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L687" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M687" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N687" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O687" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="P687" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q687" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R687" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S687" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="T687" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U687" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V687" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W687" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X687" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y687" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z687" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA687" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB687" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC687" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD687" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE687" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF687" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AG687" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH687" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AI687" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ687" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="21">
+        <v>45599.85013373842</v>
+      </c>
+      <c r="B688" s="22" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C688" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D688" s="22">
+        <v>2.0203702E7</v>
+      </c>
+      <c r="E688" s="22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F688" s="23">
+        <v>0.8472222222189885</v>
+      </c>
+      <c r="G688" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK688" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL688" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM688" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN688" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AO688" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP688" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ688" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR688" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AS688" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT688" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AU688" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV688" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW688" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX688" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AY688" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ688" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA688" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB688" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC688" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD688" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE688" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF688" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG688" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH688" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI688" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BJ688" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK688" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL688" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM688" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="17">
+        <v>45599.85015309028</v>
+      </c>
+      <c r="B689" s="18" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C689" s="18" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D689" s="18">
+        <v>2.0246422E7</v>
+      </c>
+      <c r="E689" s="18" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F689" s="19">
+        <v>0.8479166666656965</v>
+      </c>
+      <c r="G689" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H689" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I689" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J689" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K689" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L689" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M689" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="N689" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O689" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P689" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q689" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R689" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="S689" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T689" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U689" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V689" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W689" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X689" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y689" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z689" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA689" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AB689" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC689" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD689" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE689" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF689" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG689" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH689" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI689" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ689" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="21">
+        <v>45599.8526761574</v>
+      </c>
+      <c r="B690" s="22" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C690" s="22" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D690" s="22">
+        <v>2.0206623E7</v>
+      </c>
+      <c r="E690" s="22" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F690" s="23">
+        <v>0.8229166666642413</v>
+      </c>
+      <c r="G690" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK690" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AM690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO690" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AP690" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AR690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT690" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW690" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AY690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BC690" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BE690" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BH690" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BJ690" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BK690" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL690" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM690" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="17">
+        <v>45599.85536434028</v>
+      </c>
+      <c r="B691" s="18" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C691" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="D691" s="18">
+        <v>2.0193844E7</v>
+      </c>
+      <c r="E691" s="18" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F691" s="19">
+        <v>0.8541666666642413</v>
+      </c>
+      <c r="G691" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H691" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I691" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J691" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K691" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L691" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M691" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N691" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O691" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P691" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q691" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R691" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S691" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T691" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U691" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V691" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W691" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X691" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y691" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z691" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA691" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB691" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC691" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD691" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE691" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF691" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG691" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH691" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI691" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ691" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="21">
+        <v>45599.855399479165</v>
+      </c>
+      <c r="B692" s="22" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C692" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D692" s="22">
+        <v>2.0241536E7</v>
+      </c>
+      <c r="E692" s="22" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F692" s="23">
+        <v>0.8493055555591127</v>
+      </c>
+      <c r="G692" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H692" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I692" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="L692" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M692" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="O692" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q692" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="S692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="T692" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U692" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="V692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="W692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Y692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z692" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB692" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC692" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD692" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AE692" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AG692" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AH692" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI692" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ692" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="17">
+        <v>45599.856062997686</v>
+      </c>
+      <c r="B693" s="18" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C693" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D693" s="18">
+        <v>2.0204103E7</v>
+      </c>
+      <c r="E693" s="18" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F693" s="19">
+        <v>0.8534722222248092</v>
+      </c>
+      <c r="G693" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK693" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL693" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM693" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN693" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AO693" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP693" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ693" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR693" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS693" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT693" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU693" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV693" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AW693" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX693" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY693" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AZ693" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BA693" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB693" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC693" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD693" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE693" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BF693" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG693" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BH693" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BI693" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ693" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK693" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL693" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM693" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="21">
+        <v>45599.85625116898</v>
+      </c>
+      <c r="B694" s="22" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C694" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D694" s="22">
+        <v>2.0202365E7</v>
+      </c>
+      <c r="E694" s="22" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F694" s="23">
+        <v>0.875</v>
+      </c>
+      <c r="G694" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H694" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I694" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J694" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K694" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L694" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M694" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N694" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O694" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="P694" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q694" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="R694" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S694" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T694" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U694" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="V694" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W694" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X694" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y694" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z694" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA694" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB694" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC694" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD694" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE694" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF694" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG694" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH694" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI694" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ694" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="17">
+        <v>45599.85646725695</v>
+      </c>
+      <c r="B695" s="18" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C695" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D695" s="18">
+        <v>2.0245167E7</v>
+      </c>
+      <c r="E695" s="18" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F695" s="19">
+        <v>0.3548611111109494</v>
+      </c>
+      <c r="G695" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK695" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AL695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO695" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP695" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ695" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR695" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT695" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA695" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG695" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI695" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ695" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK695" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BL695" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM695" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="21">
+        <v>45599.8569691088</v>
+      </c>
+      <c r="B696" s="22" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C696" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D696" s="22">
+        <v>2.0243803E7</v>
+      </c>
+      <c r="E696" s="22" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F696" s="23">
+        <v>0.8506944444452529</v>
+      </c>
+      <c r="G696" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK696" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL696" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM696" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN696" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO696" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP696" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ696" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AR696" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS696" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AT696" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU696" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV696" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AW696" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX696" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY696" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ696" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA696" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB696" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC696" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD696" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BE696" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BF696" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG696" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH696" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI696" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ696" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK696" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL696" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM696" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="17">
+        <v>45599.86230334491</v>
+      </c>
+      <c r="B697" s="18" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C697" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D697" s="18">
+        <v>2.0203523E7</v>
+      </c>
+      <c r="E697" s="18" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F697" s="19">
+        <v>0.8611111111094942</v>
+      </c>
+      <c r="G697" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H697" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I697" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J697" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="K697" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="L697" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="M697" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N697" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O697" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P697" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q697" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R697" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="S697" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="T697" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="U697" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V697" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W697" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="X697" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Y697" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z697" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA697" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AB697" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC697" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AD697" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE697" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AF697" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG697" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH697" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AI697" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AJ697" s="18">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="21">
+        <v>45599.86414173611</v>
+      </c>
+      <c r="B698" s="22" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C698" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D698" s="22">
+        <v>2.0182923E7</v>
+      </c>
+      <c r="E698" s="22" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F698" s="23">
+        <v>0.8625000000029104</v>
+      </c>
+      <c r="G698" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H698" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I698" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J698" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="K698" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L698" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M698" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N698" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O698" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P698" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Q698" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R698" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S698" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T698" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U698" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V698" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W698" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="X698" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y698" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z698" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA698" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB698" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC698" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD698" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE698" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF698" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG698" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH698" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI698" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ698" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="17">
+        <v>45599.867821493055</v>
+      </c>
+      <c r="B699" s="18" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C699" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D699" s="18">
+        <v>2.0162755E7</v>
+      </c>
+      <c r="E699" s="18" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F699" s="19">
+        <v>0.8659722222218988</v>
+      </c>
+      <c r="G699" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK699" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL699" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM699" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN699" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO699" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP699" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ699" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR699" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS699" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT699" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU699" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV699" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW699" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX699" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY699" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ699" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA699" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB699" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC699" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD699" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE699" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF699" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG699" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH699" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI699" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ699" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK699" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL699" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM699" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="21">
+        <v>45599.869608900466</v>
+      </c>
+      <c r="B700" s="22" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C700" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="D700" s="22">
+        <v>2.021323E7</v>
+      </c>
+      <c r="E700" s="22" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F700" s="23">
+        <v>0.8333333333357587</v>
+      </c>
+      <c r="G700" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK700" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ700" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AR700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY700" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AZ700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD700" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BE700" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH700" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI700" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ700" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK700" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL700" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM700" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="17">
+        <v>45599.872865439815</v>
+      </c>
+      <c r="B701" s="18" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C701" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D701" s="18">
+        <v>2.0243721E7</v>
+      </c>
+      <c r="E701" s="18" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F701" s="19">
+        <v>0.8722222222204437</v>
+      </c>
+      <c r="G701" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H701" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K701" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="L701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M701" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O701" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="P701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="S701" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="T701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="W701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y701" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Z701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AB701" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AC701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AE701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AF701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG701" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AH701" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AI701" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AJ701" s="18">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="21">
+        <v>45599.875631863426</v>
+      </c>
+      <c r="B702" s="22" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C702" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D702" s="22">
+        <v>2.0233908E7</v>
+      </c>
+      <c r="E702" s="22" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F702" s="23">
+        <v>0.8729166666671517</v>
+      </c>
+      <c r="G702" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H702" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I702" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="J702" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K702" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="L702" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M702" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="N702" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O702" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P702" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Q702" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R702" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S702" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T702" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U702" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="V702" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W702" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X702" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y702" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="Z702" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA702" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AB702" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC702" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD702" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AE702" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AF702" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AG702" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AH702" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI702" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ702" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="17">
+        <v>45599.875687395834</v>
+      </c>
+      <c r="B703" s="18" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C703" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D703" s="18">
+        <v>2.0233048E7</v>
+      </c>
+      <c r="E703" s="18" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F703" s="19">
+        <v>0.8736111111065838</v>
+      </c>
+      <c r="G703" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK703" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL703" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM703" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN703" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO703" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP703" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ703" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR703" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS703" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT703" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU703" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV703" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW703" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX703" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY703" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ703" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA703" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB703" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC703" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD703" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BE703" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF703" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BG703" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH703" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI703" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ703" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BK703" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BL703" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BM703" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="21">
+        <v>45599.877947002315</v>
+      </c>
+      <c r="B704" s="22" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C704" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D704" s="22">
+        <v>2.0243726E7</v>
+      </c>
+      <c r="E704" s="22" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F704" s="23">
+        <v>0.8763888888934162</v>
+      </c>
+      <c r="G704" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H704" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L704" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R704" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T704" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U704" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="V704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="W704" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y704" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z704" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AA704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD704" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE704" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AF704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG704" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI704" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ704" s="22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="17">
+        <v>45599.87798172454</v>
+      </c>
+      <c r="B705" s="18" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C705" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D705" s="18">
+        <v>2.0217103E7</v>
+      </c>
+      <c r="E705" s="18" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F705" s="19">
+        <v>0.8729166666671517</v>
+      </c>
+      <c r="G705" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK705" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AL705" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM705" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN705" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO705" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP705" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AQ705" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR705" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS705" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT705" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AU705" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV705" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AW705" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX705" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY705" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ705" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA705" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB705" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC705" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD705" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE705" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF705" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BG705" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BH705" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI705" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ705" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK705" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BL705" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BM705" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="21">
+        <v>45599.87798990741</v>
+      </c>
+      <c r="B706" s="22" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C706" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D706" s="22">
+        <v>2.0231532E7</v>
+      </c>
+      <c r="E706" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F706" s="23">
+        <v>0.8763888888934162</v>
+      </c>
+      <c r="G706" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK706" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL706" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AM706" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN706" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO706" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AP706" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ706" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AR706" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AS706" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT706" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU706" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AV706" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AW706" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AX706" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY706" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AZ706" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA706" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BB706" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BC706" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BD706" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BE706" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF706" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG706" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH706" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI706" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BJ706" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BK706" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL706" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM706" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="17">
+        <v>45599.87943158565</v>
+      </c>
+      <c r="B707" s="18" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C707" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D707" s="18">
+        <v>2.0232238E7</v>
+      </c>
+      <c r="E707" s="18" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F707" s="19">
+        <v>0.5833333333357587</v>
+      </c>
+      <c r="G707" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AM707" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO707" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR707" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU707" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV707" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY707" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ707" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA707" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC707" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD707" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE707" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF707" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ707" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL707" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM707" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="21">
+        <v>45599.88063341435</v>
+      </c>
+      <c r="B708" s="22" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C708" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D708" s="22">
+        <v>2.0243844E7</v>
+      </c>
+      <c r="E708" s="22" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F708" s="23">
+        <v>0.8722222222204437</v>
+      </c>
+      <c r="G708" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H708" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="I708" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J708" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K708" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L708" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M708" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="N708" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="O708" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P708" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q708" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="R708" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S708" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T708" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="U708" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V708" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W708" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X708" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y708" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Z708" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA708" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AB708" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC708" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD708" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE708" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF708" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG708" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH708" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI708" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AJ708" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="17">
+        <v>45599.881199236115</v>
+      </c>
+      <c r="B709" s="18" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C709" s="18" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D709" s="18">
+        <v>2.0232502E7</v>
+      </c>
+      <c r="E709" s="18" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F709" s="19">
+        <v>0.8791666666656965</v>
+      </c>
+      <c r="G709" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL709" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM709" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN709" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP709" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ709" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR709" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS709" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT709" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU709" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW709" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY709" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ709" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA709" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB709" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL709" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM709" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="21">
+        <v>45599.88125362269</v>
+      </c>
+      <c r="B710" s="22" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C710" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D710" s="22">
+        <v>2.018285E7</v>
+      </c>
+      <c r="E710" s="22" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F710" s="23">
+        <v>0.8791666666656965</v>
+      </c>
+      <c r="G710" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK710" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AL710" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AM710" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN710" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO710" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP710" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AQ710" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR710" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AS710" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT710" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU710" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV710" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW710" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX710" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY710" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ710" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA710" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BB710" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC710" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD710" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE710" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF710" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BG710" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH710" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI710" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ710" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK710" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL710" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BM710" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="17">
+        <v>45599.88217493056</v>
+      </c>
+      <c r="B711" s="18" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C711" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D711" s="18">
+        <v>2.0246293E7</v>
+      </c>
+      <c r="E711" s="18" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F711" s="19">
+        <v>0.8805555555591127</v>
+      </c>
+      <c r="G711" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AN711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AV711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AW711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AX711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AY711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BA711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BG711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BK711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL711" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM711" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="21">
+        <v>45599.88492945602</v>
+      </c>
+      <c r="B712" s="22" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C712" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D712" s="22">
+        <v>2.0226602E7</v>
+      </c>
+      <c r="E712" s="22" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F712" s="23">
+        <v>0.8833333333313931</v>
+      </c>
+      <c r="G712" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H712" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I712" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="J712" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K712" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L712" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M712" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N712" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O712" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="P712" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q712" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="R712" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S712" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="T712" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U712" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V712" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="W712" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="X712" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y712" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z712" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA712" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB712" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AC712" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD712" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE712" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AF712" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG712" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH712" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI712" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ712" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="17">
+        <v>45599.88576400463</v>
+      </c>
+      <c r="B713" s="18" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C713" s="18" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D713" s="18">
+        <v>2.0242987E7</v>
+      </c>
+      <c r="E713" s="18" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F713" s="19">
+        <v>0.875</v>
+      </c>
+      <c r="G713" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL713" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM713" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AP713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AQ713" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS713" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT713" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU713" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV713" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ713" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD713" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE713" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI713" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BJ713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BK713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL713" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM713" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="21">
+        <v>45599.88844289352</v>
+      </c>
+      <c r="B714" s="22" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C714" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D714" s="22">
+        <v>2.0202406E7</v>
+      </c>
+      <c r="E714" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F714" s="23">
+        <v>0.8874999999970896</v>
+      </c>
+      <c r="G714" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H714" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I714" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J714" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K714" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="L714" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="M714" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N714" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O714" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P714" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Q714" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="R714" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S714" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="T714" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U714" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V714" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W714" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X714" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y714" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Z714" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA714" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AB714" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AC714" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AD714" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE714" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF714" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG714" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH714" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI714" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ714" s="22">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="17">
+        <v>45599.88884403935</v>
+      </c>
+      <c r="B715" s="18" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C715" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D715" s="18">
+        <v>2.024677E7</v>
+      </c>
+      <c r="E715" s="18" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F715" s="19">
+        <v>0.8868055555576575</v>
+      </c>
+      <c r="G715" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H715" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="K715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L715" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="M715" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="N715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="O715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P715" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q715" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R715" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="S715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="T715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V715" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="W715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="X715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z715" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA715" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AC715" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD715" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AE715" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF715" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AG715" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AH715" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI715" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ715" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="21">
+        <v>45599.88961436343</v>
+      </c>
+      <c r="B716" s="22" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C716" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D716" s="22">
+        <v>2.0222849E7</v>
+      </c>
+      <c r="E716" s="22" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F716" s="23">
+        <v>0.8541666666642413</v>
+      </c>
+      <c r="G716" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK716" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AL716" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM716" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AN716" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO716" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP716" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AQ716" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR716" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS716" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT716" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU716" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AV716" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW716" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX716" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY716" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ716" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BA716" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB716" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC716" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD716" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE716" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BF716" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG716" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH716" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI716" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ716" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BK716" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL716" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM716" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="17">
+        <v>45599.88998980324</v>
+      </c>
+      <c r="B717" s="18" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C717" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D717" s="18">
+        <v>2.0202849E7</v>
+      </c>
+      <c r="E717" s="18" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F717" s="19">
+        <v>0.8868055555576575</v>
+      </c>
+      <c r="G717" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL717" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO717" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP717" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AR717" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS717" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AU717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX717" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY717" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BD717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BE717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF717" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ717" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK717" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL717" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM717" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="21">
+        <v>45599.89006857639</v>
+      </c>
+      <c r="B718" s="22" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C718" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D718" s="22">
+        <v>2.024242E7</v>
+      </c>
+      <c r="E718" s="22" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F718" s="23">
+        <v>0.8888888888905058</v>
+      </c>
+      <c r="G718" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL718" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN718" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS718" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW718" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY718" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AZ718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA718" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE718" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG718" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH718" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL718" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM718" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="17">
+        <v>45599.89215596065</v>
+      </c>
+      <c r="B719" s="18" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C719" s="18" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D719" s="18">
+        <v>2.021651E7</v>
+      </c>
+      <c r="E719" s="18" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F719" s="19">
+        <v>0.890277777776646</v>
+      </c>
+      <c r="G719" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H719" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I719" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J719" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K719" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L719" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M719" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N719" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="O719" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P719" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q719" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R719" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S719" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T719" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U719" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V719" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W719" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X719" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y719" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z719" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AA719" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB719" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC719" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD719" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AE719" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AF719" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG719" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH719" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI719" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ719" s="18">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="21">
+        <v>45599.89239728009</v>
+      </c>
+      <c r="B720" s="22" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C720" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D720" s="22">
+        <v>2.0213737E7</v>
+      </c>
+      <c r="E720" s="22" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F720" s="23">
+        <v>0.8916666666627862</v>
+      </c>
+      <c r="G720" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK720" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL720" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AM720" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ720" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS720" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV720" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA720" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BB720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE720" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF720" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG720" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BI720" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ720" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK720" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL720" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BM720" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="17">
+        <v>45599.89289798611</v>
+      </c>
+      <c r="B721" s="18" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C721" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D721" s="18">
+        <v>2.0203507E7</v>
+      </c>
+      <c r="E721" s="18" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F721" s="19">
+        <v>0.8916666666627862</v>
+      </c>
+      <c r="G721" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK721" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM721" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN721" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AO721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU721" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV721" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW721" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AX721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AY721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BA721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BB721" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BC721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BD721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BE721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI721" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ721" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK721" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL721" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM721" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="21">
+        <v>45599.893783645835</v>
+      </c>
+      <c r="B722" s="22" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C722" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D722" s="22">
+        <v>2.0242998E7</v>
+      </c>
+      <c r="E722" s="22" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F722" s="23">
+        <v>0.890277777776646</v>
+      </c>
+      <c r="G722" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H722" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I722" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J722" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="K722" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L722" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M722" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N722" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O722" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="P722" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Q722" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R722" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="S722" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T722" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="U722" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V722" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W722" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X722" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y722" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z722" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AA722" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB722" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC722" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AD722" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AE722" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF722" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG722" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AH722" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AI722" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AJ722" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="17">
+        <v>45599.894175671296</v>
+      </c>
+      <c r="B723" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C723" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D723" s="18">
+        <v>2.0241509E7</v>
+      </c>
+      <c r="E723" s="18" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F723" s="19">
+        <v>0.8937500000029104</v>
+      </c>
+      <c r="G723" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK723" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AL723" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AM723" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN723" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AO723" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP723" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ723" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR723" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AS723" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AT723" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU723" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AV723" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW723" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AX723" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AY723" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ723" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA723" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BB723" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC723" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BD723" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE723" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BF723" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BG723" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BH723" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BI723" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ723" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BK723" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BL723" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BM723" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="21">
+        <v>45599.89449239583</v>
+      </c>
+      <c r="B724" s="22" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C724" s="22" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D724" s="22">
+        <v>2.0245175E7</v>
+      </c>
+      <c r="E724" s="22" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F724" s="23">
+        <v>0.8937500000029104</v>
+      </c>
+      <c r="G724" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL724" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN724" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ724" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS724" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU724" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW724" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY724" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA724" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC724" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BD724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE724" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BF724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG724" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BH724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI724" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL724" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM724" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="17">
+        <v>45599.89583520833</v>
+      </c>
+      <c r="B725" s="18" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C725" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D725" s="18">
+        <v>2.0246769E7</v>
+      </c>
+      <c r="E725" s="18" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F725" s="19">
+        <v>0.8930555555562023</v>
+      </c>
+      <c r="G725" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK725" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AL725" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AM725" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AN725" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AO725" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AP725" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ725" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AR725" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AS725" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AT725" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU725" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AV725" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AW725" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AX725" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AY725" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AZ725" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BA725" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB725" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC725" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="BD725" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE725" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF725" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BG725" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BH725" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BI725" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BJ725" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK725" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL725" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="BM725" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="21">
+        <v>45599.8959603125</v>
+      </c>
+      <c r="B726" s="22" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C726" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D726" s="22">
+        <v>2.0245131E7</v>
+      </c>
+      <c r="E726" s="22" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F726" s="23">
+        <v>0.8937500000029104</v>
+      </c>
+      <c r="G726" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H726" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="I726" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J726" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="K726" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L726" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M726" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N726" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="O726" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="P726" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="Q726" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R726" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="S726" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="T726" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="U726" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V726" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="W726" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="X726" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="Y726" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Z726" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AA726" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AB726" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AC726" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AD726" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AE726" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AF726" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AG726" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AH726" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AI726" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AJ726" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="17">
+        <v>45599.89964953704</v>
+      </c>
+      <c r="B727" s="18" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C727" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D727" s="18">
+        <v>2.0231733E7</v>
+      </c>
+      <c r="E727" s="18" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F727" s="19">
+        <v>0.898611111115315</v>
+      </c>
+      <c r="G727" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK727" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AL727" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AM727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AN727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AO727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AP727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AQ727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AR727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AS727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AT727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AU727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AV727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AW727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AX727" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AY727" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AZ727" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BA727" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BB727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BC727" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BD727" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE727" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BF727" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BG727" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="BH727" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BI727" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BJ727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BK727" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="BL727" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="BM727" s="20">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="21">
+        <v>45599.901133287036</v>
+      </c>
+      <c r="B728" s="22" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C728" s="22" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D728" s="22">
+        <v>2.0242314E7</v>
+      </c>
+      <c r="E728" s="22" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F728" s="23">
+        <v>0.4124999999985448</v>
+      </c>
+      <c r="G728" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AL728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AM728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AO728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AQ728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AT728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AU728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AV728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AW728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AY728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AZ728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BA728" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BB728" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC728" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD728" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE728" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF728" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG728" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH728" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI728" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ728" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK728" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL728" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM728" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="17">
+        <v>45599.90317820602</v>
+      </c>
+      <c r="B729" s="18" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C729" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="D729" s="18">
+        <v>2.0193226E7</v>
+      </c>
+      <c r="E729" s="18" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F729" s="19">
+        <v>0.9013888888875954</v>
+      </c>
+      <c r="G729" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H729" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="I729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="K729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="L729" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="M729" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="N729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="O729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="P729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Q729" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="R729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="S729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="T729" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="U729" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="V729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="W729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="X729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Y729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Z729" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AA729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AB729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AC729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AD729" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AE729" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AF729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AG729" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AH729" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AI729" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AJ729" s="18">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="21">
+        <v>45599.90334769676</v>
+      </c>
+      <c r="B730" s="22" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C730" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D730" s="22">
+        <v>2.0222122E7</v>
+      </c>
+      <c r="E730" s="22" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F730" s="23">
+        <v>0.9020833333343035</v>
+      </c>
+      <c r="G730" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H730" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="J730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="L730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="M730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="O730" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P730" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="Q730" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="R730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="S730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="T730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="U730" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="V730" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="W730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="X730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Y730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="Z730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AA730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AB730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AC730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AD730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AE730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AF730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AG730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AH730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AI730" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AJ730" s="22">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="17">
+        <v>45599.90509836806</v>
+      </c>
+      <c r="B731" s="18" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C731" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D731" s="18">
+        <v>2.0191623E7</v>
+      </c>
+      <c r="E731" s="18" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F731" s="19">
+        <v>0.9041666666671517</v>
+      </c>
+      <c r="G731" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H731" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I731" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J731" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="K731" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="L731" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="M731" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N731" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O731" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="P731" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q731" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R731" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S731" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T731" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="U731" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V731" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="W731" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X731" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Y731" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z731" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AA731" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB731" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AC731" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD731" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE731" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF731" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AG731" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AH731" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AI731" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ731" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="21">
+        <v>45599.90605482639</v>
+      </c>
+      <c r="B732" s="22" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C732" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D732" s="22">
+        <v>2.0233717E7</v>
+      </c>
+      <c r="E732" s="22" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F732" s="23">
+        <v>0.9013888888875954</v>
+      </c>
+      <c r="G732" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK732" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AL732" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM732" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AN732" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AO732" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP732" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ732" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR732" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AS732" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AT732" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AU732" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AV732" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW732" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AX732" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY732" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ732" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA732" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BB732" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC732" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD732" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BE732" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BF732" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="BG732" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH732" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BI732" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ732" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BK732" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BL732" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM732" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="17">
+        <v>45599.90707960648</v>
+      </c>
+      <c r="B733" s="18" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C733" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D733" s="18">
+        <v>2.0233415E7</v>
+      </c>
+      <c r="E733" s="18" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F733" s="19">
+        <v>0.9006944444408873</v>
+      </c>
+      <c r="G733" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H733" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I733" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J733" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="K733" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="L733" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="M733" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N733" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="O733" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="P733" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q733" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R733" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S733" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="T733" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="U733" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="V733" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W733" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="X733" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Y733" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z733" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AA733" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AB733" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AC733" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD733" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AE733" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AF733" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AG733" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AH733" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI733" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AJ733" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="21">
+        <v>45599.907372002315</v>
+      </c>
+      <c r="B734" s="22" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C734" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D734" s="22">
+        <v>2023310.0</v>
+      </c>
+      <c r="E734" s="22" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F734" s="23">
+        <v>0.9069444444467081</v>
+      </c>
+      <c r="G734" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AN734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AX734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BD734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BH734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL734" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BM734" s="24">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="17">
+        <v>45599.90753008102</v>
+      </c>
+      <c r="B735" s="18" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C735" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D735" s="18">
+        <v>2.0201108E7</v>
+      </c>
+      <c r="E735" s="18" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F735" s="19">
+        <v>0.90625</v>
+      </c>
+      <c r="G735" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H735" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I735" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J735" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="K735" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="L735" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="M735" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N735" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="O735" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="P735" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q735" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R735" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="S735" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="T735" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="U735" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V735" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="W735" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="X735" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y735" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z735" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AA735" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AB735" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AC735" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AD735" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AE735" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AF735" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AG735" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AH735" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AI735" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AJ735" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="21">
+        <v>45599.91116369213</v>
+      </c>
+      <c r="B736" s="22" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C736" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D736" s="22">
+        <v>2.0227103E7</v>
+      </c>
+      <c r="E736" s="22" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F736" s="23">
+        <v>0.9104166666656965</v>
+      </c>
+      <c r="G736" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK736" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL736" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AM736" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AN736" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AO736" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AP736" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AQ736" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AR736" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AS736" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT736" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AU736" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AV736" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="AW736" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="AX736" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AY736" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="AZ736" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BA736" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BB736" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BC736" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BD736" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE736" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BF736" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BG736" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="BH736" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BI736" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="BJ736" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BK736" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BL736" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="BM736" s="24">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="17">
+        <v>45599.912769131945</v>
+      </c>
+      <c r="B737" s="18" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C737" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D737" s="18">
+        <v>2.0242511E7</v>
+      </c>
+      <c r="E737" s="18" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F737" s="19">
+        <v>0.9111111111124046</v>
+      </c>
+      <c r="G737" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK737" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AL737" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AM737" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AN737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AO737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AP737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AQ737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AR737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AS737" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AT737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="AU737" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AV737" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AW737" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AX737" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="AY737" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="AZ737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BA737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BB737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BC737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BD737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BE737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BF737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BG737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BH737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BI737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BJ737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BK737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BL737" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="BM737" s="20">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="21">
+        <v>45599.91314276621</v>
+      </c>
+      <c r="B738" s="22" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C738" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D738" s="22">
+        <v>2.0243001E7</v>
+      </c>
+      <c r="E738" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="F738" s="23">
+        <v>0.9111111111124046</v>
+      </c>
+      <c r="G738" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AL738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AM738" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AN738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AO738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AP738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AQ738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AR738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AS738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AT738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AU738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AV738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AW738" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="AX738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AY738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="AZ738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BA738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BB738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BC738" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BD738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BE738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BF738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BG738" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BH738" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BI738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BJ738" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="BK738" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BL738" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="BM738" s="24">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="25">
+        <v>45599.91334453704</v>
+      </c>
+      <c r="B739" s="26" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C739" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D739" s="26">
+        <v>2.0245268E7</v>
+      </c>
+      <c r="E739" s="26" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F739" s="27">
+        <v>0.9118055555591127</v>
+      </c>
+      <c r="G739" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK739" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AL739" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AM739" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AN739" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AO739" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AP739" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AQ739" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AR739" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AS739" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AT739" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AU739" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AV739" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="AW739" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="AX739" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AY739" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="AZ739" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BA739" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BB739" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BC739" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BD739" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BE739" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BF739" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BG739" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BH739" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BI739" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BJ739" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="BK739" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="BL739" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="BM739" s="28">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
